--- a/inst/data/Betting.xlsx
+++ b/inst/data/Betting.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B867CC30-C5E3-4BC6-A85E-1F12F6E7C080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89EC3438-9A70-4463-8399-11D3F3CFB92D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="146">
   <si>
     <t>BetDay</t>
   </si>
@@ -63,30 +63,66 @@
     <t>GameType</t>
   </si>
   <si>
+    <t>Champions League</t>
+  </si>
+  <si>
+    <t>Liverpool - Villarreal</t>
+  </si>
+  <si>
+    <t>Live Betting</t>
+  </si>
+  <si>
+    <t>Kommer der mindst et rødt kort i kampen: Nej</t>
+  </si>
+  <si>
+    <t>Kort</t>
+  </si>
+  <si>
+    <t>Special - LIVE Luis Diaz laver assist</t>
+  </si>
+  <si>
+    <t>Special</t>
+  </si>
+  <si>
+    <t>Antal mål O/U 1,5: Over</t>
+  </si>
+  <si>
+    <t>Mål</t>
+  </si>
+  <si>
+    <t>Hvem vinder 1. halvleg? Liverpool</t>
+  </si>
+  <si>
+    <t>Kampvinder</t>
+  </si>
+  <si>
+    <t>Mål mellem 1 - 15.0 Minutter: Nej</t>
+  </si>
+  <si>
+    <t>Manchester C - Real Madrid</t>
+  </si>
+  <si>
+    <t>Hvilket hold scorer 3. mål: Manchester C</t>
+  </si>
+  <si>
     <t>Premier League</t>
   </si>
   <si>
+    <t>Oddset</t>
+  </si>
+  <si>
+    <t>4-ling ID 5</t>
+  </si>
+  <si>
     <t>Arsenal - Manchester U</t>
   </si>
   <si>
-    <t>Live Betting</t>
-  </si>
-  <si>
     <t>Begge hold scorer: nej</t>
   </si>
   <si>
-    <t>Mål</t>
-  </si>
-  <si>
-    <t>Oddset</t>
-  </si>
-  <si>
     <t>I hvilken halvleg scores der flest mål?: 2. halvleg</t>
   </si>
   <si>
-    <t>Mål mellem 1 - 15.0 Minutter: Nej</t>
-  </si>
-  <si>
     <t>Minutmarkeder</t>
   </si>
   <si>
@@ -96,9 +132,6 @@
     <t>X</t>
   </si>
   <si>
-    <t>Kampvinder</t>
-  </si>
-  <si>
     <t>Liverpool - Everton</t>
   </si>
   <si>
@@ -108,7 +141,7 @@
     <t>Newcastle - Crystal P</t>
   </si>
   <si>
-    <t>Trippel ID 1: 1</t>
+    <t>Trippel ID 4: 1</t>
   </si>
   <si>
     <t>Chelsea - Arsenal</t>
@@ -120,10 +153,10 @@
     <t>Everton - Leicester</t>
   </si>
   <si>
-    <t>Trippel ID 1: X</t>
-  </si>
-  <si>
-    <t>Trippel ID 1</t>
+    <t>Trippel ID 4: X</t>
+  </si>
+  <si>
+    <t>Trippel ID 4</t>
   </si>
   <si>
     <t>Trippel</t>
@@ -147,9 +180,6 @@
     <t>Hvilket hold scorer 5. mål?: Ingen mål</t>
   </si>
   <si>
-    <t>Champions League</t>
-  </si>
-  <si>
     <t>Liverpool - Benfica</t>
   </si>
   <si>
@@ -159,16 +189,16 @@
     <t>Manchester C - Atletico Madrid</t>
   </si>
   <si>
-    <t>Double ID 2: 1</t>
+    <t>Double ID 3: 1</t>
   </si>
   <si>
     <t>Benfica - Liverpool</t>
   </si>
   <si>
-    <t>Double ID 2: 2</t>
-  </si>
-  <si>
-    <t>Double ID 2</t>
+    <t>Double ID 3: 2</t>
+  </si>
+  <si>
+    <t>Double ID 3</t>
   </si>
   <si>
     <t>Double</t>
@@ -231,7 +261,7 @@
     <t>1 (Handicap 0 - 1)</t>
   </si>
   <si>
-    <t>13-ling ID 3</t>
+    <t>13-ling ID 2</t>
   </si>
   <si>
     <t>Liverpool - Norwich</t>
@@ -252,22 +282,19 @@
     <t>Wolverhampton - Liverpool</t>
   </si>
   <si>
-    <t>Hvem vinder 1. halvleg? Liverpool</t>
-  </si>
-  <si>
     <t>Everton - Liverpool</t>
   </si>
   <si>
     <t>Manchester U - Liverpool</t>
   </si>
   <si>
-    <t>4-ling ID 4</t>
+    <t>4-ling ID 1</t>
   </si>
   <si>
     <t>Wolverhampton - Newcastle</t>
   </si>
   <si>
-    <t>4-ling ID 4: X</t>
+    <t>4-ling ID 1: X</t>
   </si>
   <si>
     <t>Burnley - Norwich</t>
@@ -276,7 +303,7 @@
     <t>Chelsea - Southampton</t>
   </si>
   <si>
-    <t>4-ling ID 4: 1</t>
+    <t>4-ling ID 1: 1</t>
   </si>
   <si>
     <t>Leeds - Watford</t>
@@ -288,6 +315,54 @@
     <t>Mål mellem 1 - 15 Minutter: Nej</t>
   </si>
   <si>
+    <t>Brentford - Liverpool</t>
+  </si>
+  <si>
+    <t>Manchester U - Aston Villa</t>
+  </si>
+  <si>
+    <t>Chelsea - Manchester C</t>
+  </si>
+  <si>
+    <t>Hvilket hold scorer 1. mål: Ingen mål</t>
+  </si>
+  <si>
+    <t>Liverpool - Milan</t>
+  </si>
+  <si>
+    <t>Young Boys - Manchester U</t>
+  </si>
+  <si>
+    <t>Leeds - Liverpool</t>
+  </si>
+  <si>
+    <t>Antal mål O/U 2,5 Over</t>
+  </si>
+  <si>
+    <t>Manchester U - Newcastle</t>
+  </si>
+  <si>
+    <t>Hvilket hold scorer 2. mål? Manchester U</t>
+  </si>
+  <si>
+    <t>Begge hold scorer? Nej</t>
+  </si>
+  <si>
+    <t>Wolverhampton - Manchester U</t>
+  </si>
+  <si>
+    <t>0-0</t>
+  </si>
+  <si>
+    <t>Manchester C - Arsenal</t>
+  </si>
+  <si>
+    <t>Manchester C holder målet rent? Ja</t>
+  </si>
+  <si>
+    <t>Hvilket hold scorer 5. mål: Manchester C</t>
+  </si>
+  <si>
     <t>Landshold</t>
   </si>
   <si>
@@ -324,9 +399,6 @@
     <t>Italien - Schweiz</t>
   </si>
   <si>
-    <t>Begge hold scorer? Nej</t>
-  </si>
-  <si>
     <t>Frankrig - Tyskland</t>
   </si>
   <si>
@@ -354,9 +426,6 @@
     <t>Hjørnespark - O/U 12,5: Over</t>
   </si>
   <si>
-    <t>Antal mål O/U 1,5: Over</t>
-  </si>
-  <si>
     <t>Burnley - Liverpool</t>
   </si>
   <si>
@@ -364,9 +433,6 @@
   </si>
   <si>
     <t>Antal mål O/U 2,5: Over</t>
-  </si>
-  <si>
-    <t>Leeds - Liverpool</t>
   </si>
   <si>
     <t>Real Madrid - Liverpool</t>
@@ -768,11 +834,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K80"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -823,12 +889,12 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>44674</v>
+        <v>44678</v>
       </c>
       <c r="B2" s="1">
-        <v>44674</v>
-      </c>
-      <c r="C2" s="1" t="s">
+        <v>44678</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="s">
@@ -841,16 +907,16 @@
         <v>14</v>
       </c>
       <c r="G2">
-        <v>2.8</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="K2" t="s">
         <v>15</v>
@@ -858,25 +924,25 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>44674</v>
+        <v>44678</v>
       </c>
       <c r="B3" s="1">
-        <v>44674</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>44678</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
       <c r="G3">
-        <v>2.0499999999999998</v>
+        <v>4.5</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -888,39 +954,39 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>44674</v>
+        <v>44678</v>
       </c>
       <c r="B4" s="1">
-        <v>44674</v>
-      </c>
-      <c r="C4" s="1" t="s">
+        <v>44678</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>50</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
         <v>19</v>
@@ -928,25 +994,25 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>44672</v>
+        <v>44678</v>
       </c>
       <c r="B5" s="1">
-        <v>44672</v>
-      </c>
-      <c r="C5" s="1" t="s">
+        <v>44678</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
       <c r="G5">
-        <v>3.3</v>
+        <v>2.15</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -958,767 +1024,760 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>44671</v>
+        <v>44678</v>
       </c>
       <c r="B6" s="1">
-        <v>44675</v>
-      </c>
-      <c r="C6" s="1" t="s">
+        <v>44678</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
       </c>
       <c r="G6">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J6">
-        <f>G6 * I6</f>
-        <v>240</v>
+        <v>132</v>
       </c>
       <c r="K6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>44671</v>
+        <v>44677</v>
       </c>
       <c r="B7" s="1">
-        <v>44671</v>
-      </c>
-      <c r="C7" s="1" t="s">
+        <v>44677</v>
+      </c>
+      <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G7">
-        <v>2.35</v>
+        <v>1.58</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>100</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>44671</v>
+        <v>44676</v>
       </c>
       <c r="B8" s="1">
-        <v>44671</v>
+        <v>44676</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>26</v>
-      </c>
       <c r="G8">
-        <v>1.92</v>
+        <v>7.23</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
-        <v>44671</v>
+        <v>44674</v>
       </c>
       <c r="B9" s="1">
-        <v>44671</v>
+        <v>44674</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G9">
-        <v>1.23</v>
+        <v>2.8</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>40</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>44671</v>
+        <v>44674</v>
       </c>
       <c r="B10" s="1">
-        <v>44671</v>
+        <v>44674</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
         <v>30</v>
       </c>
       <c r="G10">
-        <v>3.3</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
-        <v>44671</v>
+        <v>44674</v>
       </c>
       <c r="B11" s="1">
-        <v>44671</v>
+        <v>44674</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11">
+        <v>1.32</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>50</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
         <v>31</v>
-      </c>
-      <c r="G11">
-        <v>2.375</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>20</v>
-      </c>
-      <c r="J11">
-        <v>47.5</v>
-      </c>
-      <c r="K11" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1">
-        <v>44670</v>
+        <v>44672</v>
       </c>
       <c r="B12" s="1">
-        <v>44670</v>
+        <v>44672</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
         <v>33</v>
       </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="G12">
-        <v>1.33</v>
+        <v>3.3</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="J12">
-        <f>G12 * I12</f>
-        <v>134.33000000000001</v>
+        <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1">
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="B13" s="1">
-        <v>44670</v>
+        <v>44675</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" t="s">
-        <v>34</v>
+        <v>26</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="G13">
-        <v>15</v>
+        <v>1.2</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="J13">
         <f>G13 * I13</f>
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="K13" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1">
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="B14" s="1">
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G14">
-        <v>9.35</v>
+        <v>2.35</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>10</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1">
-        <v>44667</v>
+        <v>44671</v>
       </c>
       <c r="B15" s="1">
-        <v>44667</v>
+        <v>44671</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
         <v>37</v>
       </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
-        <v>38</v>
-      </c>
       <c r="G15">
-        <v>1.52</v>
+        <v>1.92</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
-      <c r="I15">
-        <v>20</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
       <c r="K15" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
-        <v>44664</v>
+        <v>44671</v>
       </c>
       <c r="B16" s="1">
-        <v>44664</v>
+        <v>44671</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D16" t="s">
-        <v>40</v>
-      </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G16">
-        <v>2.85</v>
+        <v>1.23</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>100</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
-        <v>44664</v>
+        <v>44671</v>
       </c>
       <c r="B17" s="1">
-        <v>44664</v>
+        <v>44671</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="G17">
-        <v>1.38</v>
+        <v>3.3</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
-      <c r="I17">
-        <v>102.5</v>
-      </c>
-      <c r="J17">
-        <f>G17 * I17</f>
-        <v>141.44999999999999</v>
-      </c>
       <c r="K17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1">
-        <v>44656</v>
+        <v>44671</v>
       </c>
       <c r="B18" s="1">
-        <v>44656</v>
+        <v>44671</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" t="s">
         <v>42</v>
       </c>
-      <c r="E18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="G18">
+        <v>2.375</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>20</v>
+      </c>
+      <c r="J18">
+        <v>47.5</v>
+      </c>
+      <c r="K18" t="s">
         <v>43</v>
-      </c>
-      <c r="G18">
-        <v>1.25</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="K18" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1">
-        <v>44656</v>
+        <v>44670</v>
       </c>
       <c r="B19" s="1">
-        <v>44656</v>
+        <v>44670</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" t="s">
-        <v>45</v>
+        <v>26</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="G19">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
+      <c r="I19">
+        <v>101</v>
+      </c>
+      <c r="J19">
+        <f>G19 * I19</f>
+        <v>134.33000000000001</v>
+      </c>
       <c r="K19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1">
-        <v>44656</v>
+        <v>44670</v>
       </c>
       <c r="B20" s="1">
-        <v>44671</v>
+        <v>44670</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G20">
-        <v>1.75</v>
+        <v>15</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J20">
         <f>G20 * I20</f>
-        <v>87.5</v>
+        <v>150</v>
       </c>
       <c r="K20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1">
-        <v>44640</v>
+        <v>44670</v>
       </c>
       <c r="B21" s="1">
-        <v>44640</v>
-      </c>
-      <c r="C21" t="s">
-        <v>48</v>
+        <v>44670</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>50</v>
+        <v>26</v>
+      </c>
+      <c r="F21" t="s">
+        <v>47</v>
       </c>
       <c r="G21">
-        <v>1.3</v>
+        <v>9.35</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J21">
-        <f>G21 * I21</f>
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1">
-        <v>44636</v>
+        <v>44667</v>
       </c>
       <c r="B22" s="1">
-        <v>44636</v>
-      </c>
-      <c r="C22" t="s">
-        <v>11</v>
+        <v>44667</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E22" t="s">
         <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G22">
-        <v>1.1000000000000001</v>
+        <v>1.52</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J22">
-        <f>G22 * I22</f>
-        <v>26.400000000000002</v>
+        <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1">
-        <v>44628</v>
+        <v>44664</v>
       </c>
       <c r="B23" s="1">
-        <v>44628</v>
-      </c>
-      <c r="C23" t="s">
-        <v>39</v>
+        <v>44664</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>51</v>
       </c>
       <c r="G23">
-        <v>1.62</v>
+        <v>2.85</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1">
-        <v>44625</v>
+        <v>44664</v>
       </c>
       <c r="B24" s="1">
-        <v>44625</v>
-      </c>
-      <c r="C24" t="s">
+        <v>44664</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F24" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="G24">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>100</v>
+        <v>102.5</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <f>G24 * I24</f>
+        <v>141.44999999999999</v>
       </c>
       <c r="K24" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1">
-        <v>44625</v>
+        <v>44656</v>
       </c>
       <c r="B25" s="1">
-        <v>44625</v>
-      </c>
-      <c r="C25" t="s">
+        <v>44656</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E25" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G25">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
-      <c r="I25">
-        <v>50</v>
-      </c>
-      <c r="J25">
-        <f>G25 * I25</f>
-        <v>70</v>
-      </c>
       <c r="K25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1">
-        <v>44619</v>
+        <v>44656</v>
       </c>
       <c r="B26" s="1">
-        <v>44619</v>
-      </c>
-      <c r="C26" t="s">
-        <v>57</v>
+        <v>44656</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E26" t="s">
         <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G26">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
-      <c r="I26">
-        <v>10</v>
-      </c>
-      <c r="J26">
-        <f>G26 * I26</f>
-        <v>30</v>
-      </c>
       <c r="K26" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1">
-        <v>44619</v>
+        <v>44656</v>
       </c>
       <c r="B27" s="1">
-        <v>44619</v>
-      </c>
-      <c r="C27" t="s">
+        <v>44671</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27">
+        <v>1.75</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>50</v>
+      </c>
+      <c r="J27">
+        <f>G27 * I27</f>
+        <v>87.5</v>
+      </c>
+      <c r="K27" t="s">
         <v>57</v>
-      </c>
-      <c r="D27" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27">
-        <v>3.75</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>10</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1">
-        <v>44619</v>
+        <v>44640</v>
       </c>
       <c r="B28" s="1">
-        <v>44619</v>
+        <v>44640</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
         <v>13</v>
       </c>
-      <c r="F28" t="s">
-        <v>62</v>
+      <c r="F28" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="G28">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -1728,528 +1787,551 @@
       </c>
       <c r="J28">
         <f>G28 * I28</f>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K28" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1">
-        <v>44618</v>
+        <v>44636</v>
       </c>
       <c r="B29" s="1">
-        <v>44618</v>
+        <v>44636</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E29" t="s">
         <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G29">
-        <v>2.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <f>G29 * I29</f>
+        <v>26.400000000000002</v>
       </c>
       <c r="K29" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1">
-        <v>44613</v>
+        <v>44628</v>
       </c>
       <c r="B30" s="1">
-        <v>44613</v>
+        <v>44628</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E30" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="G30">
-        <v>1.42</v>
+        <v>1.62</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="J30">
-        <f>G30 * I30</f>
-        <v>127.8</v>
+        <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1">
-        <v>44613</v>
+        <v>44625</v>
       </c>
       <c r="B31" s="1">
-        <v>44613</v>
+        <v>44625</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>25</v>
+      </c>
+      <c r="D31" t="s">
+        <v>64</v>
       </c>
       <c r="E31" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G31">
-        <v>1238046</v>
+        <v>1.42</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1">
-        <v>44611</v>
+        <v>44625</v>
       </c>
       <c r="B32" s="1">
-        <v>44611</v>
+        <v>44625</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E32" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="F32" t="s">
+        <v>66</v>
       </c>
       <c r="G32">
-        <v>1.1299999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>95.5</v>
+        <v>50</v>
       </c>
       <c r="J32">
         <f>G32 * I32</f>
-        <v>107.91499999999999</v>
+        <v>70</v>
       </c>
       <c r="K32" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1">
-        <v>44608</v>
+        <v>44619</v>
       </c>
       <c r="B33" s="1">
-        <v>44608</v>
+        <v>44619</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="D33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s">
         <v>69</v>
       </c>
-      <c r="E33" t="s">
-        <v>16</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="G33">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33">
-        <v>42.5</v>
+        <v>10</v>
       </c>
       <c r="J33">
-        <f>IF(H33 = 1, G33 * I33, 0)</f>
-        <v>95.625</v>
+        <f>G33 * I33</f>
+        <v>30</v>
       </c>
       <c r="K33" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1">
-        <v>44584</v>
+        <v>44619</v>
       </c>
       <c r="B34" s="1">
-        <v>44584</v>
+        <v>44619</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="D34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E34" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>50</v>
+        <v>13</v>
+      </c>
+      <c r="F34" t="s">
+        <v>71</v>
       </c>
       <c r="G34">
-        <v>1.58</v>
+        <v>3.75</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>27.03</v>
+        <v>10</v>
       </c>
       <c r="J34">
-        <f>IF(H34 = 1, G34 * I34, 0)</f>
-        <v>42.707400000000007</v>
+        <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1">
-        <v>44558</v>
+        <v>44619</v>
       </c>
       <c r="B35" s="1">
-        <v>44558</v>
+        <v>44619</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="D35" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E35" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>50</v>
+      <c r="F35" t="s">
+        <v>72</v>
       </c>
       <c r="G35">
-        <v>1.34</v>
+        <v>1.2</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
         <v>50</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <f>G35 * I35</f>
+        <v>60</v>
       </c>
       <c r="K35" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1">
-        <v>44541</v>
+        <v>44618</v>
       </c>
       <c r="B36" s="1">
-        <v>44541</v>
+        <v>44618</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E36" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>66</v>
+      <c r="F36" t="s">
+        <v>74</v>
       </c>
       <c r="G36">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
       <c r="I36">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1">
-        <v>44534</v>
+        <v>44613</v>
       </c>
       <c r="B37" s="1">
-        <v>44534</v>
+        <v>44613</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
+        <v>26</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="G37">
-        <v>3.2</v>
+        <v>1.42</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <f>G37 * I37</f>
+        <v>127.8</v>
       </c>
       <c r="K37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1">
-        <v>44531</v>
+        <v>44613</v>
       </c>
       <c r="B38" s="1">
-        <v>44531</v>
+        <v>44613</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="E38" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>50</v>
+        <v>26</v>
+      </c>
+      <c r="F38" t="s">
+        <v>77</v>
       </c>
       <c r="G38">
-        <v>1.37</v>
+        <v>1238046</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J38">
-        <f>G38 * I38</f>
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1">
-        <v>44493</v>
+        <v>44611</v>
       </c>
       <c r="B39" s="1">
-        <v>44493</v>
+        <v>44611</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E39" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G39">
-        <v>2.4500000000000002</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>50</v>
+        <v>95.5</v>
       </c>
       <c r="J39">
         <f>G39 * I39</f>
-        <v>122.50000000000001</v>
+        <v>107.91499999999999</v>
       </c>
       <c r="K39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1">
-        <v>44471</v>
+        <v>44608</v>
       </c>
       <c r="B40" s="1">
-        <v>44471</v>
-      </c>
-      <c r="C40" s="2" t="s">
+        <v>44608</v>
+      </c>
+      <c r="C40" t="s">
         <v>11</v>
       </c>
+      <c r="D40" t="s">
+        <v>79</v>
+      </c>
       <c r="E40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" t="s">
-        <v>77</v>
+        <v>26</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="G40">
-        <v>8.4700000000000006</v>
+        <v>2.25</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>10</v>
+        <v>42.5</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <f>IF(H40 = 1, G40 * I40, 0)</f>
+        <v>95.625</v>
       </c>
       <c r="K40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1">
-        <v>44471</v>
+        <v>44584</v>
       </c>
       <c r="B41" s="1">
-        <v>44471</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>11</v>
+        <v>44584</v>
+      </c>
+      <c r="C41" t="s">
+        <v>25</v>
       </c>
       <c r="D41" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E41" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" t="s">
-        <v>79</v>
+        <v>26</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="G41">
-        <v>2.4500000000000002</v>
+        <v>1.58</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>27.03</v>
+      </c>
+      <c r="J41">
+        <f>IF(H41 = 1, G41 * I41, 0)</f>
+        <v>42.707400000000007</v>
       </c>
       <c r="K41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="1">
-        <v>44471</v>
+        <v>44558</v>
       </c>
       <c r="B42" s="1">
-        <v>44471</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>11</v>
+        <v>44558</v>
+      </c>
+      <c r="C42" t="s">
+        <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E42" t="s">
         <v>13</v>
       </c>
-      <c r="F42" t="s">
-        <v>79</v>
+      <c r="F42" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="G42">
-        <v>2.5499999999999998</v>
+        <v>1.34</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>50</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1">
-        <v>44471</v>
+        <v>44541</v>
       </c>
       <c r="B43" s="1">
-        <v>44471</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>11</v>
+        <v>44541</v>
+      </c>
+      <c r="C43" t="s">
+        <v>25</v>
       </c>
       <c r="D43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E43" t="s">
         <v>13</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G43">
-        <v>1.1499999999999999</v>
+        <v>1.7</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>50</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
       </c>
       <c r="K43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1">
-        <v>44471</v>
+        <v>44534</v>
       </c>
       <c r="B44" s="1">
-        <v>44471</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>11</v>
+        <v>44534</v>
+      </c>
+      <c r="C44" t="s">
+        <v>25</v>
       </c>
       <c r="D44" t="s">
         <v>83</v>
@@ -2258,1300 +2340,1982 @@
         <v>13</v>
       </c>
       <c r="F44" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="G44">
-        <v>1.18</v>
+        <v>3.2</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>50</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1">
-        <v>44471</v>
+        <v>44531</v>
       </c>
       <c r="B45" s="1">
-        <v>44471</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>11</v>
+        <v>44531</v>
+      </c>
+      <c r="C45" t="s">
+        <v>25</v>
       </c>
       <c r="D45" t="s">
         <v>84</v>
       </c>
       <c r="E45" t="s">
-        <v>16</v>
-      </c>
-      <c r="F45" t="s">
-        <v>85</v>
+        <v>13</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="G45">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="J45">
         <f>G45 * I45</f>
-        <v>37.700000000000003</v>
+        <v>137</v>
       </c>
       <c r="K45" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1">
-        <v>44375</v>
+        <v>44493</v>
       </c>
       <c r="B46" s="1">
-        <v>44375</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>86</v>
+        <v>44493</v>
+      </c>
+      <c r="C46" t="s">
+        <v>25</v>
       </c>
       <c r="D46" t="s">
-        <v>87</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>13</v>
+        <v>85</v>
+      </c>
+      <c r="E46" t="s">
+        <v>26</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="G46">
-        <v>1.58</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <f>G46 * I46</f>
+        <v>122.50000000000001</v>
       </c>
       <c r="K46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1">
-        <v>44374</v>
+        <v>44471</v>
       </c>
       <c r="B47" s="1">
-        <v>44374</v>
+        <v>44471</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" t="s">
         <v>86</v>
       </c>
-      <c r="D47" t="s">
-        <v>88</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" t="s">
-        <v>52</v>
-      </c>
       <c r="G47">
-        <v>1.82</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="H47">
         <v>0</v>
       </c>
       <c r="I47">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J47">
         <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1">
-        <v>44374</v>
+        <v>44471</v>
       </c>
       <c r="B48" s="1">
-        <v>44374</v>
+        <v>44471</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="D48" t="s">
+        <v>87</v>
+      </c>
+      <c r="E48" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" t="s">
         <v>88</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" t="s">
-        <v>21</v>
-      </c>
       <c r="G48">
-        <v>3.05</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="H48">
         <v>0</v>
       </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
       <c r="K48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="1">
-        <v>44374</v>
+        <v>44471</v>
       </c>
       <c r="B49" s="1">
-        <v>44374</v>
+        <v>44471</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="D49" t="s">
+        <v>89</v>
+      </c>
+      <c r="E49" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" t="s">
         <v>88</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" t="s">
-        <v>85</v>
-      </c>
       <c r="G49">
-        <v>1.24</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
-      <c r="I49">
-        <v>50</v>
-      </c>
-      <c r="J49">
-        <f t="shared" ref="J49:J51" si="0">G49 * I49</f>
-        <v>62</v>
-      </c>
       <c r="K49" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="1">
+        <v>44471</v>
+      </c>
+      <c r="B50" s="1">
+        <v>44471</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" t="s">
+        <v>90</v>
+      </c>
+      <c r="E50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G50">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="K50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="1">
+        <v>44471</v>
+      </c>
+      <c r="B51" s="1">
+        <v>44471</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" t="s">
+        <v>92</v>
+      </c>
+      <c r="E51" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" t="s">
+        <v>91</v>
+      </c>
+      <c r="G51">
+        <v>1.18</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="K51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="1">
+        <v>44471</v>
+      </c>
+      <c r="B52" s="1">
+        <v>44471</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" t="s">
+        <v>93</v>
+      </c>
+      <c r="E52" t="s">
+        <v>26</v>
+      </c>
+      <c r="F52" t="s">
+        <v>94</v>
+      </c>
+      <c r="G52">
+        <v>1.3</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>29</v>
+      </c>
+      <c r="J52">
+        <f>G52 * I52</f>
+        <v>37.700000000000003</v>
+      </c>
+      <c r="K52" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="1">
+        <v>44464</v>
+      </c>
+      <c r="B53" s="1">
+        <v>44464</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" t="s">
+        <v>95</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G53">
+        <v>1.4</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>50</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="1">
+        <v>44464</v>
+      </c>
+      <c r="B54" s="1">
+        <v>44464</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" t="s">
+        <v>96</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" t="s">
+        <v>33</v>
+      </c>
+      <c r="G54">
+        <v>1.62</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>10</v>
+      </c>
+      <c r="K54" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="1">
+        <v>44464</v>
+      </c>
+      <c r="B55" s="1">
+        <v>44464</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" t="s">
+        <v>97</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" t="s">
+        <v>98</v>
+      </c>
+      <c r="G55">
+        <v>8.5</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>10</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="1">
+        <v>44454</v>
+      </c>
+      <c r="B56" s="1">
+        <v>44454</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s">
+        <v>99</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" t="s">
+        <v>65</v>
+      </c>
+      <c r="G56">
+        <v>1.45</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>50</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="1">
+        <v>44454</v>
+      </c>
+      <c r="B57" s="1">
+        <v>44454</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s">
+        <v>99</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G57">
+        <v>1.43</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>34</v>
+      </c>
+      <c r="J57">
+        <f>G57 * I57</f>
+        <v>48.62</v>
+      </c>
+      <c r="K57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="1">
+        <v>44453</v>
+      </c>
+      <c r="B58" s="1">
+        <v>44453</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s">
+        <v>100</v>
+      </c>
+      <c r="E58" t="s">
+        <v>26</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G58">
+        <v>1.42</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>50</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="1">
+        <v>44451</v>
+      </c>
+      <c r="B59" s="1">
+        <v>44451</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" t="s">
+        <v>101</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" t="s">
+        <v>102</v>
+      </c>
+      <c r="G59">
+        <v>1.35</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>50</v>
+      </c>
+      <c r="J59">
+        <f>G59 * I59</f>
+        <v>67.5</v>
+      </c>
+      <c r="K59" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="1">
+        <v>44450</v>
+      </c>
+      <c r="B60" s="1">
+        <v>44450</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" t="s">
+        <v>103</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" t="s">
+        <v>104</v>
+      </c>
+      <c r="G60">
+        <v>1.42</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>100</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="1">
+        <v>44450</v>
+      </c>
+      <c r="B61" s="1">
+        <v>44450</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" t="s">
+        <v>103</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" t="s">
+        <v>62</v>
+      </c>
+      <c r="G61">
+        <v>1.28</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>50</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="1">
+        <v>44450</v>
+      </c>
+      <c r="B62" s="1">
+        <v>44450</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" t="s">
+        <v>103</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" t="s">
+        <v>105</v>
+      </c>
+      <c r="G62">
+        <v>1.5</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>100</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="1">
+        <v>44437</v>
+      </c>
+      <c r="B63" s="1">
+        <v>44437</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" t="s">
+        <v>106</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" t="s">
+        <v>107</v>
+      </c>
+      <c r="G63">
+        <v>9.5</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>10</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="1">
+        <v>44436</v>
+      </c>
+      <c r="B64" s="1">
+        <v>44436</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" t="s">
+        <v>108</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" t="s">
+        <v>109</v>
+      </c>
+      <c r="G64">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>100</v>
+      </c>
+      <c r="J64">
+        <f>G64 * I64</f>
+        <v>112.00000000000001</v>
+      </c>
+      <c r="K64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="1">
+        <v>44436</v>
+      </c>
+      <c r="B65" s="1">
+        <v>44436</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" t="s">
+        <v>108</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" t="s">
+        <v>110</v>
+      </c>
+      <c r="G65">
+        <v>1.42</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>50</v>
+      </c>
+      <c r="J65">
+        <f>G65 * I65</f>
+        <v>71</v>
+      </c>
+      <c r="K65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="1">
+        <v>44375</v>
+      </c>
+      <c r="B66" s="1">
+        <v>44375</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D66" t="s">
+        <v>112</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G66">
+        <v>1.58</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>100</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B67" s="1">
+        <v>44374</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D67" t="s">
+        <v>113</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" t="s">
+        <v>62</v>
+      </c>
+      <c r="G67">
+        <v>1.82</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>50</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B68" s="1">
+        <v>44374</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D68" t="s">
+        <v>113</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" t="s">
+        <v>33</v>
+      </c>
+      <c r="G68">
+        <v>3.05</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B69" s="1">
+        <v>44374</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D69" t="s">
+        <v>113</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" t="s">
+        <v>94</v>
+      </c>
+      <c r="G69">
+        <v>1.24</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>50</v>
+      </c>
+      <c r="J69">
+        <f t="shared" ref="J69:J71" si="0">G69 * I69</f>
+        <v>62</v>
+      </c>
+      <c r="K69" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="1">
         <v>44373</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B70" s="1">
         <v>44373</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D50" t="s">
-        <v>89</v>
-      </c>
-      <c r="E50" t="s">
-        <v>16</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G50">
+      <c r="C70" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D70" t="s">
+        <v>114</v>
+      </c>
+      <c r="E70" t="s">
+        <v>26</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G70">
         <v>1.92</v>
       </c>
-      <c r="H50">
-        <v>1</v>
-      </c>
-      <c r="I50">
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
         <v>100</v>
       </c>
-      <c r="J50">
+      <c r="J70">
         <f t="shared" si="0"/>
         <v>192</v>
       </c>
-      <c r="K50" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="1">
+      <c r="K70" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="1">
         <v>44368</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B71" s="1">
         <v>44368</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D51" t="s">
-        <v>90</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G51">
+      <c r="C71" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D71" t="s">
+        <v>115</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G71">
         <v>1.2</v>
       </c>
-      <c r="H51">
-        <v>1</v>
-      </c>
-      <c r="I51">
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
         <v>200</v>
       </c>
-      <c r="J51">
+      <c r="J71">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="K51" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="1">
+      <c r="K71" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="1">
         <v>44368</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B72" s="1">
         <v>44368</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D52" t="s">
-        <v>90</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" t="s">
-        <v>91</v>
-      </c>
-      <c r="G52">
+      <c r="C72" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D72" t="s">
+        <v>115</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" t="s">
+        <v>116</v>
+      </c>
+      <c r="G72">
         <v>1.42</v>
       </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
         <v>100</v>
       </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="1">
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="1">
         <v>44368</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B73" s="1">
         <v>44368</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D53" t="s">
-        <v>90</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" t="s">
-        <v>92</v>
-      </c>
-      <c r="G53">
+      <c r="C73" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D73" t="s">
+        <v>115</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" t="s">
+        <v>117</v>
+      </c>
+      <c r="G73">
         <v>1.1299999999999999</v>
       </c>
-      <c r="H53">
-        <v>1</v>
-      </c>
-      <c r="I53">
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
         <v>100</v>
       </c>
-      <c r="J53">
-        <f t="shared" ref="J53:J54" si="1">G53 * I53</f>
+      <c r="J73">
+        <f t="shared" ref="J73:J74" si="1">G73 * I73</f>
         <v>112.99999999999999</v>
       </c>
-      <c r="K53" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="1">
+      <c r="K73" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="1">
         <v>44368</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B74" s="1">
         <v>44368</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D54" t="s">
-        <v>90</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" t="s">
-        <v>93</v>
-      </c>
-      <c r="G54">
+      <c r="C74" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D74" t="s">
+        <v>115</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" t="s">
+        <v>118</v>
+      </c>
+      <c r="G74">
         <v>1.25</v>
       </c>
-      <c r="H54">
-        <v>1</v>
-      </c>
-      <c r="I54">
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
         <v>100</v>
       </c>
-      <c r="J54">
+      <c r="J74">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="K54" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="1">
+      <c r="K74" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="1">
         <v>44365</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B75" s="1">
         <v>44365</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D55" t="s">
-        <v>94</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G55">
+      <c r="C75" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D75" t="s">
+        <v>119</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G75">
         <v>1.65</v>
       </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
         <v>50</v>
       </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="1">
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="1">
         <v>44365</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B76" s="1">
         <v>44365</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D56" t="s">
-        <v>94</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F56" t="s">
-        <v>52</v>
-      </c>
-      <c r="G56">
+      <c r="C76" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D76" t="s">
+        <v>119</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" t="s">
+        <v>62</v>
+      </c>
+      <c r="G76">
         <v>1.42</v>
       </c>
-      <c r="H56">
-        <v>1</v>
-      </c>
-      <c r="I56">
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
         <v>50</v>
       </c>
-      <c r="J56">
-        <f t="shared" ref="J56:J58" si="2">G56 * I56</f>
+      <c r="J76">
+        <f t="shared" ref="J76:J78" si="2">G76 * I76</f>
         <v>71</v>
       </c>
-      <c r="K56" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="1">
+      <c r="K76" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="1">
         <v>44364</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B77" s="1">
         <v>44364</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D57" t="s">
-        <v>95</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G57">
+      <c r="C77" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D77" t="s">
+        <v>120</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G77">
         <v>1.1599999999999999</v>
       </c>
-      <c r="H57">
-        <v>1</v>
-      </c>
-      <c r="I57">
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
         <v>100</v>
       </c>
-      <c r="J57">
+      <c r="J77">
         <f t="shared" si="2"/>
         <v>115.99999999999999</v>
       </c>
-      <c r="K57" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="1">
+      <c r="K77" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="1">
         <v>44364</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B78" s="1">
         <v>44364</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G58">
+      <c r="C78" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D78" t="s">
+        <v>121</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G78">
         <v>1.18</v>
       </c>
-      <c r="H58">
-        <v>1</v>
-      </c>
-      <c r="I58">
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78">
         <v>100</v>
       </c>
-      <c r="J58">
+      <c r="J78">
         <f t="shared" si="2"/>
         <v>118</v>
       </c>
-      <c r="K58" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="1">
+      <c r="K78" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="1">
         <v>44363</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B79" s="1">
         <v>44363</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D59" t="s">
-        <v>97</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" t="s">
-        <v>98</v>
-      </c>
-      <c r="G59">
+      <c r="C79" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D79" t="s">
+        <v>122</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" t="s">
+        <v>105</v>
+      </c>
+      <c r="G79">
         <v>1.4</v>
       </c>
-      <c r="H59">
-        <v>1</v>
-      </c>
-      <c r="I59">
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
         <v>100</v>
       </c>
-      <c r="J59">
-        <f t="shared" ref="J59:J60" si="3">G59 * I59</f>
+      <c r="J79">
+        <f t="shared" ref="J79:J80" si="3">G79 * I79</f>
         <v>140</v>
       </c>
-      <c r="K59" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="1">
+      <c r="K79" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="1">
         <v>44363</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B80" s="1">
         <v>44363</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D60" t="s">
-        <v>97</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G60">
+      <c r="C80" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D80" t="s">
+        <v>122</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G80">
         <v>1.22</v>
       </c>
-      <c r="H60">
-        <v>1</v>
-      </c>
-      <c r="I60">
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
         <v>100</v>
       </c>
-      <c r="J60">
+      <c r="J80">
         <f t="shared" si="3"/>
         <v>122</v>
       </c>
-      <c r="K60" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="1">
+      <c r="K80" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="1">
         <v>44362</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B81" s="1">
         <v>44362</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D61" t="s">
-        <v>99</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F61" t="s">
-        <v>52</v>
-      </c>
-      <c r="G61">
+      <c r="C81" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D81" t="s">
+        <v>123</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" t="s">
+        <v>62</v>
+      </c>
+      <c r="G81">
         <v>1.77</v>
       </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
         <v>100</v>
       </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="1">
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="1">
         <v>44361</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B82" s="1">
         <v>44361</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="C82" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D82" t="s">
+        <v>124</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" t="s">
+        <v>125</v>
+      </c>
+      <c r="G82">
+        <v>1.27</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
         <v>100</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" t="s">
-        <v>101</v>
-      </c>
-      <c r="G62">
-        <v>1.27</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>100</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="1">
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="1">
         <v>44359</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B83" s="1">
         <v>44359</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D63" t="s">
-        <v>103</v>
-      </c>
-      <c r="E63" t="s">
-        <v>16</v>
-      </c>
-      <c r="F63" t="s">
-        <v>21</v>
-      </c>
-      <c r="G63">
+      <c r="C83" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D83" t="s">
+        <v>127</v>
+      </c>
+      <c r="E83" t="s">
+        <v>26</v>
+      </c>
+      <c r="F83" t="s">
+        <v>33</v>
+      </c>
+      <c r="G83">
         <v>3.9</v>
       </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <f t="shared" ref="J62:J64" si="4">G63 * I63</f>
-        <v>0</v>
-      </c>
-      <c r="K63" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="1">
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <f t="shared" ref="J82:J84" si="4">G83 * I83</f>
+        <v>0</v>
+      </c>
+      <c r="K83" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="1">
         <v>44358</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B84" s="1">
         <v>44358</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D64" t="s">
-        <v>104</v>
-      </c>
-      <c r="E64" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" t="s">
-        <v>105</v>
-      </c>
-      <c r="G64">
+      <c r="C84" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D84" t="s">
+        <v>128</v>
+      </c>
+      <c r="E84" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" t="s">
+        <v>129</v>
+      </c>
+      <c r="G84">
         <v>1.17</v>
       </c>
-      <c r="H64">
-        <v>1</v>
-      </c>
-      <c r="I64">
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
         <v>50</v>
       </c>
-      <c r="J64">
+      <c r="J84">
         <f t="shared" si="4"/>
         <v>58.5</v>
       </c>
-      <c r="K64" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="1">
+      <c r="K84" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="1">
         <v>44358</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B85" s="1">
         <v>44358</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D65" t="s">
-        <v>104</v>
-      </c>
-      <c r="E65" t="s">
-        <v>13</v>
-      </c>
-      <c r="F65" s="3" t="s">
+      <c r="C85" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D85" t="s">
+        <v>128</v>
+      </c>
+      <c r="E85" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G85">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85">
+        <v>100</v>
+      </c>
+      <c r="J85">
+        <f>G85 * I85</f>
+        <v>109.00000000000001</v>
+      </c>
+      <c r="K85" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="1">
+        <v>44339</v>
+      </c>
+      <c r="B86" s="1">
+        <v>44339</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D86" t="s">
+        <v>130</v>
+      </c>
+      <c r="E86" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" t="s">
+        <v>131</v>
+      </c>
+      <c r="G86">
+        <v>1.18</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86">
         <v>50</v>
       </c>
-      <c r="G65">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="H65">
-        <v>1</v>
-      </c>
-      <c r="I65">
+      <c r="J86">
+        <f>G86 * I86</f>
+        <v>59</v>
+      </c>
+      <c r="K86" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="1">
+        <v>44339</v>
+      </c>
+      <c r="B87" s="1">
+        <v>44339</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D87" t="s">
+        <v>130</v>
+      </c>
+      <c r="E87" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" t="s">
+        <v>18</v>
+      </c>
+      <c r="G87">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87">
         <v>100</v>
       </c>
-      <c r="J65">
-        <f>G65 * I65</f>
-        <v>109.00000000000001</v>
-      </c>
-      <c r="K65" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="1">
-        <v>44339</v>
-      </c>
-      <c r="B66" s="1">
-        <v>44339</v>
-      </c>
-      <c r="C66" s="2" t="s">
+      <c r="J87">
+        <f>G87 * I87</f>
+        <v>114.99999999999999</v>
+      </c>
+      <c r="K87" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="1">
+        <v>44335</v>
+      </c>
+      <c r="B88" s="1">
+        <v>44335</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D88" t="s">
+        <v>132</v>
+      </c>
+      <c r="E88" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" t="s">
+        <v>20</v>
+      </c>
+      <c r="G88">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>25</v>
+      </c>
+      <c r="J88">
+        <f>G88 * I88</f>
+        <v>55.000000000000007</v>
+      </c>
+      <c r="K88" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="1">
+        <v>44332</v>
+      </c>
+      <c r="B89" s="1">
+        <v>44332</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D89" t="s">
+        <v>133</v>
+      </c>
+      <c r="E89" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G89">
+        <v>1.27</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89">
+        <v>25</v>
+      </c>
+      <c r="J89">
+        <f>G89 * I89</f>
+        <v>31.75</v>
+      </c>
+      <c r="K89" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="1">
+        <v>44329</v>
+      </c>
+      <c r="B90" s="1">
+        <v>44329</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D90" t="s">
+        <v>85</v>
+      </c>
+      <c r="E90" t="s">
+        <v>26</v>
+      </c>
+      <c r="F90" t="s">
+        <v>134</v>
+      </c>
+      <c r="G90">
+        <v>1.6</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90">
+        <v>10</v>
+      </c>
+      <c r="J90">
+        <f>G90 * I90</f>
+        <v>16</v>
+      </c>
+      <c r="K90" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="1">
+        <v>44329</v>
+      </c>
+      <c r="B91" s="1">
+        <v>44329</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D91" t="s">
+        <v>85</v>
+      </c>
+      <c r="E91" t="s">
+        <v>26</v>
+      </c>
+      <c r="F91" t="s">
+        <v>33</v>
+      </c>
+      <c r="G91">
+        <v>3.65</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>10</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="1">
+        <v>44305</v>
+      </c>
+      <c r="B92" s="1">
+        <v>44305</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D92" t="s">
+        <v>101</v>
+      </c>
+      <c r="E92" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G92">
+        <v>1.52</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>100</v>
+      </c>
+      <c r="J92">
+        <f>G92 * I92</f>
+        <v>152</v>
+      </c>
+      <c r="K92" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" s="1">
+        <v>44292</v>
+      </c>
+      <c r="B93" s="1">
+        <v>44292</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D66" t="s">
-        <v>106</v>
-      </c>
-      <c r="E66" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" t="s">
-        <v>107</v>
-      </c>
-      <c r="G66">
-        <v>1.18</v>
-      </c>
-      <c r="H66">
-        <v>1</v>
-      </c>
-      <c r="I66">
+      <c r="D93" t="s">
+        <v>135</v>
+      </c>
+      <c r="E93" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" t="s">
+        <v>136</v>
+      </c>
+      <c r="G93">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>100</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="1">
+        <v>44292</v>
+      </c>
+      <c r="B94" s="1">
+        <v>44292</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s">
+        <v>135</v>
+      </c>
+      <c r="E94" t="s">
+        <v>26</v>
+      </c>
+      <c r="F94" t="s">
+        <v>62</v>
+      </c>
+      <c r="G94">
+        <v>2.15</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
         <v>50</v>
       </c>
-      <c r="J66">
-        <f>G66 * I66</f>
-        <v>59</v>
-      </c>
-      <c r="K66" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="1">
-        <v>44339</v>
-      </c>
-      <c r="B67" s="1">
-        <v>44339</v>
-      </c>
-      <c r="C67" s="2" t="s">
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="1">
+        <v>44292</v>
+      </c>
+      <c r="B95" s="1">
+        <v>44292</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D67" t="s">
-        <v>106</v>
-      </c>
-      <c r="E67" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" t="s">
-        <v>108</v>
-      </c>
-      <c r="G67">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="H67">
-        <v>1</v>
-      </c>
-      <c r="I67">
+      <c r="D95" t="s">
+        <v>135</v>
+      </c>
+      <c r="E95" t="s">
+        <v>26</v>
+      </c>
+      <c r="F95" t="s">
+        <v>94</v>
+      </c>
+      <c r="G95">
+        <v>1.33</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95">
+        <v>45</v>
+      </c>
+      <c r="J95">
+        <f>G95 * I95</f>
+        <v>59.85</v>
+      </c>
+      <c r="K95" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="1">
+        <v>44290</v>
+      </c>
+      <c r="B96" s="1">
+        <v>44290</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D96" t="s">
+        <v>137</v>
+      </c>
+      <c r="E96" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" t="s">
+        <v>138</v>
+      </c>
+      <c r="G96">
+        <v>1.6</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
         <v>100</v>
       </c>
-      <c r="J67">
-        <f>G67 * I67</f>
-        <v>114.99999999999999</v>
-      </c>
-      <c r="K67" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="1">
-        <v>44335</v>
-      </c>
-      <c r="B68" s="1">
-        <v>44335</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" t="s">
-        <v>109</v>
-      </c>
-      <c r="E68" t="s">
-        <v>13</v>
-      </c>
-      <c r="F68" t="s">
-        <v>74</v>
-      </c>
-      <c r="G68">
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="1">
+        <v>44290</v>
+      </c>
+      <c r="B97" s="1">
+        <v>44290</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D97" t="s">
+        <v>137</v>
+      </c>
+      <c r="E97" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97" t="s">
+        <v>139</v>
+      </c>
+      <c r="G97">
+        <v>1.28</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97">
+        <v>100</v>
+      </c>
+      <c r="J97">
+        <f>G97 * I97</f>
+        <v>128</v>
+      </c>
+      <c r="K97" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" s="1">
+        <v>44290</v>
+      </c>
+      <c r="B98" s="1">
+        <v>44290</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D98" t="s">
+        <v>137</v>
+      </c>
+      <c r="E98" t="s">
+        <v>13</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G98">
+        <v>1.97</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>50</v>
+      </c>
+      <c r="J98">
+        <v>14.62</v>
+      </c>
+      <c r="K98" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="1">
+        <v>44289</v>
+      </c>
+      <c r="B99" s="1">
+        <v>44289</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D99" t="s">
+        <v>61</v>
+      </c>
+      <c r="E99" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99" t="s">
+        <v>140</v>
+      </c>
+      <c r="G99">
+        <v>4.8</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
+        <v>50</v>
+      </c>
+      <c r="J99">
+        <f>G99 * I99</f>
+        <v>240</v>
+      </c>
+      <c r="K99" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="1">
+        <v>44289</v>
+      </c>
+      <c r="B100" s="1">
+        <v>44289</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D100" t="s">
+        <v>61</v>
+      </c>
+      <c r="E100" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" t="s">
+        <v>62</v>
+      </c>
+      <c r="G100">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H68">
-        <v>1</v>
-      </c>
-      <c r="I68">
-        <v>25</v>
-      </c>
-      <c r="J68">
-        <f>G68 * I68</f>
-        <v>55.000000000000007</v>
-      </c>
-      <c r="K68" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="1">
-        <v>44332</v>
-      </c>
-      <c r="B69" s="1">
-        <v>44332</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69" t="s">
-        <v>110</v>
-      </c>
-      <c r="E69" t="s">
-        <v>13</v>
-      </c>
-      <c r="F69" s="3" t="s">
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
         <v>50</v>
       </c>
-      <c r="G69">
-        <v>1.27</v>
-      </c>
-      <c r="H69">
-        <v>1</v>
-      </c>
-      <c r="I69">
-        <v>25</v>
-      </c>
-      <c r="J69">
-        <f>G69 * I69</f>
-        <v>31.75</v>
-      </c>
-      <c r="K69" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="1">
-        <v>44329</v>
-      </c>
-      <c r="B70" s="1">
-        <v>44329</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" t="s">
-        <v>76</v>
-      </c>
-      <c r="E70" t="s">
-        <v>16</v>
-      </c>
-      <c r="F70" t="s">
-        <v>111</v>
-      </c>
-      <c r="G70">
-        <v>1.6</v>
-      </c>
-      <c r="H70">
-        <v>1</v>
-      </c>
-      <c r="I70">
-        <v>10</v>
-      </c>
-      <c r="J70">
-        <f>G70 * I70</f>
-        <v>16</v>
-      </c>
-      <c r="K70" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="1">
-        <v>44329</v>
-      </c>
-      <c r="B71" s="1">
-        <v>44329</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s">
-        <v>76</v>
-      </c>
-      <c r="E71" t="s">
-        <v>16</v>
-      </c>
-      <c r="F71" t="s">
-        <v>21</v>
-      </c>
-      <c r="G71">
-        <v>3.65</v>
-      </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <v>10</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="1">
-        <v>44305</v>
-      </c>
-      <c r="B72" s="1">
-        <v>44305</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72" t="s">
-        <v>112</v>
-      </c>
-      <c r="E72" t="s">
-        <v>13</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G72">
-        <v>1.52</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <v>100</v>
-      </c>
-      <c r="J72">
-        <f>G72 * I72</f>
-        <v>152</v>
-      </c>
-      <c r="K72" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="1">
-        <v>44292</v>
-      </c>
-      <c r="B73" s="1">
-        <v>44292</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D73" t="s">
-        <v>113</v>
-      </c>
-      <c r="E73" t="s">
-        <v>13</v>
-      </c>
-      <c r="F73" t="s">
-        <v>114</v>
-      </c>
-      <c r="G73">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="I73">
-        <v>100</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="1">
-        <v>44292</v>
-      </c>
-      <c r="B74" s="1">
-        <v>44292</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D74" t="s">
-        <v>113</v>
-      </c>
-      <c r="E74" t="s">
-        <v>16</v>
-      </c>
-      <c r="F74" t="s">
-        <v>52</v>
-      </c>
-      <c r="G74">
-        <v>2.15</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74">
-        <v>50</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="1">
-        <v>44292</v>
-      </c>
-      <c r="B75" s="1">
-        <v>44292</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D75" t="s">
-        <v>113</v>
-      </c>
-      <c r="E75" t="s">
-        <v>16</v>
-      </c>
-      <c r="F75" t="s">
-        <v>85</v>
-      </c>
-      <c r="G75">
-        <v>1.33</v>
-      </c>
-      <c r="H75">
-        <v>1</v>
-      </c>
-      <c r="I75">
-        <v>45</v>
-      </c>
-      <c r="J75">
-        <f>G75 * I75</f>
-        <v>59.85</v>
-      </c>
-      <c r="K75" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="1">
-        <v>44290</v>
-      </c>
-      <c r="B76" s="1">
-        <v>44290</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s">
-        <v>115</v>
-      </c>
-      <c r="E76" t="s">
-        <v>13</v>
-      </c>
-      <c r="F76" t="s">
-        <v>116</v>
-      </c>
-      <c r="G76">
-        <v>1.6</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <v>100</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="1">
-        <v>44290</v>
-      </c>
-      <c r="B77" s="1">
-        <v>44290</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D77" t="s">
-        <v>115</v>
-      </c>
-      <c r="E77" t="s">
-        <v>13</v>
-      </c>
-      <c r="F77" t="s">
-        <v>117</v>
-      </c>
-      <c r="G77">
-        <v>1.28</v>
-      </c>
-      <c r="H77">
-        <v>1</v>
-      </c>
-      <c r="I77">
-        <v>100</v>
-      </c>
-      <c r="J77">
-        <f>G77 * I77</f>
-        <v>128</v>
-      </c>
-      <c r="K77" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="1">
-        <v>44290</v>
-      </c>
-      <c r="B78" s="1">
-        <v>44290</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78" t="s">
-        <v>115</v>
-      </c>
-      <c r="E78" t="s">
-        <v>13</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G78">
-        <v>1.97</v>
-      </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78">
-        <v>50</v>
-      </c>
-      <c r="J78">
-        <v>14.62</v>
-      </c>
-      <c r="K78" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
-      <c r="A79" s="1">
-        <v>44289</v>
-      </c>
-      <c r="B79" s="1">
-        <v>44289</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D79" t="s">
-        <v>51</v>
-      </c>
-      <c r="E79" t="s">
-        <v>13</v>
-      </c>
-      <c r="F79" t="s">
-        <v>118</v>
-      </c>
-      <c r="G79">
-        <v>4.8</v>
-      </c>
-      <c r="H79">
-        <v>1</v>
-      </c>
-      <c r="I79">
-        <v>50</v>
-      </c>
-      <c r="J79">
-        <f>G79 * I79</f>
-        <v>240</v>
-      </c>
-      <c r="K79" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
-      <c r="A80" s="1">
-        <v>44289</v>
-      </c>
-      <c r="B80" s="1">
-        <v>44289</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s">
-        <v>51</v>
-      </c>
-      <c r="E80" t="s">
-        <v>13</v>
-      </c>
-      <c r="F80" t="s">
-        <v>52</v>
-      </c>
-      <c r="G80">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H80">
-        <v>1</v>
-      </c>
-      <c r="I80">
-        <v>50</v>
-      </c>
-      <c r="J80">
-        <f>G80 * I80</f>
+      <c r="J100">
+        <f>G100 * I100</f>
         <v>110.00000000000001</v>
       </c>
-      <c r="K80" t="s">
-        <v>22</v>
+      <c r="K100" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -3576,34 +4340,34 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="B1" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="C1" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="D1" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4">
         <f xml:space="preserve"> SUM(Odds!J:J)</f>
-        <v>4171.1473999999998</v>
+        <v>4791.2673999999997</v>
       </c>
       <c r="B2">
         <f xml:space="preserve"> SUM(Odds!I:I)</f>
-        <v>4187.53</v>
+        <v>5224.53</v>
       </c>
       <c r="C2">
         <f>A2 - B2</f>
-        <v>-16.382599999999911</v>
+        <v>-433.26260000000002</v>
       </c>
       <c r="D2">
         <f>ROUND(100 * (C2 / B2), 2)</f>
-        <v>-0.39</v>
+        <v>-8.2899999999999991</v>
       </c>
     </row>
   </sheetData>

--- a/inst/data/Betting.xlsx
+++ b/inst/data/Betting.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89EC3438-9A70-4463-8399-11D3F3CFB92D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F1FBC6F-19E7-4246-B6FB-32D7373D25F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,6 +11,9 @@
     <sheet name="Odds" sheetId="1" r:id="rId1"/>
     <sheet name="Overblik" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Odds!$A$1:$K$113</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="160">
   <si>
     <t>BetDay</t>
   </si>
@@ -63,15 +66,84 @@
     <t>GameType</t>
   </si>
   <si>
+    <t>Premier League</t>
+  </si>
+  <si>
+    <t>Everton - Chelsea</t>
+  </si>
+  <si>
+    <t>Oddset</t>
+  </si>
+  <si>
+    <t>Dobbeltchance Everton eller Uafgjort</t>
+  </si>
+  <si>
+    <t>Dobbeltchance</t>
+  </si>
+  <si>
+    <t>Leeds - Manchester C</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Kampvinder</t>
+  </si>
+  <si>
+    <t>Under 1,5 mål ved pausen &amp; under 10,5 hjørne &amp; under 5,5 kort</t>
+  </si>
+  <si>
+    <t>Kombinationer</t>
+  </si>
+  <si>
+    <t>Newcastle - Liverpool</t>
+  </si>
+  <si>
+    <t>Live Betting</t>
+  </si>
+  <si>
+    <t>Halvleg/fuldtid Uafgjort / Liverpool</t>
+  </si>
+  <si>
+    <t>Halvleg/fuldtid</t>
+  </si>
+  <si>
+    <t>Hjørnespark - O/U 7,5 Over</t>
+  </si>
+  <si>
+    <t>Hjørnespark</t>
+  </si>
+  <si>
+    <t>Antal mål efter 20 Minutter O/U 0,5: Under</t>
+  </si>
+  <si>
+    <t>Mål</t>
+  </si>
+  <si>
+    <t>Hvem vinder 1. halvleg? Uafgjort</t>
+  </si>
+  <si>
+    <t>Antal mål O/U 1,5 Over</t>
+  </si>
+  <si>
+    <t>Manchester U - Chelsea</t>
+  </si>
+  <si>
+    <t>Halvleg/fuldtid Uafgjort / Chelsea</t>
+  </si>
+  <si>
+    <t>Dobbeltchance Uafgjort eller Chelsea</t>
+  </si>
+  <si>
+    <t>Manchester U holder målet rent? Nej</t>
+  </si>
+  <si>
     <t>Champions League</t>
   </si>
   <si>
     <t>Liverpool - Villarreal</t>
   </si>
   <si>
-    <t>Live Betting</t>
-  </si>
-  <si>
     <t>Kommer der mindst et rødt kort i kampen: Nej</t>
   </si>
   <si>
@@ -87,15 +159,9 @@
     <t>Antal mål O/U 1,5: Over</t>
   </si>
   <si>
-    <t>Mål</t>
-  </si>
-  <si>
     <t>Hvem vinder 1. halvleg? Liverpool</t>
   </si>
   <si>
-    <t>Kampvinder</t>
-  </si>
-  <si>
     <t>Mål mellem 1 - 15.0 Minutter: Nej</t>
   </si>
   <si>
@@ -105,12 +171,6 @@
     <t>Hvilket hold scorer 3. mål: Manchester C</t>
   </si>
   <si>
-    <t>Premier League</t>
-  </si>
-  <si>
-    <t>Oddset</t>
-  </si>
-  <si>
     <t>4-ling ID 5</t>
   </si>
   <si>
@@ -210,15 +270,9 @@
     <t>Nottingham F - Liverpool</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Arsenal - Liverpool</t>
   </si>
   <si>
-    <t>Hvem vinder 1. halvleg? Uafgjort</t>
-  </si>
-  <si>
     <t>Liverpool - Inter</t>
   </si>
   <si>
@@ -408,9 +462,6 @@
     <t>Hjørnespark - O/U 9,5: Over</t>
   </si>
   <si>
-    <t>Hjørnespark</t>
-  </si>
-  <si>
     <t>England - Kroatien</t>
   </si>
   <si>
@@ -448,12 +499,6 @@
   </si>
   <si>
     <t>Pengene tilbage ved uafgjort: Manchester U</t>
-  </si>
-  <si>
-    <t>Halvleg/fuldtid Uafgjort / Liverpool</t>
-  </si>
-  <si>
-    <t>Halvleg/fuldtid</t>
   </si>
   <si>
     <t>Total gevinst</t>
@@ -514,12 +559,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -834,11 +880,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K100"/>
+  <dimension ref="A1:K113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -889,12 +935,12 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>44678</v>
+        <v>44566</v>
       </c>
       <c r="B2" s="1">
-        <v>44678</v>
-      </c>
-      <c r="C2" t="s">
+        <v>44566</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="s">
@@ -907,826 +953,862 @@
         <v>14</v>
       </c>
       <c r="G2">
-        <v>1.1299999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="J2">
-        <v>105</v>
-      </c>
-      <c r="K2" t="s">
+        <v>10.5</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>44678</v>
+        <v>44681</v>
       </c>
       <c r="B3" s="1">
-        <v>44678</v>
-      </c>
-      <c r="C3" t="s">
+        <v>44681</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
+      <c r="F3" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="G3">
-        <v>4.5</v>
+        <v>1.3</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>44678</v>
+        <v>44681</v>
       </c>
       <c r="B4" s="1">
-        <v>44678</v>
-      </c>
-      <c r="C4" t="s">
+        <v>44681</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="J4">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>44678</v>
+        <v>44681</v>
       </c>
       <c r="B5" s="1">
-        <v>44678</v>
-      </c>
-      <c r="C5" t="s">
+        <v>44681</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="G5">
-        <v>2.15</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>10</v>
+        <v>28.65</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="K5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>44678</v>
+        <v>44681</v>
       </c>
       <c r="B6" s="1">
-        <v>44678</v>
-      </c>
-      <c r="C6" t="s">
+        <v>44681</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G6">
-        <v>1.32</v>
+        <v>3.9</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="J6">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>44677</v>
+        <v>44681</v>
       </c>
       <c r="B7" s="1">
-        <v>44677</v>
-      </c>
-      <c r="C7" t="s">
+        <v>44681</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G7">
-        <v>1.58</v>
+        <v>1.25</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>44676</v>
+        <v>44681</v>
       </c>
       <c r="B8" s="1">
-        <v>44676</v>
+        <v>44681</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
       </c>
       <c r="G8">
-        <v>7.23</v>
+        <v>1.45</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>10</v>
       </c>
       <c r="J8">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
-        <v>44674</v>
+        <v>44681</v>
       </c>
       <c r="B9" s="1">
-        <v>44674</v>
+        <v>44681</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
       </c>
       <c r="G9">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="K9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>44674</v>
+        <v>44681</v>
       </c>
       <c r="B10" s="1">
-        <v>44674</v>
+        <v>44681</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
         <v>30</v>
       </c>
       <c r="G10">
-        <v>2.0499999999999998</v>
+        <v>1.23</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
-        <v>44674</v>
+        <v>44679</v>
       </c>
       <c r="B11" s="1">
-        <v>44674</v>
+        <v>44679</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="G11">
-        <v>1.32</v>
+        <v>2</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>50</v>
+        <v>95.5</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1">
-        <v>44672</v>
+        <v>44679</v>
       </c>
       <c r="B12" s="1">
-        <v>44672</v>
+        <v>44679</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>32</v>
       </c>
-      <c r="E12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" t="s">
-        <v>33</v>
-      </c>
       <c r="G12">
-        <v>3.3</v>
+        <v>5.2</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1">
-        <v>44671</v>
+        <v>44679</v>
       </c>
       <c r="B13" s="1">
-        <v>44675</v>
+        <v>44679</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>35</v>
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>33</v>
       </c>
       <c r="G13">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="J13">
-        <f>G13 * I13</f>
-        <v>240</v>
-      </c>
-      <c r="K13" t="s">
-        <v>21</v>
+        <v>66</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1">
-        <v>44671</v>
+        <v>44679</v>
       </c>
       <c r="B14" s="1">
-        <v>44671</v>
+        <v>44679</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14">
+        <v>1.19</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
         <v>25</v>
       </c>
-      <c r="D14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14">
-        <v>2.35</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
+      <c r="J14">
+        <v>29.5</v>
       </c>
       <c r="K14" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1">
-        <v>44671</v>
+        <v>44678</v>
       </c>
       <c r="B15" s="1">
-        <v>44671</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>25</v>
+        <v>44678</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F15" t="s">
         <v>37</v>
       </c>
       <c r="G15">
-        <v>1.92</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>93</v>
+      </c>
+      <c r="J15">
+        <v>105</v>
       </c>
       <c r="K15" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
-        <v>44671</v>
+        <v>44678</v>
       </c>
       <c r="B16" s="1">
-        <v>44671</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="2" t="s">
+        <v>44678</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
         <v>39</v>
       </c>
-      <c r="E16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" t="s">
-        <v>37</v>
-      </c>
       <c r="G16">
-        <v>1.23</v>
+        <v>4.5</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
-        <v>44671</v>
+        <v>44678</v>
       </c>
       <c r="B17" s="1">
-        <v>44671</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>25</v>
+        <v>44678</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F17" t="s">
         <v>41</v>
       </c>
       <c r="G17">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
+      <c r="I17">
+        <v>50</v>
+      </c>
+      <c r="J17">
+        <v>70</v>
+      </c>
       <c r="K17" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1">
-        <v>44671</v>
+        <v>44678</v>
       </c>
       <c r="B18" s="1">
-        <v>44671</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>25</v>
+        <v>44678</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F18" t="s">
         <v>42</v>
       </c>
       <c r="G18">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J18">
-        <v>47.5</v>
+        <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1">
-        <v>44670</v>
+        <v>44678</v>
       </c>
       <c r="B19" s="1">
-        <v>44670</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>25</v>
+        <v>44678</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>35</v>
+        <v>22</v>
+      </c>
+      <c r="F19" t="s">
+        <v>43</v>
       </c>
       <c r="G19">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J19">
-        <f>G19 * I19</f>
-        <v>134.33000000000001</v>
+        <v>132</v>
       </c>
       <c r="K19" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1">
-        <v>44670</v>
+        <v>44677</v>
       </c>
       <c r="B20" s="1">
-        <v>44670</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>25</v>
+        <v>44677</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
       </c>
       <c r="D20" t="s">
         <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F20" t="s">
         <v>45</v>
       </c>
       <c r="G20">
-        <v>15</v>
+        <v>1.58</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J20">
-        <f>G20 * I20</f>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1">
-        <v>44670</v>
+        <v>44676</v>
       </c>
       <c r="B21" s="1">
-        <v>44670</v>
+        <v>44676</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G21">
-        <v>9.35</v>
+        <v>7.23</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>10</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K21" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1">
-        <v>44667</v>
+        <v>44674</v>
       </c>
       <c r="B22" s="1">
-        <v>44667</v>
+        <v>44674</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" t="s">
         <v>48</v>
       </c>
-      <c r="E22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" t="s">
-        <v>49</v>
-      </c>
       <c r="G22">
-        <v>1.52</v>
+        <v>2.8</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1">
-        <v>44664</v>
+        <v>44674</v>
       </c>
       <c r="B23" s="1">
-        <v>44664</v>
+        <v>44674</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E23" t="s">
         <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G23">
-        <v>2.85</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1">
-        <v>44664</v>
+        <v>44674</v>
       </c>
       <c r="B24" s="1">
-        <v>44664</v>
+        <v>44674</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24">
+        <v>1.32</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
         <v>50</v>
       </c>
-      <c r="E24" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24">
-        <v>1.38</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>102.5</v>
-      </c>
       <c r="J24">
-        <f>G24 * I24</f>
-        <v>141.44999999999999</v>
+        <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1">
-        <v>44656</v>
+        <v>44672</v>
       </c>
       <c r="B25" s="1">
-        <v>44656</v>
+        <v>44672</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E25" t="s">
         <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G25">
-        <v>1.25</v>
+        <v>3.3</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>10</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1">
-        <v>44656</v>
+        <v>44671</v>
       </c>
       <c r="B26" s="1">
-        <v>44656</v>
+        <v>44675</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E26" t="s">
         <v>13</v>
       </c>
-      <c r="F26" t="s">
-        <v>55</v>
+      <c r="F26" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="G26">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
+      <c r="I26">
+        <v>200</v>
+      </c>
+      <c r="J26">
+        <f>G26 * I26</f>
+        <v>240</v>
+      </c>
       <c r="K26" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1">
-        <v>44656</v>
+        <v>44671</v>
       </c>
       <c r="B27" s="1">
         <v>44671</v>
@@ -1734,6 +1816,9 @@
       <c r="C27" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D27" t="s">
+        <v>55</v>
+      </c>
       <c r="E27" t="s">
         <v>13</v>
       </c>
@@ -1741,221 +1826,191 @@
         <v>56</v>
       </c>
       <c r="G27">
-        <v>1.75</v>
+        <v>2.35</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
-      <c r="I27">
-        <v>50</v>
-      </c>
-      <c r="J27">
-        <f>G27 * I27</f>
-        <v>87.5</v>
-      </c>
       <c r="K27" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1">
-        <v>44640</v>
+        <v>44671</v>
       </c>
       <c r="B28" s="1">
-        <v>44640</v>
-      </c>
-      <c r="C28" t="s">
-        <v>58</v>
+        <v>44671</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E28" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>60</v>
+      <c r="F28" t="s">
+        <v>56</v>
       </c>
       <c r="G28">
-        <v>1.3</v>
+        <v>1.92</v>
       </c>
       <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>50</v>
-      </c>
-      <c r="J28">
-        <f>G28 * I28</f>
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1">
-        <v>44636</v>
+        <v>44671</v>
       </c>
       <c r="B29" s="1">
-        <v>44636</v>
-      </c>
-      <c r="C29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" t="s">
-        <v>61</v>
+        <v>44671</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="E29" t="s">
         <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G29">
-        <v>1.1000000000000001</v>
+        <v>1.23</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
-      <c r="I29">
-        <v>24</v>
-      </c>
-      <c r="J29">
-        <f>G29 * I29</f>
-        <v>26.400000000000002</v>
-      </c>
       <c r="K29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1">
-        <v>44628</v>
+        <v>44671</v>
       </c>
       <c r="B30" s="1">
-        <v>44628</v>
-      </c>
-      <c r="C30" t="s">
+        <v>44671</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>35</v>
+        <v>13</v>
+      </c>
+      <c r="F30" t="s">
+        <v>60</v>
       </c>
       <c r="G30">
-        <v>1.62</v>
+        <v>3.3</v>
       </c>
       <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>50</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1">
-        <v>44625</v>
+        <v>44671</v>
       </c>
       <c r="B31" s="1">
-        <v>44625</v>
-      </c>
-      <c r="C31" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" t="s">
-        <v>64</v>
+        <v>44671</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E31" t="s">
         <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G31">
-        <v>1.42</v>
+        <v>2.375</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>47.5</v>
       </c>
       <c r="K31" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1">
-        <v>44625</v>
+        <v>44670</v>
       </c>
       <c r="B32" s="1">
-        <v>44625</v>
-      </c>
-      <c r="C32" t="s">
-        <v>25</v>
+        <v>44670</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E32" t="s">
-        <v>26</v>
-      </c>
-      <c r="F32" t="s">
-        <v>66</v>
+        <v>13</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="G32">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="J32">
         <f>G32 * I32</f>
-        <v>70</v>
+        <v>134.33000000000001</v>
       </c>
       <c r="K32" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1">
-        <v>44619</v>
+        <v>44670</v>
       </c>
       <c r="B33" s="1">
-        <v>44619</v>
-      </c>
-      <c r="C33" t="s">
-        <v>67</v>
+        <v>44670</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E33" t="s">
         <v>13</v>
       </c>
       <c r="F33" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G33">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -1965,33 +2020,33 @@
       </c>
       <c r="J33">
         <f>G33 * I33</f>
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="K33" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1">
-        <v>44619</v>
+        <v>44670</v>
       </c>
       <c r="B34" s="1">
-        <v>44619</v>
-      </c>
-      <c r="C34" t="s">
-        <v>67</v>
+        <v>44670</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E34" t="s">
         <v>13</v>
       </c>
       <c r="F34" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G34">
-        <v>3.75</v>
+        <v>9.35</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -2003,312 +2058,299 @@
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1">
-        <v>44619</v>
+        <v>44667</v>
       </c>
       <c r="B35" s="1">
-        <v>44619</v>
-      </c>
-      <c r="C35" t="s">
+        <v>44667</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
         <v>67</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" t="s">
         <v>68</v>
       </c>
-      <c r="E35" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" t="s">
-        <v>72</v>
-      </c>
       <c r="G35">
-        <v>1.2</v>
+        <v>1.52</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J35">
-        <f>G35 * I35</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1">
-        <v>44618</v>
+        <v>44664</v>
       </c>
       <c r="B36" s="1">
-        <v>44618</v>
-      </c>
-      <c r="C36" t="s">
-        <v>25</v>
+        <v>44664</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E36" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F36" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G36">
-        <v>2.1</v>
+        <v>2.85</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
       <c r="I36">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1">
-        <v>44613</v>
+        <v>44664</v>
       </c>
       <c r="B37" s="1">
-        <v>44613</v>
-      </c>
-      <c r="C37" t="s">
-        <v>25</v>
+        <v>44664</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D37" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E37" t="s">
-        <v>26</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>76</v>
+        <v>13</v>
+      </c>
+      <c r="F37" t="s">
+        <v>43</v>
       </c>
       <c r="G37">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37">
-        <v>90</v>
+        <v>102.5</v>
       </c>
       <c r="J37">
         <f>G37 * I37</f>
-        <v>127.8</v>
+        <v>141.44999999999999</v>
       </c>
       <c r="K37" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1">
-        <v>44613</v>
+        <v>44656</v>
       </c>
       <c r="B38" s="1">
-        <v>44613</v>
-      </c>
-      <c r="C38" t="s">
-        <v>25</v>
+        <v>44656</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" t="s">
+        <v>71</v>
       </c>
       <c r="E38" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F38" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G38">
-        <v>1238046</v>
+        <v>1.25</v>
       </c>
       <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1">
-        <v>44611</v>
+        <v>44656</v>
       </c>
       <c r="B39" s="1">
-        <v>44611</v>
-      </c>
-      <c r="C39" t="s">
-        <v>25</v>
+        <v>44656</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D39" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E39" t="s">
-        <v>26</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>35</v>
+        <v>22</v>
+      </c>
+      <c r="F39" t="s">
+        <v>74</v>
       </c>
       <c r="G39">
-        <v>1.1299999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
-      <c r="I39">
-        <v>95.5</v>
-      </c>
-      <c r="J39">
-        <f>G39 * I39</f>
-        <v>107.91499999999999</v>
-      </c>
       <c r="K39" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1">
-        <v>44608</v>
+        <v>44656</v>
       </c>
       <c r="B40" s="1">
-        <v>44608</v>
-      </c>
-      <c r="C40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s">
-        <v>79</v>
+        <v>44671</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="E40" t="s">
-        <v>26</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>60</v>
+        <v>22</v>
+      </c>
+      <c r="F40" t="s">
+        <v>75</v>
       </c>
       <c r="G40">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
       <c r="I40">
-        <v>42.5</v>
+        <v>50</v>
       </c>
       <c r="J40">
-        <f>IF(H40 = 1, G40 * I40, 0)</f>
-        <v>95.625</v>
+        <f>G40 * I40</f>
+        <v>87.5</v>
       </c>
       <c r="K40" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1">
-        <v>44584</v>
+        <v>44640</v>
       </c>
       <c r="B41" s="1">
-        <v>44584</v>
+        <v>44640</v>
       </c>
       <c r="C41" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="D41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E41" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="G41">
-        <v>1.58</v>
+        <v>1.3</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41">
-        <v>27.03</v>
+        <v>50</v>
       </c>
       <c r="J41">
-        <f>IF(H41 = 1, G41 * I41, 0)</f>
-        <v>42.707400000000007</v>
+        <f>G41 * I41</f>
+        <v>65</v>
       </c>
       <c r="K41" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="1">
-        <v>44558</v>
+        <v>44636</v>
       </c>
       <c r="B42" s="1">
-        <v>44558</v>
+        <v>44636</v>
       </c>
       <c r="C42" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E42" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>60</v>
+        <v>22</v>
+      </c>
+      <c r="F42" t="s">
+        <v>29</v>
       </c>
       <c r="G42">
-        <v>1.34</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <f>G42 * I42</f>
+        <v>26.400000000000002</v>
       </c>
       <c r="K42" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1">
-        <v>44541</v>
+        <v>44628</v>
       </c>
       <c r="B43" s="1">
-        <v>44541</v>
+        <v>44628</v>
       </c>
       <c r="C43" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E43" t="s">
         <v>13</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="G43">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -2320,134 +2362,137 @@
         <v>0</v>
       </c>
       <c r="K43" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1">
-        <v>44534</v>
+        <v>44625</v>
       </c>
       <c r="B44" s="1">
-        <v>44534</v>
+        <v>44625</v>
       </c>
       <c r="C44" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E44" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="G44">
-        <v>3.2</v>
+        <v>1.42</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="I44">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1">
-        <v>44531</v>
+        <v>44625</v>
       </c>
       <c r="B45" s="1">
-        <v>44531</v>
+        <v>44625</v>
       </c>
       <c r="C45" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E45" t="s">
         <v>13</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>60</v>
+      <c r="F45" t="s">
+        <v>83</v>
       </c>
       <c r="G45">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J45">
         <f>G45 * I45</f>
-        <v>137</v>
+        <v>70</v>
       </c>
       <c r="K45" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1">
-        <v>44493</v>
+        <v>44619</v>
       </c>
       <c r="B46" s="1">
-        <v>44493</v>
+        <v>44619</v>
       </c>
       <c r="C46" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="D46" t="s">
         <v>85</v>
       </c>
       <c r="E46" t="s">
-        <v>26</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>60</v>
+        <v>22</v>
+      </c>
+      <c r="F46" t="s">
+        <v>86</v>
       </c>
       <c r="G46">
-        <v>2.4500000000000002</v>
+        <v>3</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J46">
         <f>G46 * I46</f>
-        <v>122.50000000000001</v>
+        <v>30</v>
       </c>
       <c r="K46" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1">
-        <v>44471</v>
+        <v>44619</v>
       </c>
       <c r="B47" s="1">
-        <v>44471</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>25</v>
+        <v>44619</v>
+      </c>
+      <c r="C47" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" t="s">
+        <v>85</v>
       </c>
       <c r="E47" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F47" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G47">
-        <v>8.4700000000000006</v>
+        <v>3.75</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -2459,284 +2504,312 @@
         <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1">
-        <v>44471</v>
+        <v>44619</v>
       </c>
       <c r="B48" s="1">
-        <v>44471</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>25</v>
+        <v>44619</v>
+      </c>
+      <c r="C48" t="s">
+        <v>84</v>
       </c>
       <c r="D48" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E48" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F48" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G48">
-        <v>2.4500000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>50</v>
+      </c>
+      <c r="J48">
+        <f>G48 * I48</f>
+        <v>60</v>
       </c>
       <c r="K48" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="1">
-        <v>44471</v>
+        <v>44618</v>
       </c>
       <c r="B49" s="1">
-        <v>44471</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>25</v>
+        <v>44618</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
       </c>
       <c r="D49" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E49" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F49" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G49">
-        <v>2.5499999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>10</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="1">
-        <v>44471</v>
+        <v>44613</v>
       </c>
       <c r="B50" s="1">
-        <v>44471</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>25</v>
+        <v>44613</v>
+      </c>
+      <c r="C50" t="s">
+        <v>11</v>
       </c>
       <c r="D50" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E50" t="s">
         <v>13</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G50">
-        <v>1.1499999999999999</v>
+        <v>1.42</v>
       </c>
       <c r="H50">
         <v>1</v>
       </c>
+      <c r="I50">
+        <v>90</v>
+      </c>
+      <c r="J50">
+        <f>G50 * I50</f>
+        <v>127.8</v>
+      </c>
       <c r="K50" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="1">
-        <v>44471</v>
+        <v>44613</v>
       </c>
       <c r="B51" s="1">
-        <v>44471</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D51" t="s">
-        <v>92</v>
+        <v>44613</v>
+      </c>
+      <c r="C51" t="s">
+        <v>11</v>
       </c>
       <c r="E51" t="s">
         <v>13</v>
       </c>
       <c r="F51" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G51">
-        <v>1.18</v>
+        <v>1238046</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="1">
-        <v>44471</v>
+        <v>44611</v>
       </c>
       <c r="B52" s="1">
-        <v>44471</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>25</v>
+        <v>44611</v>
+      </c>
+      <c r="C52" t="s">
+        <v>11</v>
       </c>
       <c r="D52" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E52" t="s">
-        <v>26</v>
-      </c>
-      <c r="F52" t="s">
-        <v>94</v>
+        <v>13</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="G52">
-        <v>1.3</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="H52">
         <v>1</v>
       </c>
       <c r="I52">
-        <v>29</v>
+        <v>95.5</v>
       </c>
       <c r="J52">
         <f>G52 * I52</f>
-        <v>37.700000000000003</v>
+        <v>107.91499999999999</v>
       </c>
       <c r="K52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="1">
-        <v>44464</v>
+        <v>44608</v>
       </c>
       <c r="B53" s="1">
-        <v>44464</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>25</v>
+        <v>44608</v>
+      </c>
+      <c r="C53" t="s">
+        <v>35</v>
       </c>
       <c r="D53" t="s">
-        <v>95</v>
-      </c>
-      <c r="E53" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E53" t="s">
         <v>13</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="G53">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53">
-        <v>50</v>
+        <v>42.5</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <f>IF(H53 = 1, G53 * I53, 0)</f>
+        <v>95.625</v>
       </c>
       <c r="K53" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="1">
-        <v>44464</v>
+        <v>44584</v>
       </c>
       <c r="B54" s="1">
-        <v>44464</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>25</v>
+        <v>44584</v>
+      </c>
+      <c r="C54" t="s">
+        <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>96</v>
-      </c>
-      <c r="E54" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E54" t="s">
         <v>13</v>
       </c>
-      <c r="F54" t="s">
-        <v>33</v>
+      <c r="F54" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="G54">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>10</v>
+        <v>27.03</v>
+      </c>
+      <c r="J54">
+        <f>IF(H54 = 1, G54 * I54, 0)</f>
+        <v>42.707400000000007</v>
       </c>
       <c r="K54" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="1">
-        <v>44464</v>
+        <v>44558</v>
       </c>
       <c r="B55" s="1">
-        <v>44464</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>25</v>
+        <v>44558</v>
+      </c>
+      <c r="C55" t="s">
+        <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>97</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F55" t="s">
         <v>98</v>
       </c>
+      <c r="E55" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="G55">
-        <v>8.5</v>
+        <v>1.34</v>
       </c>
       <c r="H55">
         <v>0</v>
       </c>
       <c r="I55">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J55">
         <v>0</v>
       </c>
       <c r="K55" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="1">
-        <v>44454</v>
+        <v>44541</v>
       </c>
       <c r="B56" s="1">
-        <v>44454</v>
-      </c>
-      <c r="C56" s="2" t="s">
+        <v>44541</v>
+      </c>
+      <c r="C56" t="s">
         <v>11</v>
       </c>
       <c r="D56" t="s">
         <v>99</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F56" t="s">
-        <v>65</v>
+      <c r="E56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="G56">
-        <v>1.45</v>
+        <v>1.7</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -2748,101 +2821,101 @@
         <v>0</v>
       </c>
       <c r="K56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="1">
-        <v>44454</v>
+        <v>44534</v>
       </c>
       <c r="B57" s="1">
-        <v>44454</v>
-      </c>
-      <c r="C57" s="2" t="s">
+        <v>44534</v>
+      </c>
+      <c r="C57" t="s">
         <v>11</v>
       </c>
       <c r="D57" t="s">
-        <v>99</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>35</v>
+        <v>100</v>
+      </c>
+      <c r="E57" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" t="s">
+        <v>42</v>
       </c>
       <c r="G57">
-        <v>1.43</v>
+        <v>3.2</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="J57">
-        <f>G57 * I57</f>
-        <v>48.62</v>
+        <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="1">
-        <v>44453</v>
+        <v>44531</v>
       </c>
       <c r="B58" s="1">
-        <v>44453</v>
-      </c>
-      <c r="C58" s="2" t="s">
+        <v>44531</v>
+      </c>
+      <c r="C58" t="s">
         <v>11</v>
       </c>
       <c r="D58" t="s">
+        <v>101</v>
+      </c>
+      <c r="E58" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G58">
+        <v>1.37</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
         <v>100</v>
       </c>
-      <c r="E58" t="s">
-        <v>26</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G58">
-        <v>1.42</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>50</v>
-      </c>
       <c r="J58">
-        <v>0</v>
+        <f>G58 * I58</f>
+        <v>137</v>
       </c>
       <c r="K58" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="1">
-        <v>44451</v>
+        <v>44493</v>
       </c>
       <c r="B59" s="1">
-        <v>44451</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>25</v>
+        <v>44493</v>
+      </c>
+      <c r="C59" t="s">
+        <v>11</v>
       </c>
       <c r="D59" t="s">
-        <v>101</v>
-      </c>
-      <c r="E59" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E59" t="s">
         <v>13</v>
       </c>
-      <c r="F59" t="s">
-        <v>102</v>
+      <c r="F59" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="G59">
-        <v>1.35</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -2852,1421 +2925,1386 @@
       </c>
       <c r="J59">
         <f>G59 * I59</f>
-        <v>67.5</v>
+        <v>122.50000000000001</v>
       </c>
       <c r="K59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="1">
-        <v>44450</v>
+        <v>44471</v>
       </c>
       <c r="B60" s="1">
-        <v>44450</v>
+        <v>44471</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" t="s">
+        <v>22</v>
+      </c>
+      <c r="F60" t="s">
         <v>103</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" t="s">
-        <v>104</v>
-      </c>
       <c r="G60">
-        <v>1.42</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="H60">
         <v>0</v>
       </c>
       <c r="I60">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="J60">
         <v>0</v>
       </c>
       <c r="K60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="1">
-        <v>44450</v>
+        <v>44471</v>
       </c>
       <c r="B61" s="1">
-        <v>44450</v>
+        <v>44471</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>103</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>13</v>
+        <v>104</v>
+      </c>
+      <c r="E61" t="s">
+        <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="G61">
-        <v>1.28</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="H61">
         <v>0</v>
       </c>
-      <c r="I61">
-        <v>50</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
       <c r="K61" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="1">
-        <v>44450</v>
+        <v>44471</v>
       </c>
       <c r="B62" s="1">
-        <v>44450</v>
+        <v>44471</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D62" t="s">
-        <v>103</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>13</v>
+        <v>106</v>
+      </c>
+      <c r="E62" t="s">
+        <v>22</v>
       </c>
       <c r="F62" t="s">
         <v>105</v>
       </c>
       <c r="G62">
-        <v>1.5</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>100</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="1">
-        <v>44437</v>
+        <v>44471</v>
       </c>
       <c r="B63" s="1">
-        <v>44437</v>
+        <v>44471</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D63" t="s">
-        <v>106</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F63" t="s">
         <v>107</v>
       </c>
+      <c r="E63" t="s">
+        <v>22</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="G63">
-        <v>9.5</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>10</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="1">
-        <v>44436</v>
+        <v>44471</v>
       </c>
       <c r="B64" s="1">
-        <v>44436</v>
+        <v>44471</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D64" t="s">
+        <v>109</v>
+      </c>
+      <c r="E64" t="s">
+        <v>22</v>
+      </c>
+      <c r="F64" t="s">
         <v>108</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" t="s">
-        <v>109</v>
-      </c>
       <c r="G64">
-        <v>1.1200000000000001</v>
+        <v>1.18</v>
       </c>
       <c r="H64">
         <v>1</v>
       </c>
-      <c r="I64">
-        <v>100</v>
-      </c>
-      <c r="J64">
-        <f>G64 * I64</f>
-        <v>112.00000000000001</v>
-      </c>
       <c r="K64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="1">
-        <v>44436</v>
+        <v>44471</v>
       </c>
       <c r="B65" s="1">
-        <v>44436</v>
+        <v>44471</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D65" t="s">
-        <v>108</v>
-      </c>
-      <c r="E65" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E65" t="s">
         <v>13</v>
       </c>
       <c r="F65" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G65">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="H65">
         <v>1</v>
       </c>
       <c r="I65">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="J65">
         <f>G65 * I65</f>
-        <v>71</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="K65" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="1">
-        <v>44375</v>
+        <v>44464</v>
       </c>
       <c r="B66" s="1">
-        <v>44375</v>
+        <v>44464</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="D66" t="s">
         <v>112</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="G66">
-        <v>1.58</v>
+        <v>1.4</v>
       </c>
       <c r="H66">
         <v>0</v>
       </c>
       <c r="I66">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J66">
         <v>0</v>
       </c>
       <c r="K66" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="1">
-        <v>44374</v>
+        <v>44464</v>
       </c>
       <c r="B67" s="1">
-        <v>44374</v>
+        <v>44464</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="D67" t="s">
         <v>113</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F67" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G67">
-        <v>1.82</v>
+        <v>1.62</v>
       </c>
       <c r="H67">
         <v>0</v>
       </c>
       <c r="I67">
-        <v>50</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K67" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="1">
-        <v>44374</v>
+        <v>44464</v>
       </c>
       <c r="B68" s="1">
-        <v>44374</v>
+        <v>44464</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="G68">
-        <v>3.05</v>
+        <v>8.5</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J68">
         <v>0</v>
       </c>
       <c r="K68" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="1">
-        <v>44374</v>
+        <v>44454</v>
       </c>
       <c r="B69" s="1">
-        <v>44374</v>
+        <v>44454</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>111</v>
+        <v>35</v>
       </c>
       <c r="D69" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F69" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G69">
-        <v>1.24</v>
+        <v>1.45</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69">
         <v>50</v>
       </c>
       <c r="J69">
-        <f t="shared" ref="J69:J71" si="0">G69 * I69</f>
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="K69" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="1">
+        <v>44454</v>
+      </c>
+      <c r="B70" s="1">
+        <v>44454</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D70" t="s">
+        <v>116</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G70">
+        <v>1.43</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>34</v>
+      </c>
+      <c r="J70">
+        <f>G70 * I70</f>
+        <v>48.62</v>
+      </c>
+      <c r="K70" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="1">
+        <v>44453</v>
+      </c>
+      <c r="B71" s="1">
+        <v>44453</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D71" t="s">
+        <v>117</v>
+      </c>
+      <c r="E71" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G71">
+        <v>1.42</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>50</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="1">
+        <v>44451</v>
+      </c>
+      <c r="B72" s="1">
+        <v>44451</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s">
+        <v>118</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F72" t="s">
+        <v>119</v>
+      </c>
+      <c r="G72">
+        <v>1.35</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>50</v>
+      </c>
+      <c r="J72">
+        <f>G72 * I72</f>
+        <v>67.5</v>
+      </c>
+      <c r="K72" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="1">
+        <v>44450</v>
+      </c>
+      <c r="B73" s="1">
+        <v>44450</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s">
+        <v>120</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F73" t="s">
+        <v>121</v>
+      </c>
+      <c r="G73">
+        <v>1.42</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>100</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="1">
+        <v>44450</v>
+      </c>
+      <c r="B74" s="1">
+        <v>44450</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s">
+        <v>120</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F74" t="s">
+        <v>29</v>
+      </c>
+      <c r="G74">
+        <v>1.28</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>50</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="1">
+        <v>44450</v>
+      </c>
+      <c r="B75" s="1">
+        <v>44450</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s">
+        <v>120</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F75" t="s">
+        <v>122</v>
+      </c>
+      <c r="G75">
+        <v>1.5</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>100</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="1">
+        <v>44437</v>
+      </c>
+      <c r="B76" s="1">
+        <v>44437</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s">
+        <v>123</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F76" t="s">
+        <v>124</v>
+      </c>
+      <c r="G76">
+        <v>9.5</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>10</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="1">
+        <v>44436</v>
+      </c>
+      <c r="B77" s="1">
+        <v>44436</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s">
+        <v>125</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F77" t="s">
+        <v>126</v>
+      </c>
+      <c r="G77">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>100</v>
+      </c>
+      <c r="J77">
+        <f>G77 * I77</f>
+        <v>112.00000000000001</v>
+      </c>
+      <c r="K77" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="1">
+        <v>44436</v>
+      </c>
+      <c r="B78" s="1">
+        <v>44436</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s">
+        <v>125</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F78" t="s">
+        <v>127</v>
+      </c>
+      <c r="G78">
+        <v>1.42</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>50</v>
+      </c>
+      <c r="J78">
+        <f>G78 * I78</f>
+        <v>71</v>
+      </c>
+      <c r="K78" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="1">
+        <v>44375</v>
+      </c>
+      <c r="B79" s="1">
+        <v>44375</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D79" t="s">
+        <v>129</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G79">
+        <v>1.58</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>100</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B80" s="1">
+        <v>44374</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D80" t="s">
+        <v>130</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F80" t="s">
+        <v>29</v>
+      </c>
+      <c r="G80">
+        <v>1.82</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>50</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B81" s="1">
+        <v>44374</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D81" t="s">
+        <v>130</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F81" t="s">
+        <v>52</v>
+      </c>
+      <c r="G81">
+        <v>3.05</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B82" s="1">
+        <v>44374</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D82" t="s">
+        <v>130</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F82" t="s">
+        <v>111</v>
+      </c>
+      <c r="G82">
+        <v>1.24</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>50</v>
+      </c>
+      <c r="J82">
+        <f t="shared" ref="J82:J84" si="0">G82 * I82</f>
+        <v>62</v>
+      </c>
+      <c r="K82" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="1">
         <v>44373</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B83" s="1">
         <v>44373</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D70" t="s">
-        <v>114</v>
-      </c>
-      <c r="E70" t="s">
-        <v>26</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G70">
+      <c r="C83" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D83" t="s">
+        <v>131</v>
+      </c>
+      <c r="E83" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G83">
         <v>1.92</v>
       </c>
-      <c r="H70">
-        <v>1</v>
-      </c>
-      <c r="I70">
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83">
         <v>100</v>
       </c>
-      <c r="J70">
+      <c r="J83">
         <f t="shared" si="0"/>
         <v>192</v>
       </c>
-      <c r="K70" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="1">
+      <c r="K83" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="1">
         <v>44368</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B84" s="1">
         <v>44368</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D71" t="s">
-        <v>115</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G71">
+      <c r="C84" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D84" t="s">
+        <v>132</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G84">
         <v>1.2</v>
       </c>
-      <c r="H71">
-        <v>1</v>
-      </c>
-      <c r="I71">
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
         <v>200</v>
       </c>
-      <c r="J71">
+      <c r="J84">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="K71" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="1">
+      <c r="K84" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="1">
         <v>44368</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B85" s="1">
         <v>44368</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D72" t="s">
-        <v>115</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F72" t="s">
-        <v>116</v>
-      </c>
-      <c r="G72">
+      <c r="C85" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D85" t="s">
+        <v>132</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F85" t="s">
+        <v>133</v>
+      </c>
+      <c r="G85">
         <v>1.42</v>
       </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72">
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
         <v>100</v>
       </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-      <c r="K72" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="1">
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="1">
         <v>44368</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B86" s="1">
         <v>44368</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D73" t="s">
-        <v>115</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F73" t="s">
-        <v>117</v>
-      </c>
-      <c r="G73">
+      <c r="C86" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D86" t="s">
+        <v>132</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F86" t="s">
+        <v>134</v>
+      </c>
+      <c r="G86">
         <v>1.1299999999999999</v>
       </c>
-      <c r="H73">
-        <v>1</v>
-      </c>
-      <c r="I73">
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86">
         <v>100</v>
       </c>
-      <c r="J73">
-        <f t="shared" ref="J73:J74" si="1">G73 * I73</f>
+      <c r="J86">
+        <f t="shared" ref="J86:J87" si="1">G86 * I86</f>
         <v>112.99999999999999</v>
       </c>
-      <c r="K73" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="1">
+      <c r="K86" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="1">
         <v>44368</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B87" s="1">
         <v>44368</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D74" t="s">
-        <v>115</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F74" t="s">
-        <v>118</v>
-      </c>
-      <c r="G74">
+      <c r="C87" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D87" t="s">
+        <v>132</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F87" t="s">
+        <v>135</v>
+      </c>
+      <c r="G87">
         <v>1.25</v>
       </c>
-      <c r="H74">
-        <v>1</v>
-      </c>
-      <c r="I74">
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87">
         <v>100</v>
       </c>
-      <c r="J74">
+      <c r="J87">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="K74" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="1">
+      <c r="K87" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="1">
         <v>44365</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B88" s="1">
         <v>44365</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D75" t="s">
-        <v>119</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G75">
+      <c r="C88" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D88" t="s">
+        <v>136</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G88">
         <v>1.65</v>
       </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75">
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
         <v>50</v>
       </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="K75" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="1">
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="1">
         <v>44365</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B89" s="1">
         <v>44365</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D76" t="s">
-        <v>119</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F76" t="s">
-        <v>62</v>
-      </c>
-      <c r="G76">
+      <c r="C89" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D89" t="s">
+        <v>136</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F89" t="s">
+        <v>29</v>
+      </c>
+      <c r="G89">
         <v>1.42</v>
       </c>
-      <c r="H76">
-        <v>1</v>
-      </c>
-      <c r="I76">
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89">
         <v>50</v>
       </c>
-      <c r="J76">
-        <f t="shared" ref="J76:J78" si="2">G76 * I76</f>
+      <c r="J89">
+        <f t="shared" ref="J89:J91" si="2">G89 * I89</f>
         <v>71</v>
       </c>
-      <c r="K76" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="1">
+      <c r="K89" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="1">
         <v>44364</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B90" s="1">
         <v>44364</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D77" t="s">
-        <v>120</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G77">
+      <c r="C90" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D90" t="s">
+        <v>137</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G90">
         <v>1.1599999999999999</v>
       </c>
-      <c r="H77">
-        <v>1</v>
-      </c>
-      <c r="I77">
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90">
         <v>100</v>
       </c>
-      <c r="J77">
+      <c r="J90">
         <f t="shared" si="2"/>
         <v>115.99999999999999</v>
       </c>
-      <c r="K77" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="1">
+      <c r="K90" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="1">
         <v>44364</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B91" s="1">
         <v>44364</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D78" t="s">
-        <v>121</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G78">
+      <c r="C91" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D91" t="s">
+        <v>138</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G91">
         <v>1.18</v>
       </c>
-      <c r="H78">
-        <v>1</v>
-      </c>
-      <c r="I78">
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91">
         <v>100</v>
       </c>
-      <c r="J78">
+      <c r="J91">
         <f t="shared" si="2"/>
         <v>118</v>
       </c>
-      <c r="K78" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
-      <c r="A79" s="1">
+      <c r="K91" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="1">
         <v>44363</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B92" s="1">
         <v>44363</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="C92" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D92" t="s">
+        <v>139</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F92" t="s">
         <v>122</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F79" t="s">
-        <v>105</v>
-      </c>
-      <c r="G79">
+      <c r="G92">
         <v>1.4</v>
       </c>
-      <c r="H79">
-        <v>1</v>
-      </c>
-      <c r="I79">
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92">
         <v>100</v>
       </c>
-      <c r="J79">
-        <f t="shared" ref="J79:J80" si="3">G79 * I79</f>
+      <c r="J92">
+        <f t="shared" ref="J92:J93" si="3">G92 * I92</f>
         <v>140</v>
       </c>
-      <c r="K79" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
-      <c r="A80" s="1">
+      <c r="K92" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" s="1">
         <v>44363</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B93" s="1">
         <v>44363</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D80" t="s">
-        <v>122</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G80">
+      <c r="C93" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D93" t="s">
+        <v>139</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G93">
         <v>1.22</v>
       </c>
-      <c r="H80">
-        <v>1</v>
-      </c>
-      <c r="I80">
+      <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
         <v>100</v>
       </c>
-      <c r="J80">
+      <c r="J93">
         <f t="shared" si="3"/>
         <v>122</v>
       </c>
-      <c r="K80" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
-      <c r="A81" s="1">
+      <c r="K93" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="1">
         <v>44362</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B94" s="1">
         <v>44362</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D81" t="s">
-        <v>123</v>
-      </c>
-      <c r="E81" s="2" t="s">
+      <c r="C94" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D94" t="s">
+        <v>140</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F94" t="s">
+        <v>29</v>
+      </c>
+      <c r="G94">
+        <v>1.77</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>100</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="1">
+        <v>44361</v>
+      </c>
+      <c r="B95" s="1">
+        <v>44361</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D95" t="s">
+        <v>141</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F95" t="s">
+        <v>142</v>
+      </c>
+      <c r="G95">
+        <v>1.27</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>100</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="1">
+        <v>44359</v>
+      </c>
+      <c r="B96" s="1">
+        <v>44359</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D96" t="s">
+        <v>143</v>
+      </c>
+      <c r="E96" t="s">
         <v>13</v>
       </c>
-      <c r="F81" t="s">
-        <v>62</v>
-      </c>
-      <c r="G81">
-        <v>1.77</v>
-      </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
-      <c r="I81">
-        <v>100</v>
-      </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-      <c r="K81" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
-      <c r="A82" s="1">
-        <v>44361</v>
-      </c>
-      <c r="B82" s="1">
-        <v>44361</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D82" t="s">
-        <v>124</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F82" t="s">
-        <v>125</v>
-      </c>
-      <c r="G82">
-        <v>1.27</v>
-      </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
-      <c r="I82">
-        <v>100</v>
-      </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
-      <c r="K82" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
-      <c r="A83" s="1">
-        <v>44359</v>
-      </c>
-      <c r="B83" s="1">
-        <v>44359</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D83" t="s">
-        <v>127</v>
-      </c>
-      <c r="E83" t="s">
-        <v>26</v>
-      </c>
-      <c r="F83" t="s">
-        <v>33</v>
-      </c>
-      <c r="G83">
+      <c r="F96" t="s">
+        <v>52</v>
+      </c>
+      <c r="G96">
         <v>3.9</v>
       </c>
-      <c r="H83">
-        <v>0</v>
-      </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="J83">
-        <f t="shared" ref="J82:J84" si="4">G83 * I83</f>
-        <v>0</v>
-      </c>
-      <c r="K83" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
-      <c r="A84" s="1">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <f t="shared" ref="J95:J97" si="4">G96 * I96</f>
+        <v>0</v>
+      </c>
+      <c r="K96" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="1">
         <v>44358</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B97" s="1">
         <v>44358</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="C97" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E84" t="s">
-        <v>13</v>
-      </c>
-      <c r="F84" t="s">
-        <v>129</v>
-      </c>
-      <c r="G84">
+      <c r="D97" t="s">
+        <v>144</v>
+      </c>
+      <c r="E97" t="s">
+        <v>22</v>
+      </c>
+      <c r="F97" t="s">
+        <v>145</v>
+      </c>
+      <c r="G97">
         <v>1.17</v>
       </c>
-      <c r="H84">
-        <v>1</v>
-      </c>
-      <c r="I84">
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97">
         <v>50</v>
       </c>
-      <c r="J84">
+      <c r="J97">
         <f t="shared" si="4"/>
         <v>58.5</v>
       </c>
-      <c r="K84" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
-      <c r="A85" s="1">
-        <v>44358</v>
-      </c>
-      <c r="B85" s="1">
-        <v>44358</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D85" t="s">
-        <v>128</v>
-      </c>
-      <c r="E85" t="s">
-        <v>13</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G85">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="H85">
-        <v>1</v>
-      </c>
-      <c r="I85">
-        <v>100</v>
-      </c>
-      <c r="J85">
-        <f>G85 * I85</f>
-        <v>109.00000000000001</v>
-      </c>
-      <c r="K85" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
-      <c r="A86" s="1">
-        <v>44339</v>
-      </c>
-      <c r="B86" s="1">
-        <v>44339</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D86" t="s">
-        <v>130</v>
-      </c>
-      <c r="E86" t="s">
-        <v>13</v>
-      </c>
-      <c r="F86" t="s">
-        <v>131</v>
-      </c>
-      <c r="G86">
-        <v>1.18</v>
-      </c>
-      <c r="H86">
-        <v>1</v>
-      </c>
-      <c r="I86">
-        <v>50</v>
-      </c>
-      <c r="J86">
-        <f>G86 * I86</f>
-        <v>59</v>
-      </c>
-      <c r="K86" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
-      <c r="A87" s="1">
-        <v>44339</v>
-      </c>
-      <c r="B87" s="1">
-        <v>44339</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D87" t="s">
-        <v>130</v>
-      </c>
-      <c r="E87" t="s">
-        <v>13</v>
-      </c>
-      <c r="F87" t="s">
-        <v>18</v>
-      </c>
-      <c r="G87">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="H87">
-        <v>1</v>
-      </c>
-      <c r="I87">
-        <v>100</v>
-      </c>
-      <c r="J87">
-        <f>G87 * I87</f>
-        <v>114.99999999999999</v>
-      </c>
-      <c r="K87" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
-      <c r="A88" s="1">
-        <v>44335</v>
-      </c>
-      <c r="B88" s="1">
-        <v>44335</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D88" t="s">
-        <v>132</v>
-      </c>
-      <c r="E88" t="s">
-        <v>13</v>
-      </c>
-      <c r="F88" t="s">
-        <v>20</v>
-      </c>
-      <c r="G88">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H88">
-        <v>1</v>
-      </c>
-      <c r="I88">
-        <v>25</v>
-      </c>
-      <c r="J88">
-        <f>G88 * I88</f>
-        <v>55.000000000000007</v>
-      </c>
-      <c r="K88" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
-      <c r="A89" s="1">
-        <v>44332</v>
-      </c>
-      <c r="B89" s="1">
-        <v>44332</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D89" t="s">
-        <v>133</v>
-      </c>
-      <c r="E89" t="s">
-        <v>13</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G89">
-        <v>1.27</v>
-      </c>
-      <c r="H89">
-        <v>1</v>
-      </c>
-      <c r="I89">
-        <v>25</v>
-      </c>
-      <c r="J89">
-        <f>G89 * I89</f>
-        <v>31.75</v>
-      </c>
-      <c r="K89" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
-      <c r="A90" s="1">
-        <v>44329</v>
-      </c>
-      <c r="B90" s="1">
-        <v>44329</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D90" t="s">
-        <v>85</v>
-      </c>
-      <c r="E90" t="s">
-        <v>26</v>
-      </c>
-      <c r="F90" t="s">
-        <v>134</v>
-      </c>
-      <c r="G90">
-        <v>1.6</v>
-      </c>
-      <c r="H90">
-        <v>1</v>
-      </c>
-      <c r="I90">
-        <v>10</v>
-      </c>
-      <c r="J90">
-        <f>G90 * I90</f>
-        <v>16</v>
-      </c>
-      <c r="K90" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
-      <c r="A91" s="1">
-        <v>44329</v>
-      </c>
-      <c r="B91" s="1">
-        <v>44329</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D91" t="s">
-        <v>85</v>
-      </c>
-      <c r="E91" t="s">
-        <v>26</v>
-      </c>
-      <c r="F91" t="s">
-        <v>33</v>
-      </c>
-      <c r="G91">
-        <v>3.65</v>
-      </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-      <c r="I91">
-        <v>10</v>
-      </c>
-      <c r="J91">
-        <v>0</v>
-      </c>
-      <c r="K91" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
-      <c r="A92" s="1">
-        <v>44305</v>
-      </c>
-      <c r="B92" s="1">
-        <v>44305</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D92" t="s">
-        <v>101</v>
-      </c>
-      <c r="E92" t="s">
-        <v>13</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G92">
-        <v>1.52</v>
-      </c>
-      <c r="H92">
-        <v>0</v>
-      </c>
-      <c r="I92">
-        <v>100</v>
-      </c>
-      <c r="J92">
-        <f>G92 * I92</f>
-        <v>152</v>
-      </c>
-      <c r="K92" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
-      <c r="A93" s="1">
-        <v>44292</v>
-      </c>
-      <c r="B93" s="1">
-        <v>44292</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D93" t="s">
-        <v>135</v>
-      </c>
-      <c r="E93" t="s">
-        <v>13</v>
-      </c>
-      <c r="F93" t="s">
-        <v>136</v>
-      </c>
-      <c r="G93">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H93">
-        <v>0</v>
-      </c>
-      <c r="I93">
-        <v>100</v>
-      </c>
-      <c r="J93">
-        <v>0</v>
-      </c>
-      <c r="K93" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
-      <c r="A94" s="1">
-        <v>44292</v>
-      </c>
-      <c r="B94" s="1">
-        <v>44292</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s">
-        <v>135</v>
-      </c>
-      <c r="E94" t="s">
-        <v>26</v>
-      </c>
-      <c r="F94" t="s">
-        <v>62</v>
-      </c>
-      <c r="G94">
-        <v>2.15</v>
-      </c>
-      <c r="H94">
-        <v>0</v>
-      </c>
-      <c r="I94">
-        <v>50</v>
-      </c>
-      <c r="J94">
-        <v>0</v>
-      </c>
-      <c r="K94" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
-      <c r="A95" s="1">
-        <v>44292</v>
-      </c>
-      <c r="B95" s="1">
-        <v>44292</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D95" t="s">
-        <v>135</v>
-      </c>
-      <c r="E95" t="s">
-        <v>26</v>
-      </c>
-      <c r="F95" t="s">
-        <v>94</v>
-      </c>
-      <c r="G95">
-        <v>1.33</v>
-      </c>
-      <c r="H95">
-        <v>1</v>
-      </c>
-      <c r="I95">
-        <v>45</v>
-      </c>
-      <c r="J95">
-        <f>G95 * I95</f>
-        <v>59.85</v>
-      </c>
-      <c r="K95" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
-      <c r="A96" s="1">
-        <v>44290</v>
-      </c>
-      <c r="B96" s="1">
-        <v>44290</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D96" t="s">
-        <v>137</v>
-      </c>
-      <c r="E96" t="s">
-        <v>13</v>
-      </c>
-      <c r="F96" t="s">
-        <v>138</v>
-      </c>
-      <c r="G96">
-        <v>1.6</v>
-      </c>
-      <c r="H96">
-        <v>0</v>
-      </c>
-      <c r="I96">
-        <v>100</v>
-      </c>
-      <c r="J96">
-        <v>0</v>
-      </c>
-      <c r="K96" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
-      <c r="A97" s="1">
-        <v>44290</v>
-      </c>
-      <c r="B97" s="1">
-        <v>44290</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D97" t="s">
-        <v>137</v>
-      </c>
-      <c r="E97" t="s">
-        <v>13</v>
-      </c>
-      <c r="F97" t="s">
-        <v>139</v>
-      </c>
-      <c r="G97">
-        <v>1.28</v>
-      </c>
-      <c r="H97">
-        <v>1</v>
-      </c>
-      <c r="I97">
-        <v>100</v>
-      </c>
-      <c r="J97">
-        <f>G97 * I97</f>
-        <v>128</v>
-      </c>
       <c r="K97" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="1">
-        <v>44290</v>
+        <v>44358</v>
       </c>
       <c r="B98" s="1">
-        <v>44290</v>
+        <v>44358</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="D98" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E98" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="G98">
-        <v>1.97</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J98">
-        <v>14.62</v>
+        <f>G98 * I98</f>
+        <v>109.00000000000001</v>
       </c>
       <c r="K98" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="1">
-        <v>44289</v>
+        <v>44339</v>
       </c>
       <c r="B99" s="1">
-        <v>44289</v>
+        <v>44339</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D99" t="s">
-        <v>61</v>
+        <v>146</v>
       </c>
       <c r="E99" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F99" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="G99">
-        <v>4.8</v>
+        <v>1.18</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -4276,46 +4314,509 @@
       </c>
       <c r="J99">
         <f>G99 * I99</f>
-        <v>240</v>
+        <v>59</v>
       </c>
       <c r="K99" t="s">
-        <v>141</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="1">
-        <v>44289</v>
+        <v>44339</v>
       </c>
       <c r="B100" s="1">
-        <v>44289</v>
+        <v>44339</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D100" t="s">
-        <v>61</v>
+        <v>146</v>
       </c>
       <c r="E100" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F100" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G100">
-        <v>2.2000000000000002</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H100">
         <v>1</v>
       </c>
       <c r="I100">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J100">
         <f>G100 * I100</f>
+        <v>114.99999999999999</v>
+      </c>
+      <c r="K100" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" s="1">
+        <v>44335</v>
+      </c>
+      <c r="B101" s="1">
+        <v>44335</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s">
+        <v>148</v>
+      </c>
+      <c r="E101" t="s">
+        <v>22</v>
+      </c>
+      <c r="F101" t="s">
+        <v>42</v>
+      </c>
+      <c r="G101">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="I101">
+        <v>25</v>
+      </c>
+      <c r="J101">
+        <f>G101 * I101</f>
+        <v>55.000000000000007</v>
+      </c>
+      <c r="K101" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" s="1">
+        <v>44332</v>
+      </c>
+      <c r="B102" s="1">
+        <v>44332</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s">
+        <v>149</v>
+      </c>
+      <c r="E102" t="s">
+        <v>22</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G102">
+        <v>1.27</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102">
+        <v>25</v>
+      </c>
+      <c r="J102">
+        <f>G102 * I102</f>
+        <v>31.75</v>
+      </c>
+      <c r="K102" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" s="1">
+        <v>44329</v>
+      </c>
+      <c r="B103" s="1">
+        <v>44329</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103" t="s">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" t="s">
+        <v>150</v>
+      </c>
+      <c r="G103">
+        <v>1.6</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="I103">
+        <v>10</v>
+      </c>
+      <c r="J103">
+        <f>G103 * I103</f>
+        <v>16</v>
+      </c>
+      <c r="K103" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" s="1">
+        <v>44329</v>
+      </c>
+      <c r="B104" s="1">
+        <v>44329</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s">
+        <v>102</v>
+      </c>
+      <c r="E104" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104" t="s">
+        <v>52</v>
+      </c>
+      <c r="G104">
+        <v>3.65</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>10</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" s="1">
+        <v>44305</v>
+      </c>
+      <c r="B105" s="1">
+        <v>44305</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s">
+        <v>118</v>
+      </c>
+      <c r="E105" t="s">
+        <v>22</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G105">
+        <v>1.52</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>100</v>
+      </c>
+      <c r="J105">
+        <f>G105 * I105</f>
+        <v>152</v>
+      </c>
+      <c r="K105" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" s="1">
+        <v>44292</v>
+      </c>
+      <c r="B106" s="1">
+        <v>44292</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D106" t="s">
+        <v>151</v>
+      </c>
+      <c r="E106" t="s">
+        <v>22</v>
+      </c>
+      <c r="F106" t="s">
+        <v>152</v>
+      </c>
+      <c r="G106">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>100</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" s="1">
+        <v>44292</v>
+      </c>
+      <c r="B107" s="1">
+        <v>44292</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D107" t="s">
+        <v>151</v>
+      </c>
+      <c r="E107" t="s">
+        <v>13</v>
+      </c>
+      <c r="F107" t="s">
+        <v>29</v>
+      </c>
+      <c r="G107">
+        <v>2.15</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>50</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" s="1">
+        <v>44292</v>
+      </c>
+      <c r="B108" s="1">
+        <v>44292</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D108" t="s">
+        <v>151</v>
+      </c>
+      <c r="E108" t="s">
+        <v>13</v>
+      </c>
+      <c r="F108" t="s">
+        <v>111</v>
+      </c>
+      <c r="G108">
+        <v>1.33</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108">
+        <v>45</v>
+      </c>
+      <c r="J108">
+        <f>G108 * I108</f>
+        <v>59.85</v>
+      </c>
+      <c r="K108" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" s="1">
+        <v>44290</v>
+      </c>
+      <c r="B109" s="1">
+        <v>44290</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D109" t="s">
+        <v>153</v>
+      </c>
+      <c r="E109" t="s">
+        <v>22</v>
+      </c>
+      <c r="F109" t="s">
+        <v>154</v>
+      </c>
+      <c r="G109">
+        <v>1.6</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>100</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" s="1">
+        <v>44290</v>
+      </c>
+      <c r="B110" s="1">
+        <v>44290</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D110" t="s">
+        <v>153</v>
+      </c>
+      <c r="E110" t="s">
+        <v>22</v>
+      </c>
+      <c r="F110" t="s">
+        <v>155</v>
+      </c>
+      <c r="G110">
+        <v>1.28</v>
+      </c>
+      <c r="H110">
+        <v>1</v>
+      </c>
+      <c r="I110">
+        <v>100</v>
+      </c>
+      <c r="J110">
+        <f>G110 * I110</f>
+        <v>128</v>
+      </c>
+      <c r="K110" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" s="1">
+        <v>44290</v>
+      </c>
+      <c r="B111" s="1">
+        <v>44290</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s">
+        <v>153</v>
+      </c>
+      <c r="E111" t="s">
+        <v>22</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G111">
+        <v>1.97</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>50</v>
+      </c>
+      <c r="J111">
+        <v>14.62</v>
+      </c>
+      <c r="K111" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" s="1">
+        <v>44289</v>
+      </c>
+      <c r="B112" s="1">
+        <v>44289</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s">
+        <v>79</v>
+      </c>
+      <c r="E112" t="s">
+        <v>22</v>
+      </c>
+      <c r="F112" t="s">
+        <v>23</v>
+      </c>
+      <c r="G112">
+        <v>4.8</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
+        <v>50</v>
+      </c>
+      <c r="J112">
+        <f>G112 * I112</f>
+        <v>240</v>
+      </c>
+      <c r="K112" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" s="1">
+        <v>44289</v>
+      </c>
+      <c r="B113" s="1">
+        <v>44289</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s">
+        <v>79</v>
+      </c>
+      <c r="E113" t="s">
+        <v>22</v>
+      </c>
+      <c r="F113" t="s">
+        <v>29</v>
+      </c>
+      <c r="G113">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113">
+        <v>50</v>
+      </c>
+      <c r="J113">
+        <f>G113 * I113</f>
         <v>110.00000000000001</v>
       </c>
-      <c r="K100" t="s">
-        <v>21</v>
+      <c r="K113" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -4340,34 +4841,34 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="C1" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="D1" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4">
         <f xml:space="preserve"> SUM(Odds!J:J)</f>
-        <v>4791.2673999999997</v>
+        <v>4984.4174000000003</v>
       </c>
       <c r="B2">
         <f xml:space="preserve"> SUM(Odds!I:I)</f>
-        <v>5224.53</v>
+        <v>5536.68</v>
       </c>
       <c r="C2">
         <f>A2 - B2</f>
-        <v>-433.26260000000002</v>
+        <v>-552.26260000000002</v>
       </c>
       <c r="D2">
         <f>ROUND(100 * (C2 / B2), 2)</f>
-        <v>-8.2899999999999991</v>
+        <v>-9.9700000000000006</v>
       </c>
     </row>
   </sheetData>

--- a/inst/data/Betting.xlsx
+++ b/inst/data/Betting.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F1FBC6F-19E7-4246-B6FB-32D7373D25F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7B035BD-5232-454B-9590-974BBD988F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="Overblik" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Odds!$A$1:$K$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Odds!$A$1:$K$125</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="176">
   <si>
     <t>BetDay</t>
   </si>
@@ -69,27 +69,96 @@
     <t>Premier League</t>
   </si>
   <si>
+    <t>Manchester C - Newcastle</t>
+  </si>
+  <si>
+    <t>Oddset</t>
+  </si>
+  <si>
+    <t>Trippel ID 6: Dobbeltchance Manchester C eller Uafgjort</t>
+  </si>
+  <si>
+    <t>Dobbeltchance</t>
+  </si>
+  <si>
+    <t>Arsenal - Leeds</t>
+  </si>
+  <si>
+    <t>Trippel ID 6: Dobbeltchance Arsenal eller Uafgjort</t>
+  </si>
+  <si>
+    <t>Norwich - West Ham</t>
+  </si>
+  <si>
+    <t>Trippel ID 6: Dobbeltchance Uafgjort eller West Ham</t>
+  </si>
+  <si>
+    <t>Trippel ID 6</t>
+  </si>
+  <si>
+    <t>Trippel</t>
+  </si>
+  <si>
+    <t>Dobbeltchance Arsenal eller Uafgjort</t>
+  </si>
+  <si>
+    <t>Liverpool - Tottenham</t>
+  </si>
+  <si>
+    <t>Live Betting</t>
+  </si>
+  <si>
+    <t>1-0</t>
+  </si>
+  <si>
+    <t>Resultat</t>
+  </si>
+  <si>
+    <t>Dobbeltchance Liverpool eller Uafgjort</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Kampvinder</t>
+  </si>
+  <si>
+    <t>Champions League</t>
+  </si>
+  <si>
+    <t>Villarreal - Liverpool</t>
+  </si>
+  <si>
+    <t>Dobbeltchance Uafgjort eller Liverpool</t>
+  </si>
+  <si>
+    <t>Hvem går videre og hvordan: Liverpool efter ordinær spilletid</t>
+  </si>
+  <si>
+    <t>Kommer der mindst et rødt kort i kampen: Nej</t>
+  </si>
+  <si>
+    <t>Kort</t>
+  </si>
+  <si>
+    <t>Manchester U - Brentford</t>
+  </si>
+  <si>
+    <t>Dobbeltchance Uafgjort eller Brentford</t>
+  </si>
+  <si>
     <t>Everton - Chelsea</t>
   </si>
   <si>
-    <t>Oddset</t>
-  </si>
-  <si>
     <t>Dobbeltchance Everton eller Uafgjort</t>
   </si>
   <si>
-    <t>Dobbeltchance</t>
-  </si>
-  <si>
     <t>Leeds - Manchester C</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>Kampvinder</t>
-  </si>
-  <si>
     <t>Under 1,5 mål ved pausen &amp; under 10,5 hjørne &amp; under 5,5 kort</t>
   </si>
   <si>
@@ -99,9 +168,6 @@
     <t>Newcastle - Liverpool</t>
   </si>
   <si>
-    <t>Live Betting</t>
-  </si>
-  <si>
     <t>Halvleg/fuldtid Uafgjort / Liverpool</t>
   </si>
   <si>
@@ -138,18 +204,9 @@
     <t>Manchester U holder målet rent? Nej</t>
   </si>
   <si>
-    <t>Champions League</t>
-  </si>
-  <si>
     <t>Liverpool - Villarreal</t>
   </si>
   <si>
-    <t>Kommer der mindst et rødt kort i kampen: Nej</t>
-  </si>
-  <si>
-    <t>Kort</t>
-  </si>
-  <si>
     <t>Special - LIVE Luis Diaz laver assist</t>
   </si>
   <si>
@@ -195,9 +252,6 @@
     <t>Liverpool - Everton</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>Newcastle - Crystal P</t>
   </si>
   <si>
@@ -219,16 +273,10 @@
     <t>Trippel ID 4</t>
   </si>
   <si>
-    <t>Trippel</t>
-  </si>
-  <si>
     <t>Liverpool - Manchester U</t>
   </si>
   <si>
     <t>4-0</t>
-  </si>
-  <si>
-    <t>Resultat</t>
   </si>
   <si>
     <t>3-0</t>
@@ -559,13 +607,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -880,11 +929,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K113"/>
+  <dimension ref="A1:K125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -892,7 +941,7 @@
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="33.7109375" customWidth="1"/>
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
@@ -935,10 +984,10 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>44566</v>
+        <v>44689</v>
       </c>
       <c r="B2" s="1">
-        <v>44566</v>
+        <v>44689</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
@@ -953,27 +1002,21 @@
         <v>14</v>
       </c>
       <c r="G2">
-        <v>2.1</v>
+        <v>1.02</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2">
-        <v>5</v>
-      </c>
-      <c r="J2">
-        <v>10.5</v>
-      </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>44681</v>
+        <v>44689</v>
       </c>
       <c r="B3" s="1">
-        <v>44681</v>
+        <v>44689</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
@@ -984,37 +1027,31 @@
       <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" t="s">
         <v>17</v>
       </c>
       <c r="G3">
-        <v>1.3</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
-      <c r="I3">
-        <v>28</v>
-      </c>
-      <c r="J3">
-        <v>36</v>
-      </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>44681</v>
+        <v>44689</v>
       </c>
       <c r="B4" s="1">
-        <v>44681</v>
+        <v>44689</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -1023,118 +1060,109 @@
         <v>19</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>1.22</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
-      <c r="I4">
-        <v>5</v>
-      </c>
-      <c r="J4">
+      <c r="K4" t="s">
         <v>15</v>
-      </c>
-      <c r="K4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>44681</v>
+        <v>44689</v>
       </c>
       <c r="B5" s="1">
-        <v>44681</v>
+        <v>44689</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <v>1.38</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>50</v>
+      </c>
+      <c r="J5">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
         <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>28.65</v>
-      </c>
-      <c r="J5">
-        <v>33</v>
-      </c>
-      <c r="K5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>44681</v>
+        <v>44688</v>
       </c>
       <c r="B6" s="1">
-        <v>44681</v>
+        <v>44689</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
       <c r="G6">
-        <v>3.9</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="K6" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>44681</v>
+        <v>44688</v>
       </c>
       <c r="B7" s="1">
-        <v>44681</v>
+        <v>44688</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G7">
-        <v>1.25</v>
+        <v>5.4</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1145,209 +1173,209 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>44681</v>
+        <v>44688</v>
       </c>
       <c r="B8" s="1">
-        <v>44681</v>
+        <v>44688</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
       </c>
       <c r="G8">
-        <v>1.45</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="K8" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
-        <v>44681</v>
+        <v>44656</v>
       </c>
       <c r="B9" s="1">
-        <v>44681</v>
+        <v>44688</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
+        <v>13</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="G9">
-        <v>2.4</v>
+        <v>1.42</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>44681</v>
+        <v>44684</v>
       </c>
       <c r="B10" s="1">
-        <v>44681</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>44684</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G10">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>20</v>
+        <v>35.25</v>
       </c>
       <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10" t="s">
-        <v>28</v>
+        <v>43</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
-        <v>44679</v>
+        <v>44684</v>
       </c>
       <c r="B11" s="1">
-        <v>44679</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>44684</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
       </c>
       <c r="D11" t="s">
         <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>1.06</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>95.5</v>
+        <v>100</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="K11" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1">
-        <v>44679</v>
+        <v>44684</v>
       </c>
       <c r="B12" s="1">
-        <v>44679</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>11</v>
+        <v>44684</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
       </c>
       <c r="D12" t="s">
         <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G12">
-        <v>5.2</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>5</v>
+        <v>65.22</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1">
-        <v>44679</v>
+        <v>44683</v>
       </c>
       <c r="B13" s="1">
-        <v>44679</v>
+        <v>44683</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G13">
-        <v>1.32</v>
+        <v>2.15</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="J13">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>15</v>
@@ -1355,165 +1383,165 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1">
-        <v>44679</v>
+        <v>44566</v>
       </c>
       <c r="B14" s="1">
-        <v>44679</v>
+        <v>44566</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G14">
-        <v>1.19</v>
+        <v>2.1</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="J14">
-        <v>29.5</v>
-      </c>
-      <c r="K14" t="s">
-        <v>28</v>
+        <v>10.5</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1">
-        <v>44678</v>
+        <v>44681</v>
       </c>
       <c r="B15" s="1">
-        <v>44678</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
+        <v>44681</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15">
+        <v>1.3</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>28</v>
+      </c>
+      <c r="J15">
         <v>36</v>
       </c>
-      <c r="E15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>93</v>
-      </c>
-      <c r="J15">
-        <v>105</v>
-      </c>
       <c r="K15" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
-        <v>44678</v>
+        <v>44681</v>
       </c>
       <c r="B16" s="1">
-        <v>44678</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
+        <v>44681</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G16">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
-        <v>44678</v>
+        <v>44681</v>
       </c>
       <c r="B17" s="1">
-        <v>44678</v>
-      </c>
-      <c r="C17" t="s">
-        <v>35</v>
+        <v>44681</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>41</v>
       </c>
       <c r="G17">
-        <v>1.5</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>50</v>
+        <v>28.65</v>
       </c>
       <c r="J17">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="K17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1">
-        <v>44678</v>
+        <v>44681</v>
       </c>
       <c r="B18" s="1">
-        <v>44678</v>
-      </c>
-      <c r="C18" t="s">
-        <v>35</v>
+        <v>44681</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G18">
-        <v>2.15</v>
+        <v>3.9</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1525,257 +1553,260 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1">
-        <v>44678</v>
+        <v>44681</v>
       </c>
       <c r="B19" s="1">
-        <v>44678</v>
-      </c>
-      <c r="C19" t="s">
-        <v>35</v>
+        <v>44681</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G19">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="J19">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1">
-        <v>44677</v>
+        <v>44681</v>
       </c>
       <c r="B20" s="1">
-        <v>44677</v>
-      </c>
-      <c r="C20" t="s">
-        <v>35</v>
+        <v>44681</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D20" t="s">
         <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G20">
-        <v>1.58</v>
+        <v>1.45</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1">
-        <v>44676</v>
+        <v>44681</v>
       </c>
       <c r="B21" s="1">
-        <v>44676</v>
+        <v>44681</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G21">
-        <v>7.23</v>
+        <v>2.4</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>10</v>
       </c>
       <c r="J21">
-        <v>14</v>
+        <v>3.15</v>
       </c>
       <c r="K21" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1">
-        <v>44674</v>
+        <v>44681</v>
       </c>
       <c r="B22" s="1">
-        <v>44674</v>
+        <v>44681</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E22" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G22">
-        <v>2.8</v>
+        <v>1.23</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1">
-        <v>44674</v>
+        <v>44679</v>
       </c>
       <c r="B23" s="1">
-        <v>44674</v>
+        <v>44679</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" t="s">
-        <v>49</v>
+        <v>24</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="G23">
-        <v>2.0499999999999998</v>
+        <v>2</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>10</v>
+        <v>95.5</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1">
-        <v>44674</v>
+        <v>44679</v>
       </c>
       <c r="B24" s="1">
-        <v>44674</v>
+        <v>44679</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="G24">
-        <v>1.32</v>
+        <v>5.2</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1">
-        <v>44672</v>
+        <v>44679</v>
       </c>
       <c r="B25" s="1">
-        <v>44672</v>
+        <v>44679</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E25" t="s">
         <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G25">
-        <v>3.3</v>
+        <v>1.32</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25" t="s">
-        <v>18</v>
+        <v>66</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1">
-        <v>44671</v>
+        <v>44679</v>
       </c>
       <c r="B26" s="1">
-        <v>44675</v>
+        <v>44679</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>11</v>
@@ -1786,231 +1817,253 @@
       <c r="E26" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>54</v>
+      <c r="F26" t="s">
+        <v>56</v>
       </c>
       <c r="G26">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="J26">
-        <f>G26 * I26</f>
-        <v>240</v>
+        <v>29.5</v>
       </c>
       <c r="K26" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1">
-        <v>44671</v>
+        <v>44678</v>
       </c>
       <c r="B27" s="1">
-        <v>44671</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>11</v>
+        <v>44678</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F27" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="G27">
-        <v>2.35</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
+      <c r="I27">
+        <v>93</v>
+      </c>
+      <c r="J27">
+        <v>105</v>
+      </c>
       <c r="K27" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1">
-        <v>44671</v>
+        <v>44678</v>
       </c>
       <c r="B28" s="1">
-        <v>44671</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>11</v>
+        <v>44678</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
       </c>
       <c r="D28" t="s">
         <v>57</v>
       </c>
       <c r="E28" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G28">
-        <v>1.92</v>
+        <v>4.5</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
+      <c r="I28">
+        <v>10</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
       <c r="K28" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1">
-        <v>44671</v>
+        <v>44678</v>
       </c>
       <c r="B29" s="1">
-        <v>44671</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>58</v>
+        <v>44678</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" t="s">
+        <v>57</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G29">
-        <v>1.23</v>
+        <v>1.5</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
+      <c r="I29">
+        <v>50</v>
+      </c>
+      <c r="J29">
+        <v>70</v>
+      </c>
       <c r="K29" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1">
-        <v>44671</v>
+        <v>44678</v>
       </c>
       <c r="B30" s="1">
-        <v>44671</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>11</v>
+        <v>44678</v>
+      </c>
+      <c r="C30" t="s">
+        <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G30">
-        <v>3.3</v>
+        <v>2.15</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>10</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1">
-        <v>44671</v>
+        <v>44678</v>
       </c>
       <c r="B31" s="1">
-        <v>44671</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>11</v>
+        <v>44678</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>57</v>
       </c>
       <c r="E31" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G31">
-        <v>2.375</v>
+        <v>1.32</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J31">
-        <v>47.5</v>
+        <v>132</v>
       </c>
       <c r="K31" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1">
-        <v>44670</v>
+        <v>44677</v>
       </c>
       <c r="B32" s="1">
-        <v>44670</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>11</v>
+        <v>44677</v>
+      </c>
+      <c r="C32" t="s">
+        <v>30</v>
       </c>
       <c r="D32" t="s">
         <v>63</v>
       </c>
       <c r="E32" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>54</v>
+        <v>24</v>
+      </c>
+      <c r="F32" t="s">
+        <v>64</v>
       </c>
       <c r="G32">
-        <v>1.33</v>
+        <v>1.58</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J32">
-        <f>G32 * I32</f>
-        <v>134.33000000000001</v>
+        <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1">
-        <v>44670</v>
+        <v>44676</v>
       </c>
       <c r="B33" s="1">
-        <v>44670</v>
+        <v>44676</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D33" t="s">
-        <v>63</v>
       </c>
       <c r="E33" t="s">
         <v>13</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G33">
-        <v>15</v>
+        <v>7.23</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -2019,762 +2072,733 @@
         <v>10</v>
       </c>
       <c r="J33">
-        <f>G33 * I33</f>
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="K33" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1">
-        <v>44670</v>
+        <v>44674</v>
       </c>
       <c r="B34" s="1">
-        <v>44670</v>
+        <v>44674</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G34">
-        <v>9.35</v>
+        <v>2.8</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1">
-        <v>44667</v>
+        <v>44674</v>
       </c>
       <c r="B35" s="1">
-        <v>44667</v>
+        <v>44674</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E35" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F35" t="s">
         <v>68</v>
       </c>
       <c r="G35">
-        <v>1.52</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1">
-        <v>44664</v>
+        <v>44674</v>
       </c>
       <c r="B36" s="1">
-        <v>44664</v>
+        <v>44674</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G36">
+        <v>1.32</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>50</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
         <v>69</v>
-      </c>
-      <c r="E36" t="s">
-        <v>22</v>
-      </c>
-      <c r="F36" t="s">
-        <v>70</v>
-      </c>
-      <c r="G36">
-        <v>2.85</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>100</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1">
-        <v>44664</v>
+        <v>44672</v>
       </c>
       <c r="B37" s="1">
-        <v>44664</v>
+        <v>44672</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E37" t="s">
         <v>13</v>
       </c>
       <c r="F37" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="G37">
-        <v>1.38</v>
+        <v>3.3</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>102.5</v>
+        <v>10</v>
       </c>
       <c r="J37">
-        <f>G37 * I37</f>
-        <v>141.44999999999999</v>
+        <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1">
-        <v>44656</v>
+        <v>44671</v>
       </c>
       <c r="B38" s="1">
-        <v>44656</v>
+        <v>44675</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" t="s">
-        <v>72</v>
+        <v>13</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="G38">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
+      <c r="I38">
+        <v>200</v>
+      </c>
+      <c r="J38">
+        <f>G38 * I38</f>
+        <v>240</v>
+      </c>
       <c r="K38" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1">
-        <v>44656</v>
+        <v>44671</v>
       </c>
       <c r="B39" s="1">
-        <v>44656</v>
+        <v>44671</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D39" t="s">
         <v>73</v>
       </c>
       <c r="E39" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F39" t="s">
         <v>74</v>
       </c>
       <c r="G39">
-        <v>1.4</v>
+        <v>2.35</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="K39" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1">
-        <v>44656</v>
+        <v>44671</v>
       </c>
       <c r="B40" s="1">
         <v>44671</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
+        <v>75</v>
       </c>
       <c r="E40" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G40">
-        <v>1.75</v>
+        <v>1.92</v>
       </c>
       <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="I40">
-        <v>50</v>
-      </c>
-      <c r="J40">
-        <f>G40 * I40</f>
-        <v>87.5</v>
+        <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1">
-        <v>44640</v>
+        <v>44671</v>
       </c>
       <c r="B41" s="1">
-        <v>44640</v>
-      </c>
-      <c r="C41" t="s">
-        <v>77</v>
-      </c>
-      <c r="D41" t="s">
-        <v>78</v>
+        <v>44671</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="E41" t="s">
-        <v>22</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
+        <v>74</v>
       </c>
       <c r="G41">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
-      <c r="I41">
-        <v>50</v>
-      </c>
-      <c r="J41">
-        <f>G41 * I41</f>
-        <v>65</v>
-      </c>
       <c r="K41" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="1">
-        <v>44636</v>
+        <v>44671</v>
       </c>
       <c r="B42" s="1">
-        <v>44636</v>
-      </c>
-      <c r="C42" t="s">
+        <v>44671</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E42" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F42" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="G42">
-        <v>1.1000000000000001</v>
+        <v>3.3</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
-      <c r="I42">
-        <v>24</v>
-      </c>
-      <c r="J42">
-        <f>G42 * I42</f>
-        <v>26.400000000000002</v>
-      </c>
       <c r="K42" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1">
-        <v>44628</v>
+        <v>44671</v>
       </c>
       <c r="B43" s="1">
-        <v>44628</v>
-      </c>
-      <c r="C43" t="s">
-        <v>35</v>
-      </c>
-      <c r="D43" t="s">
-        <v>80</v>
+        <v>44671</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E43" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>54</v>
+      <c r="F43" t="s">
+        <v>79</v>
       </c>
       <c r="G43">
-        <v>1.62</v>
+        <v>2.375</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>47.5</v>
       </c>
       <c r="K43" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1">
-        <v>44625</v>
+        <v>44670</v>
       </c>
       <c r="B44" s="1">
-        <v>44625</v>
-      </c>
-      <c r="C44" t="s">
+        <v>44670</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E44" t="s">
-        <v>22</v>
-      </c>
-      <c r="F44" t="s">
-        <v>82</v>
+        <v>13</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="G44">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <f>G44 * I44</f>
+        <v>134.33000000000001</v>
       </c>
       <c r="K44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1">
-        <v>44625</v>
+        <v>44670</v>
       </c>
       <c r="B45" s="1">
-        <v>44625</v>
-      </c>
-      <c r="C45" t="s">
+        <v>44670</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E45" t="s">
         <v>13</v>
       </c>
       <c r="F45" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G45">
-        <v>1.4</v>
+        <v>15</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J45">
         <f>G45 * I45</f>
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="K45" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1">
-        <v>44619</v>
+        <v>44670</v>
       </c>
       <c r="B46" s="1">
-        <v>44619</v>
-      </c>
-      <c r="C46" t="s">
-        <v>84</v>
+        <v>44670</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E46" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F46" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G46">
-        <v>3</v>
+        <v>9.35</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>10</v>
       </c>
       <c r="J46">
-        <f>G46 * I46</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1">
-        <v>44619</v>
+        <v>44667</v>
       </c>
       <c r="B47" s="1">
-        <v>44619</v>
-      </c>
-      <c r="C47" t="s">
+        <v>44667</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s">
+        <v>83</v>
+      </c>
+      <c r="E47" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" t="s">
         <v>84</v>
       </c>
-      <c r="D47" t="s">
-        <v>85</v>
-      </c>
-      <c r="E47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F47" t="s">
-        <v>88</v>
-      </c>
       <c r="G47">
-        <v>3.75</v>
+        <v>1.52</v>
       </c>
       <c r="H47">
         <v>0</v>
       </c>
       <c r="I47">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J47">
         <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1">
-        <v>44619</v>
+        <v>44664</v>
       </c>
       <c r="B48" s="1">
-        <v>44619</v>
-      </c>
-      <c r="C48" t="s">
-        <v>84</v>
+        <v>44664</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="D48" t="s">
         <v>85</v>
       </c>
       <c r="E48" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F48" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G48">
-        <v>1.2</v>
+        <v>2.85</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J48">
-        <f>G48 * I48</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="1">
-        <v>44618</v>
+        <v>44664</v>
       </c>
       <c r="B49" s="1">
-        <v>44618</v>
-      </c>
-      <c r="C49" t="s">
-        <v>11</v>
+        <v>44664</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="D49" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E49" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F49" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="G49">
-        <v>2.1</v>
+        <v>1.38</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>10</v>
+        <v>102.5</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <f>G49 * I49</f>
+        <v>141.44999999999999</v>
       </c>
       <c r="K49" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="1">
-        <v>44613</v>
+        <v>44656</v>
       </c>
       <c r="B50" s="1">
-        <v>44613</v>
-      </c>
-      <c r="C50" t="s">
-        <v>11</v>
+        <v>44656</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="D50" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E50" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>93</v>
+        <v>24</v>
+      </c>
+      <c r="F50" t="s">
+        <v>88</v>
       </c>
       <c r="G50">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="H50">
         <v>1</v>
       </c>
-      <c r="I50">
-        <v>90</v>
-      </c>
-      <c r="J50">
-        <f>G50 * I50</f>
-        <v>127.8</v>
-      </c>
       <c r="K50" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="1">
-        <v>44613</v>
+        <v>44656</v>
       </c>
       <c r="B51" s="1">
-        <v>44613</v>
-      </c>
-      <c r="C51" t="s">
-        <v>11</v>
+        <v>44656</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" t="s">
+        <v>89</v>
       </c>
       <c r="E51" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F51" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G51">
-        <v>1238046</v>
+        <v>1.4</v>
       </c>
       <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="1">
-        <v>44611</v>
+        <v>44656</v>
       </c>
       <c r="B52" s="1">
-        <v>44611</v>
-      </c>
-      <c r="C52" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" t="s">
-        <v>95</v>
+        <v>44671</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="E52" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>54</v>
+        <v>24</v>
+      </c>
+      <c r="F52" t="s">
+        <v>91</v>
       </c>
       <c r="G52">
-        <v>1.1299999999999999</v>
+        <v>1.75</v>
       </c>
       <c r="H52">
         <v>1</v>
       </c>
       <c r="I52">
-        <v>95.5</v>
+        <v>50</v>
       </c>
       <c r="J52">
         <f>G52 * I52</f>
-        <v>107.91499999999999</v>
+        <v>87.5</v>
       </c>
       <c r="K52" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="1">
-        <v>44608</v>
+        <v>44640</v>
       </c>
       <c r="B53" s="1">
-        <v>44608</v>
+        <v>44640</v>
       </c>
       <c r="C53" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="D53" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E53" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="G53">
-        <v>2.25</v>
+        <v>1.3</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
       <c r="I53">
-        <v>42.5</v>
+        <v>50</v>
       </c>
       <c r="J53">
-        <f>IF(H53 = 1, G53 * I53, 0)</f>
-        <v>95.625</v>
+        <f>G53 * I53</f>
+        <v>65</v>
       </c>
       <c r="K53" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="1">
-        <v>44584</v>
+        <v>44636</v>
       </c>
       <c r="B54" s="1">
-        <v>44584</v>
+        <v>44636</v>
       </c>
       <c r="C54" t="s">
         <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E54" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
+      </c>
+      <c r="F54" t="s">
+        <v>51</v>
       </c>
       <c r="G54">
-        <v>1.58</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <v>27.03</v>
+        <v>24</v>
       </c>
       <c r="J54">
-        <f>IF(H54 = 1, G54 * I54, 0)</f>
-        <v>42.707400000000007</v>
+        <f>G54 * I54</f>
+        <v>26.400000000000002</v>
       </c>
       <c r="K54" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="1">
-        <v>44558</v>
+        <v>44628</v>
       </c>
       <c r="B55" s="1">
-        <v>44558</v>
+        <v>44628</v>
       </c>
       <c r="C55" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D55" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E55" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G55">
-        <v>1.34</v>
+        <v>1.62</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -2786,458 +2810,489 @@
         <v>0</v>
       </c>
       <c r="K55" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="1">
-        <v>44541</v>
+        <v>44625</v>
       </c>
       <c r="B56" s="1">
-        <v>44541</v>
+        <v>44625</v>
       </c>
       <c r="C56" t="s">
         <v>11</v>
       </c>
       <c r="D56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E56" t="s">
-        <v>22</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>93</v>
+        <v>24</v>
+      </c>
+      <c r="F56" t="s">
+        <v>98</v>
       </c>
       <c r="G56">
-        <v>1.7</v>
+        <v>1.42</v>
       </c>
       <c r="H56">
         <v>0</v>
       </c>
       <c r="I56">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J56">
         <v>0</v>
       </c>
       <c r="K56" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="1">
-        <v>44534</v>
+        <v>44625</v>
       </c>
       <c r="B57" s="1">
-        <v>44534</v>
+        <v>44625</v>
       </c>
       <c r="C57" t="s">
         <v>11</v>
       </c>
       <c r="D57" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E57" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F57" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="G57">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57">
         <v>50</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <f>G57 * I57</f>
+        <v>70</v>
       </c>
       <c r="K57" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="1">
-        <v>44531</v>
+        <v>44619</v>
       </c>
       <c r="B58" s="1">
-        <v>44531</v>
+        <v>44619</v>
       </c>
       <c r="C58" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="D58" t="s">
         <v>101</v>
       </c>
       <c r="E58" t="s">
-        <v>22</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
+      </c>
+      <c r="F58" t="s">
+        <v>102</v>
       </c>
       <c r="G58">
-        <v>1.37</v>
+        <v>3</v>
       </c>
       <c r="H58">
         <v>1</v>
       </c>
       <c r="I58">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="J58">
         <f>G58 * I58</f>
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="K58" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="1">
-        <v>44493</v>
+        <v>44619</v>
       </c>
       <c r="B59" s="1">
-        <v>44493</v>
+        <v>44619</v>
       </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="D59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E59" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
+      </c>
+      <c r="F59" t="s">
+        <v>104</v>
       </c>
       <c r="G59">
-        <v>2.4500000000000002</v>
+        <v>3.75</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J59">
-        <f>G59 * I59</f>
-        <v>122.50000000000001</v>
+        <v>0</v>
       </c>
       <c r="K59" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="1">
-        <v>44471</v>
+        <v>44619</v>
       </c>
       <c r="B60" s="1">
-        <v>44471</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>11</v>
+        <v>44619</v>
+      </c>
+      <c r="C60" t="s">
+        <v>100</v>
+      </c>
+      <c r="D60" t="s">
+        <v>101</v>
       </c>
       <c r="E60" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F60" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G60">
-        <v>8.4700000000000006</v>
+        <v>1.2</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <f>G60 * I60</f>
+        <v>60</v>
       </c>
       <c r="K60" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="1">
-        <v>44471</v>
+        <v>44618</v>
       </c>
       <c r="B61" s="1">
-        <v>44471</v>
-      </c>
-      <c r="C61" s="2" t="s">
+        <v>44618</v>
+      </c>
+      <c r="C61" t="s">
         <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E61" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F61" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G61">
-        <v>2.4500000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="H61">
         <v>0</v>
       </c>
+      <c r="I61">
+        <v>10</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
       <c r="K61" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="1">
-        <v>44471</v>
+        <v>44613</v>
       </c>
       <c r="B62" s="1">
-        <v>44471</v>
-      </c>
-      <c r="C62" s="2" t="s">
+        <v>44613</v>
+      </c>
+      <c r="C62" t="s">
         <v>11</v>
       </c>
       <c r="D62" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E62" t="s">
-        <v>22</v>
-      </c>
-      <c r="F62" t="s">
-        <v>105</v>
+        <v>13</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="G62">
-        <v>2.5499999999999998</v>
+        <v>1.42</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
+      <c r="I62">
+        <v>90</v>
+      </c>
+      <c r="J62">
+        <f>G62 * I62</f>
+        <v>127.8</v>
+      </c>
       <c r="K62" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="1">
-        <v>44471</v>
+        <v>44613</v>
       </c>
       <c r="B63" s="1">
-        <v>44471</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" t="s">
-        <v>107</v>
+        <v>44613</v>
+      </c>
+      <c r="C63" t="s">
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>22</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>108</v>
+        <v>13</v>
+      </c>
+      <c r="F63" t="s">
+        <v>110</v>
       </c>
       <c r="G63">
-        <v>1.1499999999999999</v>
+        <v>1238046</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
       </c>
       <c r="K63" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="1">
-        <v>44471</v>
+        <v>44611</v>
       </c>
       <c r="B64" s="1">
-        <v>44471</v>
-      </c>
-      <c r="C64" s="2" t="s">
+        <v>44611</v>
+      </c>
+      <c r="C64" t="s">
         <v>11</v>
       </c>
       <c r="D64" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E64" t="s">
-        <v>22</v>
-      </c>
-      <c r="F64" t="s">
-        <v>108</v>
+        <v>13</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="G64">
-        <v>1.18</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="H64">
         <v>1</v>
       </c>
+      <c r="I64">
+        <v>95.5</v>
+      </c>
+      <c r="J64">
+        <f>G64 * I64</f>
+        <v>107.91499999999999</v>
+      </c>
       <c r="K64" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="1">
-        <v>44471</v>
+        <v>44608</v>
       </c>
       <c r="B65" s="1">
-        <v>44471</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>11</v>
+        <v>44608</v>
+      </c>
+      <c r="C65" t="s">
+        <v>30</v>
       </c>
       <c r="D65" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E65" t="s">
         <v>13</v>
       </c>
-      <c r="F65" t="s">
-        <v>111</v>
+      <c r="F65" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="G65">
-        <v>1.3</v>
+        <v>2.25</v>
       </c>
       <c r="H65">
         <v>1</v>
       </c>
       <c r="I65">
-        <v>29</v>
+        <v>42.5</v>
       </c>
       <c r="J65">
-        <f>G65 * I65</f>
-        <v>37.700000000000003</v>
+        <f>IF(H65 = 1, G65 * I65, 0)</f>
+        <v>95.625</v>
       </c>
       <c r="K65" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="1">
-        <v>44464</v>
+        <v>44584</v>
       </c>
       <c r="B66" s="1">
-        <v>44464</v>
-      </c>
-      <c r="C66" s="2" t="s">
+        <v>44584</v>
+      </c>
+      <c r="C66" t="s">
         <v>11</v>
       </c>
       <c r="D66" t="s">
-        <v>112</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>22</v>
+        <v>113</v>
+      </c>
+      <c r="E66" t="s">
+        <v>13</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="G66">
-        <v>1.4</v>
+        <v>1.58</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>50</v>
+        <v>27.03</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <f>IF(H66 = 1, G66 * I66, 0)</f>
+        <v>42.707400000000007</v>
       </c>
       <c r="K66" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="1">
-        <v>44464</v>
+        <v>44558</v>
       </c>
       <c r="B67" s="1">
-        <v>44464</v>
-      </c>
-      <c r="C67" s="2" t="s">
+        <v>44558</v>
+      </c>
+      <c r="C67" t="s">
         <v>11</v>
       </c>
       <c r="D67" t="s">
-        <v>113</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F67" t="s">
-        <v>52</v>
+        <v>114</v>
+      </c>
+      <c r="E67" t="s">
+        <v>24</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="G67">
-        <v>1.62</v>
+        <v>1.34</v>
       </c>
       <c r="H67">
         <v>0</v>
       </c>
       <c r="I67">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
       </c>
       <c r="K67" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="1">
-        <v>44464</v>
+        <v>44541</v>
       </c>
       <c r="B68" s="1">
-        <v>44464</v>
-      </c>
-      <c r="C68" s="2" t="s">
+        <v>44541</v>
+      </c>
+      <c r="C68" t="s">
         <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>114</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F68" t="s">
         <v>115</v>
       </c>
+      <c r="E68" t="s">
+        <v>24</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="G68">
-        <v>8.5</v>
+        <v>1.7</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J68">
         <v>0</v>
       </c>
       <c r="K68" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="1">
-        <v>44454</v>
+        <v>44534</v>
       </c>
       <c r="B69" s="1">
-        <v>44454</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>35</v>
+        <v>44534</v>
+      </c>
+      <c r="C69" t="s">
+        <v>11</v>
       </c>
       <c r="D69" t="s">
         <v>116</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>22</v>
+      <c r="E69" t="s">
+        <v>24</v>
       </c>
       <c r="F69" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G69">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -3249,122 +3304,119 @@
         <v>0</v>
       </c>
       <c r="K69" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="1">
-        <v>44454</v>
+        <v>44531</v>
       </c>
       <c r="B70" s="1">
-        <v>44454</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>35</v>
+        <v>44531</v>
+      </c>
+      <c r="C70" t="s">
+        <v>11</v>
       </c>
       <c r="D70" t="s">
-        <v>116</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>22</v>
+        <v>117</v>
+      </c>
+      <c r="E70" t="s">
+        <v>24</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G70">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="H70">
         <v>1</v>
       </c>
       <c r="I70">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="J70">
         <f>G70 * I70</f>
-        <v>48.62</v>
+        <v>137</v>
       </c>
       <c r="K70" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="1">
-        <v>44453</v>
+        <v>44493</v>
       </c>
       <c r="B71" s="1">
-        <v>44453</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>35</v>
+        <v>44493</v>
+      </c>
+      <c r="C71" t="s">
+        <v>11</v>
       </c>
       <c r="D71" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E71" t="s">
         <v>13</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="G71">
-        <v>1.42</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71">
         <v>50</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <f>G71 * I71</f>
+        <v>122.50000000000001</v>
       </c>
       <c r="K71" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="1">
-        <v>44451</v>
+        <v>44471</v>
       </c>
       <c r="B72" s="1">
-        <v>44451</v>
+        <v>44471</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D72" t="s">
-        <v>118</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>22</v>
+      <c r="E72" t="s">
+        <v>24</v>
       </c>
       <c r="F72" t="s">
         <v>119</v>
       </c>
       <c r="G72">
-        <v>1.35</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J72">
-        <f>G72 * I72</f>
-        <v>67.5</v>
+        <v>0</v>
       </c>
       <c r="K72" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="1">
-        <v>44450</v>
+        <v>44471</v>
       </c>
       <c r="B73" s="1">
-        <v>44450</v>
+        <v>44471</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>11</v>
@@ -3372,1331 +3424,1299 @@
       <c r="D73" t="s">
         <v>120</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>22</v>
+      <c r="E73" t="s">
+        <v>24</v>
       </c>
       <c r="F73" t="s">
         <v>121</v>
       </c>
       <c r="G73">
-        <v>1.42</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="H73">
         <v>0</v>
       </c>
-      <c r="I73">
-        <v>100</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
       <c r="K73" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="1">
-        <v>44450</v>
+        <v>44471</v>
       </c>
       <c r="B74" s="1">
-        <v>44450</v>
+        <v>44471</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D74" t="s">
-        <v>120</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>22</v>
+        <v>122</v>
+      </c>
+      <c r="E74" t="s">
+        <v>24</v>
       </c>
       <c r="F74" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="G74">
-        <v>1.28</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74">
-        <v>50</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="1">
-        <v>44450</v>
+        <v>44471</v>
       </c>
       <c r="B75" s="1">
-        <v>44450</v>
+        <v>44471</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D75" t="s">
-        <v>120</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F75" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="E75" t="s">
+        <v>24</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="G75">
-        <v>1.5</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <v>100</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="1">
-        <v>44437</v>
+        <v>44471</v>
       </c>
       <c r="B76" s="1">
-        <v>44437</v>
+        <v>44471</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D76" t="s">
-        <v>123</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>22</v>
+        <v>125</v>
+      </c>
+      <c r="E76" t="s">
+        <v>24</v>
       </c>
       <c r="F76" t="s">
         <v>124</v>
       </c>
       <c r="G76">
-        <v>9.5</v>
+        <v>1.18</v>
       </c>
       <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <v>10</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="1">
-        <v>44436</v>
+        <v>44471</v>
       </c>
       <c r="B77" s="1">
-        <v>44436</v>
+        <v>44471</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D77" t="s">
-        <v>125</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>22</v>
+        <v>126</v>
+      </c>
+      <c r="E77" t="s">
+        <v>13</v>
       </c>
       <c r="F77" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G77">
-        <v>1.1200000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
       <c r="I77">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="J77">
         <f>G77 * I77</f>
-        <v>112.00000000000001</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="K77" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="1">
-        <v>44436</v>
+        <v>44464</v>
       </c>
       <c r="B78" s="1">
-        <v>44436</v>
+        <v>44464</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D78" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F78" t="s">
-        <v>127</v>
+        <v>24</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="G78">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
         <v>50</v>
       </c>
       <c r="J78">
-        <f>G78 * I78</f>
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="K78" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="1">
-        <v>44375</v>
+        <v>44464</v>
       </c>
       <c r="B79" s="1">
-        <v>44375</v>
+        <v>44464</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="D79" t="s">
         <v>129</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>54</v>
+        <v>24</v>
+      </c>
+      <c r="F79" t="s">
+        <v>71</v>
       </c>
       <c r="G79">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
       <c r="I79">
-        <v>100</v>
-      </c>
-      <c r="J79">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K79" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="1">
-        <v>44374</v>
+        <v>44464</v>
       </c>
       <c r="B80" s="1">
-        <v>44374</v>
+        <v>44464</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="D80" t="s">
         <v>130</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F80" t="s">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="G80">
-        <v>1.82</v>
+        <v>8.5</v>
       </c>
       <c r="H80">
         <v>0</v>
       </c>
       <c r="I80">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J80">
         <v>0</v>
       </c>
       <c r="K80" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="1">
-        <v>44374</v>
+        <v>44454</v>
       </c>
       <c r="B81" s="1">
-        <v>44374</v>
+        <v>44454</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="D81" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F81" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="G81">
-        <v>3.05</v>
+        <v>1.45</v>
       </c>
       <c r="H81">
         <v>0</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J81">
         <v>0</v>
       </c>
       <c r="K81" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="1">
-        <v>44374</v>
+        <v>44454</v>
       </c>
       <c r="B82" s="1">
-        <v>44374</v>
+        <v>44454</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="D82" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F82" t="s">
-        <v>111</v>
+        <v>24</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="G82">
-        <v>1.24</v>
+        <v>1.43</v>
       </c>
       <c r="H82">
         <v>1</v>
       </c>
       <c r="I82">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="J82">
-        <f t="shared" ref="J82:J84" si="0">G82 * I82</f>
-        <v>62</v>
+        <f>G82 * I82</f>
+        <v>48.62</v>
       </c>
       <c r="K82" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="1">
-        <v>44373</v>
+        <v>44453</v>
       </c>
       <c r="B83" s="1">
-        <v>44373</v>
+        <v>44453</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="D83" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E83" t="s">
         <v>13</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="G83">
+        <v>1.42</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>50</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="1">
+        <v>44451</v>
+      </c>
+      <c r="B84" s="1">
+        <v>44451</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s">
+        <v>134</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F84" t="s">
+        <v>135</v>
+      </c>
+      <c r="G84">
+        <v>1.35</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>50</v>
+      </c>
+      <c r="J84">
+        <f>G84 * I84</f>
+        <v>67.5</v>
+      </c>
+      <c r="K84" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="1">
+        <v>44450</v>
+      </c>
+      <c r="B85" s="1">
+        <v>44450</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s">
+        <v>136</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F85" t="s">
+        <v>137</v>
+      </c>
+      <c r="G85">
+        <v>1.42</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>100</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="1">
+        <v>44450</v>
+      </c>
+      <c r="B86" s="1">
+        <v>44450</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s">
+        <v>136</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F86" t="s">
+        <v>51</v>
+      </c>
+      <c r="G86">
+        <v>1.28</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>50</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="1">
+        <v>44450</v>
+      </c>
+      <c r="B87" s="1">
+        <v>44450</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s">
+        <v>136</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F87" t="s">
+        <v>138</v>
+      </c>
+      <c r="G87">
+        <v>1.5</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>100</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="1">
+        <v>44437</v>
+      </c>
+      <c r="B88" s="1">
+        <v>44437</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s">
+        <v>139</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F88" t="s">
+        <v>140</v>
+      </c>
+      <c r="G88">
+        <v>9.5</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>10</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="1">
+        <v>44436</v>
+      </c>
+      <c r="B89" s="1">
+        <v>44436</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s">
+        <v>141</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F89" t="s">
+        <v>142</v>
+      </c>
+      <c r="G89">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89">
+        <v>100</v>
+      </c>
+      <c r="J89">
+        <f>G89 * I89</f>
+        <v>112.00000000000001</v>
+      </c>
+      <c r="K89" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="1">
+        <v>44436</v>
+      </c>
+      <c r="B90" s="1">
+        <v>44436</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s">
+        <v>141</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F90" t="s">
+        <v>143</v>
+      </c>
+      <c r="G90">
+        <v>1.42</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90">
+        <v>50</v>
+      </c>
+      <c r="J90">
+        <f>G90 * I90</f>
+        <v>71</v>
+      </c>
+      <c r="K90" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="1">
+        <v>44375</v>
+      </c>
+      <c r="B91" s="1">
+        <v>44375</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D91" t="s">
+        <v>145</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G91">
+        <v>1.58</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>100</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B92" s="1">
+        <v>44374</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D92" t="s">
+        <v>146</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F92" t="s">
+        <v>51</v>
+      </c>
+      <c r="G92">
+        <v>1.82</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>50</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B93" s="1">
+        <v>44374</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D93" t="s">
+        <v>146</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F93" t="s">
+        <v>71</v>
+      </c>
+      <c r="G93">
+        <v>3.05</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B94" s="1">
+        <v>44374</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D94" t="s">
+        <v>146</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F94" t="s">
+        <v>127</v>
+      </c>
+      <c r="G94">
+        <v>1.24</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>50</v>
+      </c>
+      <c r="J94">
+        <f t="shared" ref="J94:J96" si="0">G94 * I94</f>
+        <v>62</v>
+      </c>
+      <c r="K94" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="1">
+        <v>44373</v>
+      </c>
+      <c r="B95" s="1">
+        <v>44373</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D95" t="s">
+        <v>147</v>
+      </c>
+      <c r="E95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G95">
         <v>1.92</v>
       </c>
-      <c r="H83">
-        <v>1</v>
-      </c>
-      <c r="I83">
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95">
         <v>100</v>
       </c>
-      <c r="J83">
+      <c r="J95">
         <f t="shared" si="0"/>
         <v>192</v>
       </c>
-      <c r="K83" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
-      <c r="A84" s="1">
+      <c r="K95" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="1">
         <v>44368</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B96" s="1">
         <v>44368</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D84" t="s">
-        <v>132</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G84">
+      <c r="C96" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D96" t="s">
+        <v>148</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G96">
         <v>1.2</v>
       </c>
-      <c r="H84">
-        <v>1</v>
-      </c>
-      <c r="I84">
+      <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="I96">
         <v>200</v>
       </c>
-      <c r="J84">
+      <c r="J96">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="K84" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
-      <c r="A85" s="1">
+      <c r="K96" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="1">
         <v>44368</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B97" s="1">
         <v>44368</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D85" t="s">
-        <v>132</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F85" t="s">
-        <v>133</v>
-      </c>
-      <c r="G85">
+      <c r="C97" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D97" t="s">
+        <v>148</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F97" t="s">
+        <v>149</v>
+      </c>
+      <c r="G97">
         <v>1.42</v>
       </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-      <c r="I85">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
         <v>100</v>
       </c>
-      <c r="J85">
-        <v>0</v>
-      </c>
-      <c r="K85" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
-      <c r="A86" s="1">
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" s="1">
         <v>44368</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B98" s="1">
         <v>44368</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D86" t="s">
-        <v>132</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F86" t="s">
-        <v>134</v>
-      </c>
-      <c r="G86">
+      <c r="C98" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D98" t="s">
+        <v>148</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F98" t="s">
+        <v>150</v>
+      </c>
+      <c r="G98">
         <v>1.1299999999999999</v>
       </c>
-      <c r="H86">
-        <v>1</v>
-      </c>
-      <c r="I86">
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98">
         <v>100</v>
       </c>
-      <c r="J86">
-        <f t="shared" ref="J86:J87" si="1">G86 * I86</f>
+      <c r="J98">
+        <f t="shared" ref="J98:J99" si="1">G98 * I98</f>
         <v>112.99999999999999</v>
       </c>
-      <c r="K86" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
-      <c r="A87" s="1">
+      <c r="K98" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="1">
         <v>44368</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B99" s="1">
         <v>44368</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D87" t="s">
-        <v>132</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F87" t="s">
-        <v>135</v>
-      </c>
-      <c r="G87">
+      <c r="C99" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D99" t="s">
+        <v>148</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F99" t="s">
+        <v>151</v>
+      </c>
+      <c r="G99">
         <v>1.25</v>
       </c>
-      <c r="H87">
-        <v>1</v>
-      </c>
-      <c r="I87">
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
         <v>100</v>
       </c>
-      <c r="J87">
+      <c r="J99">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="K87" t="s">
+      <c r="K99" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="1">
+        <v>44365</v>
+      </c>
+      <c r="B100" s="1">
+        <v>44365</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D100" t="s">
+        <v>152</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F100" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="88" spans="1:11">
-      <c r="A88" s="1">
+      <c r="G100">
+        <v>1.65</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>50</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" s="1">
         <v>44365</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B101" s="1">
         <v>44365</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D88" t="s">
-        <v>136</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G88">
-        <v>1.65</v>
-      </c>
-      <c r="H88">
-        <v>0</v>
-      </c>
-      <c r="I88">
-        <v>50</v>
-      </c>
-      <c r="J88">
-        <v>0</v>
-      </c>
-      <c r="K88" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
-      <c r="A89" s="1">
-        <v>44365</v>
-      </c>
-      <c r="B89" s="1">
-        <v>44365</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D89" t="s">
-        <v>136</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F89" t="s">
-        <v>29</v>
-      </c>
-      <c r="G89">
+      <c r="C101" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D101" t="s">
+        <v>152</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F101" t="s">
+        <v>51</v>
+      </c>
+      <c r="G101">
         <v>1.42</v>
       </c>
-      <c r="H89">
-        <v>1</v>
-      </c>
-      <c r="I89">
-        <v>50</v>
-      </c>
-      <c r="J89">
-        <f t="shared" ref="J89:J91" si="2">G89 * I89</f>
+      <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="I101">
+        <v>50</v>
+      </c>
+      <c r="J101">
+        <f t="shared" ref="J101:J103" si="2">G101 * I101</f>
         <v>71</v>
       </c>
-      <c r="K89" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
-      <c r="A90" s="1">
+      <c r="K101" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" s="1">
         <v>44364</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B102" s="1">
         <v>44364</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D90" t="s">
-        <v>137</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G90">
+      <c r="C102" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D102" t="s">
+        <v>153</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G102">
         <v>1.1599999999999999</v>
       </c>
-      <c r="H90">
-        <v>1</v>
-      </c>
-      <c r="I90">
+      <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102">
         <v>100</v>
       </c>
-      <c r="J90">
+      <c r="J102">
         <f t="shared" si="2"/>
         <v>115.99999999999999</v>
       </c>
-      <c r="K90" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
-      <c r="A91" s="1">
+      <c r="K102" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" s="1">
         <v>44364</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B103" s="1">
         <v>44364</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D91" t="s">
-        <v>138</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G91">
+      <c r="C103" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D103" t="s">
+        <v>154</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G103">
         <v>1.18</v>
       </c>
-      <c r="H91">
-        <v>1</v>
-      </c>
-      <c r="I91">
+      <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="I103">
         <v>100</v>
       </c>
-      <c r="J91">
+      <c r="J103">
         <f t="shared" si="2"/>
         <v>118</v>
       </c>
-      <c r="K91" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
-      <c r="A92" s="1">
+      <c r="K103" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" s="1">
         <v>44363</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B104" s="1">
         <v>44363</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D92" t="s">
-        <v>139</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F92" t="s">
-        <v>122</v>
-      </c>
-      <c r="G92">
+      <c r="C104" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D104" t="s">
+        <v>155</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F104" t="s">
+        <v>138</v>
+      </c>
+      <c r="G104">
         <v>1.4</v>
       </c>
-      <c r="H92">
-        <v>1</v>
-      </c>
-      <c r="I92">
+      <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="I104">
         <v>100</v>
       </c>
-      <c r="J92">
-        <f t="shared" ref="J92:J93" si="3">G92 * I92</f>
+      <c r="J104">
+        <f t="shared" ref="J104:J105" si="3">G104 * I104</f>
         <v>140</v>
       </c>
-      <c r="K92" t="s">
+      <c r="K104" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" s="1">
+        <v>44363</v>
+      </c>
+      <c r="B105" s="1">
+        <v>44363</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D105" t="s">
+        <v>155</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F105" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="93" spans="1:11">
-      <c r="A93" s="1">
-        <v>44363</v>
-      </c>
-      <c r="B93" s="1">
-        <v>44363</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D93" t="s">
-        <v>139</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G93">
+      <c r="G105">
         <v>1.22</v>
       </c>
-      <c r="H93">
-        <v>1</v>
-      </c>
-      <c r="I93">
+      <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="I105">
         <v>100</v>
       </c>
-      <c r="J93">
+      <c r="J105">
         <f t="shared" si="3"/>
         <v>122</v>
       </c>
-      <c r="K93" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
-      <c r="A94" s="1">
+      <c r="K105" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" s="1">
         <v>44362</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B106" s="1">
         <v>44362</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D94" t="s">
-        <v>140</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F94" t="s">
-        <v>29</v>
-      </c>
-      <c r="G94">
+      <c r="C106" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D106" t="s">
+        <v>156</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F106" t="s">
+        <v>51</v>
+      </c>
+      <c r="G106">
         <v>1.77</v>
       </c>
-      <c r="H94">
-        <v>0</v>
-      </c>
-      <c r="I94">
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
         <v>100</v>
       </c>
-      <c r="J94">
-        <v>0</v>
-      </c>
-      <c r="K94" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
-      <c r="A95" s="1">
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" s="1">
         <v>44361</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B107" s="1">
         <v>44361</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D95" t="s">
-        <v>141</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F95" t="s">
-        <v>142</v>
-      </c>
-      <c r="G95">
+      <c r="C107" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D107" t="s">
+        <v>157</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F107" t="s">
+        <v>158</v>
+      </c>
+      <c r="G107">
         <v>1.27</v>
       </c>
-      <c r="H95">
-        <v>0</v>
-      </c>
-      <c r="I95">
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
         <v>100</v>
       </c>
-      <c r="J95">
-        <v>0</v>
-      </c>
-      <c r="K95" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
-      <c r="A96" s="1">
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" s="1">
         <v>44359</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B108" s="1">
         <v>44359</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D96" t="s">
-        <v>143</v>
-      </c>
-      <c r="E96" t="s">
+      <c r="C108" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D108" t="s">
+        <v>159</v>
+      </c>
+      <c r="E108" t="s">
         <v>13</v>
       </c>
-      <c r="F96" t="s">
-        <v>52</v>
-      </c>
-      <c r="G96">
+      <c r="F108" t="s">
+        <v>71</v>
+      </c>
+      <c r="G108">
         <v>3.9</v>
       </c>
-      <c r="H96">
-        <v>0</v>
-      </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
-      <c r="J96">
-        <f t="shared" ref="J95:J97" si="4">G96 * I96</f>
-        <v>0</v>
-      </c>
-      <c r="K96" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
-      <c r="A97" s="1">
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <f t="shared" ref="J107:J109" si="4">G108 * I108</f>
+        <v>0</v>
+      </c>
+      <c r="K108" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" s="1">
         <v>44358</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B109" s="1">
         <v>44358</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D97" t="s">
+      <c r="C109" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E97" t="s">
-        <v>22</v>
-      </c>
-      <c r="F97" t="s">
-        <v>145</v>
-      </c>
-      <c r="G97">
+      <c r="D109" t="s">
+        <v>160</v>
+      </c>
+      <c r="E109" t="s">
+        <v>24</v>
+      </c>
+      <c r="F109" t="s">
+        <v>161</v>
+      </c>
+      <c r="G109">
         <v>1.17</v>
       </c>
-      <c r="H97">
-        <v>1</v>
-      </c>
-      <c r="I97">
-        <v>50</v>
-      </c>
-      <c r="J97">
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="I109">
+        <v>50</v>
+      </c>
+      <c r="J109">
         <f t="shared" si="4"/>
         <v>58.5</v>
       </c>
-      <c r="K97" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
-      <c r="A98" s="1">
-        <v>44358</v>
-      </c>
-      <c r="B98" s="1">
-        <v>44358</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D98" t="s">
-        <v>144</v>
-      </c>
-      <c r="E98" t="s">
-        <v>22</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G98">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="H98">
-        <v>1</v>
-      </c>
-      <c r="I98">
-        <v>100</v>
-      </c>
-      <c r="J98">
-        <f>G98 * I98</f>
-        <v>109.00000000000001</v>
-      </c>
-      <c r="K98" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
-      <c r="A99" s="1">
-        <v>44339</v>
-      </c>
-      <c r="B99" s="1">
-        <v>44339</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D99" t="s">
-        <v>146</v>
-      </c>
-      <c r="E99" t="s">
-        <v>22</v>
-      </c>
-      <c r="F99" t="s">
-        <v>147</v>
-      </c>
-      <c r="G99">
-        <v>1.18</v>
-      </c>
-      <c r="H99">
-        <v>1</v>
-      </c>
-      <c r="I99">
-        <v>50</v>
-      </c>
-      <c r="J99">
-        <f>G99 * I99</f>
-        <v>59</v>
-      </c>
-      <c r="K99" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
-      <c r="A100" s="1">
-        <v>44339</v>
-      </c>
-      <c r="B100" s="1">
-        <v>44339</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s">
-        <v>146</v>
-      </c>
-      <c r="E100" t="s">
-        <v>22</v>
-      </c>
-      <c r="F100" t="s">
-        <v>41</v>
-      </c>
-      <c r="G100">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="H100">
-        <v>1</v>
-      </c>
-      <c r="I100">
-        <v>100</v>
-      </c>
-      <c r="J100">
-        <f>G100 * I100</f>
-        <v>114.99999999999999</v>
-      </c>
-      <c r="K100" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
-      <c r="A101" s="1">
-        <v>44335</v>
-      </c>
-      <c r="B101" s="1">
-        <v>44335</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s">
-        <v>148</v>
-      </c>
-      <c r="E101" t="s">
-        <v>22</v>
-      </c>
-      <c r="F101" t="s">
-        <v>42</v>
-      </c>
-      <c r="G101">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H101">
-        <v>1</v>
-      </c>
-      <c r="I101">
-        <v>25</v>
-      </c>
-      <c r="J101">
-        <f>G101 * I101</f>
-        <v>55.000000000000007</v>
-      </c>
-      <c r="K101" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
-      <c r="A102" s="1">
-        <v>44332</v>
-      </c>
-      <c r="B102" s="1">
-        <v>44332</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D102" t="s">
-        <v>149</v>
-      </c>
-      <c r="E102" t="s">
-        <v>22</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G102">
-        <v>1.27</v>
-      </c>
-      <c r="H102">
-        <v>1</v>
-      </c>
-      <c r="I102">
-        <v>25</v>
-      </c>
-      <c r="J102">
-        <f>G102 * I102</f>
-        <v>31.75</v>
-      </c>
-      <c r="K102" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11">
-      <c r="A103" s="1">
-        <v>44329</v>
-      </c>
-      <c r="B103" s="1">
-        <v>44329</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D103" t="s">
-        <v>102</v>
-      </c>
-      <c r="E103" t="s">
-        <v>13</v>
-      </c>
-      <c r="F103" t="s">
-        <v>150</v>
-      </c>
-      <c r="G103">
-        <v>1.6</v>
-      </c>
-      <c r="H103">
-        <v>1</v>
-      </c>
-      <c r="I103">
-        <v>10</v>
-      </c>
-      <c r="J103">
-        <f>G103 * I103</f>
-        <v>16</v>
-      </c>
-      <c r="K103" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11">
-      <c r="A104" s="1">
-        <v>44329</v>
-      </c>
-      <c r="B104" s="1">
-        <v>44329</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D104" t="s">
-        <v>102</v>
-      </c>
-      <c r="E104" t="s">
-        <v>13</v>
-      </c>
-      <c r="F104" t="s">
-        <v>52</v>
-      </c>
-      <c r="G104">
-        <v>3.65</v>
-      </c>
-      <c r="H104">
-        <v>0</v>
-      </c>
-      <c r="I104">
-        <v>10</v>
-      </c>
-      <c r="J104">
-        <v>0</v>
-      </c>
-      <c r="K104" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11">
-      <c r="A105" s="1">
-        <v>44305</v>
-      </c>
-      <c r="B105" s="1">
-        <v>44305</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D105" t="s">
-        <v>118</v>
-      </c>
-      <c r="E105" t="s">
-        <v>22</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G105">
-        <v>1.52</v>
-      </c>
-      <c r="H105">
-        <v>0</v>
-      </c>
-      <c r="I105">
-        <v>100</v>
-      </c>
-      <c r="J105">
-        <f>G105 * I105</f>
-        <v>152</v>
-      </c>
-      <c r="K105" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11">
-      <c r="A106" s="1">
-        <v>44292</v>
-      </c>
-      <c r="B106" s="1">
-        <v>44292</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D106" t="s">
-        <v>151</v>
-      </c>
-      <c r="E106" t="s">
-        <v>22</v>
-      </c>
-      <c r="F106" t="s">
-        <v>152</v>
-      </c>
-      <c r="G106">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H106">
-        <v>0</v>
-      </c>
-      <c r="I106">
-        <v>100</v>
-      </c>
-      <c r="J106">
-        <v>0</v>
-      </c>
-      <c r="K106" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
-      <c r="A107" s="1">
-        <v>44292</v>
-      </c>
-      <c r="B107" s="1">
-        <v>44292</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D107" t="s">
-        <v>151</v>
-      </c>
-      <c r="E107" t="s">
-        <v>13</v>
-      </c>
-      <c r="F107" t="s">
-        <v>29</v>
-      </c>
-      <c r="G107">
-        <v>2.15</v>
-      </c>
-      <c r="H107">
-        <v>0</v>
-      </c>
-      <c r="I107">
-        <v>50</v>
-      </c>
-      <c r="J107">
-        <v>0</v>
-      </c>
-      <c r="K107" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
-      <c r="A108" s="1">
-        <v>44292</v>
-      </c>
-      <c r="B108" s="1">
-        <v>44292</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D108" t="s">
-        <v>151</v>
-      </c>
-      <c r="E108" t="s">
-        <v>13</v>
-      </c>
-      <c r="F108" t="s">
-        <v>111</v>
-      </c>
-      <c r="G108">
-        <v>1.33</v>
-      </c>
-      <c r="H108">
-        <v>1</v>
-      </c>
-      <c r="I108">
-        <v>45</v>
-      </c>
-      <c r="J108">
-        <f>G108 * I108</f>
-        <v>59.85</v>
-      </c>
-      <c r="K108" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
-      <c r="A109" s="1">
-        <v>44290</v>
-      </c>
-      <c r="B109" s="1">
-        <v>44290</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D109" t="s">
-        <v>153</v>
-      </c>
-      <c r="E109" t="s">
-        <v>22</v>
-      </c>
-      <c r="F109" t="s">
-        <v>154</v>
-      </c>
-      <c r="G109">
-        <v>1.6</v>
-      </c>
-      <c r="H109">
-        <v>0</v>
-      </c>
-      <c r="I109">
-        <v>100</v>
-      </c>
-      <c r="J109">
-        <v>0</v>
-      </c>
       <c r="K109" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="1">
-        <v>44290</v>
+        <v>44358</v>
       </c>
       <c r="B110" s="1">
-        <v>44290</v>
+        <v>44358</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>11</v>
+        <v>144</v>
       </c>
       <c r="D110" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E110" t="s">
-        <v>22</v>
-      </c>
-      <c r="F110" t="s">
-        <v>155</v>
+        <v>24</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="G110">
-        <v>1.28</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -4706,101 +4726,102 @@
       </c>
       <c r="J110">
         <f>G110 * I110</f>
-        <v>128</v>
+        <v>109.00000000000001</v>
       </c>
       <c r="K110" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="1">
-        <v>44290</v>
+        <v>44339</v>
       </c>
       <c r="B111" s="1">
-        <v>44290</v>
+        <v>44339</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D111" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E111" t="s">
-        <v>22</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
+      </c>
+      <c r="F111" t="s">
+        <v>163</v>
       </c>
       <c r="G111">
-        <v>1.97</v>
+        <v>1.18</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111">
         <v>50</v>
       </c>
       <c r="J111">
-        <v>14.62</v>
+        <f>G111 * I111</f>
+        <v>59</v>
       </c>
       <c r="K111" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="1">
-        <v>44289</v>
+        <v>44339</v>
       </c>
       <c r="B112" s="1">
-        <v>44289</v>
+        <v>44339</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D112" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="E112" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F112" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="G112">
-        <v>4.8</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H112">
         <v>1</v>
       </c>
       <c r="I112">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J112">
         <f>G112 * I112</f>
-        <v>240</v>
+        <v>114.99999999999999</v>
       </c>
       <c r="K112" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="1">
-        <v>44289</v>
+        <v>44335</v>
       </c>
       <c r="B113" s="1">
-        <v>44289</v>
+        <v>44335</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D113" t="s">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="E113" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F113" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="G113">
         <v>2.2000000000000002</v>
@@ -4809,14 +4830,441 @@
         <v>1</v>
       </c>
       <c r="I113">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J113">
         <f>G113 * I113</f>
+        <v>55.000000000000007</v>
+      </c>
+      <c r="K113" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" s="1">
+        <v>44332</v>
+      </c>
+      <c r="B114" s="1">
+        <v>44332</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s">
+        <v>165</v>
+      </c>
+      <c r="E114" t="s">
+        <v>24</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G114">
+        <v>1.27</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="I114">
+        <v>25</v>
+      </c>
+      <c r="J114">
+        <f>G114 * I114</f>
+        <v>31.75</v>
+      </c>
+      <c r="K114" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" s="1">
+        <v>44329</v>
+      </c>
+      <c r="B115" s="1">
+        <v>44329</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s">
+        <v>118</v>
+      </c>
+      <c r="E115" t="s">
+        <v>13</v>
+      </c>
+      <c r="F115" t="s">
+        <v>166</v>
+      </c>
+      <c r="G115">
+        <v>1.6</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115">
+        <v>10</v>
+      </c>
+      <c r="J115">
+        <f>G115 * I115</f>
+        <v>16</v>
+      </c>
+      <c r="K115" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" s="1">
+        <v>44329</v>
+      </c>
+      <c r="B116" s="1">
+        <v>44329</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s">
+        <v>118</v>
+      </c>
+      <c r="E116" t="s">
+        <v>13</v>
+      </c>
+      <c r="F116" t="s">
+        <v>71</v>
+      </c>
+      <c r="G116">
+        <v>3.65</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>10</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" s="1">
+        <v>44305</v>
+      </c>
+      <c r="B117" s="1">
+        <v>44305</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s">
+        <v>134</v>
+      </c>
+      <c r="E117" t="s">
+        <v>24</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G117">
+        <v>1.52</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>100</v>
+      </c>
+      <c r="J117">
+        <f>G117 * I117</f>
+        <v>152</v>
+      </c>
+      <c r="K117" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" s="1">
+        <v>44292</v>
+      </c>
+      <c r="B118" s="1">
+        <v>44292</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D118" t="s">
+        <v>167</v>
+      </c>
+      <c r="E118" t="s">
+        <v>24</v>
+      </c>
+      <c r="F118" t="s">
+        <v>168</v>
+      </c>
+      <c r="G118">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>100</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" s="1">
+        <v>44292</v>
+      </c>
+      <c r="B119" s="1">
+        <v>44292</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D119" t="s">
+        <v>167</v>
+      </c>
+      <c r="E119" t="s">
+        <v>13</v>
+      </c>
+      <c r="F119" t="s">
+        <v>51</v>
+      </c>
+      <c r="G119">
+        <v>2.15</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>50</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" s="1">
+        <v>44292</v>
+      </c>
+      <c r="B120" s="1">
+        <v>44292</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D120" t="s">
+        <v>167</v>
+      </c>
+      <c r="E120" t="s">
+        <v>13</v>
+      </c>
+      <c r="F120" t="s">
+        <v>127</v>
+      </c>
+      <c r="G120">
+        <v>1.33</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120">
+        <v>45</v>
+      </c>
+      <c r="J120">
+        <f>G120 * I120</f>
+        <v>59.85</v>
+      </c>
+      <c r="K120" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" s="1">
+        <v>44290</v>
+      </c>
+      <c r="B121" s="1">
+        <v>44290</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s">
+        <v>169</v>
+      </c>
+      <c r="E121" t="s">
+        <v>24</v>
+      </c>
+      <c r="F121" t="s">
+        <v>170</v>
+      </c>
+      <c r="G121">
+        <v>1.6</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>100</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" s="1">
+        <v>44290</v>
+      </c>
+      <c r="B122" s="1">
+        <v>44290</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s">
+        <v>169</v>
+      </c>
+      <c r="E122" t="s">
+        <v>24</v>
+      </c>
+      <c r="F122" t="s">
+        <v>171</v>
+      </c>
+      <c r="G122">
+        <v>1.28</v>
+      </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+      <c r="I122">
+        <v>100</v>
+      </c>
+      <c r="J122">
+        <f>G122 * I122</f>
+        <v>128</v>
+      </c>
+      <c r="K122" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" s="1">
+        <v>44290</v>
+      </c>
+      <c r="B123" s="1">
+        <v>44290</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s">
+        <v>169</v>
+      </c>
+      <c r="E123" t="s">
+        <v>24</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G123">
+        <v>1.97</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>50</v>
+      </c>
+      <c r="J123">
+        <v>14.62</v>
+      </c>
+      <c r="K123" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" s="1">
+        <v>44289</v>
+      </c>
+      <c r="B124" s="1">
+        <v>44289</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s">
+        <v>95</v>
+      </c>
+      <c r="E124" t="s">
+        <v>24</v>
+      </c>
+      <c r="F124" t="s">
+        <v>45</v>
+      </c>
+      <c r="G124">
+        <v>4.8</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="I124">
+        <v>50</v>
+      </c>
+      <c r="J124">
+        <f>G124 * I124</f>
+        <v>240</v>
+      </c>
+      <c r="K124" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" s="1">
+        <v>44289</v>
+      </c>
+      <c r="B125" s="1">
+        <v>44289</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D125" t="s">
+        <v>95</v>
+      </c>
+      <c r="E125" t="s">
+        <v>24</v>
+      </c>
+      <c r="F125" t="s">
+        <v>51</v>
+      </c>
+      <c r="G125">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="I125">
+        <v>50</v>
+      </c>
+      <c r="J125">
+        <f>G125 * I125</f>
         <v>110.00000000000001</v>
       </c>
-      <c r="K113" t="s">
-        <v>18</v>
+      <c r="K125" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -4841,34 +5289,34 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="B1" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="C1" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="D1" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4">
         <f xml:space="preserve"> SUM(Odds!J:J)</f>
-        <v>4984.4174000000003</v>
+        <v>5426.4174000000003</v>
       </c>
       <c r="B2">
         <f xml:space="preserve"> SUM(Odds!I:I)</f>
-        <v>5536.68</v>
+        <v>5997.15</v>
       </c>
       <c r="C2">
         <f>A2 - B2</f>
-        <v>-552.26260000000002</v>
+        <v>-570.73259999999937</v>
       </c>
       <c r="D2">
         <f>ROUND(100 * (C2 / B2), 2)</f>
-        <v>-9.9700000000000006</v>
+        <v>-9.52</v>
       </c>
     </row>
   </sheetData>

--- a/inst/data/Betting.xlsx
+++ b/inst/data/Betting.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25308"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7B035BD-5232-454B-9590-974BBD988F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1531" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17CC8E1D-E750-43E6-9649-1B9D6EF34025}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="Overblik" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Odds!$A$1:$K$125</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Odds!$A$1:$K$128</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="178">
   <si>
     <t>BetDay</t>
   </si>
@@ -69,18 +69,36 @@
     <t>Premier League</t>
   </si>
   <si>
+    <t>Aston Villa - Liverpool</t>
+  </si>
+  <si>
+    <t>Oddset</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Kampvinder</t>
+  </si>
+  <si>
+    <t>Hvem får flest hjørnespark: Liverpool</t>
+  </si>
+  <si>
+    <t>Hjørnespark</t>
+  </si>
+  <si>
+    <t>Dobbeltchance Uafgjort eller Liverpool</t>
+  </si>
+  <si>
+    <t>Dobbeltchance</t>
+  </si>
+  <si>
     <t>Manchester C - Newcastle</t>
   </si>
   <si>
-    <t>Oddset</t>
-  </si>
-  <si>
     <t>Trippel ID 6: Dobbeltchance Manchester C eller Uafgjort</t>
   </si>
   <si>
-    <t>Dobbeltchance</t>
-  </si>
-  <si>
     <t>Arsenal - Leeds</t>
   </si>
   <si>
@@ -120,18 +138,12 @@
     <t>1</t>
   </si>
   <si>
-    <t>Kampvinder</t>
-  </si>
-  <si>
     <t>Champions League</t>
   </si>
   <si>
     <t>Villarreal - Liverpool</t>
   </si>
   <si>
-    <t>Dobbeltchance Uafgjort eller Liverpool</t>
-  </si>
-  <si>
     <t>Hvem går videre og hvordan: Liverpool efter ordinær spilletid</t>
   </si>
   <si>
@@ -156,9 +168,6 @@
     <t>Leeds - Manchester C</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Under 1,5 mål ved pausen &amp; under 10,5 hjørne &amp; under 5,5 kort</t>
   </si>
   <si>
@@ -175,9 +184,6 @@
   </si>
   <si>
     <t>Hjørnespark - O/U 7,5 Over</t>
-  </si>
-  <si>
-    <t>Hjørnespark</t>
   </si>
   <si>
     <t>Antal mål efter 20 Minutter O/U 0,5: Under</t>
@@ -929,11 +935,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K125"/>
+  <dimension ref="A1:K128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -984,10 +990,10 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>44689</v>
+        <v>44691</v>
       </c>
       <c r="B2" s="1">
-        <v>44689</v>
+        <v>44691</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
@@ -998,14 +1004,20 @@
       <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G2">
-        <v>1.02</v>
+        <v>1.52</v>
       </c>
       <c r="H2">
         <v>1</v>
+      </c>
+      <c r="I2">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="J2">
+        <v>15</v>
       </c>
       <c r="K2" t="s">
         <v>15</v>
@@ -1013,60 +1025,72 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>44689</v>
+        <v>44691</v>
       </c>
       <c r="B3" s="1">
-        <v>44689</v>
+        <v>44691</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>49.57</v>
+      </c>
+      <c r="J3">
+        <v>57.5</v>
+      </c>
+      <c r="K3" t="s">
         <v>17</v>
-      </c>
-      <c r="G3">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>44689</v>
+        <v>44691</v>
       </c>
       <c r="B4" s="1">
-        <v>44689</v>
+        <v>44691</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
       <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>49.6</v>
+      </c>
+      <c r="J4">
+        <v>56</v>
+      </c>
+      <c r="K4" t="s">
         <v>19</v>
-      </c>
-      <c r="G4">
-        <v>1.22</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="K4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1079,31 +1103,28 @@
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5">
-        <v>1.38</v>
+        <v>1.02</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>50</v>
-      </c>
-      <c r="J5">
-        <v>69</v>
-      </c>
       <c r="K5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>44688</v>
+        <v>44689</v>
       </c>
       <c r="B6" s="1">
         <v>44689</v>
@@ -1112,13 +1133,13 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G6">
         <v>1.1100000000000001</v>
@@ -1126,177 +1147,162 @@
       <c r="H6">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>100</v>
-      </c>
-      <c r="J6">
-        <v>110</v>
-      </c>
       <c r="K6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>44688</v>
+        <v>44689</v>
       </c>
       <c r="B7" s="1">
-        <v>44688</v>
+        <v>44689</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
         <v>25</v>
       </c>
       <c r="G7">
-        <v>5.4</v>
+        <v>1.22</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>5</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>44688</v>
+        <v>44689</v>
       </c>
       <c r="B8" s="1">
-        <v>44688</v>
+        <v>44689</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8">
+        <v>1.38</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>50</v>
+      </c>
+      <c r="J8">
+        <v>69</v>
+      </c>
+      <c r="K8" t="s">
         <v>27</v>
-      </c>
-      <c r="G8">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>100</v>
-      </c>
-      <c r="J8">
-        <v>114</v>
-      </c>
-      <c r="K8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
-        <v>44656</v>
+        <v>44688</v>
       </c>
       <c r="B9" s="1">
-        <v>44688</v>
+        <v>44689</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" t="s">
         <v>28</v>
       </c>
       <c r="G9">
-        <v>1.42</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="K9" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>44684</v>
+        <v>44688</v>
       </c>
       <c r="B10" s="1">
-        <v>44684</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
+        <v>44688</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="G10">
+        <v>5.4</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
         <v>32</v>
-      </c>
-      <c r="G10">
-        <v>1.22</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>35.25</v>
-      </c>
-      <c r="J10">
-        <v>43</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
-        <v>44684</v>
+        <v>44688</v>
       </c>
       <c r="B11" s="1">
-        <v>44684</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
+        <v>44688</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
         <v>33</v>
       </c>
       <c r="G11">
-        <v>1.06</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1305,56 +1311,56 @@
         <v>100</v>
       </c>
       <c r="J11">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="K11" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1">
-        <v>44684</v>
+        <v>44656</v>
       </c>
       <c r="B12" s="1">
-        <v>44684</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
+        <v>44688</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="3" t="s">
         <v>34</v>
       </c>
       <c r="G12">
-        <v>1.1499999999999999</v>
+        <v>1.42</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>65.22</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1">
-        <v>44683</v>
+        <v>44684</v>
       </c>
       <c r="B13" s="1">
-        <v>44683</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>11</v>
+        <v>44684</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
       </c>
       <c r="D13" t="s">
         <v>36</v>
@@ -1363,100 +1369,100 @@
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="G13">
-        <v>2.15</v>
+        <v>1.22</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>5</v>
+        <v>35.25</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1">
-        <v>44566</v>
+        <v>44684</v>
       </c>
       <c r="B14" s="1">
-        <v>44566</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>11</v>
+        <v>44684</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G14">
-        <v>2.1</v>
+        <v>1.06</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="J14">
-        <v>10.5</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>15</v>
+        <v>106</v>
+      </c>
+      <c r="K14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1">
-        <v>44681</v>
+        <v>44684</v>
       </c>
       <c r="B15" s="1">
-        <v>44681</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>11</v>
+        <v>44684</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>41</v>
+      <c r="F15" t="s">
+        <v>38</v>
       </c>
       <c r="G15">
-        <v>1.3</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>28</v>
+        <v>65.22</v>
       </c>
       <c r="J15">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
-        <v>44681</v>
+        <v>44683</v>
       </c>
       <c r="B16" s="1">
-        <v>44681</v>
+        <v>44683</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>11</v>
@@ -1468,57 +1474,57 @@
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>5</v>
       </c>
       <c r="J16">
-        <v>15</v>
-      </c>
-      <c r="K16" t="s">
-        <v>43</v>
+        <v>0</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
-        <v>44681</v>
+        <v>44566</v>
       </c>
       <c r="B17" s="1">
-        <v>44681</v>
+        <v>44566</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>41</v>
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>43</v>
       </c>
       <c r="G17">
-        <v>1.1599999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>28.65</v>
+        <v>5</v>
       </c>
       <c r="J17">
-        <v>33</v>
-      </c>
-      <c r="K17" t="s">
-        <v>29</v>
+        <v>10.5</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1535,25 +1541,25 @@
         <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" t="s">
-        <v>45</v>
+        <v>13</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="G18">
-        <v>3.9</v>
+        <v>1.3</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="K18" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1570,25 +1576,25 @@
         <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G19">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1602,28 +1608,28 @@
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" t="s">
-        <v>49</v>
+        <v>30</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="G20">
-        <v>1.45</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>10</v>
+        <v>28.65</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="K20" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1637,16 +1643,16 @@
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F21" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G21">
-        <v>2.4</v>
+        <v>3.9</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1655,10 +1661,10 @@
         <v>10</v>
       </c>
       <c r="J21">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1672,16 +1678,16 @@
         <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G22">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1693,112 +1699,112 @@
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1">
-        <v>44679</v>
+        <v>44681</v>
       </c>
       <c r="B23" s="1">
-        <v>44679</v>
+        <v>44681</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E23" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
+      </c>
+      <c r="F23" t="s">
+        <v>51</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>95.5</v>
+        <v>10</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1">
-        <v>44679</v>
+        <v>44681</v>
       </c>
       <c r="B24" s="1">
-        <v>44679</v>
+        <v>44681</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" t="s">
         <v>53</v>
       </c>
-      <c r="E24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" t="s">
-        <v>54</v>
-      </c>
       <c r="G24">
-        <v>5.2</v>
+        <v>2.4</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="K24" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1">
-        <v>44679</v>
+        <v>44681</v>
       </c>
       <c r="B25" s="1">
-        <v>44679</v>
+        <v>44681</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E25" t="s">
         <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G25">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J25">
-        <v>66</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="K25" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1812,133 +1818,133 @@
         <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" t="s">
-        <v>56</v>
+        <v>30</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="G26">
-        <v>1.19</v>
+        <v>2</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>25</v>
+        <v>95.5</v>
       </c>
       <c r="J26">
-        <v>29.5</v>
+        <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1">
-        <v>44678</v>
+        <v>44679</v>
       </c>
       <c r="B27" s="1">
-        <v>44678</v>
-      </c>
-      <c r="C27" t="s">
-        <v>30</v>
+        <v>44679</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E27" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="G27">
-        <v>1.1299999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="J27">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1">
-        <v>44678</v>
+        <v>44679</v>
       </c>
       <c r="B28" s="1">
-        <v>44678</v>
-      </c>
-      <c r="C28" t="s">
-        <v>30</v>
+        <v>44679</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" t="s">
         <v>57</v>
       </c>
-      <c r="E28" t="s">
-        <v>24</v>
-      </c>
-      <c r="F28" t="s">
-        <v>58</v>
-      </c>
       <c r="G28">
-        <v>4.5</v>
+        <v>1.32</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28" t="s">
-        <v>59</v>
+        <v>66</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1">
-        <v>44678</v>
+        <v>44679</v>
       </c>
       <c r="B29" s="1">
-        <v>44678</v>
-      </c>
-      <c r="C29" t="s">
-        <v>30</v>
+        <v>44679</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E29" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G29">
-        <v>1.5</v>
+        <v>1.19</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J29">
-        <v>70</v>
+        <v>29.5</v>
       </c>
       <c r="K29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1949,31 +1955,31 @@
         <v>44678</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E30" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="G30">
-        <v>2.15</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="K30" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1984,332 +1990,343 @@
         <v>44678</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E31" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G31">
-        <v>1.32</v>
+        <v>4.5</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="J31">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1">
-        <v>44677</v>
+        <v>44678</v>
       </c>
       <c r="B32" s="1">
-        <v>44677</v>
+        <v>44678</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E32" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G32">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="K32" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1">
-        <v>44676</v>
+        <v>44678</v>
       </c>
       <c r="B33" s="1">
-        <v>44676</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>11</v>
+        <v>44678</v>
+      </c>
+      <c r="C33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" t="s">
+        <v>59</v>
       </c>
       <c r="E33" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G33">
-        <v>7.23</v>
+        <v>2.15</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>10</v>
       </c>
       <c r="J33">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1">
-        <v>44674</v>
+        <v>44678</v>
       </c>
       <c r="B34" s="1">
-        <v>44674</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>11</v>
+        <v>44678</v>
+      </c>
+      <c r="C34" t="s">
+        <v>35</v>
       </c>
       <c r="D34" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E34" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F34" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G34">
-        <v>2.8</v>
+        <v>1.32</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="K34" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1">
-        <v>44674</v>
+        <v>44677</v>
       </c>
       <c r="B35" s="1">
-        <v>44674</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>11</v>
+        <v>44677</v>
+      </c>
+      <c r="C35" t="s">
+        <v>35</v>
       </c>
       <c r="D35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" t="s">
         <v>66</v>
       </c>
-      <c r="E35" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
-      </c>
       <c r="G35">
-        <v>2.0499999999999998</v>
+        <v>1.58</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1">
-        <v>44674</v>
+        <v>44676</v>
       </c>
       <c r="B36" s="1">
-        <v>44674</v>
+        <v>44676</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D36" t="s">
-        <v>66</v>
       </c>
       <c r="E36" t="s">
         <v>13</v>
       </c>
       <c r="F36" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G36">
-        <v>1.32</v>
+        <v>7.23</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K36" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1">
-        <v>44672</v>
+        <v>44674</v>
       </c>
       <c r="B37" s="1">
-        <v>44672</v>
+        <v>44674</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G37">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1">
-        <v>44671</v>
+        <v>44674</v>
       </c>
       <c r="B38" s="1">
-        <v>44675</v>
+        <v>44674</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E38" t="s">
         <v>13</v>
       </c>
-      <c r="F38" s="3" t="s">
-        <v>28</v>
+      <c r="F38" t="s">
+        <v>70</v>
       </c>
       <c r="G38">
-        <v>1.2</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="J38">
-        <f>G38 * I38</f>
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1">
-        <v>44671</v>
+        <v>44674</v>
       </c>
       <c r="B39" s="1">
-        <v>44671</v>
+        <v>44674</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E39" t="s">
         <v>13</v>
       </c>
       <c r="F39" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="G39">
-        <v>2.35</v>
+        <v>1.32</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>50</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1">
-        <v>44671</v>
+        <v>44672</v>
       </c>
       <c r="B40" s="1">
-        <v>44671</v>
+        <v>44672</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E40" t="s">
         <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G40">
-        <v>1.92</v>
+        <v>3.3</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
+      <c r="I40">
+        <v>10</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
       <c r="K40" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2317,28 +2334,35 @@
         <v>44671</v>
       </c>
       <c r="B41" s="1">
-        <v>44671</v>
+        <v>44675</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>76</v>
+      <c r="D41" t="s">
+        <v>74</v>
       </c>
       <c r="E41" t="s">
         <v>13</v>
       </c>
-      <c r="F41" t="s">
-        <v>74</v>
+      <c r="F41" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="G41">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
+      <c r="I41">
+        <v>200</v>
+      </c>
+      <c r="J41">
+        <f>G41 * I41</f>
+        <v>240</v>
+      </c>
       <c r="K41" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2352,22 +2376,22 @@
         <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E42" t="s">
         <v>13</v>
       </c>
       <c r="F42" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G42">
-        <v>3.3</v>
+        <v>2.35</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="K42" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2380,480 +2404,461 @@
       <c r="C43" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D43" t="s">
+        <v>77</v>
+      </c>
       <c r="E43" t="s">
         <v>13</v>
       </c>
       <c r="F43" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G43">
-        <v>2.375</v>
+        <v>1.92</v>
       </c>
       <c r="H43">
-        <v>1</v>
-      </c>
-      <c r="I43">
-        <v>20</v>
-      </c>
-      <c r="J43">
-        <v>47.5</v>
+        <v>0</v>
       </c>
       <c r="K43" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1">
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="B44" s="1">
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D44" t="s">
-        <v>80</v>
+      <c r="D44" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="E44" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>28</v>
+      <c r="F44" t="s">
+        <v>76</v>
       </c>
       <c r="G44">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
-      <c r="I44">
-        <v>101</v>
-      </c>
-      <c r="J44">
-        <f>G44 * I44</f>
-        <v>134.33000000000001</v>
-      </c>
       <c r="K44" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1">
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="B45" s="1">
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E45" t="s">
         <v>13</v>
       </c>
       <c r="F45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G45">
-        <v>15</v>
+        <v>3.3</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
-      <c r="I45">
-        <v>10</v>
-      </c>
-      <c r="J45">
-        <f>G45 * I45</f>
-        <v>150</v>
-      </c>
       <c r="K45" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1">
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="B46" s="1">
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D46" t="s">
-        <v>80</v>
       </c>
       <c r="E46" t="s">
         <v>13</v>
       </c>
       <c r="F46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G46">
-        <v>9.35</v>
+        <v>2.375</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>47.5</v>
       </c>
       <c r="K46" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1">
-        <v>44667</v>
+        <v>44670</v>
       </c>
       <c r="B47" s="1">
-        <v>44667</v>
+        <v>44670</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E47" t="s">
-        <v>24</v>
-      </c>
-      <c r="F47" t="s">
-        <v>84</v>
+        <v>13</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="G47">
-        <v>1.52</v>
+        <v>1.33</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <f>G47 * I47</f>
+        <v>134.33000000000001</v>
       </c>
       <c r="K47" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1">
-        <v>44664</v>
+        <v>44670</v>
       </c>
       <c r="B48" s="1">
-        <v>44664</v>
+        <v>44670</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D48" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E48" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F48" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G48">
-        <v>2.85</v>
+        <v>15</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <f>G48 * I48</f>
+        <v>150</v>
       </c>
       <c r="K48" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="1">
-        <v>44664</v>
+        <v>44670</v>
       </c>
       <c r="B49" s="1">
-        <v>44664</v>
+        <v>44670</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D49" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E49" t="s">
         <v>13</v>
       </c>
       <c r="F49" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="G49">
-        <v>1.38</v>
+        <v>9.35</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>102.5</v>
+        <v>10</v>
       </c>
       <c r="J49">
-        <f>G49 * I49</f>
-        <v>141.44999999999999</v>
+        <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="1">
-        <v>44656</v>
+        <v>44667</v>
       </c>
       <c r="B50" s="1">
-        <v>44656</v>
+        <v>44667</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D50" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E50" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F50" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G50">
-        <v>1.25</v>
+        <v>1.52</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>20</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
       </c>
       <c r="K50" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="1">
-        <v>44656</v>
+        <v>44664</v>
       </c>
       <c r="B51" s="1">
-        <v>44656</v>
+        <v>44664</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D51" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E51" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F51" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G51">
-        <v>1.4</v>
+        <v>2.85</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>100</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="1">
-        <v>44656</v>
+        <v>44664</v>
       </c>
       <c r="B52" s="1">
-        <v>44671</v>
+        <v>44664</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="D52" t="s">
+        <v>87</v>
       </c>
       <c r="E52" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F52" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="G52">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="H52">
         <v>1</v>
       </c>
       <c r="I52">
-        <v>50</v>
+        <v>102.5</v>
       </c>
       <c r="J52">
         <f>G52 * I52</f>
-        <v>87.5</v>
+        <v>141.44999999999999</v>
       </c>
       <c r="K52" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="1">
-        <v>44640</v>
+        <v>44656</v>
       </c>
       <c r="B53" s="1">
-        <v>44640</v>
-      </c>
-      <c r="C53" t="s">
-        <v>93</v>
+        <v>44656</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D53" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E53" t="s">
-        <v>24</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
+      </c>
+      <c r="F53" t="s">
+        <v>90</v>
       </c>
       <c r="G53">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
-      <c r="I53">
-        <v>50</v>
-      </c>
-      <c r="J53">
-        <f>G53 * I53</f>
-        <v>65</v>
-      </c>
       <c r="K53" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="1">
-        <v>44636</v>
+        <v>44656</v>
       </c>
       <c r="B54" s="1">
-        <v>44636</v>
-      </c>
-      <c r="C54" t="s">
-        <v>11</v>
+        <v>44656</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D54" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E54" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F54" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="G54">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
-      <c r="I54">
-        <v>24</v>
-      </c>
-      <c r="J54">
-        <f>G54 * I54</f>
-        <v>26.400000000000002</v>
-      </c>
       <c r="K54" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="1">
-        <v>44628</v>
+        <v>44656</v>
       </c>
       <c r="B55" s="1">
-        <v>44628</v>
-      </c>
-      <c r="C55" t="s">
-        <v>30</v>
-      </c>
-      <c r="D55" t="s">
-        <v>96</v>
+        <v>44671</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="E55" t="s">
-        <v>13</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="F55" t="s">
+        <v>93</v>
       </c>
       <c r="G55">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55">
         <v>50</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <f>G55 * I55</f>
+        <v>87.5</v>
       </c>
       <c r="K55" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="1">
-        <v>44625</v>
+        <v>44640</v>
       </c>
       <c r="B56" s="1">
-        <v>44625</v>
+        <v>44640</v>
       </c>
       <c r="C56" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="D56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E56" t="s">
-        <v>24</v>
-      </c>
-      <c r="F56" t="s">
-        <v>98</v>
+        <v>30</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="G56">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <f>G56 * I56</f>
+        <v>65</v>
       </c>
       <c r="K56" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="1">
-        <v>44625</v>
+        <v>44636</v>
       </c>
       <c r="B57" s="1">
-        <v>44625</v>
+        <v>44636</v>
       </c>
       <c r="C57" t="s">
         <v>11</v>
@@ -2862,120 +2867,119 @@
         <v>97</v>
       </c>
       <c r="E57" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F57" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="G57">
-        <v>1.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H57">
         <v>1</v>
       </c>
       <c r="I57">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="J57">
         <f>G57 * I57</f>
-        <v>70</v>
+        <v>26.400000000000002</v>
       </c>
       <c r="K57" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="1">
-        <v>44619</v>
+        <v>44628</v>
       </c>
       <c r="B58" s="1">
-        <v>44619</v>
+        <v>44628</v>
       </c>
       <c r="C58" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="D58" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E58" t="s">
-        <v>24</v>
-      </c>
-      <c r="F58" t="s">
-        <v>102</v>
+        <v>13</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="G58">
-        <v>3</v>
+        <v>1.62</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J58">
-        <f>G58 * I58</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K58" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="1">
-        <v>44619</v>
+        <v>44625</v>
       </c>
       <c r="B59" s="1">
-        <v>44619</v>
+        <v>44625</v>
       </c>
       <c r="C59" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s">
+        <v>99</v>
+      </c>
+      <c r="E59" t="s">
+        <v>30</v>
+      </c>
+      <c r="F59" t="s">
         <v>100</v>
       </c>
-      <c r="D59" t="s">
-        <v>101</v>
-      </c>
-      <c r="E59" t="s">
-        <v>24</v>
-      </c>
-      <c r="F59" t="s">
-        <v>104</v>
-      </c>
       <c r="G59">
-        <v>3.75</v>
+        <v>1.42</v>
       </c>
       <c r="H59">
         <v>0</v>
       </c>
       <c r="I59">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
       <c r="K59" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="1">
-        <v>44619</v>
+        <v>44625</v>
       </c>
       <c r="B60" s="1">
-        <v>44619</v>
+        <v>44625</v>
       </c>
       <c r="C60" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D60" t="s">
+        <v>99</v>
+      </c>
+      <c r="E60" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" t="s">
         <v>101</v>
       </c>
-      <c r="E60" t="s">
-        <v>24</v>
-      </c>
-      <c r="F60" t="s">
-        <v>105</v>
-      </c>
       <c r="G60">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -2985,488 +2989,505 @@
       </c>
       <c r="J60">
         <f>G60 * I60</f>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K60" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="1">
-        <v>44618</v>
+        <v>44619</v>
       </c>
       <c r="B61" s="1">
-        <v>44618</v>
+        <v>44619</v>
       </c>
       <c r="C61" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="D61" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E61" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F61" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G61">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61">
         <v>10</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <f>G61 * I61</f>
+        <v>30</v>
       </c>
       <c r="K61" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="1">
-        <v>44613</v>
+        <v>44619</v>
       </c>
       <c r="B62" s="1">
-        <v>44613</v>
+        <v>44619</v>
       </c>
       <c r="C62" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="D62" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E62" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>109</v>
+        <v>30</v>
+      </c>
+      <c r="F62" t="s">
+        <v>106</v>
       </c>
       <c r="G62">
-        <v>1.42</v>
+        <v>3.75</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="J62">
-        <f>G62 * I62</f>
-        <v>127.8</v>
+        <v>0</v>
       </c>
       <c r="K62" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="1">
-        <v>44613</v>
+        <v>44619</v>
       </c>
       <c r="B63" s="1">
-        <v>44613</v>
+        <v>44619</v>
       </c>
       <c r="C63" t="s">
-        <v>11</v>
+        <v>102</v>
+      </c>
+      <c r="D63" t="s">
+        <v>103</v>
       </c>
       <c r="E63" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F63" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G63">
-        <v>1238046</v>
+        <v>1.2</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <f>G63 * I63</f>
+        <v>60</v>
       </c>
       <c r="K63" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="1">
-        <v>44611</v>
+        <v>44618</v>
       </c>
       <c r="B64" s="1">
-        <v>44611</v>
+        <v>44618</v>
       </c>
       <c r="C64" t="s">
         <v>11</v>
       </c>
       <c r="D64" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E64" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="F64" t="s">
+        <v>109</v>
       </c>
       <c r="G64">
-        <v>1.1299999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64">
-        <v>95.5</v>
+        <v>10</v>
       </c>
       <c r="J64">
-        <f>G64 * I64</f>
-        <v>107.91499999999999</v>
+        <v>0</v>
       </c>
       <c r="K64" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="1">
-        <v>44608</v>
+        <v>44613</v>
       </c>
       <c r="B65" s="1">
-        <v>44608</v>
+        <v>44613</v>
       </c>
       <c r="C65" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D65" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E65" t="s">
         <v>13</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="G65">
-        <v>2.25</v>
+        <v>1.42</v>
       </c>
       <c r="H65">
         <v>1</v>
       </c>
       <c r="I65">
-        <v>42.5</v>
+        <v>90</v>
       </c>
       <c r="J65">
-        <f>IF(H65 = 1, G65 * I65, 0)</f>
-        <v>95.625</v>
+        <f>G65 * I65</f>
+        <v>127.8</v>
       </c>
       <c r="K65" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="1">
-        <v>44584</v>
+        <v>44613</v>
       </c>
       <c r="B66" s="1">
-        <v>44584</v>
+        <v>44613</v>
       </c>
       <c r="C66" t="s">
         <v>11</v>
-      </c>
-      <c r="D66" t="s">
-        <v>113</v>
       </c>
       <c r="E66" t="s">
         <v>13</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>41</v>
+      <c r="F66" t="s">
+        <v>112</v>
       </c>
       <c r="G66">
-        <v>1.58</v>
+        <v>1238046</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>27.03</v>
+        <v>1</v>
       </c>
       <c r="J66">
-        <f>IF(H66 = 1, G66 * I66, 0)</f>
-        <v>42.707400000000007</v>
+        <v>0</v>
       </c>
       <c r="K66" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="1">
-        <v>44558</v>
+        <v>44611</v>
       </c>
       <c r="B67" s="1">
-        <v>44558</v>
+        <v>44611</v>
       </c>
       <c r="C67" t="s">
         <v>11</v>
       </c>
       <c r="D67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E67" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G67">
-        <v>1.34</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>50</v>
+        <v>95.5</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <f>G67 * I67</f>
+        <v>107.91499999999999</v>
       </c>
       <c r="K67" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="1">
-        <v>44541</v>
+        <v>44608</v>
       </c>
       <c r="B68" s="1">
-        <v>44541</v>
+        <v>44608</v>
       </c>
       <c r="C68" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D68" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E68" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="G68">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>50</v>
+        <v>42.5</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <f>IF(H68 = 1, G68 * I68, 0)</f>
+        <v>95.625</v>
       </c>
       <c r="K68" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="1">
-        <v>44534</v>
+        <v>44584</v>
       </c>
       <c r="B69" s="1">
-        <v>44534</v>
+        <v>44584</v>
       </c>
       <c r="C69" t="s">
         <v>11</v>
       </c>
       <c r="D69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E69" t="s">
-        <v>24</v>
-      </c>
-      <c r="F69" t="s">
-        <v>61</v>
+        <v>13</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="G69">
-        <v>3.2</v>
+        <v>1.58</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>50</v>
+        <v>27.03</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <f>IF(H69 = 1, G69 * I69, 0)</f>
+        <v>42.707400000000007</v>
       </c>
       <c r="K69" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="1">
-        <v>44531</v>
+        <v>44558</v>
       </c>
       <c r="B70" s="1">
-        <v>44531</v>
+        <v>44558</v>
       </c>
       <c r="C70" t="s">
         <v>11</v>
       </c>
       <c r="D70" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E70" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="G70">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J70">
-        <f>G70 * I70</f>
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="K70" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="1">
-        <v>44493</v>
+        <v>44541</v>
       </c>
       <c r="B71" s="1">
-        <v>44493</v>
+        <v>44541</v>
       </c>
       <c r="C71" t="s">
         <v>11</v>
       </c>
       <c r="D71" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E71" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="G71">
-        <v>2.4500000000000002</v>
+        <v>1.7</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <v>50</v>
       </c>
       <c r="J71">
-        <f>G71 * I71</f>
-        <v>122.50000000000001</v>
+        <v>0</v>
       </c>
       <c r="K71" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="1">
-        <v>44471</v>
+        <v>44534</v>
       </c>
       <c r="B72" s="1">
-        <v>44471</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>11</v>
+        <v>44534</v>
+      </c>
+      <c r="C72" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s">
+        <v>118</v>
       </c>
       <c r="E72" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F72" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="G72">
-        <v>8.4700000000000006</v>
+        <v>3.2</v>
       </c>
       <c r="H72">
         <v>0</v>
       </c>
       <c r="I72">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J72">
         <v>0</v>
       </c>
       <c r="K72" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="1">
-        <v>44471</v>
+        <v>44531</v>
       </c>
       <c r="B73" s="1">
-        <v>44471</v>
-      </c>
-      <c r="C73" s="2" t="s">
+        <v>44531</v>
+      </c>
+      <c r="C73" t="s">
         <v>11</v>
       </c>
       <c r="D73" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E73" t="s">
-        <v>24</v>
-      </c>
-      <c r="F73" t="s">
-        <v>121</v>
+        <v>30</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="G73">
-        <v>2.4500000000000002</v>
+        <v>1.37</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>100</v>
+      </c>
+      <c r="J73">
+        <f>G73 * I73</f>
+        <v>137</v>
       </c>
       <c r="K73" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="1">
-        <v>44471</v>
+        <v>44493</v>
       </c>
       <c r="B74" s="1">
-        <v>44471</v>
-      </c>
-      <c r="C74" s="2" t="s">
+        <v>44493</v>
+      </c>
+      <c r="C74" t="s">
         <v>11</v>
       </c>
       <c r="D74" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E74" t="s">
-        <v>24</v>
-      </c>
-      <c r="F74" t="s">
-        <v>121</v>
+        <v>13</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="G74">
-        <v>2.5499999999999998</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
+      <c r="I74">
+        <v>50</v>
+      </c>
+      <c r="J74">
+        <f>G74 * I74</f>
+        <v>122.50000000000001</v>
+      </c>
       <c r="K74" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3479,23 +3500,26 @@
       <c r="C75" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D75" t="s">
-        <v>123</v>
-      </c>
       <c r="E75" t="s">
-        <v>24</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>124</v>
+        <v>30</v>
+      </c>
+      <c r="F75" t="s">
+        <v>121</v>
       </c>
       <c r="G75">
-        <v>1.1499999999999999</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>10</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
       </c>
       <c r="K75" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3509,22 +3533,22 @@
         <v>11</v>
       </c>
       <c r="D76" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E76" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F76" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G76">
-        <v>1.18</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3538,154 +3562,139 @@
         <v>11</v>
       </c>
       <c r="D77" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E77" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F77" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G77">
-        <v>1.3</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
-      <c r="I77">
-        <v>29</v>
-      </c>
-      <c r="J77">
-        <f>G77 * I77</f>
-        <v>37.700000000000003</v>
-      </c>
       <c r="K77" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="1">
-        <v>44464</v>
+        <v>44471</v>
       </c>
       <c r="B78" s="1">
-        <v>44464</v>
+        <v>44471</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D78" t="s">
-        <v>128</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>24</v>
+        <v>125</v>
+      </c>
+      <c r="E78" t="s">
+        <v>30</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="G78">
-        <v>1.4</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78">
-        <v>50</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K78" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="1">
-        <v>44464</v>
+        <v>44471</v>
       </c>
       <c r="B79" s="1">
-        <v>44464</v>
+        <v>44471</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D79" t="s">
-        <v>129</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>24</v>
+        <v>127</v>
+      </c>
+      <c r="E79" t="s">
+        <v>30</v>
       </c>
       <c r="F79" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="G79">
-        <v>1.62</v>
+        <v>1.18</v>
       </c>
       <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="I79">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K79" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="1">
-        <v>44464</v>
+        <v>44471</v>
       </c>
       <c r="B80" s="1">
-        <v>44464</v>
+        <v>44471</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D80" t="s">
-        <v>130</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>24</v>
+        <v>128</v>
+      </c>
+      <c r="E80" t="s">
+        <v>13</v>
       </c>
       <c r="F80" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G80">
-        <v>8.5</v>
+        <v>1.3</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <f>G80 * I80</f>
+        <v>37.700000000000003</v>
       </c>
       <c r="K80" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="1">
-        <v>44454</v>
+        <v>44464</v>
       </c>
       <c r="B81" s="1">
-        <v>44454</v>
+        <v>44464</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D81" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F81" t="s">
-        <v>98</v>
+        <v>30</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="G81">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -3697,172 +3706,168 @@
         <v>0</v>
       </c>
       <c r="K81" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="1">
-        <v>44454</v>
+        <v>44464</v>
       </c>
       <c r="B82" s="1">
-        <v>44454</v>
+        <v>44464</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D82" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="F82" t="s">
+        <v>73</v>
       </c>
       <c r="G82">
-        <v>1.43</v>
+        <v>1.62</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>34</v>
-      </c>
-      <c r="J82">
-        <f>G82 * I82</f>
-        <v>48.62</v>
+        <v>10</v>
       </c>
       <c r="K82" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="1">
-        <v>44453</v>
+        <v>44464</v>
       </c>
       <c r="B83" s="1">
-        <v>44453</v>
+        <v>44464</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D83" t="s">
+        <v>132</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F83" t="s">
         <v>133</v>
       </c>
-      <c r="E83" t="s">
-        <v>13</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="G83">
-        <v>1.42</v>
+        <v>8.5</v>
       </c>
       <c r="H83">
         <v>0</v>
       </c>
       <c r="I83">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J83">
         <v>0</v>
       </c>
       <c r="K83" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="1">
-        <v>44451</v>
+        <v>44454</v>
       </c>
       <c r="B84" s="1">
-        <v>44451</v>
+        <v>44454</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D84" t="s">
         <v>134</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F84" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G84">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84">
         <v>50</v>
       </c>
       <c r="J84">
-        <f>G84 * I84</f>
-        <v>67.5</v>
+        <v>0</v>
       </c>
       <c r="K84" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="1">
-        <v>44450</v>
+        <v>44454</v>
       </c>
       <c r="B85" s="1">
-        <v>44450</v>
+        <v>44454</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D85" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F85" t="s">
-        <v>137</v>
+        <v>30</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="G85">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <f>G85 * I85</f>
+        <v>48.62</v>
       </c>
       <c r="K85" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="1">
-        <v>44450</v>
+        <v>44453</v>
       </c>
       <c r="B86" s="1">
-        <v>44450</v>
+        <v>44453</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D86" t="s">
-        <v>136</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F86" t="s">
-        <v>51</v>
+        <v>135</v>
+      </c>
+      <c r="E86" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="G86">
-        <v>1.28</v>
+        <v>1.42</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -3874,15 +3879,15 @@
         <v>0</v>
       </c>
       <c r="K86" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="1">
-        <v>44450</v>
+        <v>44451</v>
       </c>
       <c r="B87" s="1">
-        <v>44450</v>
+        <v>44451</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>11</v>
@@ -3891,416 +3896,415 @@
         <v>136</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F87" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G87">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <f>G87 * I87</f>
+        <v>67.5</v>
       </c>
       <c r="K87" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="1">
-        <v>44437</v>
+        <v>44450</v>
       </c>
       <c r="B88" s="1">
-        <v>44437</v>
+        <v>44450</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D88" t="s">
+        <v>138</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F88" t="s">
         <v>139</v>
       </c>
-      <c r="E88" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F88" t="s">
-        <v>140</v>
-      </c>
       <c r="G88">
-        <v>9.5</v>
+        <v>1.42</v>
       </c>
       <c r="H88">
         <v>0</v>
       </c>
       <c r="I88">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J88">
         <v>0</v>
       </c>
       <c r="K88" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="1">
-        <v>44436</v>
+        <v>44450</v>
       </c>
       <c r="B89" s="1">
-        <v>44436</v>
+        <v>44450</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D89" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F89" t="s">
-        <v>142</v>
+        <v>53</v>
       </c>
       <c r="G89">
-        <v>1.1200000000000001</v>
+        <v>1.28</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J89">
-        <f>G89 * I89</f>
-        <v>112.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="K89" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="1">
-        <v>44436</v>
+        <v>44450</v>
       </c>
       <c r="B90" s="1">
-        <v>44436</v>
+        <v>44450</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D90" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F90" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G90">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J90">
-        <f>G90 * I90</f>
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="K90" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="1">
-        <v>44375</v>
+        <v>44437</v>
       </c>
       <c r="B91" s="1">
-        <v>44375</v>
+        <v>44437</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="D91" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="F91" t="s">
+        <v>142</v>
       </c>
       <c r="G91">
-        <v>1.58</v>
+        <v>9.5</v>
       </c>
       <c r="H91">
         <v>0</v>
       </c>
       <c r="I91">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="J91">
         <v>0</v>
       </c>
       <c r="K91" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="1">
-        <v>44374</v>
+        <v>44436</v>
       </c>
       <c r="B92" s="1">
-        <v>44374</v>
+        <v>44436</v>
       </c>
       <c r="C92" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s">
+        <v>143</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F92" t="s">
         <v>144</v>
       </c>
-      <c r="D92" t="s">
-        <v>146</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F92" t="s">
-        <v>51</v>
-      </c>
       <c r="G92">
-        <v>1.82</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J92">
-        <v>0</v>
+        <f>G92 * I92</f>
+        <v>112.00000000000001</v>
       </c>
       <c r="K92" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="1">
-        <v>44374</v>
+        <v>44436</v>
       </c>
       <c r="B93" s="1">
-        <v>44374</v>
+        <v>44436</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="D93" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F93" t="s">
+        <v>145</v>
+      </c>
+      <c r="G93">
+        <v>1.42</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <v>50</v>
+      </c>
+      <c r="J93">
+        <f>G93 * I93</f>
         <v>71</v>
       </c>
-      <c r="G93">
-        <v>3.05</v>
-      </c>
-      <c r="H93">
-        <v>0</v>
-      </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-      <c r="J93">
-        <v>0</v>
-      </c>
       <c r="K93" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="1">
-        <v>44374</v>
+        <v>44375</v>
       </c>
       <c r="B94" s="1">
-        <v>44374</v>
+        <v>44375</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D94" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F94" t="s">
-        <v>127</v>
+        <v>30</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="G94">
-        <v>1.24</v>
+        <v>1.58</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J94">
-        <f t="shared" ref="J94:J96" si="0">G94 * I94</f>
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="K94" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B95" s="1">
+        <v>44374</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D95" t="s">
+        <v>148</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F95" t="s">
+        <v>53</v>
+      </c>
+      <c r="G95">
+        <v>1.82</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>50</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B96" s="1">
+        <v>44374</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D96" t="s">
+        <v>148</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F96" t="s">
+        <v>73</v>
+      </c>
+      <c r="G96">
+        <v>3.05</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B97" s="1">
+        <v>44374</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D97" t="s">
+        <v>148</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F97" t="s">
+        <v>129</v>
+      </c>
+      <c r="G97">
+        <v>1.24</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97">
+        <v>50</v>
+      </c>
+      <c r="J97">
+        <f t="shared" ref="J97:J99" si="0">G97 * I97</f>
+        <v>62</v>
+      </c>
+      <c r="K97" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" s="1">
         <v>44373</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B98" s="1">
         <v>44373</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D95" t="s">
-        <v>147</v>
-      </c>
-      <c r="E95" t="s">
+      <c r="C98" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D98" t="s">
+        <v>149</v>
+      </c>
+      <c r="E98" t="s">
         <v>13</v>
       </c>
-      <c r="F95" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G95">
+      <c r="F98" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G98">
         <v>1.92</v>
       </c>
-      <c r="H95">
-        <v>1</v>
-      </c>
-      <c r="I95">
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98">
         <v>100</v>
       </c>
-      <c r="J95">
+      <c r="J98">
         <f t="shared" si="0"/>
         <v>192</v>
       </c>
-      <c r="K95" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
-      <c r="A96" s="1">
-        <v>44368</v>
-      </c>
-      <c r="B96" s="1">
-        <v>44368</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D96" t="s">
-        <v>148</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G96">
-        <v>1.2</v>
-      </c>
-      <c r="H96">
-        <v>1</v>
-      </c>
-      <c r="I96">
-        <v>200</v>
-      </c>
-      <c r="J96">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="K96" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
-      <c r="A97" s="1">
-        <v>44368</v>
-      </c>
-      <c r="B97" s="1">
-        <v>44368</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D97" t="s">
-        <v>148</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F97" t="s">
-        <v>149</v>
-      </c>
-      <c r="G97">
-        <v>1.42</v>
-      </c>
-      <c r="H97">
-        <v>0</v>
-      </c>
-      <c r="I97">
-        <v>100</v>
-      </c>
-      <c r="J97">
-        <v>0</v>
-      </c>
-      <c r="K97" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
-      <c r="A98" s="1">
-        <v>44368</v>
-      </c>
-      <c r="B98" s="1">
-        <v>44368</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D98" t="s">
-        <v>148</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F98" t="s">
-        <v>150</v>
-      </c>
-      <c r="G98">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="H98">
-        <v>1</v>
-      </c>
-      <c r="I98">
-        <v>100</v>
-      </c>
-      <c r="J98">
-        <f t="shared" ref="J98:J99" si="1">G98 * I98</f>
-        <v>112.99999999999999</v>
-      </c>
       <c r="K98" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4311,805 +4315,806 @@
         <v>44368</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D99" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F99" t="s">
+        <v>30</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99">
+        <v>1.2</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
+        <v>200</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="K99" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="1">
+        <v>44368</v>
+      </c>
+      <c r="B100" s="1">
+        <v>44368</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D100" t="s">
+        <v>150</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F100" t="s">
         <v>151</v>
       </c>
-      <c r="G99">
+      <c r="G100">
+        <v>1.42</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>100</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" s="1">
+        <v>44368</v>
+      </c>
+      <c r="B101" s="1">
+        <v>44368</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D101" t="s">
+        <v>150</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F101" t="s">
+        <v>152</v>
+      </c>
+      <c r="G101">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="I101">
+        <v>100</v>
+      </c>
+      <c r="J101">
+        <f t="shared" ref="J101:J102" si="1">G101 * I101</f>
+        <v>112.99999999999999</v>
+      </c>
+      <c r="K101" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" s="1">
+        <v>44368</v>
+      </c>
+      <c r="B102" s="1">
+        <v>44368</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D102" t="s">
+        <v>150</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F102" t="s">
+        <v>153</v>
+      </c>
+      <c r="G102">
         <v>1.25</v>
       </c>
-      <c r="H99">
-        <v>1</v>
-      </c>
-      <c r="I99">
+      <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102">
         <v>100</v>
       </c>
-      <c r="J99">
+      <c r="J102">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="K99" t="s">
+      <c r="K102" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" s="1">
+        <v>44365</v>
+      </c>
+      <c r="B103" s="1">
+        <v>44365</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D103" t="s">
+        <v>154</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G103">
+        <v>1.65</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
         <v>50</v>
       </c>
-    </row>
-    <row r="100" spans="1:11">
-      <c r="A100" s="1">
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" s="1">
         <v>44365</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B104" s="1">
         <v>44365</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D100" t="s">
-        <v>152</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G100">
-        <v>1.65</v>
-      </c>
-      <c r="H100">
-        <v>0</v>
-      </c>
-      <c r="I100">
+      <c r="C104" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D104" t="s">
+        <v>154</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F104" t="s">
+        <v>53</v>
+      </c>
+      <c r="G104">
+        <v>1.42</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="I104">
         <v>50</v>
       </c>
-      <c r="J100">
-        <v>0</v>
-      </c>
-      <c r="K100" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
-      <c r="A101" s="1">
-        <v>44365</v>
-      </c>
-      <c r="B101" s="1">
-        <v>44365</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D101" t="s">
-        <v>152</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F101" t="s">
-        <v>51</v>
-      </c>
-      <c r="G101">
-        <v>1.42</v>
-      </c>
-      <c r="H101">
-        <v>1</v>
-      </c>
-      <c r="I101">
-        <v>50</v>
-      </c>
-      <c r="J101">
-        <f t="shared" ref="J101:J103" si="2">G101 * I101</f>
+      <c r="J104">
+        <f t="shared" ref="J104:J106" si="2">G104 * I104</f>
         <v>71</v>
       </c>
-      <c r="K101" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
-      <c r="A102" s="1">
+      <c r="K104" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" s="1">
         <v>44364</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B105" s="1">
         <v>44364</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D102" t="s">
-        <v>153</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G102">
+      <c r="C105" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D105" t="s">
+        <v>155</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G105">
         <v>1.1599999999999999</v>
       </c>
-      <c r="H102">
-        <v>1</v>
-      </c>
-      <c r="I102">
+      <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="I105">
         <v>100</v>
       </c>
-      <c r="J102">
+      <c r="J105">
         <f t="shared" si="2"/>
         <v>115.99999999999999</v>
       </c>
-      <c r="K102" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11">
-      <c r="A103" s="1">
+      <c r="K105" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" s="1">
         <v>44364</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B106" s="1">
         <v>44364</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D103" t="s">
-        <v>154</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G103">
+      <c r="C106" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D106" t="s">
+        <v>156</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G106">
         <v>1.18</v>
       </c>
-      <c r="H103">
-        <v>1</v>
-      </c>
-      <c r="I103">
+      <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="I106">
         <v>100</v>
       </c>
-      <c r="J103">
+      <c r="J106">
         <f t="shared" si="2"/>
         <v>118</v>
       </c>
-      <c r="K103" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11">
-      <c r="A104" s="1">
+      <c r="K106" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" s="1">
         <v>44363</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B107" s="1">
         <v>44363</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D104" t="s">
-        <v>155</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F104" t="s">
-        <v>138</v>
-      </c>
-      <c r="G104">
+      <c r="C107" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D107" t="s">
+        <v>157</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F107" t="s">
+        <v>140</v>
+      </c>
+      <c r="G107">
         <v>1.4</v>
       </c>
-      <c r="H104">
-        <v>1</v>
-      </c>
-      <c r="I104">
+      <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107">
         <v>100</v>
       </c>
-      <c r="J104">
-        <f t="shared" ref="J104:J105" si="3">G104 * I104</f>
+      <c r="J107">
+        <f t="shared" ref="J107:J108" si="3">G107 * I107</f>
         <v>140</v>
       </c>
-      <c r="K104" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11">
-      <c r="A105" s="1">
+      <c r="K107" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" s="1">
         <v>44363</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B108" s="1">
         <v>44363</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D105" t="s">
-        <v>155</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G105">
+      <c r="C108" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D108" t="s">
+        <v>157</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G108">
         <v>1.22</v>
       </c>
-      <c r="H105">
-        <v>1</v>
-      </c>
-      <c r="I105">
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108">
         <v>100</v>
       </c>
-      <c r="J105">
+      <c r="J108">
         <f t="shared" si="3"/>
         <v>122</v>
       </c>
-      <c r="K105" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11">
-      <c r="A106" s="1">
-        <v>44362</v>
-      </c>
-      <c r="B106" s="1">
-        <v>44362</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D106" t="s">
-        <v>156</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F106" t="s">
-        <v>51</v>
-      </c>
-      <c r="G106">
-        <v>1.77</v>
-      </c>
-      <c r="H106">
-        <v>0</v>
-      </c>
-      <c r="I106">
-        <v>100</v>
-      </c>
-      <c r="J106">
-        <v>0</v>
-      </c>
-      <c r="K106" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
-      <c r="A107" s="1">
-        <v>44361</v>
-      </c>
-      <c r="B107" s="1">
-        <v>44361</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D107" t="s">
-        <v>157</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F107" t="s">
-        <v>158</v>
-      </c>
-      <c r="G107">
-        <v>1.27</v>
-      </c>
-      <c r="H107">
-        <v>0</v>
-      </c>
-      <c r="I107">
-        <v>100</v>
-      </c>
-      <c r="J107">
-        <v>0</v>
-      </c>
-      <c r="K107" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
-      <c r="A108" s="1">
-        <v>44359</v>
-      </c>
-      <c r="B108" s="1">
-        <v>44359</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D108" t="s">
-        <v>159</v>
-      </c>
-      <c r="E108" t="s">
-        <v>13</v>
-      </c>
-      <c r="F108" t="s">
-        <v>71</v>
-      </c>
-      <c r="G108">
-        <v>3.9</v>
-      </c>
-      <c r="H108">
-        <v>0</v>
-      </c>
-      <c r="I108">
-        <v>0</v>
-      </c>
-      <c r="J108">
-        <f t="shared" ref="J107:J109" si="4">G108 * I108</f>
-        <v>0</v>
-      </c>
       <c r="K108" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="1">
+        <v>44362</v>
+      </c>
+      <c r="B109" s="1">
+        <v>44362</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D109" t="s">
+        <v>158</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F109" t="s">
+        <v>53</v>
+      </c>
+      <c r="G109">
+        <v>1.77</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>100</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" s="1">
+        <v>44361</v>
+      </c>
+      <c r="B110" s="1">
+        <v>44361</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D110" t="s">
+        <v>159</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F110" t="s">
+        <v>160</v>
+      </c>
+      <c r="G110">
+        <v>1.27</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>100</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" s="1">
+        <v>44359</v>
+      </c>
+      <c r="B111" s="1">
+        <v>44359</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D111" t="s">
+        <v>161</v>
+      </c>
+      <c r="E111" t="s">
+        <v>13</v>
+      </c>
+      <c r="F111" t="s">
+        <v>73</v>
+      </c>
+      <c r="G111">
+        <v>3.9</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <f t="shared" ref="J110:J112" si="4">G111 * I111</f>
+        <v>0</v>
+      </c>
+      <c r="K111" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" s="1">
         <v>44358</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B112" s="1">
         <v>44358</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D109" t="s">
-        <v>160</v>
-      </c>
-      <c r="E109" t="s">
-        <v>24</v>
-      </c>
-      <c r="F109" t="s">
-        <v>161</v>
-      </c>
-      <c r="G109">
+      <c r="C112" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D112" t="s">
+        <v>162</v>
+      </c>
+      <c r="E112" t="s">
+        <v>30</v>
+      </c>
+      <c r="F112" t="s">
+        <v>163</v>
+      </c>
+      <c r="G112">
         <v>1.17</v>
       </c>
-      <c r="H109">
-        <v>1</v>
-      </c>
-      <c r="I109">
+      <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
         <v>50</v>
       </c>
-      <c r="J109">
+      <c r="J112">
         <f t="shared" si="4"/>
         <v>58.5</v>
       </c>
-      <c r="K109" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
-      <c r="A110" s="1">
-        <v>44358</v>
-      </c>
-      <c r="B110" s="1">
-        <v>44358</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D110" t="s">
-        <v>160</v>
-      </c>
-      <c r="E110" t="s">
-        <v>24</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G110">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="H110">
-        <v>1</v>
-      </c>
-      <c r="I110">
-        <v>100</v>
-      </c>
-      <c r="J110">
-        <f>G110 * I110</f>
-        <v>109.00000000000001</v>
-      </c>
-      <c r="K110" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
-      <c r="A111" s="1">
-        <v>44339</v>
-      </c>
-      <c r="B111" s="1">
-        <v>44339</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D111" t="s">
-        <v>162</v>
-      </c>
-      <c r="E111" t="s">
-        <v>24</v>
-      </c>
-      <c r="F111" t="s">
-        <v>163</v>
-      </c>
-      <c r="G111">
-        <v>1.18</v>
-      </c>
-      <c r="H111">
-        <v>1</v>
-      </c>
-      <c r="I111">
-        <v>50</v>
-      </c>
-      <c r="J111">
-        <f>G111 * I111</f>
-        <v>59</v>
-      </c>
-      <c r="K111" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
-      <c r="A112" s="1">
-        <v>44339</v>
-      </c>
-      <c r="B112" s="1">
-        <v>44339</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D112" t="s">
-        <v>162</v>
-      </c>
-      <c r="E112" t="s">
-        <v>24</v>
-      </c>
-      <c r="F112" t="s">
-        <v>60</v>
-      </c>
-      <c r="G112">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="H112">
-        <v>1</v>
-      </c>
-      <c r="I112">
-        <v>100</v>
-      </c>
-      <c r="J112">
-        <f>G112 * I112</f>
-        <v>114.99999999999999</v>
-      </c>
       <c r="K112" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="1">
-        <v>44335</v>
+        <v>44358</v>
       </c>
       <c r="B113" s="1">
-        <v>44335</v>
+        <v>44358</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="D113" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E113" t="s">
-        <v>24</v>
-      </c>
-      <c r="F113" t="s">
-        <v>61</v>
+        <v>30</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="G113">
-        <v>2.2000000000000002</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="H113">
         <v>1</v>
       </c>
       <c r="I113">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="J113">
         <f>G113 * I113</f>
-        <v>55.000000000000007</v>
+        <v>109.00000000000001</v>
       </c>
       <c r="K113" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="1">
-        <v>44332</v>
+        <v>44339</v>
       </c>
       <c r="B114" s="1">
-        <v>44332</v>
+        <v>44339</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D114" t="s">
+        <v>164</v>
+      </c>
+      <c r="E114" t="s">
+        <v>30</v>
+      </c>
+      <c r="F114" t="s">
         <v>165</v>
       </c>
-      <c r="E114" t="s">
-        <v>24</v>
-      </c>
-      <c r="F114" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="G114">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="H114">
         <v>1</v>
       </c>
       <c r="I114">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="J114">
         <f>G114 * I114</f>
-        <v>31.75</v>
+        <v>59</v>
       </c>
       <c r="K114" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="1">
-        <v>44329</v>
+        <v>44339</v>
       </c>
       <c r="B115" s="1">
-        <v>44329</v>
+        <v>44339</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D115" t="s">
-        <v>118</v>
+        <v>164</v>
       </c>
       <c r="E115" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F115" t="s">
-        <v>166</v>
+        <v>62</v>
       </c>
       <c r="G115">
-        <v>1.6</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H115">
         <v>1</v>
       </c>
       <c r="I115">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J115">
         <f>G115 * I115</f>
-        <v>16</v>
+        <v>114.99999999999999</v>
       </c>
       <c r="K115" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="1">
-        <v>44329</v>
+        <v>44335</v>
       </c>
       <c r="B116" s="1">
-        <v>44329</v>
+        <v>44335</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D116" t="s">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="E116" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F116" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G116">
-        <v>3.65</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J116">
-        <v>0</v>
+        <f>G116 * I116</f>
+        <v>55.000000000000007</v>
       </c>
       <c r="K116" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="1">
-        <v>44305</v>
+        <v>44332</v>
       </c>
       <c r="B117" s="1">
-        <v>44305</v>
+        <v>44332</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D117" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="E117" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="G117">
-        <v>1.52</v>
+        <v>1.27</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J117">
         <f>G117 * I117</f>
-        <v>152</v>
+        <v>31.75</v>
       </c>
       <c r="K117" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="1">
-        <v>44292</v>
+        <v>44329</v>
       </c>
       <c r="B118" s="1">
-        <v>44292</v>
+        <v>44329</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D118" t="s">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="E118" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F118" t="s">
         <v>168</v>
       </c>
       <c r="G118">
-        <v>1.1000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="J118">
-        <v>0</v>
+        <f>G118 * I118</f>
+        <v>16</v>
       </c>
       <c r="K118" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="1">
-        <v>44292</v>
+        <v>44329</v>
       </c>
       <c r="B119" s="1">
-        <v>44292</v>
+        <v>44329</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D119" t="s">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="E119" t="s">
         <v>13</v>
       </c>
       <c r="F119" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="G119">
-        <v>2.15</v>
+        <v>3.65</v>
       </c>
       <c r="H119">
         <v>0</v>
       </c>
       <c r="I119">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J119">
         <v>0</v>
       </c>
       <c r="K119" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120" spans="1:11">
       <c r="A120" s="1">
-        <v>44292</v>
+        <v>44305</v>
       </c>
       <c r="B120" s="1">
-        <v>44292</v>
+        <v>44305</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D120" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="E120" t="s">
-        <v>13</v>
-      </c>
-      <c r="F120" t="s">
-        <v>127</v>
+        <v>30</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="G120">
-        <v>1.33</v>
+        <v>1.52</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="J120">
         <f>G120 * I120</f>
-        <v>59.85</v>
+        <v>152</v>
       </c>
       <c r="K120" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121" spans="1:11">
       <c r="A121" s="1">
-        <v>44290</v>
+        <v>44292</v>
       </c>
       <c r="B121" s="1">
-        <v>44290</v>
+        <v>44292</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D121" t="s">
         <v>169</v>
       </c>
       <c r="E121" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F121" t="s">
         <v>170</v>
       </c>
       <c r="G121">
-        <v>1.6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -5121,150 +5126,256 @@
         <v>0</v>
       </c>
       <c r="K121" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="122" spans="1:11">
       <c r="A122" s="1">
-        <v>44290</v>
+        <v>44292</v>
       </c>
       <c r="B122" s="1">
-        <v>44290</v>
+        <v>44292</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D122" t="s">
         <v>169</v>
       </c>
       <c r="E122" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F122" t="s">
-        <v>171</v>
+        <v>53</v>
       </c>
       <c r="G122">
-        <v>1.28</v>
+        <v>2.15</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J122">
-        <f>G122 * I122</f>
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="K122" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="123" spans="1:11">
       <c r="A123" s="1">
-        <v>44290</v>
+        <v>44292</v>
       </c>
       <c r="B123" s="1">
-        <v>44290</v>
+        <v>44292</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D123" t="s">
         <v>169</v>
       </c>
       <c r="E123" t="s">
-        <v>24</v>
-      </c>
-      <c r="F123" s="3" t="s">
-        <v>41</v>
+        <v>13</v>
+      </c>
+      <c r="F123" t="s">
+        <v>129</v>
       </c>
       <c r="G123">
-        <v>1.97</v>
+        <v>1.33</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J123">
-        <v>14.62</v>
+        <f>G123 * I123</f>
+        <v>59.85</v>
       </c>
       <c r="K123" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="124" spans="1:11">
       <c r="A124" s="1">
-        <v>44289</v>
+        <v>44290</v>
       </c>
       <c r="B124" s="1">
-        <v>44289</v>
+        <v>44290</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D124" t="s">
-        <v>95</v>
+        <v>171</v>
       </c>
       <c r="E124" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F124" t="s">
-        <v>45</v>
+        <v>172</v>
       </c>
       <c r="G124">
-        <v>4.8</v>
+        <v>1.6</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J124">
-        <f>G124 * I124</f>
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="K124" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="125" spans="1:11">
       <c r="A125" s="1">
-        <v>44289</v>
+        <v>44290</v>
       </c>
       <c r="B125" s="1">
-        <v>44289</v>
+        <v>44290</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D125" t="s">
-        <v>95</v>
+        <v>171</v>
       </c>
       <c r="E125" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F125" t="s">
-        <v>51</v>
+        <v>173</v>
       </c>
       <c r="G125">
-        <v>2.2000000000000002</v>
+        <v>1.28</v>
       </c>
       <c r="H125">
         <v>1</v>
       </c>
       <c r="I125">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J125">
         <f>G125 * I125</f>
+        <v>128</v>
+      </c>
+      <c r="K125" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" s="1">
+        <v>44290</v>
+      </c>
+      <c r="B126" s="1">
+        <v>44290</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s">
+        <v>171</v>
+      </c>
+      <c r="E126" t="s">
+        <v>30</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G126">
+        <v>1.97</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>50</v>
+      </c>
+      <c r="J126">
+        <v>14.62</v>
+      </c>
+      <c r="K126" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" s="1">
+        <v>44289</v>
+      </c>
+      <c r="B127" s="1">
+        <v>44289</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D127" t="s">
+        <v>97</v>
+      </c>
+      <c r="E127" t="s">
+        <v>30</v>
+      </c>
+      <c r="F127" t="s">
+        <v>48</v>
+      </c>
+      <c r="G127">
+        <v>4.8</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="I127">
+        <v>50</v>
+      </c>
+      <c r="J127">
+        <f>G127 * I127</f>
+        <v>240</v>
+      </c>
+      <c r="K127" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128" s="1">
+        <v>44289</v>
+      </c>
+      <c r="B128" s="1">
+        <v>44289</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D128" t="s">
+        <v>97</v>
+      </c>
+      <c r="E128" t="s">
+        <v>30</v>
+      </c>
+      <c r="F128" t="s">
+        <v>53</v>
+      </c>
+      <c r="G128">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H128">
+        <v>1</v>
+      </c>
+      <c r="I128">
+        <v>50</v>
+      </c>
+      <c r="J128">
+        <f>G128 * I128</f>
         <v>110.00000000000001</v>
       </c>
-      <c r="K125" t="s">
-        <v>29</v>
+      <c r="K128" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -5289,34 +5400,34 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4">
         <f xml:space="preserve"> SUM(Odds!J:J)</f>
-        <v>5426.4174000000003</v>
+        <v>5554.9174000000003</v>
       </c>
       <c r="B2">
         <f xml:space="preserve"> SUM(Odds!I:I)</f>
-        <v>5997.15</v>
+        <v>6106.1900000000005</v>
       </c>
       <c r="C2">
         <f>A2 - B2</f>
-        <v>-570.73259999999937</v>
+        <v>-551.27260000000024</v>
       </c>
       <c r="D2">
         <f>ROUND(100 * (C2 / B2), 2)</f>
-        <v>-9.52</v>
+        <v>-9.0299999999999994</v>
       </c>
     </row>
   </sheetData>

--- a/inst/data/Betting.xlsx
+++ b/inst/data/Betting.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25311"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1531" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17CC8E1D-E750-43E6-9649-1B9D6EF34025}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA06A6CB-520D-46D4-9AEE-CA002DC84FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="Overblik" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Odds!$A$1:$K$128</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Odds!$A$1:$K$139</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="193">
   <si>
     <t>BetDay</t>
   </si>
@@ -69,12 +69,78 @@
     <t>Premier League</t>
   </si>
   <si>
+    <t>Southampton - Liverpool</t>
+  </si>
+  <si>
+    <t>Live Betting</t>
+  </si>
+  <si>
+    <t>Hvilket hold scorer 3. mål: Liverpool</t>
+  </si>
+  <si>
+    <t>Mål</t>
+  </si>
+  <si>
+    <t>Dobbeltchance Uafgjort eller Liverpool</t>
+  </si>
+  <si>
+    <t>Dobbeltchance</t>
+  </si>
+  <si>
+    <t>Oddset</t>
+  </si>
+  <si>
+    <t>Mål i 1. halvleg O/U 1,5 Under</t>
+  </si>
+  <si>
+    <t>Mål mellem 1 - 15.0 Minutter Nej</t>
+  </si>
+  <si>
+    <t>Minutmarkeder</t>
+  </si>
+  <si>
+    <t>FA Cup</t>
+  </si>
+  <si>
+    <t>Chelsea - Liverpool</t>
+  </si>
+  <si>
+    <t>Wolverhampton - Manchester C</t>
+  </si>
+  <si>
+    <t>Dobbeltchance Uafgjort eller Manchester C</t>
+  </si>
+  <si>
+    <t>4-ling ID 7</t>
+  </si>
+  <si>
+    <t>4-ling</t>
+  </si>
+  <si>
+    <t>4-ling ID 7: Dobbeltchance Uafgjort eller Manchester C</t>
+  </si>
+  <si>
+    <t>Watford - Everton</t>
+  </si>
+  <si>
+    <t>4-ling ID 7: Dobbeltchance Uafgjort eller Everton</t>
+  </si>
+  <si>
+    <t>Leicester - Norwich</t>
+  </si>
+  <si>
+    <t>4-ling ID 7: Dobbeltchance Leicester eller Uafgjort</t>
+  </si>
+  <si>
+    <t>Leeds - Chelsea</t>
+  </si>
+  <si>
+    <t>4-ling ID 7: Dobbeltchance Uafgjort eller Chelsea</t>
+  </si>
+  <si>
     <t>Aston Villa - Liverpool</t>
   </si>
   <si>
-    <t>Oddset</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -87,12 +153,6 @@
     <t>Hjørnespark</t>
   </si>
   <si>
-    <t>Dobbeltchance Uafgjort eller Liverpool</t>
-  </si>
-  <si>
-    <t>Dobbeltchance</t>
-  </si>
-  <si>
     <t>Manchester C - Newcastle</t>
   </si>
   <si>
@@ -123,9 +183,6 @@
     <t>Liverpool - Tottenham</t>
   </si>
   <si>
-    <t>Live Betting</t>
-  </si>
-  <si>
     <t>1-0</t>
   </si>
   <si>
@@ -189,9 +246,6 @@
     <t>Antal mål efter 20 Minutter O/U 0,5: Under</t>
   </si>
   <si>
-    <t>Mål</t>
-  </si>
-  <si>
     <t>Hvem vinder 1. halvleg? Uafgjort</t>
   </si>
   <si>
@@ -246,9 +300,6 @@
     <t>I hvilken halvleg scores der flest mål?: 2. halvleg</t>
   </si>
   <si>
-    <t>Minutmarkeder</t>
-  </si>
-  <si>
     <t>Burnley - Southampton</t>
   </si>
   <si>
@@ -318,9 +369,6 @@
     <t>Double</t>
   </si>
   <si>
-    <t>FA Cup</t>
-  </si>
-  <si>
     <t>Nottingham F - Liverpool</t>
   </si>
   <si>
@@ -340,9 +388,6 @@
   </si>
   <si>
     <t>Carabao Cup</t>
-  </si>
-  <si>
-    <t>Chelsea - Liverpool</t>
   </si>
   <si>
     <t>Hvordan afgøres kampen? Liverpool: Efter Straffesparkskonkurrence</t>
@@ -935,11 +980,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K128"/>
+  <dimension ref="A1:K139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -957,7 +1002,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -990,10 +1035,10 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>44691</v>
+        <v>44698</v>
       </c>
       <c r="B2" s="1">
-        <v>44691</v>
+        <v>44698</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
@@ -1004,20 +1049,20 @@
       <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
       <c r="G2">
-        <v>1.52</v>
+        <v>1.37</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>9.8699999999999992</v>
+        <v>100</v>
       </c>
       <c r="J2">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="K2" t="s">
         <v>15</v>
@@ -1025,10 +1070,10 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>44691</v>
+        <v>44698</v>
       </c>
       <c r="B3" s="1">
-        <v>44691</v>
+        <v>44698</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
@@ -1043,16 +1088,16 @@
         <v>16</v>
       </c>
       <c r="G3">
-        <v>1.1599999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>49.57</v>
+        <v>50.01</v>
       </c>
       <c r="J3">
-        <v>57.5</v>
+        <v>56.5</v>
       </c>
       <c r="K3" t="s">
         <v>17</v>
@@ -1060,10 +1105,10 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>44691</v>
+        <v>44698</v>
       </c>
       <c r="B4" s="1">
-        <v>44691</v>
+        <v>44698</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
@@ -1072,91 +1117,103 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4">
-        <v>1.1299999999999999</v>
+        <v>1.57</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>49.6</v>
+        <v>19.75</v>
       </c>
       <c r="J4">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>44689</v>
+        <v>44698</v>
       </c>
       <c r="B5" s="1">
-        <v>44689</v>
+        <v>44698</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5">
+        <v>1.35</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>50.38</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
         <v>21</v>
-      </c>
-      <c r="G5">
-        <v>1.02</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="K5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>44689</v>
+        <v>44695</v>
       </c>
       <c r="B6" s="1">
-        <v>44689</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>44696</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G6">
-        <v>1.1100000000000001</v>
+        <v>1.32</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
+      <c r="I6">
+        <v>20.079999999999998</v>
+      </c>
+      <c r="J6">
+        <v>26.5</v>
+      </c>
       <c r="K6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>44689</v>
+        <v>44692</v>
       </c>
       <c r="B7" s="1">
-        <v>44689</v>
+        <v>44692</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
@@ -1165,48 +1222,54 @@
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
         <v>25</v>
       </c>
       <c r="G7">
-        <v>1.22</v>
+        <v>1.04</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
+      <c r="I7">
+        <v>100</v>
+      </c>
+      <c r="J7">
+        <v>104</v>
+      </c>
       <c r="K7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>44689</v>
+        <v>44692</v>
       </c>
       <c r="B8" s="1">
-        <v>44689</v>
+        <v>44692</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
         <v>26</v>
       </c>
       <c r="G8">
-        <v>1.38</v>
+        <v>1.52</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>50</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="J8">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="K8" t="s">
         <v>27</v>
@@ -1214,45 +1277,45 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
-        <v>44688</v>
+        <v>44692</v>
       </c>
       <c r="B9" s="1">
-        <v>44689</v>
+        <v>44692</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
       </c>
       <c r="G9">
-        <v>1.1100000000000001</v>
+        <v>1.04</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>44688</v>
+        <v>44692</v>
       </c>
       <c r="B10" s="1">
-        <v>44688</v>
+        <v>44692</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>11</v>
@@ -1261,86 +1324,86 @@
         <v>29</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="G10">
-        <v>5.4</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
-        <v>44688</v>
+        <v>44692</v>
       </c>
       <c r="B11" s="1">
-        <v>44688</v>
+        <v>44692</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11">
-        <v>1.1399999999999999</v>
+        <v>1.08</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1">
-        <v>44656</v>
+        <v>44692</v>
       </c>
       <c r="B12" s="1">
-        <v>44688</v>
+        <v>44692</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
         <v>34</v>
       </c>
       <c r="G12">
-        <v>1.42</v>
+        <v>1.18</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1349,120 +1412,120 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1">
-        <v>44684</v>
+        <v>44691</v>
       </c>
       <c r="B13" s="1">
-        <v>44684</v>
-      </c>
-      <c r="C13" t="s">
+        <v>44691</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
         <v>35</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
       <c r="G13">
-        <v>1.22</v>
+        <v>1.52</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>35.25</v>
+        <v>9.8699999999999992</v>
       </c>
       <c r="J13">
-        <v>43</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="K13" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1">
-        <v>44684</v>
+        <v>44691</v>
       </c>
       <c r="B14" s="1">
-        <v>44684</v>
-      </c>
-      <c r="C14" t="s">
+        <v>44691</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
         <v>35</v>
       </c>
-      <c r="D14" t="s">
-        <v>36</v>
-      </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G14">
-        <v>1.06</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>100</v>
+        <v>49.57</v>
       </c>
       <c r="J14">
-        <v>106</v>
+        <v>57.5</v>
       </c>
       <c r="K14" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1">
-        <v>44684</v>
+        <v>44691</v>
       </c>
       <c r="B15" s="1">
-        <v>44684</v>
-      </c>
-      <c r="C15" t="s">
+        <v>44691</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
         <v>35</v>
       </c>
-      <c r="D15" t="s">
-        <v>36</v>
-      </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="G15">
-        <v>1.1499999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>65.22</v>
+        <v>49.6</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="K15" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
-        <v>44683</v>
+        <v>44689</v>
       </c>
       <c r="B16" s="1">
-        <v>44683</v>
+        <v>44689</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>11</v>
@@ -1471,33 +1534,33 @@
         <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F16" t="s">
         <v>41</v>
       </c>
       <c r="G16">
-        <v>2.15</v>
+        <v>1.02</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
-      <c r="K16" s="5" t="s">
-        <v>19</v>
+      <c r="K16" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
-        <v>44566</v>
+        <v>44689</v>
       </c>
       <c r="B17" s="1">
-        <v>44566</v>
+        <v>44689</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>11</v>
@@ -1506,33 +1569,33 @@
         <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F17" t="s">
         <v>43</v>
       </c>
       <c r="G17">
-        <v>2.1</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>10.5</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>19</v>
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1">
-        <v>44681</v>
+        <v>44689</v>
       </c>
       <c r="B18" s="1">
-        <v>44681</v>
+        <v>44689</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>11</v>
@@ -1541,162 +1604,159 @@
         <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="F18" t="s">
+        <v>45</v>
       </c>
       <c r="G18">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1">
-        <v>44681</v>
+        <v>44689</v>
       </c>
       <c r="B19" s="1">
-        <v>44681</v>
+        <v>44689</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D19" t="s">
-        <v>44</v>
-      </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>1.38</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J19">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="K19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1">
-        <v>44681</v>
+        <v>44688</v>
       </c>
       <c r="B20" s="1">
-        <v>44681</v>
+        <v>44689</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>48</v>
       </c>
       <c r="G20">
-        <v>1.1599999999999999</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>28.65</v>
+        <v>100</v>
       </c>
       <c r="J20">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="K20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1">
-        <v>44681</v>
+        <v>44688</v>
       </c>
       <c r="B21" s="1">
-        <v>44681</v>
+        <v>44688</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" t="s">
-        <v>48</v>
+        <v>13</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="G21">
-        <v>3.9</v>
+        <v>5.4</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1">
-        <v>44681</v>
+        <v>44688</v>
       </c>
       <c r="B22" s="1">
-        <v>44681</v>
+        <v>44688</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G22">
-        <v>1.25</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="K22" t="s">
         <v>17</v>
@@ -1704,165 +1764,165 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1">
-        <v>44681</v>
+        <v>44656</v>
       </c>
       <c r="B23" s="1">
-        <v>44681</v>
+        <v>44688</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" t="s">
-        <v>51</v>
+        <v>18</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="G23">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1">
-        <v>44681</v>
+        <v>44684</v>
       </c>
       <c r="B24" s="1">
-        <v>44681</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>11</v>
+        <v>44684</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F24" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="G24">
-        <v>2.4</v>
+        <v>1.22</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>10</v>
+        <v>35.25</v>
       </c>
       <c r="J24">
-        <v>3.15</v>
-      </c>
-      <c r="K24" t="s">
-        <v>15</v>
+        <v>43</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1">
-        <v>44681</v>
+        <v>44684</v>
       </c>
       <c r="B25" s="1">
-        <v>44681</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>11</v>
+        <v>44684</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G25">
-        <v>1.23</v>
+        <v>1.06</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="K25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1">
-        <v>44679</v>
+        <v>44684</v>
       </c>
       <c r="B26" s="1">
-        <v>44679</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>11</v>
+        <v>44684</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
       </c>
       <c r="D26" t="s">
         <v>55</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="F26" t="s">
+        <v>57</v>
       </c>
       <c r="G26">
-        <v>2</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>95.5</v>
+        <v>65.22</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1">
-        <v>44679</v>
+        <v>44683</v>
       </c>
       <c r="B27" s="1">
-        <v>44679</v>
+        <v>44683</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F27" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G27">
-        <v>5.2</v>
+        <v>2.15</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1873,317 +1933,320 @@
       <c r="J27">
         <v>0</v>
       </c>
-      <c r="K27" t="s">
-        <v>49</v>
+      <c r="K27" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1">
-        <v>44679</v>
+        <v>44566</v>
       </c>
       <c r="B28" s="1">
-        <v>44679</v>
+        <v>44566</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E28" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F28" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G28">
-        <v>1.32</v>
+        <v>2.1</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="J28">
-        <v>66</v>
+        <v>10.5</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1">
-        <v>44679</v>
+        <v>44681</v>
       </c>
       <c r="B29" s="1">
-        <v>44679</v>
+        <v>44681</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
+        <v>18</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="G29">
-        <v>1.19</v>
+        <v>1.3</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J29">
-        <v>29.5</v>
+        <v>36</v>
       </c>
       <c r="K29" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1">
-        <v>44678</v>
+        <v>44681</v>
       </c>
       <c r="B30" s="1">
-        <v>44678</v>
-      </c>
-      <c r="C30" t="s">
-        <v>35</v>
+        <v>44681</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E30" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="G30">
-        <v>1.1299999999999999</v>
+        <v>3</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="J30">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="K30" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1">
-        <v>44678</v>
+        <v>44681</v>
       </c>
       <c r="B31" s="1">
-        <v>44678</v>
-      </c>
-      <c r="C31" t="s">
-        <v>35</v>
+        <v>44681</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E31" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
+        <v>13</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="G31">
-        <v>4.5</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>10</v>
+        <v>28.65</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="K31" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1">
-        <v>44678</v>
+        <v>44681</v>
       </c>
       <c r="B32" s="1">
-        <v>44678</v>
-      </c>
-      <c r="C32" t="s">
-        <v>35</v>
+        <v>44681</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E32" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G32">
-        <v>1.5</v>
+        <v>3.9</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J32">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1">
-        <v>44678</v>
+        <v>44681</v>
       </c>
       <c r="B33" s="1">
-        <v>44678</v>
-      </c>
-      <c r="C33" t="s">
-        <v>35</v>
+        <v>44681</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F33" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G33">
-        <v>2.15</v>
+        <v>1.25</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1">
-        <v>44678</v>
+        <v>44681</v>
       </c>
       <c r="B34" s="1">
-        <v>44678</v>
-      </c>
-      <c r="C34" t="s">
-        <v>35</v>
+        <v>44681</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E34" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F34" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G34">
-        <v>1.32</v>
+        <v>1.45</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="J34">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1">
-        <v>44677</v>
+        <v>44681</v>
       </c>
       <c r="B35" s="1">
-        <v>44677</v>
-      </c>
-      <c r="C35" t="s">
-        <v>35</v>
+        <v>44681</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E35" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F35" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G35">
-        <v>1.58</v>
+        <v>2.4</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="K35" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1">
-        <v>44676</v>
+        <v>44681</v>
       </c>
       <c r="B36" s="1">
-        <v>44676</v>
+        <v>44681</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D36" t="s">
+        <v>66</v>
+      </c>
       <c r="E36" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F36" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G36">
-        <v>7.23</v>
+        <v>1.23</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J36">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K36" t="s">
         <v>15</v>
@@ -2191,139 +2254,139 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1">
-        <v>44674</v>
+        <v>44679</v>
       </c>
       <c r="B37" s="1">
-        <v>44674</v>
+        <v>44679</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E37" t="s">
-        <v>30</v>
-      </c>
-      <c r="F37" t="s">
-        <v>69</v>
+        <v>13</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="G37">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>40</v>
+        <v>95.5</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1">
-        <v>44674</v>
+        <v>44679</v>
       </c>
       <c r="B38" s="1">
-        <v>44674</v>
+        <v>44679</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D38" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" t="s">
+        <v>74</v>
+      </c>
+      <c r="G38">
+        <v>5.2</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>5</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38" t="s">
         <v>68</v>
-      </c>
-      <c r="E38" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" t="s">
-        <v>70</v>
-      </c>
-      <c r="G38">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>10</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1">
-        <v>44674</v>
+        <v>44679</v>
       </c>
       <c r="B39" s="1">
-        <v>44674</v>
+        <v>44679</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E39" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F39" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="G39">
         <v>1.32</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>50</v>
       </c>
       <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39" t="s">
-        <v>71</v>
+        <v>66</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1">
-        <v>44672</v>
+        <v>44679</v>
       </c>
       <c r="B40" s="1">
-        <v>44672</v>
+        <v>44679</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E40" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F40" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G40">
-        <v>3.3</v>
+        <v>1.19</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>29.5</v>
       </c>
       <c r="K40" t="s">
         <v>15</v>
@@ -2331,78 +2394,83 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1">
-        <v>44671</v>
+        <v>44678</v>
       </c>
       <c r="B41" s="1">
-        <v>44675</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>11</v>
+        <v>44678</v>
+      </c>
+      <c r="C41" t="s">
+        <v>54</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E41" t="s">
         <v>13</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>34</v>
+      <c r="F41" t="s">
+        <v>57</v>
       </c>
       <c r="G41">
-        <v>1.2</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41">
-        <v>200</v>
+        <v>93</v>
       </c>
       <c r="J41">
-        <f>G41 * I41</f>
-        <v>240</v>
+        <v>105</v>
       </c>
       <c r="K41" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="1">
-        <v>44671</v>
+        <v>44678</v>
       </c>
       <c r="B42" s="1">
-        <v>44671</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>11</v>
+        <v>44678</v>
+      </c>
+      <c r="C42" t="s">
+        <v>54</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E42" t="s">
         <v>13</v>
       </c>
       <c r="F42" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G42">
-        <v>2.35</v>
+        <v>4.5</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>10</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1">
-        <v>44671</v>
+        <v>44678</v>
       </c>
       <c r="B43" s="1">
-        <v>44671</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>11</v>
+        <v>44678</v>
+      </c>
+      <c r="C43" t="s">
+        <v>54</v>
       </c>
       <c r="D43" t="s">
         <v>77</v>
@@ -2411,13 +2479,19 @@
         <v>13</v>
       </c>
       <c r="F43" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G43">
-        <v>1.92</v>
+        <v>1.5</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>50</v>
+      </c>
+      <c r="J43">
+        <v>70</v>
       </c>
       <c r="K43" t="s">
         <v>15</v>
@@ -2425,57 +2499,69 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1">
-        <v>44671</v>
+        <v>44678</v>
       </c>
       <c r="B44" s="1">
-        <v>44671</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>78</v>
+        <v>44678</v>
+      </c>
+      <c r="C44" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" t="s">
+        <v>77</v>
       </c>
       <c r="E44" t="s">
         <v>13</v>
       </c>
       <c r="F44" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G44">
-        <v>1.23</v>
+        <v>2.15</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>10</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1">
-        <v>44671</v>
+        <v>44678</v>
       </c>
       <c r="B45" s="1">
-        <v>44671</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>11</v>
+        <v>44678</v>
+      </c>
+      <c r="C45" t="s">
+        <v>54</v>
       </c>
       <c r="D45" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E45" t="s">
         <v>13</v>
       </c>
       <c r="F45" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G45">
-        <v>3.3</v>
+        <v>1.32</v>
       </c>
       <c r="H45">
         <v>1</v>
+      </c>
+      <c r="I45">
+        <v>100</v>
+      </c>
+      <c r="J45">
+        <v>132</v>
       </c>
       <c r="K45" t="s">
         <v>15</v>
@@ -2483,129 +2569,127 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1">
-        <v>44671</v>
+        <v>44677</v>
       </c>
       <c r="B46" s="1">
-        <v>44671</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>11</v>
+        <v>44677</v>
+      </c>
+      <c r="C46" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" t="s">
+        <v>83</v>
       </c>
       <c r="E46" t="s">
         <v>13</v>
       </c>
       <c r="F46" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G46">
-        <v>2.375</v>
+        <v>1.58</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J46">
-        <v>47.5</v>
+        <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1">
-        <v>44670</v>
+        <v>44676</v>
       </c>
       <c r="B47" s="1">
-        <v>44670</v>
+        <v>44676</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D47" t="s">
-        <v>82</v>
-      </c>
       <c r="E47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>34</v>
+        <v>18</v>
+      </c>
+      <c r="F47" t="s">
+        <v>85</v>
       </c>
       <c r="G47">
-        <v>1.33</v>
+        <v>7.23</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="J47">
-        <f>G47 * I47</f>
-        <v>134.33000000000001</v>
+        <v>14</v>
       </c>
       <c r="K47" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1">
-        <v>44670</v>
+        <v>44674</v>
       </c>
       <c r="B48" s="1">
-        <v>44670</v>
+        <v>44674</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D48" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E48" t="s">
         <v>13</v>
       </c>
       <c r="F48" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G48">
+        <v>2.8</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>40</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48" t="s">
         <v>15</v>
-      </c>
-      <c r="H48">
-        <v>1</v>
-      </c>
-      <c r="I48">
-        <v>10</v>
-      </c>
-      <c r="J48">
-        <f>G48 * I48</f>
-        <v>150</v>
-      </c>
-      <c r="K48" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="1">
-        <v>44670</v>
+        <v>44674</v>
       </c>
       <c r="B49" s="1">
-        <v>44670</v>
+        <v>44674</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E49" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F49" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G49">
-        <v>9.35</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -2617,729 +2701,737 @@
         <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="1">
-        <v>44667</v>
+        <v>44674</v>
       </c>
       <c r="B50" s="1">
-        <v>44667</v>
+        <v>44674</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E50" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F50" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G50">
-        <v>1.52</v>
+        <v>1.32</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
       <c r="I50">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
       <c r="K50" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="1">
-        <v>44664</v>
+        <v>44672</v>
       </c>
       <c r="B51" s="1">
-        <v>44664</v>
+        <v>44672</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E51" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F51" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G51">
-        <v>2.85</v>
+        <v>3.3</v>
       </c>
       <c r="H51">
         <v>0</v>
       </c>
       <c r="I51">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="J51">
         <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="1">
-        <v>44664</v>
+        <v>44671</v>
       </c>
       <c r="B52" s="1">
-        <v>44664</v>
+        <v>44675</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D52" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E52" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" t="s">
-        <v>64</v>
+        <v>18</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="G52">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="H52">
         <v>1</v>
       </c>
       <c r="I52">
-        <v>102.5</v>
+        <v>200</v>
       </c>
       <c r="J52">
         <f>G52 * I52</f>
-        <v>141.44999999999999</v>
+        <v>240</v>
       </c>
       <c r="K52" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="1">
-        <v>44656</v>
+        <v>44671</v>
       </c>
       <c r="B53" s="1">
-        <v>44656</v>
+        <v>44671</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E53" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F53" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G53">
-        <v>1.25</v>
+        <v>2.35</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
       <c r="K53" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="1">
-        <v>44656</v>
+        <v>44671</v>
       </c>
       <c r="B54" s="1">
-        <v>44656</v>
+        <v>44671</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E54" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F54" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G54">
-        <v>1.4</v>
+        <v>1.92</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
       </c>
       <c r="K54" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="1">
-        <v>44656</v>
+        <v>44671</v>
       </c>
       <c r="B55" s="1">
         <v>44671</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="E55" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F55" t="s">
         <v>93</v>
       </c>
       <c r="G55">
-        <v>1.75</v>
+        <v>1.23</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J55">
-        <f>G55 * I55</f>
-        <v>87.5</v>
+        <v>0</v>
       </c>
       <c r="K55" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="1">
-        <v>44640</v>
+        <v>44671</v>
       </c>
       <c r="B56" s="1">
-        <v>44640</v>
-      </c>
-      <c r="C56" t="s">
-        <v>95</v>
+        <v>44671</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D56" t="s">
         <v>96</v>
       </c>
       <c r="E56" t="s">
-        <v>30</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="F56" t="s">
+        <v>97</v>
       </c>
       <c r="G56">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="H56">
         <v>1</v>
       </c>
       <c r="I56">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J56">
-        <f>G56 * I56</f>
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="K56" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="1">
-        <v>44636</v>
+        <v>44671</v>
       </c>
       <c r="B57" s="1">
-        <v>44636</v>
-      </c>
-      <c r="C57" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" t="s">
-        <v>97</v>
+        <v>44671</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F57" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="G57">
-        <v>1.1000000000000001</v>
+        <v>2.375</v>
       </c>
       <c r="H57">
         <v>1</v>
       </c>
       <c r="I57">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J57">
-        <f>G57 * I57</f>
-        <v>26.400000000000002</v>
+        <v>47.5</v>
       </c>
       <c r="K57" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="1">
-        <v>44628</v>
+        <v>44670</v>
       </c>
       <c r="B58" s="1">
-        <v>44628</v>
-      </c>
-      <c r="C58" t="s">
-        <v>35</v>
+        <v>44670</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D58" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E58" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="G58">
-        <v>1.62</v>
+        <v>1.33</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <f>G58 * I58</f>
+        <v>134.33000000000001</v>
       </c>
       <c r="K58" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="1">
-        <v>44625</v>
+        <v>44670</v>
       </c>
       <c r="B59" s="1">
-        <v>44625</v>
-      </c>
-      <c r="C59" t="s">
+        <v>44670</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D59" t="s">
         <v>99</v>
       </c>
       <c r="E59" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F59" t="s">
         <v>100</v>
       </c>
       <c r="G59">
-        <v>1.42</v>
+        <v>15</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <f>G59 * I59</f>
+        <v>150</v>
       </c>
       <c r="K59" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="1">
-        <v>44625</v>
+        <v>44670</v>
       </c>
       <c r="B60" s="1">
-        <v>44625</v>
-      </c>
-      <c r="C60" t="s">
+        <v>44670</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D60" t="s">
         <v>99</v>
       </c>
       <c r="E60" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F60" t="s">
         <v>101</v>
       </c>
       <c r="G60">
-        <v>1.4</v>
+        <v>9.35</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J60">
-        <f>G60 * I60</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="K60" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="1">
-        <v>44619</v>
+        <v>44667</v>
       </c>
       <c r="B61" s="1">
-        <v>44619</v>
-      </c>
-      <c r="C61" t="s">
+        <v>44667</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s">
         <v>102</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" t="s">
         <v>103</v>
       </c>
-      <c r="E61" t="s">
-        <v>30</v>
-      </c>
-      <c r="F61" t="s">
-        <v>104</v>
-      </c>
       <c r="G61">
-        <v>3</v>
+        <v>1.52</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J61">
-        <f>G61 * I61</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K61" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="1">
-        <v>44619</v>
+        <v>44664</v>
       </c>
       <c r="B62" s="1">
-        <v>44619</v>
-      </c>
-      <c r="C62" t="s">
-        <v>102</v>
+        <v>44664</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="D62" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E62" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F62" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G62">
-        <v>3.75</v>
+        <v>2.85</v>
       </c>
       <c r="H62">
         <v>0</v>
       </c>
       <c r="I62">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J62">
         <v>0</v>
       </c>
       <c r="K62" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="1">
-        <v>44619</v>
+        <v>44664</v>
       </c>
       <c r="B63" s="1">
-        <v>44619</v>
-      </c>
-      <c r="C63" t="s">
-        <v>102</v>
+        <v>44664</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="D63" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E63" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F63" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="G63">
-        <v>1.2</v>
+        <v>1.38</v>
       </c>
       <c r="H63">
         <v>1</v>
       </c>
       <c r="I63">
-        <v>50</v>
+        <v>102.5</v>
       </c>
       <c r="J63">
         <f>G63 * I63</f>
-        <v>60</v>
+        <v>141.44999999999999</v>
       </c>
       <c r="K63" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="1">
-        <v>44618</v>
+        <v>44656</v>
       </c>
       <c r="B64" s="1">
-        <v>44618</v>
-      </c>
-      <c r="C64" t="s">
-        <v>11</v>
+        <v>44656</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="D64" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E64" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F64" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G64">
-        <v>2.1</v>
+        <v>1.25</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
       <c r="K64" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="1">
-        <v>44613</v>
+        <v>44656</v>
       </c>
       <c r="B65" s="1">
-        <v>44613</v>
-      </c>
-      <c r="C65" t="s">
-        <v>11</v>
+        <v>44656</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="D65" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E65" t="s">
         <v>13</v>
       </c>
-      <c r="F65" s="3" t="s">
-        <v>111</v>
+      <c r="F65" t="s">
+        <v>109</v>
       </c>
       <c r="G65">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H65">
         <v>1</v>
       </c>
       <c r="I65">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="J65">
-        <f>G65 * I65</f>
-        <v>127.8</v>
+        <v>0</v>
       </c>
       <c r="K65" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="1">
-        <v>44613</v>
+        <v>44656</v>
       </c>
       <c r="B66" s="1">
-        <v>44613</v>
-      </c>
-      <c r="C66" t="s">
-        <v>11</v>
+        <v>44671</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E66" t="s">
         <v>13</v>
       </c>
       <c r="F66" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G66">
-        <v>1238046</v>
+        <v>1.75</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <f>G66 * I66</f>
+        <v>87.5</v>
       </c>
       <c r="K66" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="1">
-        <v>44611</v>
+        <v>44640</v>
       </c>
       <c r="B67" s="1">
-        <v>44611</v>
+        <v>44640</v>
       </c>
       <c r="C67" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D67" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E67" t="s">
         <v>13</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G67">
-        <v>1.1299999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="H67">
         <v>1</v>
       </c>
       <c r="I67">
-        <v>95.5</v>
+        <v>50</v>
       </c>
       <c r="J67">
         <f>G67 * I67</f>
-        <v>107.91499999999999</v>
+        <v>65</v>
       </c>
       <c r="K67" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="1">
-        <v>44608</v>
+        <v>44636</v>
       </c>
       <c r="B68" s="1">
-        <v>44608</v>
+        <v>44636</v>
       </c>
       <c r="C68" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E68" t="s">
         <v>13</v>
       </c>
-      <c r="F68" s="3" t="s">
-        <v>14</v>
+      <c r="F68" t="s">
+        <v>71</v>
       </c>
       <c r="G68">
-        <v>2.25</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H68">
         <v>1</v>
       </c>
       <c r="I68">
-        <v>42.5</v>
+        <v>24</v>
       </c>
       <c r="J68">
-        <f>IF(H68 = 1, G68 * I68, 0)</f>
-        <v>95.625</v>
+        <f>G68 * I68</f>
+        <v>26.400000000000002</v>
       </c>
       <c r="K68" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="1">
-        <v>44584</v>
+        <v>44628</v>
       </c>
       <c r="B69" s="1">
-        <v>44584</v>
+        <v>44628</v>
       </c>
       <c r="C69" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D69" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E69" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="G69">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>27.03</v>
+        <v>50</v>
       </c>
       <c r="J69">
-        <f>IF(H69 = 1, G69 * I69, 0)</f>
-        <v>42.707400000000007</v>
+        <v>0</v>
       </c>
       <c r="K69" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="1">
-        <v>44558</v>
+        <v>44625</v>
       </c>
       <c r="B70" s="1">
-        <v>44558</v>
+        <v>44625</v>
       </c>
       <c r="C70" t="s">
         <v>11</v>
       </c>
       <c r="D70" t="s">
+        <v>115</v>
+      </c>
+      <c r="E70" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" t="s">
         <v>116</v>
       </c>
-      <c r="E70" t="s">
-        <v>30</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="G70">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
       <c r="I70">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -3350,131 +3442,132 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="1">
-        <v>44541</v>
+        <v>44625</v>
       </c>
       <c r="B71" s="1">
-        <v>44541</v>
+        <v>44625</v>
       </c>
       <c r="C71" t="s">
         <v>11</v>
       </c>
       <c r="D71" t="s">
+        <v>115</v>
+      </c>
+      <c r="E71" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71" t="s">
         <v>117</v>
       </c>
-      <c r="E71" t="s">
-        <v>30</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="G71">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71">
         <v>50</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <f>G71 * I71</f>
+        <v>70</v>
       </c>
       <c r="K71" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="1">
-        <v>44534</v>
+        <v>44619</v>
       </c>
       <c r="B72" s="1">
-        <v>44534</v>
+        <v>44619</v>
       </c>
       <c r="C72" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="D72" t="s">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="E72" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" t="s">
+        <v>119</v>
+      </c>
+      <c r="G72">
+        <v>3</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>10</v>
+      </c>
+      <c r="J72">
+        <f>G72 * I72</f>
         <v>30</v>
       </c>
-      <c r="F72" t="s">
-        <v>63</v>
-      </c>
-      <c r="G72">
-        <v>3.2</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <v>50</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
       <c r="K72" t="s">
-        <v>15</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="1">
-        <v>44531</v>
+        <v>44619</v>
       </c>
       <c r="B73" s="1">
-        <v>44531</v>
+        <v>44619</v>
       </c>
       <c r="C73" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="D73" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="E73" t="s">
-        <v>30</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="F73" t="s">
+        <v>121</v>
       </c>
       <c r="G73">
-        <v>1.37</v>
+        <v>3.75</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="J73">
-        <f>G73 * I73</f>
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="K73" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="1">
-        <v>44493</v>
+        <v>44619</v>
       </c>
       <c r="B74" s="1">
-        <v>44493</v>
+        <v>44619</v>
       </c>
       <c r="C74" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="D74" t="s">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="E74" t="s">
         <v>13</v>
       </c>
-      <c r="F74" s="3" t="s">
-        <v>14</v>
+      <c r="F74" t="s">
+        <v>122</v>
       </c>
       <c r="G74">
-        <v>2.4500000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -3484,30 +3577,33 @@
       </c>
       <c r="J74">
         <f>G74 * I74</f>
-        <v>122.50000000000001</v>
+        <v>60</v>
       </c>
       <c r="K74" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="1">
-        <v>44471</v>
+        <v>44618</v>
       </c>
       <c r="B75" s="1">
-        <v>44471</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>11</v>
+        <v>44618</v>
+      </c>
+      <c r="C75" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s">
+        <v>123</v>
       </c>
       <c r="E75" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F75" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G75">
-        <v>8.4700000000000006</v>
+        <v>2.1</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -3519,182 +3615,206 @@
         <v>0</v>
       </c>
       <c r="K75" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="1">
-        <v>44471</v>
+        <v>44613</v>
       </c>
       <c r="B76" s="1">
-        <v>44471</v>
-      </c>
-      <c r="C76" s="2" t="s">
+        <v>44613</v>
+      </c>
+      <c r="C76" t="s">
         <v>11</v>
       </c>
       <c r="D76" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E76" t="s">
-        <v>30</v>
-      </c>
-      <c r="F76" t="s">
-        <v>123</v>
+        <v>18</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="G76">
-        <v>2.4500000000000002</v>
+        <v>1.42</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>90</v>
+      </c>
+      <c r="J76">
+        <f>G76 * I76</f>
+        <v>127.8</v>
       </c>
       <c r="K76" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="1">
-        <v>44471</v>
+        <v>44613</v>
       </c>
       <c r="B77" s="1">
-        <v>44471</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D77" t="s">
-        <v>124</v>
+        <v>44613</v>
+      </c>
+      <c r="C77" t="s">
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F77" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G77">
-        <v>2.5499999999999998</v>
+        <v>1238046</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
       </c>
       <c r="K77" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="1">
-        <v>44471</v>
+        <v>44611</v>
       </c>
       <c r="B78" s="1">
-        <v>44471</v>
-      </c>
-      <c r="C78" s="2" t="s">
+        <v>44611</v>
+      </c>
+      <c r="C78" t="s">
         <v>11</v>
       </c>
       <c r="D78" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E78" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="G78">
-        <v>1.1499999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="H78">
         <v>1</v>
       </c>
+      <c r="I78">
+        <v>95.5</v>
+      </c>
+      <c r="J78">
+        <f>G78 * I78</f>
+        <v>107.91499999999999</v>
+      </c>
       <c r="K78" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="1">
-        <v>44471</v>
+        <v>44608</v>
       </c>
       <c r="B79" s="1">
-        <v>44471</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>11</v>
+        <v>44608</v>
+      </c>
+      <c r="C79" t="s">
+        <v>54</v>
       </c>
       <c r="D79" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E79" t="s">
-        <v>30</v>
-      </c>
-      <c r="F79" t="s">
-        <v>126</v>
+        <v>18</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="G79">
-        <v>1.18</v>
+        <v>2.25</v>
       </c>
       <c r="H79">
         <v>1</v>
       </c>
+      <c r="I79">
+        <v>42.5</v>
+      </c>
+      <c r="J79">
+        <f>IF(H79 = 1, G79 * I79, 0)</f>
+        <v>95.625</v>
+      </c>
       <c r="K79" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="1">
-        <v>44471</v>
+        <v>44584</v>
       </c>
       <c r="B80" s="1">
-        <v>44471</v>
-      </c>
-      <c r="C80" s="2" t="s">
+        <v>44584</v>
+      </c>
+      <c r="C80" t="s">
         <v>11</v>
       </c>
       <c r="D80" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E80" t="s">
-        <v>13</v>
-      </c>
-      <c r="F80" t="s">
-        <v>129</v>
+        <v>18</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="G80">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="H80">
         <v>1</v>
       </c>
       <c r="I80">
-        <v>29</v>
+        <v>27.03</v>
       </c>
       <c r="J80">
-        <f>G80 * I80</f>
-        <v>37.700000000000003</v>
+        <f>IF(H80 = 1, G80 * I80, 0)</f>
+        <v>42.707400000000007</v>
       </c>
       <c r="K80" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="1">
-        <v>44464</v>
+        <v>44558</v>
       </c>
       <c r="B81" s="1">
-        <v>44464</v>
-      </c>
-      <c r="C81" s="2" t="s">
+        <v>44558</v>
+      </c>
+      <c r="C81" t="s">
         <v>11</v>
       </c>
       <c r="D81" t="s">
-        <v>130</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>30</v>
+        <v>131</v>
+      </c>
+      <c r="E81" t="s">
+        <v>13</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G81">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -3706,486 +3826,482 @@
         <v>0</v>
       </c>
       <c r="K81" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="1">
-        <v>44464</v>
+        <v>44541</v>
       </c>
       <c r="B82" s="1">
-        <v>44464</v>
-      </c>
-      <c r="C82" s="2" t="s">
+        <v>44541</v>
+      </c>
+      <c r="C82" t="s">
         <v>11</v>
       </c>
       <c r="D82" t="s">
-        <v>131</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F82" t="s">
-        <v>73</v>
+        <v>132</v>
+      </c>
+      <c r="E82" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="G82">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="H82">
         <v>0</v>
       </c>
       <c r="I82">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
       </c>
       <c r="K82" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="1">
-        <v>44464</v>
+        <v>44534</v>
       </c>
       <c r="B83" s="1">
-        <v>44464</v>
-      </c>
-      <c r="C83" s="2" t="s">
+        <v>44534</v>
+      </c>
+      <c r="C83" t="s">
         <v>11</v>
       </c>
       <c r="D83" t="s">
-        <v>132</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>30</v>
+        <v>133</v>
+      </c>
+      <c r="E83" t="s">
+        <v>13</v>
       </c>
       <c r="F83" t="s">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="G83">
-        <v>8.5</v>
+        <v>3.2</v>
       </c>
       <c r="H83">
         <v>0</v>
       </c>
       <c r="I83">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J83">
         <v>0</v>
       </c>
       <c r="K83" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="1">
-        <v>44454</v>
+        <v>44531</v>
       </c>
       <c r="B84" s="1">
-        <v>44454</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>35</v>
+        <v>44531</v>
+      </c>
+      <c r="C84" t="s">
+        <v>11</v>
       </c>
       <c r="D84" t="s">
         <v>134</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F84" t="s">
+      <c r="E84" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G84">
+        <v>1.37</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
         <v>100</v>
       </c>
-      <c r="G84">
-        <v>1.45</v>
-      </c>
-      <c r="H84">
-        <v>0</v>
-      </c>
-      <c r="I84">
-        <v>50</v>
-      </c>
       <c r="J84">
-        <v>0</v>
+        <f>G84 * I84</f>
+        <v>137</v>
       </c>
       <c r="K84" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="1">
-        <v>44454</v>
+        <v>44493</v>
       </c>
       <c r="B85" s="1">
-        <v>44454</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>35</v>
+        <v>44493</v>
+      </c>
+      <c r="C85" t="s">
+        <v>11</v>
       </c>
       <c r="D85" t="s">
-        <v>134</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>30</v>
+        <v>135</v>
+      </c>
+      <c r="E85" t="s">
+        <v>18</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G85">
-        <v>1.43</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="H85">
         <v>1</v>
       </c>
       <c r="I85">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="J85">
         <f>G85 * I85</f>
-        <v>48.62</v>
+        <v>122.50000000000001</v>
       </c>
       <c r="K85" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="1">
-        <v>44453</v>
+        <v>44471</v>
       </c>
       <c r="B86" s="1">
-        <v>44453</v>
+        <v>44471</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D86" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
         <v>13</v>
       </c>
-      <c r="F86" s="3" t="s">
-        <v>14</v>
+      <c r="F86" t="s">
+        <v>136</v>
       </c>
       <c r="G86">
-        <v>1.42</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="H86">
         <v>0</v>
       </c>
       <c r="I86">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J86">
         <v>0</v>
       </c>
       <c r="K86" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="1">
-        <v>44451</v>
+        <v>44471</v>
       </c>
       <c r="B87" s="1">
-        <v>44451</v>
+        <v>44471</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D87" t="s">
-        <v>136</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>30</v>
+        <v>137</v>
+      </c>
+      <c r="E87" t="s">
+        <v>13</v>
       </c>
       <c r="F87" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G87">
-        <v>1.35</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J87">
-        <f>G87 * I87</f>
-        <v>67.5</v>
+        <v>0</v>
       </c>
       <c r="K87" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="1">
-        <v>44450</v>
+        <v>44471</v>
       </c>
       <c r="B88" s="1">
-        <v>44450</v>
+        <v>44471</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D88" t="s">
+        <v>139</v>
+      </c>
+      <c r="E88" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" t="s">
         <v>138</v>
       </c>
-      <c r="E88" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F88" t="s">
-        <v>139</v>
-      </c>
       <c r="G88">
-        <v>1.42</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J88">
         <v>0</v>
       </c>
       <c r="K88" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="1">
-        <v>44450</v>
+        <v>44471</v>
       </c>
       <c r="B89" s="1">
-        <v>44450</v>
+        <v>44471</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D89" t="s">
-        <v>138</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F89" t="s">
-        <v>53</v>
+        <v>140</v>
+      </c>
+      <c r="E89" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="G89">
-        <v>1.28</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J89">
         <v>0</v>
       </c>
       <c r="K89" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="1">
-        <v>44450</v>
+        <v>44471</v>
       </c>
       <c r="B90" s="1">
-        <v>44450</v>
+        <v>44471</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D90" t="s">
-        <v>138</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>30</v>
+        <v>142</v>
+      </c>
+      <c r="E90" t="s">
+        <v>13</v>
       </c>
       <c r="F90" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G90">
-        <v>1.5</v>
+        <v>1.18</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J90">
         <v>0</v>
       </c>
       <c r="K90" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="1">
-        <v>44437</v>
+        <v>44471</v>
       </c>
       <c r="B91" s="1">
-        <v>44437</v>
+        <v>44471</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D91" t="s">
-        <v>141</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>30</v>
+        <v>143</v>
+      </c>
+      <c r="E91" t="s">
+        <v>18</v>
       </c>
       <c r="F91" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G91">
-        <v>9.5</v>
+        <v>1.3</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="J91">
-        <v>0</v>
+        <f>G91 * I91</f>
+        <v>37.700000000000003</v>
       </c>
       <c r="K91" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="1">
-        <v>44436</v>
+        <v>44464</v>
       </c>
       <c r="B92" s="1">
-        <v>44436</v>
+        <v>44464</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D92" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F92" t="s">
-        <v>144</v>
+        <v>13</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="G92">
-        <v>1.1200000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J92">
-        <f>G92 * I92</f>
-        <v>112.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="K92" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="1">
-        <v>44436</v>
+        <v>44464</v>
       </c>
       <c r="B93" s="1">
-        <v>44436</v>
+        <v>44464</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D93" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F93" t="s">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="G93">
-        <v>1.42</v>
+        <v>1.62</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>50</v>
-      </c>
-      <c r="J93">
-        <f>G93 * I93</f>
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="K93" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="1">
-        <v>44375</v>
+        <v>44464</v>
       </c>
       <c r="B94" s="1">
-        <v>44375</v>
+        <v>44464</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="D94" t="s">
         <v>147</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>34</v>
+        <v>13</v>
+      </c>
+      <c r="F94" t="s">
+        <v>148</v>
       </c>
       <c r="G94">
-        <v>1.58</v>
+        <v>8.5</v>
       </c>
       <c r="H94">
         <v>0</v>
       </c>
       <c r="I94">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="J94">
         <v>0</v>
       </c>
       <c r="K94" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="1">
-        <v>44374</v>
+        <v>44454</v>
       </c>
       <c r="B95" s="1">
-        <v>44374</v>
+        <v>44454</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c r="D95" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F95" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="G95">
-        <v>1.82</v>
+        <v>1.45</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -4202,1105 +4318,1103 @@
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="1">
-        <v>44374</v>
+        <v>44454</v>
       </c>
       <c r="B96" s="1">
-        <v>44374</v>
+        <v>44454</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c r="D96" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F96" t="s">
-        <v>73</v>
+        <v>13</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="G96">
-        <v>3.05</v>
+        <v>1.43</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <f>G96 * I96</f>
+        <v>48.62</v>
       </c>
       <c r="K96" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="1">
-        <v>44374</v>
+        <v>44453</v>
       </c>
       <c r="B97" s="1">
-        <v>44374</v>
+        <v>44453</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c r="D97" t="s">
-        <v>148</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F97" t="s">
-        <v>129</v>
+        <v>150</v>
+      </c>
+      <c r="E97" t="s">
+        <v>18</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="G97">
-        <v>1.24</v>
+        <v>1.42</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97">
         <v>50</v>
       </c>
       <c r="J97">
-        <f t="shared" ref="J97:J99" si="0">G97 * I97</f>
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="K97" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="1">
+        <v>44451</v>
+      </c>
+      <c r="B98" s="1">
+        <v>44451</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98" t="s">
+        <v>151</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F98" t="s">
+        <v>152</v>
+      </c>
+      <c r="G98">
+        <v>1.35</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98">
+        <v>50</v>
+      </c>
+      <c r="J98">
+        <f>G98 * I98</f>
+        <v>67.5</v>
+      </c>
+      <c r="K98" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="1">
+        <v>44450</v>
+      </c>
+      <c r="B99" s="1">
+        <v>44450</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s">
+        <v>153</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99" t="s">
+        <v>154</v>
+      </c>
+      <c r="G99">
+        <v>1.42</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>100</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="1">
+        <v>44450</v>
+      </c>
+      <c r="B100" s="1">
+        <v>44450</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s">
+        <v>153</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" t="s">
+        <v>71</v>
+      </c>
+      <c r="G100">
+        <v>1.28</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>50</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" s="1">
+        <v>44450</v>
+      </c>
+      <c r="B101" s="1">
+        <v>44450</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s">
+        <v>153</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" t="s">
+        <v>155</v>
+      </c>
+      <c r="G101">
+        <v>1.5</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>100</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" s="1">
+        <v>44437</v>
+      </c>
+      <c r="B102" s="1">
+        <v>44437</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s">
+        <v>156</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" t="s">
+        <v>157</v>
+      </c>
+      <c r="G102">
+        <v>9.5</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>10</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" s="1">
+        <v>44436</v>
+      </c>
+      <c r="B103" s="1">
+        <v>44436</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103" t="s">
+        <v>158</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" t="s">
+        <v>159</v>
+      </c>
+      <c r="G103">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="I103">
+        <v>100</v>
+      </c>
+      <c r="J103">
+        <f>G103 * I103</f>
+        <v>112.00000000000001</v>
+      </c>
+      <c r="K103" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" s="1">
+        <v>44436</v>
+      </c>
+      <c r="B104" s="1">
+        <v>44436</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s">
+        <v>158</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104" t="s">
+        <v>160</v>
+      </c>
+      <c r="G104">
+        <v>1.42</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="I104">
+        <v>50</v>
+      </c>
+      <c r="J104">
+        <f>G104 * I104</f>
+        <v>71</v>
+      </c>
+      <c r="K104" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" s="1">
+        <v>44375</v>
+      </c>
+      <c r="B105" s="1">
+        <v>44375</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D105" t="s">
+        <v>162</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G105">
+        <v>1.58</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>100</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B106" s="1">
+        <v>44374</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D106" t="s">
+        <v>163</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F106" t="s">
+        <v>71</v>
+      </c>
+      <c r="G106">
+        <v>1.82</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>50</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B107" s="1">
+        <v>44374</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D107" t="s">
+        <v>163</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F107" t="s">
+        <v>90</v>
+      </c>
+      <c r="G107">
+        <v>3.05</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B108" s="1">
+        <v>44374</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D108" t="s">
+        <v>163</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F108" t="s">
+        <v>144</v>
+      </c>
+      <c r="G108">
+        <v>1.24</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108">
+        <v>50</v>
+      </c>
+      <c r="J108">
+        <f t="shared" ref="J108:J110" si="0">G108 * I108</f>
+        <v>62</v>
+      </c>
+      <c r="K108" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" s="1">
         <v>44373</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B109" s="1">
         <v>44373</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D98" t="s">
-        <v>149</v>
-      </c>
-      <c r="E98" t="s">
-        <v>13</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G98">
+      <c r="C109" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D109" t="s">
+        <v>164</v>
+      </c>
+      <c r="E109" t="s">
+        <v>18</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G109">
         <v>1.92</v>
       </c>
-      <c r="H98">
-        <v>1</v>
-      </c>
-      <c r="I98">
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="I109">
         <v>100</v>
       </c>
-      <c r="J98">
+      <c r="J109">
         <f t="shared" si="0"/>
         <v>192</v>
       </c>
-      <c r="K98" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
-      <c r="A99" s="1">
+      <c r="K109" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" s="1">
         <v>44368</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B110" s="1">
         <v>44368</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D99" t="s">
-        <v>150</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G99">
+      <c r="C110" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D110" t="s">
+        <v>165</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G110">
         <v>1.2</v>
       </c>
-      <c r="H99">
-        <v>1</v>
-      </c>
-      <c r="I99">
+      <c r="H110">
+        <v>1</v>
+      </c>
+      <c r="I110">
         <v>200</v>
       </c>
-      <c r="J99">
+      <c r="J110">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="K99" t="s">
+      <c r="K110" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" s="1">
+        <v>44368</v>
+      </c>
+      <c r="B111" s="1">
+        <v>44368</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D111" t="s">
+        <v>165</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F111" t="s">
+        <v>166</v>
+      </c>
+      <c r="G111">
+        <v>1.42</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>100</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
-      <c r="A100" s="1">
+    <row r="112" spans="1:11">
+      <c r="A112" s="1">
         <v>44368</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B112" s="1">
         <v>44368</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D100" t="s">
-        <v>150</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F100" t="s">
-        <v>151</v>
-      </c>
-      <c r="G100">
-        <v>1.42</v>
-      </c>
-      <c r="H100">
-        <v>0</v>
-      </c>
-      <c r="I100">
+      <c r="C112" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D112" t="s">
+        <v>165</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F112" t="s">
+        <v>167</v>
+      </c>
+      <c r="G112">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
         <v>100</v>
       </c>
-      <c r="J100">
-        <v>0</v>
-      </c>
-      <c r="K100" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
-      <c r="A101" s="1">
+      <c r="J112">
+        <f t="shared" ref="J112:J113" si="1">G112 * I112</f>
+        <v>112.99999999999999</v>
+      </c>
+      <c r="K112" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" s="1">
         <v>44368</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B113" s="1">
         <v>44368</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D101" t="s">
-        <v>150</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F101" t="s">
-        <v>152</v>
-      </c>
-      <c r="G101">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="H101">
-        <v>1</v>
-      </c>
-      <c r="I101">
+      <c r="C113" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D113" t="s">
+        <v>165</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F113" t="s">
+        <v>168</v>
+      </c>
+      <c r="G113">
+        <v>1.25</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113">
         <v>100</v>
       </c>
-      <c r="J101">
-        <f t="shared" ref="J101:J102" si="1">G101 * I101</f>
-        <v>112.99999999999999</v>
-      </c>
-      <c r="K101" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
-      <c r="A102" s="1">
-        <v>44368</v>
-      </c>
-      <c r="B102" s="1">
-        <v>44368</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D102" t="s">
-        <v>150</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F102" t="s">
-        <v>153</v>
-      </c>
-      <c r="G102">
-        <v>1.25</v>
-      </c>
-      <c r="H102">
-        <v>1</v>
-      </c>
-      <c r="I102">
-        <v>100</v>
-      </c>
-      <c r="J102">
+      <c r="J113">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="K102" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11">
-      <c r="A103" s="1">
+      <c r="K113" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" s="1">
         <v>44365</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B114" s="1">
         <v>44365</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D103" t="s">
-        <v>154</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G103">
+      <c r="C114" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D114" t="s">
+        <v>169</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G114">
         <v>1.65</v>
       </c>
-      <c r="H103">
-        <v>0</v>
-      </c>
-      <c r="I103">
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
         <v>50</v>
       </c>
-      <c r="J103">
-        <v>0</v>
-      </c>
-      <c r="K103" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11">
-      <c r="A104" s="1">
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" s="1">
         <v>44365</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B115" s="1">
         <v>44365</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D104" t="s">
-        <v>154</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F104" t="s">
+      <c r="C115" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D115" t="s">
+        <v>169</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F115" t="s">
+        <v>71</v>
+      </c>
+      <c r="G115">
+        <v>1.42</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115">
+        <v>50</v>
+      </c>
+      <c r="J115">
+        <f t="shared" ref="J115:J117" si="2">G115 * I115</f>
+        <v>71</v>
+      </c>
+      <c r="K115" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" s="1">
+        <v>44364</v>
+      </c>
+      <c r="B116" s="1">
+        <v>44364</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D116" t="s">
+        <v>170</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F116" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G104">
-        <v>1.42</v>
-      </c>
-      <c r="H104">
-        <v>1</v>
-      </c>
-      <c r="I104">
-        <v>50</v>
-      </c>
-      <c r="J104">
-        <f t="shared" ref="J104:J106" si="2">G104 * I104</f>
-        <v>71</v>
-      </c>
-      <c r="K104" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11">
-      <c r="A105" s="1">
-        <v>44364</v>
-      </c>
-      <c r="B105" s="1">
-        <v>44364</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D105" t="s">
-        <v>155</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G105">
+      <c r="G116">
         <v>1.1599999999999999</v>
       </c>
-      <c r="H105">
-        <v>1</v>
-      </c>
-      <c r="I105">
+      <c r="H116">
+        <v>1</v>
+      </c>
+      <c r="I116">
         <v>100</v>
       </c>
-      <c r="J105">
+      <c r="J116">
         <f t="shared" si="2"/>
         <v>115.99999999999999</v>
       </c>
-      <c r="K105" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11">
-      <c r="A106" s="1">
+      <c r="K116" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" s="1">
         <v>44364</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B117" s="1">
         <v>44364</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D106" t="s">
-        <v>156</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G106">
+      <c r="C117" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D117" t="s">
+        <v>171</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G117">
         <v>1.18</v>
       </c>
-      <c r="H106">
-        <v>1</v>
-      </c>
-      <c r="I106">
+      <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117">
         <v>100</v>
       </c>
-      <c r="J106">
+      <c r="J117">
         <f t="shared" si="2"/>
         <v>118</v>
       </c>
-      <c r="K106" t="s">
+      <c r="K117" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" s="1">
+        <v>44363</v>
+      </c>
+      <c r="B118" s="1">
+        <v>44363</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D118" t="s">
+        <v>172</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F118" t="s">
+        <v>155</v>
+      </c>
+      <c r="G118">
+        <v>1.4</v>
+      </c>
+      <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="I118">
+        <v>100</v>
+      </c>
+      <c r="J118">
+        <f t="shared" ref="J118:J119" si="3">G118 * I118</f>
+        <v>140</v>
+      </c>
+      <c r="K118" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
-      <c r="A107" s="1">
+    <row r="119" spans="1:11">
+      <c r="A119" s="1">
         <v>44363</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B119" s="1">
         <v>44363</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D107" t="s">
-        <v>157</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F107" t="s">
-        <v>140</v>
-      </c>
-      <c r="G107">
-        <v>1.4</v>
-      </c>
-      <c r="H107">
-        <v>1</v>
-      </c>
-      <c r="I107">
+      <c r="C119" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D119" t="s">
+        <v>172</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G119">
+        <v>1.22</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119">
         <v>100</v>
       </c>
-      <c r="J107">
-        <f t="shared" ref="J107:J108" si="3">G107 * I107</f>
-        <v>140</v>
-      </c>
-      <c r="K107" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
-      <c r="A108" s="1">
-        <v>44363</v>
-      </c>
-      <c r="B108" s="1">
-        <v>44363</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D108" t="s">
-        <v>157</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G108">
-        <v>1.22</v>
-      </c>
-      <c r="H108">
-        <v>1</v>
-      </c>
-      <c r="I108">
-        <v>100</v>
-      </c>
-      <c r="J108">
+      <c r="J119">
         <f t="shared" si="3"/>
         <v>122</v>
       </c>
-      <c r="K108" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
-      <c r="A109" s="1">
+      <c r="K119" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" s="1">
         <v>44362</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B120" s="1">
         <v>44362</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D109" t="s">
-        <v>158</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F109" t="s">
-        <v>53</v>
-      </c>
-      <c r="G109">
+      <c r="C120" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D120" t="s">
+        <v>173</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F120" t="s">
+        <v>71</v>
+      </c>
+      <c r="G120">
         <v>1.77</v>
       </c>
-      <c r="H109">
-        <v>0</v>
-      </c>
-      <c r="I109">
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
         <v>100</v>
       </c>
-      <c r="J109">
-        <v>0</v>
-      </c>
-      <c r="K109" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
-      <c r="A110" s="1">
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" s="1">
         <v>44361</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B121" s="1">
         <v>44361</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D110" t="s">
-        <v>159</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F110" t="s">
-        <v>160</v>
-      </c>
-      <c r="G110">
+      <c r="C121" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D121" t="s">
+        <v>174</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F121" t="s">
+        <v>175</v>
+      </c>
+      <c r="G121">
         <v>1.27</v>
       </c>
-      <c r="H110">
-        <v>0</v>
-      </c>
-      <c r="I110">
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
         <v>100</v>
       </c>
-      <c r="J110">
-        <v>0</v>
-      </c>
-      <c r="K110" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
-      <c r="A111" s="1">
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" s="1">
         <v>44359</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B122" s="1">
         <v>44359</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D111" t="s">
+      <c r="C122" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E111" t="s">
-        <v>13</v>
-      </c>
-      <c r="F111" t="s">
-        <v>73</v>
-      </c>
-      <c r="G111">
+      <c r="D122" t="s">
+        <v>176</v>
+      </c>
+      <c r="E122" t="s">
+        <v>18</v>
+      </c>
+      <c r="F122" t="s">
+        <v>90</v>
+      </c>
+      <c r="G122">
         <v>3.9</v>
       </c>
-      <c r="H111">
-        <v>0</v>
-      </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
-      <c r="J111">
-        <f t="shared" ref="J110:J112" si="4">G111 * I111</f>
-        <v>0</v>
-      </c>
-      <c r="K111" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
-      <c r="A112" s="1">
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <f t="shared" ref="J121:J123" si="4">G122 * I122</f>
+        <v>0</v>
+      </c>
+      <c r="K122" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" s="1">
         <v>44358</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B123" s="1">
         <v>44358</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D112" t="s">
-        <v>162</v>
-      </c>
-      <c r="E112" t="s">
-        <v>30</v>
-      </c>
-      <c r="F112" t="s">
-        <v>163</v>
-      </c>
-      <c r="G112">
+      <c r="C123" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D123" t="s">
+        <v>177</v>
+      </c>
+      <c r="E123" t="s">
+        <v>13</v>
+      </c>
+      <c r="F123" t="s">
+        <v>178</v>
+      </c>
+      <c r="G123">
         <v>1.17</v>
       </c>
-      <c r="H112">
-        <v>1</v>
-      </c>
-      <c r="I112">
+      <c r="H123">
+        <v>1</v>
+      </c>
+      <c r="I123">
         <v>50</v>
       </c>
-      <c r="J112">
+      <c r="J123">
         <f t="shared" si="4"/>
         <v>58.5</v>
       </c>
-      <c r="K112" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
-      <c r="A113" s="1">
-        <v>44358</v>
-      </c>
-      <c r="B113" s="1">
-        <v>44358</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D113" t="s">
-        <v>162</v>
-      </c>
-      <c r="E113" t="s">
-        <v>30</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G113">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="H113">
-        <v>1</v>
-      </c>
-      <c r="I113">
-        <v>100</v>
-      </c>
-      <c r="J113">
-        <f>G113 * I113</f>
-        <v>109.00000000000001</v>
-      </c>
-      <c r="K113" t="s">
+      <c r="K123" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
-      <c r="A114" s="1">
-        <v>44339</v>
-      </c>
-      <c r="B114" s="1">
-        <v>44339</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s">
-        <v>164</v>
-      </c>
-      <c r="E114" t="s">
-        <v>30</v>
-      </c>
-      <c r="F114" t="s">
-        <v>165</v>
-      </c>
-      <c r="G114">
-        <v>1.18</v>
-      </c>
-      <c r="H114">
-        <v>1</v>
-      </c>
-      <c r="I114">
-        <v>50</v>
-      </c>
-      <c r="J114">
-        <f>G114 * I114</f>
-        <v>59</v>
-      </c>
-      <c r="K114" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
-      <c r="A115" s="1">
-        <v>44339</v>
-      </c>
-      <c r="B115" s="1">
-        <v>44339</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s">
-        <v>164</v>
-      </c>
-      <c r="E115" t="s">
-        <v>30</v>
-      </c>
-      <c r="F115" t="s">
-        <v>62</v>
-      </c>
-      <c r="G115">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="H115">
-        <v>1</v>
-      </c>
-      <c r="I115">
-        <v>100</v>
-      </c>
-      <c r="J115">
-        <f>G115 * I115</f>
-        <v>114.99999999999999</v>
-      </c>
-      <c r="K115" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
-      <c r="A116" s="1">
-        <v>44335</v>
-      </c>
-      <c r="B116" s="1">
-        <v>44335</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D116" t="s">
-        <v>166</v>
-      </c>
-      <c r="E116" t="s">
-        <v>30</v>
-      </c>
-      <c r="F116" t="s">
-        <v>63</v>
-      </c>
-      <c r="G116">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H116">
-        <v>1</v>
-      </c>
-      <c r="I116">
-        <v>25</v>
-      </c>
-      <c r="J116">
-        <f>G116 * I116</f>
-        <v>55.000000000000007</v>
-      </c>
-      <c r="K116" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
-      <c r="A117" s="1">
-        <v>44332</v>
-      </c>
-      <c r="B117" s="1">
-        <v>44332</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D117" t="s">
-        <v>167</v>
-      </c>
-      <c r="E117" t="s">
-        <v>30</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G117">
-        <v>1.27</v>
-      </c>
-      <c r="H117">
-        <v>1</v>
-      </c>
-      <c r="I117">
-        <v>25</v>
-      </c>
-      <c r="J117">
-        <f>G117 * I117</f>
-        <v>31.75</v>
-      </c>
-      <c r="K117" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
-      <c r="A118" s="1">
-        <v>44329</v>
-      </c>
-      <c r="B118" s="1">
-        <v>44329</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D118" t="s">
-        <v>120</v>
-      </c>
-      <c r="E118" t="s">
-        <v>13</v>
-      </c>
-      <c r="F118" t="s">
-        <v>168</v>
-      </c>
-      <c r="G118">
-        <v>1.6</v>
-      </c>
-      <c r="H118">
-        <v>1</v>
-      </c>
-      <c r="I118">
-        <v>10</v>
-      </c>
-      <c r="J118">
-        <f>G118 * I118</f>
-        <v>16</v>
-      </c>
-      <c r="K118" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
-      <c r="A119" s="1">
-        <v>44329</v>
-      </c>
-      <c r="B119" s="1">
-        <v>44329</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D119" t="s">
-        <v>120</v>
-      </c>
-      <c r="E119" t="s">
-        <v>13</v>
-      </c>
-      <c r="F119" t="s">
-        <v>73</v>
-      </c>
-      <c r="G119">
-        <v>3.65</v>
-      </c>
-      <c r="H119">
-        <v>0</v>
-      </c>
-      <c r="I119">
-        <v>10</v>
-      </c>
-      <c r="J119">
-        <v>0</v>
-      </c>
-      <c r="K119" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11">
-      <c r="A120" s="1">
-        <v>44305</v>
-      </c>
-      <c r="B120" s="1">
-        <v>44305</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D120" t="s">
-        <v>136</v>
-      </c>
-      <c r="E120" t="s">
-        <v>30</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G120">
-        <v>1.52</v>
-      </c>
-      <c r="H120">
-        <v>0</v>
-      </c>
-      <c r="I120">
-        <v>100</v>
-      </c>
-      <c r="J120">
-        <f>G120 * I120</f>
-        <v>152</v>
-      </c>
-      <c r="K120" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11">
-      <c r="A121" s="1">
-        <v>44292</v>
-      </c>
-      <c r="B121" s="1">
-        <v>44292</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D121" t="s">
-        <v>169</v>
-      </c>
-      <c r="E121" t="s">
-        <v>30</v>
-      </c>
-      <c r="F121" t="s">
-        <v>170</v>
-      </c>
-      <c r="G121">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H121">
-        <v>0</v>
-      </c>
-      <c r="I121">
-        <v>100</v>
-      </c>
-      <c r="J121">
-        <v>0</v>
-      </c>
-      <c r="K121" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11">
-      <c r="A122" s="1">
-        <v>44292</v>
-      </c>
-      <c r="B122" s="1">
-        <v>44292</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D122" t="s">
-        <v>169</v>
-      </c>
-      <c r="E122" t="s">
-        <v>13</v>
-      </c>
-      <c r="F122" t="s">
-        <v>53</v>
-      </c>
-      <c r="G122">
-        <v>2.15</v>
-      </c>
-      <c r="H122">
-        <v>0</v>
-      </c>
-      <c r="I122">
-        <v>50</v>
-      </c>
-      <c r="J122">
-        <v>0</v>
-      </c>
-      <c r="K122" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11">
-      <c r="A123" s="1">
-        <v>44292</v>
-      </c>
-      <c r="B123" s="1">
-        <v>44292</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D123" t="s">
-        <v>169</v>
-      </c>
-      <c r="E123" t="s">
-        <v>13</v>
-      </c>
-      <c r="F123" t="s">
-        <v>129</v>
-      </c>
-      <c r="G123">
-        <v>1.33</v>
-      </c>
-      <c r="H123">
-        <v>1</v>
-      </c>
-      <c r="I123">
-        <v>45</v>
-      </c>
-      <c r="J123">
-        <f>G123 * I123</f>
-        <v>59.85</v>
-      </c>
-      <c r="K123" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="124" spans="1:11">
       <c r="A124" s="1">
-        <v>44290</v>
+        <v>44358</v>
       </c>
       <c r="B124" s="1">
-        <v>44290</v>
+        <v>44358</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="D124" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E124" t="s">
-        <v>30</v>
-      </c>
-      <c r="F124" t="s">
-        <v>172</v>
+        <v>13</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="G124">
-        <v>1.6</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124">
         <v>100</v>
       </c>
       <c r="J124">
-        <v>0</v>
+        <f>G124 * I124</f>
+        <v>109.00000000000001</v>
       </c>
       <c r="K124" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="125" spans="1:11">
       <c r="A125" s="1">
-        <v>44290</v>
+        <v>44339</v>
       </c>
       <c r="B125" s="1">
-        <v>44290</v>
+        <v>44339</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D125" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="E125" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F125" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="G125">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="H125">
         <v>1</v>
       </c>
       <c r="I125">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J125">
         <f>G125 * I125</f>
-        <v>128</v>
+        <v>59</v>
       </c>
       <c r="K125" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="126" spans="1:11">
       <c r="A126" s="1">
-        <v>44290</v>
+        <v>44339</v>
       </c>
       <c r="B126" s="1">
-        <v>44290</v>
+        <v>44339</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D126" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="E126" t="s">
-        <v>30</v>
-      </c>
-      <c r="F126" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="F126" t="s">
+        <v>80</v>
       </c>
       <c r="G126">
-        <v>1.97</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J126">
-        <v>14.62</v>
+        <f>G126 * I126</f>
+        <v>114.99999999999999</v>
       </c>
       <c r="K126" t="s">
         <v>15</v>
@@ -5308,74 +5422,465 @@
     </row>
     <row r="127" spans="1:11">
       <c r="A127" s="1">
-        <v>44289</v>
+        <v>44335</v>
       </c>
       <c r="B127" s="1">
-        <v>44289</v>
+        <v>44335</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D127" t="s">
-        <v>97</v>
+        <v>181</v>
       </c>
       <c r="E127" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F127" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="G127">
-        <v>4.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H127">
         <v>1</v>
       </c>
       <c r="I127">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J127">
         <f>G127 * I127</f>
-        <v>240</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="K127" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="128" spans="1:11">
       <c r="A128" s="1">
-        <v>44289</v>
+        <v>44332</v>
       </c>
       <c r="B128" s="1">
-        <v>44289</v>
+        <v>44332</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D128" t="s">
-        <v>97</v>
+        <v>182</v>
       </c>
       <c r="E128" t="s">
-        <v>30</v>
-      </c>
-      <c r="F128" t="s">
-        <v>53</v>
+        <v>13</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="G128">
-        <v>2.2000000000000002</v>
+        <v>1.27</v>
       </c>
       <c r="H128">
         <v>1</v>
       </c>
       <c r="I128">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J128">
         <f>G128 * I128</f>
+        <v>31.75</v>
+      </c>
+      <c r="K128" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" s="1">
+        <v>44329</v>
+      </c>
+      <c r="B129" s="1">
+        <v>44329</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s">
+        <v>135</v>
+      </c>
+      <c r="E129" t="s">
+        <v>18</v>
+      </c>
+      <c r="F129" t="s">
+        <v>183</v>
+      </c>
+      <c r="G129">
+        <v>1.6</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
+      <c r="I129">
+        <v>10</v>
+      </c>
+      <c r="J129">
+        <f>G129 * I129</f>
+        <v>16</v>
+      </c>
+      <c r="K129" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="1">
+        <v>44329</v>
+      </c>
+      <c r="B130" s="1">
+        <v>44329</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D130" t="s">
+        <v>135</v>
+      </c>
+      <c r="E130" t="s">
+        <v>18</v>
+      </c>
+      <c r="F130" t="s">
+        <v>90</v>
+      </c>
+      <c r="G130">
+        <v>3.65</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>10</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="1">
+        <v>44305</v>
+      </c>
+      <c r="B131" s="1">
+        <v>44305</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D131" t="s">
+        <v>151</v>
+      </c>
+      <c r="E131" t="s">
+        <v>13</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G131">
+        <v>1.52</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>100</v>
+      </c>
+      <c r="J131">
+        <f>G131 * I131</f>
+        <v>152</v>
+      </c>
+      <c r="K131" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" s="1">
+        <v>44292</v>
+      </c>
+      <c r="B132" s="1">
+        <v>44292</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D132" t="s">
+        <v>184</v>
+      </c>
+      <c r="E132" t="s">
+        <v>13</v>
+      </c>
+      <c r="F132" t="s">
+        <v>185</v>
+      </c>
+      <c r="G132">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>100</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133" s="1">
+        <v>44292</v>
+      </c>
+      <c r="B133" s="1">
+        <v>44292</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D133" t="s">
+        <v>184</v>
+      </c>
+      <c r="E133" t="s">
+        <v>18</v>
+      </c>
+      <c r="F133" t="s">
+        <v>71</v>
+      </c>
+      <c r="G133">
+        <v>2.15</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>50</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134" s="1">
+        <v>44292</v>
+      </c>
+      <c r="B134" s="1">
+        <v>44292</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D134" t="s">
+        <v>184</v>
+      </c>
+      <c r="E134" t="s">
+        <v>18</v>
+      </c>
+      <c r="F134" t="s">
+        <v>144</v>
+      </c>
+      <c r="G134">
+        <v>1.33</v>
+      </c>
+      <c r="H134">
+        <v>1</v>
+      </c>
+      <c r="I134">
+        <v>45</v>
+      </c>
+      <c r="J134">
+        <f>G134 * I134</f>
+        <v>59.85</v>
+      </c>
+      <c r="K134" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135" s="1">
+        <v>44290</v>
+      </c>
+      <c r="B135" s="1">
+        <v>44290</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s">
+        <v>186</v>
+      </c>
+      <c r="E135" t="s">
+        <v>13</v>
+      </c>
+      <c r="F135" t="s">
+        <v>187</v>
+      </c>
+      <c r="G135">
+        <v>1.6</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>100</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136" s="1">
+        <v>44290</v>
+      </c>
+      <c r="B136" s="1">
+        <v>44290</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s">
+        <v>186</v>
+      </c>
+      <c r="E136" t="s">
+        <v>13</v>
+      </c>
+      <c r="F136" t="s">
+        <v>188</v>
+      </c>
+      <c r="G136">
+        <v>1.28</v>
+      </c>
+      <c r="H136">
+        <v>1</v>
+      </c>
+      <c r="I136">
+        <v>100</v>
+      </c>
+      <c r="J136">
+        <f>G136 * I136</f>
+        <v>128</v>
+      </c>
+      <c r="K136" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137" s="1">
+        <v>44290</v>
+      </c>
+      <c r="B137" s="1">
+        <v>44290</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s">
+        <v>186</v>
+      </c>
+      <c r="E137" t="s">
+        <v>13</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G137">
+        <v>1.97</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>50</v>
+      </c>
+      <c r="J137">
+        <v>14.62</v>
+      </c>
+      <c r="K137" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138" s="1">
+        <v>44289</v>
+      </c>
+      <c r="B138" s="1">
+        <v>44289</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s">
+        <v>113</v>
+      </c>
+      <c r="E138" t="s">
+        <v>13</v>
+      </c>
+      <c r="F138" t="s">
+        <v>67</v>
+      </c>
+      <c r="G138">
+        <v>4.8</v>
+      </c>
+      <c r="H138">
+        <v>1</v>
+      </c>
+      <c r="I138">
+        <v>50</v>
+      </c>
+      <c r="J138">
+        <f>G138 * I138</f>
+        <v>240</v>
+      </c>
+      <c r="K138" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139" s="1">
+        <v>44289</v>
+      </c>
+      <c r="B139" s="1">
+        <v>44289</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s">
+        <v>113</v>
+      </c>
+      <c r="E139" t="s">
+        <v>13</v>
+      </c>
+      <c r="F139" t="s">
+        <v>71</v>
+      </c>
+      <c r="G139">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H139">
+        <v>1</v>
+      </c>
+      <c r="I139">
+        <v>50</v>
+      </c>
+      <c r="J139">
+        <f>G139 * I139</f>
         <v>110.00000000000001</v>
       </c>
-      <c r="K128" t="s">
-        <v>15</v>
+      <c r="K139" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -5400,34 +5905,34 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="B1" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="C1" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="D1" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4">
         <f xml:space="preserve"> SUM(Odds!J:J)</f>
-        <v>5554.9174000000003</v>
+        <v>5909.9174000000003</v>
       </c>
       <c r="B2">
         <f xml:space="preserve"> SUM(Odds!I:I)</f>
-        <v>6106.1900000000005</v>
+        <v>6466.8099999999995</v>
       </c>
       <c r="C2">
         <f>A2 - B2</f>
-        <v>-551.27260000000024</v>
+        <v>-556.89259999999922</v>
       </c>
       <c r="D2">
         <f>ROUND(100 * (C2 / B2), 2)</f>
-        <v>-9.0299999999999994</v>
+        <v>-8.61</v>
       </c>
     </row>
   </sheetData>

--- a/inst/data/Betting.xlsx
+++ b/inst/data/Betting.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25318"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA06A6CB-520D-46D4-9AEE-CA002DC84FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F67F1DF2-4748-4A87-8553-121EA3CAB21B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="Overblik" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Odds!$A$1:$K$139</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Odds!$A$1:$K$149</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="208">
   <si>
     <t>BetDay</t>
   </si>
@@ -69,6 +69,63 @@
     <t>Premier League</t>
   </si>
   <si>
+    <t>Oddset</t>
+  </si>
+  <si>
+    <t>Double ID 9</t>
+  </si>
+  <si>
+    <t>Double</t>
+  </si>
+  <si>
+    <t>Liverpool - Wolverhampton</t>
+  </si>
+  <si>
+    <t>Double ID 9: '1</t>
+  </si>
+  <si>
+    <t>Kampvinder</t>
+  </si>
+  <si>
+    <t>Manchester C - Aston Villa</t>
+  </si>
+  <si>
+    <t>Double ID 9: Dobbeltchance Manchester C eller Uafgjort</t>
+  </si>
+  <si>
+    <t>Dobbeltchance</t>
+  </si>
+  <si>
+    <t>Leicester - Southampton</t>
+  </si>
+  <si>
+    <t>6-ling ID 8: Dobbeltchance Leicester eller Uafgjort</t>
+  </si>
+  <si>
+    <t>6-ling ID 8: '1</t>
+  </si>
+  <si>
+    <t>Chelsea - Watford</t>
+  </si>
+  <si>
+    <t>Brighton - West Ham</t>
+  </si>
+  <si>
+    <t>6-ling ID 8: Dobbeltchance Uafgjort eller West Ham</t>
+  </si>
+  <si>
+    <t>Norwich - Tottenham</t>
+  </si>
+  <si>
+    <t>6-ling ID 8: Dobbeltchance Uafgjort eller Tottenham</t>
+  </si>
+  <si>
+    <t>6-ling ID 8</t>
+  </si>
+  <si>
+    <t>6-ling</t>
+  </si>
+  <si>
     <t>Southampton - Liverpool</t>
   </si>
   <si>
@@ -84,12 +141,6 @@
     <t>Dobbeltchance Uafgjort eller Liverpool</t>
   </si>
   <si>
-    <t>Dobbeltchance</t>
-  </si>
-  <si>
-    <t>Oddset</t>
-  </si>
-  <si>
     <t>Mål i 1. halvleg O/U 1,5 Under</t>
   </si>
   <si>
@@ -144,9 +195,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>Kampvinder</t>
-  </si>
-  <si>
     <t>Hvem får flest hjørnespark: Liverpool</t>
   </si>
   <si>
@@ -364,9 +412,6 @@
   </si>
   <si>
     <t>Double ID 3</t>
-  </si>
-  <si>
-    <t>Double</t>
   </si>
   <si>
     <t>Nottingham F - Liverpool</t>
@@ -980,11 +1025,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K139"/>
+  <dimension ref="A1:K149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1035,69 +1080,66 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>44698</v>
+        <v>44702</v>
       </c>
       <c r="B2" s="1">
-        <v>44698</v>
+        <v>44703</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
       <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2">
+        <v>1.17</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>246.38</v>
+      </c>
+      <c r="J2">
+        <v>289</v>
+      </c>
+      <c r="K2" t="s">
         <v>14</v>
-      </c>
-      <c r="G2">
-        <v>1.37</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>100</v>
-      </c>
-      <c r="J2">
-        <v>137</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>44698</v>
+        <v>44702</v>
       </c>
       <c r="B3" s="1">
-        <v>44698</v>
+        <v>44703</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G3">
-        <v>1.1299999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>50.01</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>56.5</v>
+        <v>0</v>
       </c>
       <c r="K3" t="s">
         <v>17</v>
@@ -1105,104 +1147,104 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>44698</v>
+        <v>44702</v>
       </c>
       <c r="B4" s="1">
-        <v>44698</v>
+        <v>44703</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
       </c>
       <c r="G4">
-        <v>1.57</v>
+        <v>1.02</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>19.75</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>44698</v>
+        <v>44702</v>
       </c>
       <c r="B5" s="1">
-        <v>44698</v>
+        <v>44703</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5">
+        <v>1.25</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
         <v>20</v>
-      </c>
-      <c r="G5">
-        <v>1.35</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>50.38</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>44695</v>
+        <v>44702</v>
       </c>
       <c r="B6" s="1">
-        <v>44696</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
+        <v>44703</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
       <c r="G6">
-        <v>1.32</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>20.079999999999998</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>26.5</v>
+        <v>0</v>
       </c>
       <c r="K6" t="s">
         <v>17</v>
@@ -1210,10 +1252,10 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>44692</v>
+        <v>44702</v>
       </c>
       <c r="B7" s="1">
-        <v>44692</v>
+        <v>44703</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
@@ -1222,22 +1264,22 @@
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
+        <v>12</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="G7">
-        <v>1.04</v>
+        <v>1.17</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="K7" t="s">
         <v>17</v>
@@ -1245,60 +1287,63 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>44692</v>
+        <v>44702</v>
       </c>
       <c r="B8" s="1">
-        <v>44692</v>
+        <v>44703</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
       <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="G8">
-        <v>1.52</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>20.399999999999999</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
-        <v>44692</v>
+        <v>44702</v>
       </c>
       <c r="B9" s="1">
-        <v>44692</v>
+        <v>44703</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G9">
-        <v>1.04</v>
+        <v>1.6</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1307,30 +1352,30 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>44692</v>
+        <v>44702</v>
       </c>
       <c r="B10" s="1">
-        <v>44692</v>
+        <v>44703</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G10">
-        <v>1.1499999999999999</v>
+        <v>1.04</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1342,1112 +1387,1106 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
-        <v>44692</v>
+        <v>44702</v>
       </c>
       <c r="B11" s="1">
-        <v>44692</v>
+        <v>44703</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D11" t="s">
-        <v>31</v>
-      </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G11">
-        <v>1.08</v>
+        <v>3.24</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>20.03</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1">
-        <v>44692</v>
+        <v>44698</v>
       </c>
       <c r="B12" s="1">
-        <v>44692</v>
+        <v>44698</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
         <v>33</v>
       </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="G12">
+        <v>1.37</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>100</v>
+      </c>
+      <c r="J12">
+        <v>137</v>
+      </c>
+      <c r="K12" t="s">
         <v>34</v>
-      </c>
-      <c r="G12">
-        <v>1.18</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1">
-        <v>44691</v>
+        <v>44698</v>
       </c>
       <c r="B13" s="1">
-        <v>44691</v>
+        <v>44698</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s">
         <v>35</v>
       </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="G13">
-        <v>1.52</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>9.8699999999999992</v>
+        <v>50.01</v>
       </c>
       <c r="J13">
-        <v>15</v>
+        <v>56.5</v>
       </c>
       <c r="K13" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1">
-        <v>44691</v>
+        <v>44698</v>
       </c>
       <c r="B14" s="1">
-        <v>44691</v>
+        <v>44698</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G14">
-        <v>1.1599999999999999</v>
+        <v>1.57</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>49.57</v>
+        <v>19.75</v>
       </c>
       <c r="J14">
-        <v>57.5</v>
+        <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1">
-        <v>44691</v>
+        <v>44698</v>
       </c>
       <c r="B15" s="1">
-        <v>44691</v>
+        <v>44698</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="G15">
-        <v>1.1299999999999999</v>
+        <v>1.35</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>49.6</v>
+        <v>50.38</v>
       </c>
       <c r="J15">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
-        <v>44689</v>
+        <v>44695</v>
       </c>
       <c r="B16" s="1">
-        <v>44689</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>11</v>
+        <v>44696</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
       </c>
       <c r="D16" t="s">
         <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G16">
-        <v>1.02</v>
+        <v>1.32</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>20.079999999999998</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>26.5</v>
       </c>
       <c r="K16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
-        <v>44689</v>
+        <v>44692</v>
       </c>
       <c r="B17" s="1">
-        <v>44689</v>
+        <v>44692</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
         <v>42</v>
       </c>
-      <c r="E17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" t="s">
-        <v>43</v>
-      </c>
       <c r="G17">
-        <v>1.1100000000000001</v>
+        <v>1.04</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="K17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1">
-        <v>44689</v>
+        <v>44692</v>
       </c>
       <c r="B18" s="1">
-        <v>44689</v>
+        <v>44692</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18">
+        <v>1.52</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="J18">
+        <v>31</v>
+      </c>
+      <c r="K18" t="s">
         <v>44</v>
-      </c>
-      <c r="E18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18">
-        <v>1.22</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1">
-        <v>44689</v>
+        <v>44692</v>
       </c>
       <c r="B19" s="1">
-        <v>44689</v>
+        <v>44692</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G19">
-        <v>1.38</v>
+        <v>1.04</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1">
-        <v>44688</v>
+        <v>44692</v>
       </c>
       <c r="B20" s="1">
-        <v>44689</v>
+        <v>44692</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G20">
-        <v>1.1100000000000001</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1">
-        <v>44688</v>
+        <v>44692</v>
       </c>
       <c r="B21" s="1">
-        <v>44688</v>
+        <v>44692</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
         <v>49</v>
       </c>
-      <c r="E21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="G21">
-        <v>5.4</v>
+        <v>1.08</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1">
-        <v>44688</v>
+        <v>44692</v>
       </c>
       <c r="B22" s="1">
-        <v>44688</v>
+        <v>44692</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G22">
-        <v>1.1399999999999999</v>
+        <v>1.18</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1">
-        <v>44656</v>
+        <v>44691</v>
       </c>
       <c r="B23" s="1">
-        <v>44688</v>
+        <v>44691</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>53</v>
       </c>
       <c r="G23">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>9.8699999999999992</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K23" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1">
-        <v>44684</v>
+        <v>44691</v>
       </c>
       <c r="B24" s="1">
-        <v>44684</v>
-      </c>
-      <c r="C24" t="s">
+        <v>44691</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
         <v>54</v>
       </c>
-      <c r="D24" t="s">
+      <c r="G24">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>49.57</v>
+      </c>
+      <c r="J24">
+        <v>57.5</v>
+      </c>
+      <c r="K24" t="s">
         <v>55</v>
-      </c>
-      <c r="E24" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24">
-        <v>1.22</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>35.25</v>
-      </c>
-      <c r="J24">
-        <v>43</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1">
-        <v>44684</v>
+        <v>44691</v>
       </c>
       <c r="B25" s="1">
-        <v>44684</v>
-      </c>
-      <c r="C25" t="s">
-        <v>54</v>
+        <v>44691</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>49.6</v>
+      </c>
+      <c r="J25">
         <v>56</v>
       </c>
-      <c r="G25">
-        <v>1.06</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>100</v>
-      </c>
-      <c r="J25">
-        <v>106</v>
-      </c>
       <c r="K25" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1">
-        <v>44684</v>
+        <v>44689</v>
       </c>
       <c r="B26" s="1">
-        <v>44684</v>
-      </c>
-      <c r="C26" t="s">
-        <v>54</v>
+        <v>44689</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
         <v>57</v>
       </c>
       <c r="G26">
-        <v>1.1499999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>65.22</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1">
-        <v>44683</v>
+        <v>44689</v>
       </c>
       <c r="B27" s="1">
-        <v>44683</v>
+        <v>44689</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" t="s">
         <v>59</v>
       </c>
-      <c r="E27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" t="s">
-        <v>60</v>
-      </c>
       <c r="G27">
-        <v>2.15</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
-      <c r="K27" s="5" t="s">
-        <v>17</v>
+      <c r="K27" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1">
-        <v>44566</v>
+        <v>44689</v>
       </c>
       <c r="B28" s="1">
-        <v>44566</v>
+        <v>44689</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" t="s">
         <v>61</v>
       </c>
-      <c r="E28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" t="s">
-        <v>62</v>
-      </c>
       <c r="G28">
-        <v>2.1</v>
+        <v>1.22</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>10.5</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="K28" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1">
-        <v>44681</v>
+        <v>44689</v>
       </c>
       <c r="B29" s="1">
-        <v>44681</v>
+        <v>44689</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29">
+        <v>1.38</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>50</v>
+      </c>
+      <c r="J29">
+        <v>69</v>
+      </c>
+      <c r="K29" t="s">
         <v>63</v>
-      </c>
-      <c r="E29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G29">
-        <v>1.3</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <v>28</v>
-      </c>
-      <c r="J29">
-        <v>36</v>
-      </c>
-      <c r="K29" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1">
-        <v>44681</v>
+        <v>44688</v>
       </c>
       <c r="B30" s="1">
-        <v>44681</v>
+        <v>44689</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E30" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
         <v>64</v>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="J30">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="K30" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1">
-        <v>44681</v>
+        <v>44688</v>
       </c>
       <c r="B31" s="1">
-        <v>44681</v>
+        <v>44688</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D31" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="G31">
-        <v>1.1599999999999999</v>
+        <v>5.4</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>28.65</v>
+        <v>5</v>
       </c>
       <c r="J31">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1">
-        <v>44681</v>
+        <v>44688</v>
       </c>
       <c r="B32" s="1">
-        <v>44681</v>
+        <v>44688</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E32" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G32">
-        <v>3.9</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="K32" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1">
-        <v>44681</v>
+        <v>44656</v>
       </c>
       <c r="B33" s="1">
-        <v>44681</v>
+        <v>44688</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>69</v>
       </c>
       <c r="G33">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1">
-        <v>44681</v>
+        <v>44684</v>
       </c>
       <c r="B34" s="1">
-        <v>44681</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>11</v>
+        <v>44684</v>
+      </c>
+      <c r="C34" t="s">
+        <v>70</v>
       </c>
       <c r="D34" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G34">
-        <v>1.45</v>
+        <v>1.22</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>10</v>
+        <v>35.25</v>
       </c>
       <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34" t="s">
-        <v>15</v>
+        <v>43</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1">
-        <v>44681</v>
+        <v>44684</v>
       </c>
       <c r="B35" s="1">
-        <v>44681</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>11</v>
+        <v>44684</v>
+      </c>
+      <c r="C35" t="s">
+        <v>70</v>
       </c>
       <c r="D35" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G35">
-        <v>2.4</v>
+        <v>1.06</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J35">
-        <v>3.15</v>
+        <v>106</v>
       </c>
       <c r="K35" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1">
-        <v>44681</v>
+        <v>44684</v>
       </c>
       <c r="B36" s="1">
-        <v>44681</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>11</v>
+        <v>44684</v>
+      </c>
+      <c r="C36" t="s">
+        <v>70</v>
       </c>
       <c r="D36" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E36" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G36">
-        <v>1.23</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
       <c r="I36">
-        <v>20</v>
+        <v>65.22</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1">
-        <v>44679</v>
+        <v>44683</v>
       </c>
       <c r="B37" s="1">
-        <v>44679</v>
+        <v>44683</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>36</v>
+        <v>12</v>
+      </c>
+      <c r="F37" t="s">
+        <v>76</v>
       </c>
       <c r="G37">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>95.5</v>
+        <v>5</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
-      <c r="K37" t="s">
-        <v>37</v>
+      <c r="K37" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1">
-        <v>44679</v>
+        <v>44566</v>
       </c>
       <c r="B38" s="1">
-        <v>44679</v>
+        <v>44566</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G38">
-        <v>5.2</v>
+        <v>2.1</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <v>5</v>
       </c>
       <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38" t="s">
-        <v>68</v>
+        <v>10.5</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1">
-        <v>44679</v>
+        <v>44681</v>
       </c>
       <c r="B39" s="1">
-        <v>44679</v>
+        <v>44681</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E39" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39" t="s">
-        <v>75</v>
+        <v>12</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="G39">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="J39">
-        <v>66</v>
-      </c>
-      <c r="K39" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K39" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1">
-        <v>44679</v>
+        <v>44681</v>
       </c>
       <c r="B40" s="1">
-        <v>44679</v>
+        <v>44681</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E40" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G40">
-        <v>1.19</v>
+        <v>3</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
       <c r="I40">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="J40">
-        <v>29.5</v>
+        <v>15</v>
       </c>
       <c r="K40" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1">
-        <v>44678</v>
+        <v>44681</v>
       </c>
       <c r="B41" s="1">
-        <v>44678</v>
-      </c>
-      <c r="C41" t="s">
-        <v>54</v>
+        <v>44681</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E41" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" t="s">
-        <v>57</v>
+        <v>32</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="G41">
-        <v>1.1299999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41">
-        <v>93</v>
+        <v>28.65</v>
       </c>
       <c r="J41">
-        <v>105</v>
+        <v>33</v>
       </c>
       <c r="K41" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="1">
-        <v>44678</v>
+        <v>44681</v>
       </c>
       <c r="B42" s="1">
-        <v>44678</v>
-      </c>
-      <c r="C42" t="s">
-        <v>54</v>
+        <v>44681</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E42" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F42" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G42">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -2459,65 +2498,65 @@
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1">
-        <v>44678</v>
+        <v>44681</v>
       </c>
       <c r="B43" s="1">
-        <v>44678</v>
-      </c>
-      <c r="C43" t="s">
-        <v>54</v>
+        <v>44681</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E43" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F43" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G43">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J43">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="K43" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1">
-        <v>44678</v>
+        <v>44681</v>
       </c>
       <c r="B44" s="1">
-        <v>44678</v>
-      </c>
-      <c r="C44" t="s">
-        <v>54</v>
+        <v>44681</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E44" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F44" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G44">
-        <v>2.15</v>
+        <v>1.45</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -2529,696 +2568,696 @@
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1">
-        <v>44678</v>
+        <v>44681</v>
       </c>
       <c r="B45" s="1">
-        <v>44678</v>
-      </c>
-      <c r="C45" t="s">
-        <v>54</v>
+        <v>44681</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E45" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F45" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G45">
-        <v>1.32</v>
+        <v>2.4</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="J45">
-        <v>132</v>
+        <v>3.15</v>
       </c>
       <c r="K45" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1">
-        <v>44677</v>
+        <v>44681</v>
       </c>
       <c r="B46" s="1">
-        <v>44677</v>
-      </c>
-      <c r="C46" t="s">
-        <v>54</v>
+        <v>44681</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G46">
-        <v>1.58</v>
+        <v>1.23</v>
       </c>
       <c r="H46">
         <v>0</v>
       </c>
       <c r="I46">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="J46">
         <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1">
-        <v>44676</v>
+        <v>44679</v>
       </c>
       <c r="B47" s="1">
-        <v>44676</v>
+        <v>44679</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D47" t="s">
+        <v>89</v>
+      </c>
       <c r="E47" t="s">
-        <v>18</v>
-      </c>
-      <c r="F47" t="s">
-        <v>85</v>
+        <v>32</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="G47">
-        <v>7.23</v>
+        <v>2</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>10</v>
+        <v>95.5</v>
       </c>
       <c r="J47">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1">
-        <v>44674</v>
+        <v>44679</v>
       </c>
       <c r="B48" s="1">
-        <v>44674</v>
+        <v>44679</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D48" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E48" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F48" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G48">
-        <v>2.8</v>
+        <v>5.2</v>
       </c>
       <c r="H48">
         <v>0</v>
       </c>
       <c r="I48">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="1">
-        <v>44674</v>
+        <v>44679</v>
       </c>
       <c r="B49" s="1">
-        <v>44674</v>
+        <v>44679</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D49" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E49" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G49">
-        <v>2.0499999999999998</v>
+        <v>1.32</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49" t="s">
-        <v>15</v>
+        <v>66</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="1">
-        <v>44674</v>
+        <v>44679</v>
       </c>
       <c r="B50" s="1">
-        <v>44674</v>
+        <v>44679</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D50" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E50" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G50">
-        <v>1.32</v>
+        <v>1.19</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>29.5</v>
       </c>
       <c r="K50" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="1">
-        <v>44672</v>
+        <v>44678</v>
       </c>
       <c r="B51" s="1">
-        <v>44672</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>11</v>
+        <v>44678</v>
+      </c>
+      <c r="C51" t="s">
+        <v>70</v>
       </c>
       <c r="D51" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E51" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F51" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="G51">
-        <v>3.3</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="K51" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="1">
-        <v>44671</v>
+        <v>44678</v>
       </c>
       <c r="B52" s="1">
-        <v>44675</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>11</v>
+        <v>44678</v>
+      </c>
+      <c r="C52" t="s">
+        <v>70</v>
       </c>
       <c r="D52" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E52" t="s">
-        <v>18</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>53</v>
+        <v>32</v>
+      </c>
+      <c r="F52" t="s">
+        <v>94</v>
       </c>
       <c r="G52">
-        <v>1.2</v>
+        <v>4.5</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="J52">
-        <f>G52 * I52</f>
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="K52" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="1">
-        <v>44671</v>
+        <v>44678</v>
       </c>
       <c r="B53" s="1">
-        <v>44671</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>11</v>
+        <v>44678</v>
+      </c>
+      <c r="C53" t="s">
+        <v>70</v>
       </c>
       <c r="D53" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E53" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F53" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G53">
-        <v>2.35</v>
+        <v>1.5</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="K53" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="1">
-        <v>44671</v>
+        <v>44678</v>
       </c>
       <c r="B54" s="1">
-        <v>44671</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>11</v>
+        <v>44678</v>
+      </c>
+      <c r="C54" t="s">
+        <v>70</v>
       </c>
       <c r="D54" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E54" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F54" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G54">
-        <v>1.92</v>
+        <v>2.15</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J54">
         <v>0</v>
       </c>
       <c r="K54" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="1">
-        <v>44671</v>
+        <v>44678</v>
       </c>
       <c r="B55" s="1">
-        <v>44671</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>95</v>
+        <v>44678</v>
+      </c>
+      <c r="C55" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55" t="s">
+        <v>93</v>
       </c>
       <c r="E55" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F55" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G55">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="K55" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="1">
-        <v>44671</v>
+        <v>44677</v>
       </c>
       <c r="B56" s="1">
-        <v>44671</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>11</v>
+        <v>44677</v>
+      </c>
+      <c r="C56" t="s">
+        <v>70</v>
       </c>
       <c r="D56" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E56" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F56" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G56">
-        <v>3.3</v>
+        <v>1.58</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J56">
         <v>0</v>
       </c>
       <c r="K56" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="1">
-        <v>44671</v>
+        <v>44676</v>
       </c>
       <c r="B57" s="1">
-        <v>44671</v>
+        <v>44676</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G57">
-        <v>2.375</v>
+        <v>7.23</v>
       </c>
       <c r="H57">
         <v>1</v>
       </c>
       <c r="I57">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J57">
-        <v>47.5</v>
+        <v>14</v>
       </c>
       <c r="K57" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="1">
-        <v>44670</v>
+        <v>44674</v>
       </c>
       <c r="B58" s="1">
-        <v>44670</v>
+        <v>44674</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D58" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E58" t="s">
-        <v>18</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>53</v>
+        <v>32</v>
+      </c>
+      <c r="F58" t="s">
+        <v>103</v>
       </c>
       <c r="G58">
-        <v>1.33</v>
+        <v>2.8</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="J58">
-        <f>G58 * I58</f>
-        <v>134.33000000000001</v>
+        <v>0</v>
       </c>
       <c r="K58" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="1">
-        <v>44670</v>
+        <v>44674</v>
       </c>
       <c r="B59" s="1">
-        <v>44670</v>
+        <v>44674</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D59" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E59" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G59">
-        <v>15</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59">
         <v>10</v>
       </c>
       <c r="J59">
-        <f>G59 * I59</f>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="K59" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="1">
-        <v>44670</v>
+        <v>44674</v>
       </c>
       <c r="B60" s="1">
-        <v>44670</v>
+        <v>44674</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D60" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E60" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G60">
-        <v>9.35</v>
+        <v>1.32</v>
       </c>
       <c r="H60">
         <v>0</v>
       </c>
       <c r="I60">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J60">
         <v>0</v>
       </c>
       <c r="K60" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="1">
-        <v>44667</v>
+        <v>44672</v>
       </c>
       <c r="B61" s="1">
-        <v>44667</v>
+        <v>44672</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G61">
-        <v>1.52</v>
+        <v>3.3</v>
       </c>
       <c r="H61">
         <v>0</v>
       </c>
       <c r="I61">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J61">
         <v>0</v>
       </c>
       <c r="K61" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="1">
-        <v>44664</v>
+        <v>44671</v>
       </c>
       <c r="B62" s="1">
-        <v>44664</v>
+        <v>44675</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D62" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E62" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" t="s">
-        <v>105</v>
+        <v>12</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="G62">
-        <v>2.85</v>
+        <v>1.2</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <f>G62 * I62</f>
+        <v>240</v>
       </c>
       <c r="K62" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="1">
-        <v>44664</v>
+        <v>44671</v>
       </c>
       <c r="B63" s="1">
-        <v>44664</v>
+        <v>44671</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D63" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E63" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="G63">
-        <v>1.38</v>
+        <v>2.35</v>
       </c>
       <c r="H63">
         <v>1</v>
       </c>
       <c r="I63">
-        <v>102.5</v>
+        <v>0</v>
       </c>
       <c r="J63">
-        <f>G63 * I63</f>
-        <v>141.44999999999999</v>
+        <v>0</v>
       </c>
       <c r="K63" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="1">
-        <v>44656</v>
+        <v>44671</v>
       </c>
       <c r="B64" s="1">
-        <v>44656</v>
+        <v>44671</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D64" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G64">
-        <v>1.25</v>
+        <v>1.92</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -3227,30 +3266,30 @@
         <v>0</v>
       </c>
       <c r="K64" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="1">
-        <v>44656</v>
+        <v>44671</v>
       </c>
       <c r="B65" s="1">
-        <v>44656</v>
+        <v>44671</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D65" t="s">
-        <v>108</v>
+        <v>11</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="E65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
         <v>109</v>
       </c>
       <c r="G65">
-        <v>1.4</v>
+        <v>1.23</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -3262,436 +3301,434 @@
         <v>0</v>
       </c>
       <c r="K65" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="1">
-        <v>44656</v>
+        <v>44671</v>
       </c>
       <c r="B66" s="1">
         <v>44671</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
+      </c>
+      <c r="D66" t="s">
+        <v>112</v>
       </c>
       <c r="E66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G66">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="H66">
         <v>1</v>
       </c>
       <c r="I66">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J66">
-        <f>G66 * I66</f>
-        <v>87.5</v>
+        <v>0</v>
       </c>
       <c r="K66" t="s">
-        <v>111</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="1">
-        <v>44640</v>
+        <v>44671</v>
       </c>
       <c r="B67" s="1">
-        <v>44640</v>
-      </c>
-      <c r="C67" t="s">
-        <v>22</v>
-      </c>
-      <c r="D67" t="s">
-        <v>112</v>
+        <v>44671</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>36</v>
+        <v>12</v>
+      </c>
+      <c r="F67" t="s">
+        <v>114</v>
       </c>
       <c r="G67">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="H67">
         <v>1</v>
       </c>
       <c r="I67">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J67">
-        <f>G67 * I67</f>
-        <v>65</v>
+        <v>47.5</v>
       </c>
       <c r="K67" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="1">
-        <v>44636</v>
+        <v>44670</v>
       </c>
       <c r="B68" s="1">
-        <v>44636</v>
-      </c>
-      <c r="C68" t="s">
+        <v>44670</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E68" t="s">
-        <v>13</v>
-      </c>
-      <c r="F68" t="s">
-        <v>71</v>
+        <v>12</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="G68">
-        <v>1.1000000000000001</v>
+        <v>1.33</v>
       </c>
       <c r="H68">
         <v>1</v>
       </c>
       <c r="I68">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="J68">
         <f>G68 * I68</f>
-        <v>26.400000000000002</v>
+        <v>134.33000000000001</v>
       </c>
       <c r="K68" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="1">
-        <v>44628</v>
+        <v>44670</v>
       </c>
       <c r="B69" s="1">
-        <v>44628</v>
-      </c>
-      <c r="C69" t="s">
-        <v>54</v>
+        <v>44670</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D69" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E69" t="s">
-        <v>18</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>53</v>
+        <v>12</v>
+      </c>
+      <c r="F69" t="s">
+        <v>116</v>
       </c>
       <c r="G69">
-        <v>1.62</v>
+        <v>15</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <f>G69 * I69</f>
+        <v>150</v>
       </c>
       <c r="K69" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="1">
-        <v>44625</v>
+        <v>44670</v>
       </c>
       <c r="B70" s="1">
-        <v>44625</v>
-      </c>
-      <c r="C70" t="s">
+        <v>44670</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D70" t="s">
         <v>115</v>
       </c>
       <c r="E70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G70">
-        <v>1.42</v>
+        <v>9.35</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
       <c r="I70">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="J70">
         <v>0</v>
       </c>
       <c r="K70" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="1">
-        <v>44625</v>
+        <v>44667</v>
       </c>
       <c r="B71" s="1">
-        <v>44625</v>
-      </c>
-      <c r="C71" t="s">
+        <v>44667</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D71" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E71" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F71" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G71">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J71">
-        <f>G71 * I71</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="K71" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="1">
-        <v>44619</v>
+        <v>44664</v>
       </c>
       <c r="B72" s="1">
-        <v>44619</v>
-      </c>
-      <c r="C72" t="s">
-        <v>118</v>
+        <v>44664</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="D72" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="E72" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F72" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G72">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J72">
-        <f>G72 * I72</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K72" t="s">
-        <v>120</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="1">
-        <v>44619</v>
+        <v>44664</v>
       </c>
       <c r="B73" s="1">
-        <v>44619</v>
-      </c>
-      <c r="C73" t="s">
-        <v>118</v>
+        <v>44664</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="D73" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="E73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="G73">
-        <v>3.75</v>
+        <v>1.38</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>10</v>
+        <v>102.5</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <f>G73 * I73</f>
+        <v>141.44999999999999</v>
       </c>
       <c r="K73" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="1">
-        <v>44619</v>
+        <v>44656</v>
       </c>
       <c r="B74" s="1">
-        <v>44619</v>
-      </c>
-      <c r="C74" t="s">
-        <v>118</v>
+        <v>44656</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="D74" t="s">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="E74" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F74" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G74">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
       <c r="I74">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J74">
-        <f>G74 * I74</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K74" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="1">
-        <v>44618</v>
+        <v>44656</v>
       </c>
       <c r="B75" s="1">
-        <v>44618</v>
-      </c>
-      <c r="C75" t="s">
-        <v>11</v>
+        <v>44656</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="D75" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E75" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F75" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G75">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
       <c r="K75" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="1">
-        <v>44613</v>
+        <v>44656</v>
       </c>
       <c r="B76" s="1">
-        <v>44613</v>
-      </c>
-      <c r="C76" t="s">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s">
-        <v>125</v>
+        <v>44671</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="E76" t="s">
-        <v>18</v>
-      </c>
-      <c r="F76" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F76" t="s">
         <v>126</v>
       </c>
       <c r="G76">
-        <v>1.42</v>
+        <v>1.75</v>
       </c>
       <c r="H76">
         <v>1</v>
       </c>
       <c r="I76">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="J76">
         <f>G76 * I76</f>
-        <v>127.8</v>
+        <v>87.5</v>
       </c>
       <c r="K76" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="1">
-        <v>44613</v>
+        <v>44640</v>
       </c>
       <c r="B77" s="1">
-        <v>44613</v>
+        <v>44640</v>
       </c>
       <c r="C77" t="s">
-        <v>11</v>
+        <v>39</v>
+      </c>
+      <c r="D77" t="s">
+        <v>127</v>
       </c>
       <c r="E77" t="s">
-        <v>18</v>
-      </c>
-      <c r="F77" t="s">
-        <v>127</v>
+        <v>32</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="G77">
-        <v>1238046</v>
+        <v>1.3</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <f>G77 * I77</f>
+        <v>65</v>
       </c>
       <c r="K77" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="1">
-        <v>44611</v>
+        <v>44636</v>
       </c>
       <c r="B78" s="1">
-        <v>44611</v>
+        <v>44636</v>
       </c>
       <c r="C78" t="s">
         <v>11</v>
@@ -3700,70 +3737,69 @@
         <v>128</v>
       </c>
       <c r="E78" t="s">
-        <v>18</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>53</v>
+        <v>32</v>
+      </c>
+      <c r="F78" t="s">
+        <v>87</v>
       </c>
       <c r="G78">
-        <v>1.1299999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H78">
         <v>1</v>
       </c>
       <c r="I78">
-        <v>95.5</v>
+        <v>24</v>
       </c>
       <c r="J78">
         <f>G78 * I78</f>
-        <v>107.91499999999999</v>
+        <v>26.400000000000002</v>
       </c>
       <c r="K78" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="1">
-        <v>44608</v>
+        <v>44628</v>
       </c>
       <c r="B79" s="1">
-        <v>44608</v>
+        <v>44628</v>
       </c>
       <c r="C79" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D79" t="s">
         <v>129</v>
       </c>
       <c r="E79" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="G79">
-        <v>2.25</v>
+        <v>1.62</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79">
-        <v>42.5</v>
+        <v>50</v>
       </c>
       <c r="J79">
-        <f>IF(H79 = 1, G79 * I79, 0)</f>
-        <v>95.625</v>
+        <v>0</v>
       </c>
       <c r="K79" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="1">
-        <v>44584</v>
+        <v>44625</v>
       </c>
       <c r="B80" s="1">
-        <v>44584</v>
+        <v>44625</v>
       </c>
       <c r="C80" t="s">
         <v>11</v>
@@ -3772,434 +3808,437 @@
         <v>130</v>
       </c>
       <c r="E80" t="s">
-        <v>18</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="F80" t="s">
+        <v>131</v>
       </c>
       <c r="G80">
-        <v>1.58</v>
+        <v>1.42</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>27.03</v>
+        <v>100</v>
       </c>
       <c r="J80">
-        <f>IF(H80 = 1, G80 * I80, 0)</f>
-        <v>42.707400000000007</v>
+        <v>0</v>
       </c>
       <c r="K80" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="1">
-        <v>44558</v>
+        <v>44625</v>
       </c>
       <c r="B81" s="1">
-        <v>44558</v>
+        <v>44625</v>
       </c>
       <c r="C81" t="s">
         <v>11</v>
       </c>
       <c r="D81" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E81" t="s">
-        <v>13</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>36</v>
+        <v>12</v>
+      </c>
+      <c r="F81" t="s">
+        <v>132</v>
       </c>
       <c r="G81">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81">
         <v>50</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <f>G81 * I81</f>
+        <v>70</v>
       </c>
       <c r="K81" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="1">
-        <v>44541</v>
+        <v>44619</v>
       </c>
       <c r="B82" s="1">
-        <v>44541</v>
+        <v>44619</v>
       </c>
       <c r="C82" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="D82" t="s">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="E82" t="s">
-        <v>13</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>126</v>
+        <v>32</v>
+      </c>
+      <c r="F82" t="s">
+        <v>134</v>
       </c>
       <c r="G82">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <f>G82 * I82</f>
+        <v>30</v>
       </c>
       <c r="K82" t="s">
-        <v>37</v>
+        <v>135</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="1">
-        <v>44534</v>
+        <v>44619</v>
       </c>
       <c r="B83" s="1">
-        <v>44534</v>
+        <v>44619</v>
       </c>
       <c r="C83" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="D83" t="s">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="E83" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F83" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="G83">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="H83">
         <v>0</v>
       </c>
       <c r="I83">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J83">
         <v>0</v>
       </c>
       <c r="K83" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="1">
-        <v>44531</v>
+        <v>44619</v>
       </c>
       <c r="B84" s="1">
-        <v>44531</v>
+        <v>44619</v>
       </c>
       <c r="C84" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="D84" t="s">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="E84" t="s">
-        <v>13</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="F84" t="s">
+        <v>137</v>
       </c>
       <c r="G84">
-        <v>1.37</v>
+        <v>1.2</v>
       </c>
       <c r="H84">
         <v>1</v>
       </c>
       <c r="I84">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J84">
         <f>G84 * I84</f>
-        <v>137</v>
+        <v>60</v>
       </c>
       <c r="K84" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="1">
-        <v>44493</v>
+        <v>44618</v>
       </c>
       <c r="B85" s="1">
-        <v>44493</v>
+        <v>44618</v>
       </c>
       <c r="C85" t="s">
         <v>11</v>
       </c>
       <c r="D85" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E85" t="s">
-        <v>18</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="F85" t="s">
+        <v>139</v>
       </c>
       <c r="G85">
-        <v>2.4500000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J85">
-        <f>G85 * I85</f>
-        <v>122.50000000000001</v>
+        <v>0</v>
       </c>
       <c r="K85" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="1">
-        <v>44471</v>
+        <v>44613</v>
       </c>
       <c r="B86" s="1">
-        <v>44471</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>11</v>
+        <v>44613</v>
+      </c>
+      <c r="C86" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s">
+        <v>140</v>
       </c>
       <c r="E86" t="s">
-        <v>13</v>
-      </c>
-      <c r="F86" t="s">
-        <v>136</v>
+        <v>12</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="G86">
-        <v>8.4700000000000006</v>
+        <v>1.42</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <f>G86 * I86</f>
+        <v>127.8</v>
       </c>
       <c r="K86" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="1">
-        <v>44471</v>
+        <v>44613</v>
       </c>
       <c r="B87" s="1">
-        <v>44471</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s">
-        <v>137</v>
+        <v>44613</v>
+      </c>
+      <c r="C87" t="s">
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G87">
-        <v>2.4500000000000002</v>
+        <v>1238046</v>
       </c>
       <c r="H87">
         <v>0</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87">
         <v>0</v>
       </c>
       <c r="K87" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="1">
-        <v>44471</v>
+        <v>44611</v>
       </c>
       <c r="B88" s="1">
-        <v>44471</v>
-      </c>
-      <c r="C88" s="2" t="s">
+        <v>44611</v>
+      </c>
+      <c r="C88" t="s">
         <v>11</v>
       </c>
       <c r="D88" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E88" t="s">
-        <v>13</v>
-      </c>
-      <c r="F88" t="s">
-        <v>138</v>
+        <v>12</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="G88">
-        <v>2.5499999999999998</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="H88">
         <v>1</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>95.5</v>
       </c>
       <c r="J88">
-        <v>0</v>
+        <f>G88 * I88</f>
+        <v>107.91499999999999</v>
       </c>
       <c r="K88" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="1">
-        <v>44471</v>
+        <v>44608</v>
       </c>
       <c r="B89" s="1">
-        <v>44471</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>11</v>
+        <v>44608</v>
+      </c>
+      <c r="C89" t="s">
+        <v>70</v>
       </c>
       <c r="D89" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>141</v>
+        <v>53</v>
       </c>
       <c r="G89">
-        <v>1.1499999999999999</v>
+        <v>2.25</v>
       </c>
       <c r="H89">
         <v>1</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>42.5</v>
       </c>
       <c r="J89">
-        <v>0</v>
+        <f>IF(H89 = 1, G89 * I89, 0)</f>
+        <v>95.625</v>
       </c>
       <c r="K89" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="1">
-        <v>44471</v>
+        <v>44584</v>
       </c>
       <c r="B90" s="1">
-        <v>44471</v>
-      </c>
-      <c r="C90" s="2" t="s">
+        <v>44584</v>
+      </c>
+      <c r="C90" t="s">
         <v>11</v>
       </c>
       <c r="D90" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E90" t="s">
-        <v>13</v>
-      </c>
-      <c r="F90" t="s">
-        <v>141</v>
+        <v>12</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="G90">
-        <v>1.18</v>
+        <v>1.58</v>
       </c>
       <c r="H90">
         <v>1</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>27.03</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <f>IF(H90 = 1, G90 * I90, 0)</f>
+        <v>42.707400000000007</v>
       </c>
       <c r="K90" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="1">
-        <v>44471</v>
+        <v>44558</v>
       </c>
       <c r="B91" s="1">
-        <v>44471</v>
-      </c>
-      <c r="C91" s="2" t="s">
+        <v>44558</v>
+      </c>
+      <c r="C91" t="s">
         <v>11</v>
       </c>
       <c r="D91" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E91" t="s">
-        <v>18</v>
-      </c>
-      <c r="F91" t="s">
-        <v>144</v>
+        <v>32</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="G91">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="J91">
-        <f>G91 * I91</f>
-        <v>37.700000000000003</v>
+        <v>0</v>
       </c>
       <c r="K91" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="1">
-        <v>44464</v>
+        <v>44541</v>
       </c>
       <c r="B92" s="1">
-        <v>44464</v>
-      </c>
-      <c r="C92" s="2" t="s">
+        <v>44541</v>
+      </c>
+      <c r="C92" t="s">
         <v>11</v>
       </c>
       <c r="D92" t="s">
-        <v>145</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>13</v>
+        <v>147</v>
+      </c>
+      <c r="E92" t="s">
+        <v>32</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>36</v>
+        <v>141</v>
       </c>
       <c r="G92">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -4211,556 +4250,553 @@
         <v>0</v>
       </c>
       <c r="K92" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="1">
-        <v>44464</v>
+        <v>44534</v>
       </c>
       <c r="B93" s="1">
-        <v>44464</v>
-      </c>
-      <c r="C93" s="2" t="s">
+        <v>44534</v>
+      </c>
+      <c r="C93" t="s">
         <v>11</v>
       </c>
       <c r="D93" t="s">
-        <v>146</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>13</v>
+        <v>148</v>
+      </c>
+      <c r="E93" t="s">
+        <v>32</v>
       </c>
       <c r="F93" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G93">
-        <v>1.62</v>
+        <v>3.2</v>
       </c>
       <c r="H93">
         <v>0</v>
       </c>
       <c r="I93">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
       </c>
       <c r="K93" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="1">
-        <v>44464</v>
+        <v>44531</v>
       </c>
       <c r="B94" s="1">
-        <v>44464</v>
-      </c>
-      <c r="C94" s="2" t="s">
+        <v>44531</v>
+      </c>
+      <c r="C94" t="s">
         <v>11</v>
       </c>
       <c r="D94" t="s">
-        <v>147</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F94" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="E94" t="s">
+        <v>32</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="G94">
-        <v>8.5</v>
+        <v>1.37</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J94">
-        <v>0</v>
+        <f>G94 * I94</f>
+        <v>137</v>
       </c>
       <c r="K94" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="1">
-        <v>44454</v>
+        <v>44493</v>
       </c>
       <c r="B95" s="1">
-        <v>44454</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>54</v>
+        <v>44493</v>
+      </c>
+      <c r="C95" t="s">
+        <v>11</v>
       </c>
       <c r="D95" t="s">
-        <v>149</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F95" t="s">
-        <v>116</v>
+        <v>150</v>
+      </c>
+      <c r="E95" t="s">
+        <v>12</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="G95">
-        <v>1.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95">
         <v>50</v>
       </c>
       <c r="J95">
-        <v>0</v>
+        <f>G95 * I95</f>
+        <v>122.50000000000001</v>
       </c>
       <c r="K95" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="1">
-        <v>44454</v>
+        <v>44471</v>
       </c>
       <c r="B96" s="1">
-        <v>44454</v>
+        <v>44471</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D96" t="s">
-        <v>149</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>53</v>
+        <v>11</v>
+      </c>
+      <c r="E96" t="s">
+        <v>32</v>
+      </c>
+      <c r="F96" t="s">
+        <v>151</v>
       </c>
       <c r="G96">
-        <v>1.43</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="J96">
-        <f>G96 * I96</f>
-        <v>48.62</v>
+        <v>0</v>
       </c>
       <c r="K96" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="1">
-        <v>44453</v>
+        <v>44471</v>
       </c>
       <c r="B97" s="1">
-        <v>44453</v>
+        <v>44471</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D97" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E97" t="s">
-        <v>18</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="F97" t="s">
+        <v>153</v>
       </c>
       <c r="G97">
-        <v>1.42</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="H97">
         <v>0</v>
       </c>
       <c r="I97">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J97">
         <v>0</v>
       </c>
       <c r="K97" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="1">
-        <v>44451</v>
+        <v>44471</v>
       </c>
       <c r="B98" s="1">
-        <v>44451</v>
+        <v>44471</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D98" t="s">
-        <v>151</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>13</v>
+        <v>154</v>
+      </c>
+      <c r="E98" t="s">
+        <v>32</v>
       </c>
       <c r="F98" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G98">
-        <v>1.35</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="H98">
         <v>1</v>
       </c>
       <c r="I98">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J98">
-        <f>G98 * I98</f>
-        <v>67.5</v>
+        <v>0</v>
       </c>
       <c r="K98" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="1">
-        <v>44450</v>
+        <v>44471</v>
       </c>
       <c r="B99" s="1">
-        <v>44450</v>
+        <v>44471</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D99" t="s">
-        <v>153</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F99" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="E99" t="s">
+        <v>32</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="G99">
-        <v>1.42</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J99">
         <v>0</v>
       </c>
       <c r="K99" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="1">
-        <v>44450</v>
+        <v>44471</v>
       </c>
       <c r="B100" s="1">
-        <v>44450</v>
+        <v>44471</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D100" t="s">
-        <v>153</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>13</v>
+        <v>157</v>
+      </c>
+      <c r="E100" t="s">
+        <v>32</v>
       </c>
       <c r="F100" t="s">
-        <v>71</v>
+        <v>156</v>
       </c>
       <c r="G100">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J100">
         <v>0</v>
       </c>
       <c r="K100" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="1">
-        <v>44450</v>
+        <v>44471</v>
       </c>
       <c r="B101" s="1">
-        <v>44450</v>
+        <v>44471</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D101" t="s">
-        <v>153</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>13</v>
+        <v>158</v>
+      </c>
+      <c r="E101" t="s">
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G101">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="J101">
-        <v>0</v>
+        <f>G101 * I101</f>
+        <v>37.700000000000003</v>
       </c>
       <c r="K101" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="1">
-        <v>44437</v>
+        <v>44464</v>
       </c>
       <c r="B102" s="1">
-        <v>44437</v>
+        <v>44464</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D102" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F102" t="s">
-        <v>157</v>
+        <v>32</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="G102">
-        <v>9.5</v>
+        <v>1.4</v>
       </c>
       <c r="H102">
         <v>0</v>
       </c>
       <c r="I102">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J102">
         <v>0</v>
       </c>
       <c r="K102" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="1">
-        <v>44436</v>
+        <v>44464</v>
       </c>
       <c r="B103" s="1">
-        <v>44436</v>
+        <v>44464</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D103" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F103" t="s">
-        <v>159</v>
+        <v>106</v>
       </c>
       <c r="G103">
-        <v>1.1200000000000001</v>
+        <v>1.62</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103">
-        <v>100</v>
-      </c>
-      <c r="J103">
-        <f>G103 * I103</f>
-        <v>112.00000000000001</v>
+        <v>10</v>
       </c>
       <c r="K103" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="1">
-        <v>44436</v>
+        <v>44464</v>
       </c>
       <c r="B104" s="1">
-        <v>44436</v>
+        <v>44464</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D104" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F104" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G104">
-        <v>1.42</v>
+        <v>8.5</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J104">
-        <f>G104 * I104</f>
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="K104" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="1">
-        <v>44375</v>
+        <v>44454</v>
       </c>
       <c r="B105" s="1">
-        <v>44375</v>
+        <v>44454</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>161</v>
+        <v>70</v>
       </c>
       <c r="D105" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>53</v>
+        <v>32</v>
+      </c>
+      <c r="F105" t="s">
+        <v>131</v>
       </c>
       <c r="G105">
-        <v>1.58</v>
+        <v>1.45</v>
       </c>
       <c r="H105">
         <v>0</v>
       </c>
       <c r="I105">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J105">
         <v>0</v>
       </c>
       <c r="K105" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="1">
-        <v>44374</v>
+        <v>44454</v>
       </c>
       <c r="B106" s="1">
-        <v>44374</v>
+        <v>44454</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>161</v>
+        <v>70</v>
       </c>
       <c r="D106" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F106" t="s">
-        <v>71</v>
+        <v>32</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="G106">
-        <v>1.82</v>
+        <v>1.43</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="J106">
-        <v>0</v>
+        <f>G106 * I106</f>
+        <v>48.62</v>
       </c>
       <c r="K106" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="1">
-        <v>44374</v>
+        <v>44453</v>
       </c>
       <c r="B107" s="1">
-        <v>44374</v>
+        <v>44453</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>161</v>
+        <v>70</v>
       </c>
       <c r="D107" t="s">
-        <v>163</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F107" t="s">
-        <v>90</v>
+        <v>165</v>
+      </c>
+      <c r="E107" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="G107">
-        <v>3.05</v>
+        <v>1.42</v>
       </c>
       <c r="H107">
         <v>0</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J107">
         <v>0</v>
       </c>
       <c r="K107" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="1">
-        <v>44374</v>
+        <v>44451</v>
       </c>
       <c r="B108" s="1">
-        <v>44374</v>
+        <v>44451</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="D108" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F108" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="G108">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -4769,998 +4805,995 @@
         <v>50</v>
       </c>
       <c r="J108">
-        <f t="shared" ref="J108:J110" si="0">G108 * I108</f>
-        <v>62</v>
+        <f>G108 * I108</f>
+        <v>67.5</v>
       </c>
       <c r="K108" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="1">
-        <v>44373</v>
+        <v>44450</v>
       </c>
       <c r="B109" s="1">
-        <v>44373</v>
+        <v>44450</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="D109" t="s">
-        <v>164</v>
-      </c>
-      <c r="E109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>36</v>
+        <v>168</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F109" t="s">
+        <v>169</v>
       </c>
       <c r="G109">
-        <v>1.92</v>
+        <v>1.42</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109">
         <v>100</v>
       </c>
       <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" s="1">
+        <v>44450</v>
+      </c>
+      <c r="B110" s="1">
+        <v>44450</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D110" t="s">
+        <v>168</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F110" t="s">
+        <v>87</v>
+      </c>
+      <c r="G110">
+        <v>1.28</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>50</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" s="1">
+        <v>44450</v>
+      </c>
+      <c r="B111" s="1">
+        <v>44450</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s">
+        <v>168</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F111" t="s">
+        <v>170</v>
+      </c>
+      <c r="G111">
+        <v>1.5</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>100</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" s="1">
+        <v>44437</v>
+      </c>
+      <c r="B112" s="1">
+        <v>44437</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s">
+        <v>171</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F112" t="s">
+        <v>172</v>
+      </c>
+      <c r="G112">
+        <v>9.5</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>10</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" s="1">
+        <v>44436</v>
+      </c>
+      <c r="B113" s="1">
+        <v>44436</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s">
+        <v>173</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F113" t="s">
+        <v>174</v>
+      </c>
+      <c r="G113">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113">
+        <v>100</v>
+      </c>
+      <c r="J113">
+        <f>G113 * I113</f>
+        <v>112.00000000000001</v>
+      </c>
+      <c r="K113" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" s="1">
+        <v>44436</v>
+      </c>
+      <c r="B114" s="1">
+        <v>44436</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s">
+        <v>173</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F114" t="s">
+        <v>175</v>
+      </c>
+      <c r="G114">
+        <v>1.42</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="I114">
+        <v>50</v>
+      </c>
+      <c r="J114">
+        <f>G114 * I114</f>
+        <v>71</v>
+      </c>
+      <c r="K114" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" s="1">
+        <v>44375</v>
+      </c>
+      <c r="B115" s="1">
+        <v>44375</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D115" t="s">
+        <v>177</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G115">
+        <v>1.58</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>100</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B116" s="1">
+        <v>44374</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D116" t="s">
+        <v>178</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F116" t="s">
+        <v>87</v>
+      </c>
+      <c r="G116">
+        <v>1.82</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>50</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B117" s="1">
+        <v>44374</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D117" t="s">
+        <v>178</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F117" t="s">
+        <v>106</v>
+      </c>
+      <c r="G117">
+        <v>3.05</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B118" s="1">
+        <v>44374</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D118" t="s">
+        <v>178</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F118" t="s">
+        <v>159</v>
+      </c>
+      <c r="G118">
+        <v>1.24</v>
+      </c>
+      <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="I118">
+        <v>50</v>
+      </c>
+      <c r="J118">
+        <f t="shared" ref="J118:J120" si="0">G118 * I118</f>
+        <v>62</v>
+      </c>
+      <c r="K118" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" s="1">
+        <v>44373</v>
+      </c>
+      <c r="B119" s="1">
+        <v>44373</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D119" t="s">
+        <v>179</v>
+      </c>
+      <c r="E119" t="s">
+        <v>12</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G119">
+        <v>1.92</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119">
+        <v>100</v>
+      </c>
+      <c r="J119">
         <f t="shared" si="0"/>
         <v>192</v>
       </c>
-      <c r="K109" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
-      <c r="A110" s="1">
+      <c r="K119" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" s="1">
         <v>44368</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B120" s="1">
         <v>44368</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D110" t="s">
-        <v>165</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G110">
+      <c r="C120" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D120" t="s">
+        <v>180</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G120">
         <v>1.2</v>
       </c>
-      <c r="H110">
-        <v>1</v>
-      </c>
-      <c r="I110">
+      <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120">
         <v>200</v>
       </c>
-      <c r="J110">
+      <c r="J120">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="K110" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
-      <c r="A111" s="1">
+      <c r="K120" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" s="1">
         <v>44368</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B121" s="1">
         <v>44368</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D111" t="s">
-        <v>165</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F111" t="s">
-        <v>166</v>
-      </c>
-      <c r="G111">
+      <c r="C121" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D121" t="s">
+        <v>180</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F121" t="s">
+        <v>181</v>
+      </c>
+      <c r="G121">
         <v>1.42</v>
       </c>
-      <c r="H111">
-        <v>0</v>
-      </c>
-      <c r="I111">
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
         <v>100</v>
       </c>
-      <c r="J111">
-        <v>0</v>
-      </c>
-      <c r="K111" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
-      <c r="A112" s="1">
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" s="1">
         <v>44368</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B122" s="1">
         <v>44368</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D112" t="s">
-        <v>165</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F112" t="s">
-        <v>167</v>
-      </c>
-      <c r="G112">
+      <c r="C122" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D122" t="s">
+        <v>180</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F122" t="s">
+        <v>182</v>
+      </c>
+      <c r="G122">
         <v>1.1299999999999999</v>
       </c>
-      <c r="H112">
-        <v>1</v>
-      </c>
-      <c r="I112">
+      <c r="H122">
+        <v>1</v>
+      </c>
+      <c r="I122">
         <v>100</v>
       </c>
-      <c r="J112">
-        <f t="shared" ref="J112:J113" si="1">G112 * I112</f>
+      <c r="J122">
+        <f t="shared" ref="J122:J123" si="1">G122 * I122</f>
         <v>112.99999999999999</v>
       </c>
-      <c r="K112" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
-      <c r="A113" s="1">
+      <c r="K122" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" s="1">
         <v>44368</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B123" s="1">
         <v>44368</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D113" t="s">
-        <v>165</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F113" t="s">
-        <v>168</v>
-      </c>
-      <c r="G113">
+      <c r="C123" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D123" t="s">
+        <v>180</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F123" t="s">
+        <v>183</v>
+      </c>
+      <c r="G123">
         <v>1.25</v>
       </c>
-      <c r="H113">
-        <v>1</v>
-      </c>
-      <c r="I113">
+      <c r="H123">
+        <v>1</v>
+      </c>
+      <c r="I123">
         <v>100</v>
       </c>
-      <c r="J113">
+      <c r="J123">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="K113" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
-      <c r="A114" s="1">
+      <c r="K123" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" s="1">
         <v>44365</v>
       </c>
-      <c r="B114" s="1">
+      <c r="B124" s="1">
         <v>44365</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D114" t="s">
-        <v>169</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F114" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G114">
+      <c r="C124" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D124" t="s">
+        <v>184</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G124">
         <v>1.65</v>
       </c>
-      <c r="H114">
-        <v>0</v>
-      </c>
-      <c r="I114">
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
         <v>50</v>
       </c>
-      <c r="J114">
-        <v>0</v>
-      </c>
-      <c r="K114" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
-      <c r="A115" s="1">
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" s="1">
         <v>44365</v>
       </c>
-      <c r="B115" s="1">
+      <c r="B125" s="1">
         <v>44365</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D115" t="s">
-        <v>169</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F115" t="s">
+      <c r="C125" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D125" t="s">
+        <v>184</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F125" t="s">
+        <v>87</v>
+      </c>
+      <c r="G125">
+        <v>1.42</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="I125">
+        <v>50</v>
+      </c>
+      <c r="J125">
+        <f t="shared" ref="J125:J127" si="2">G125 * I125</f>
         <v>71</v>
       </c>
-      <c r="G115">
-        <v>1.42</v>
-      </c>
-      <c r="H115">
-        <v>1</v>
-      </c>
-      <c r="I115">
-        <v>50</v>
-      </c>
-      <c r="J115">
-        <f t="shared" ref="J115:J117" si="2">G115 * I115</f>
-        <v>71</v>
-      </c>
-      <c r="K115" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
-      <c r="A116" s="1">
+      <c r="K125" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" s="1">
         <v>44364</v>
       </c>
-      <c r="B116" s="1">
+      <c r="B126" s="1">
         <v>44364</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D116" t="s">
-        <v>170</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F116" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G116">
+      <c r="C126" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D126" t="s">
+        <v>185</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G126">
         <v>1.1599999999999999</v>
       </c>
-      <c r="H116">
-        <v>1</v>
-      </c>
-      <c r="I116">
+      <c r="H126">
+        <v>1</v>
+      </c>
+      <c r="I126">
         <v>100</v>
       </c>
-      <c r="J116">
+      <c r="J126">
         <f t="shared" si="2"/>
         <v>115.99999999999999</v>
       </c>
-      <c r="K116" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
-      <c r="A117" s="1">
+      <c r="K126" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" s="1">
         <v>44364</v>
       </c>
-      <c r="B117" s="1">
+      <c r="B127" s="1">
         <v>44364</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D117" t="s">
-        <v>171</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G117">
+      <c r="C127" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D127" t="s">
+        <v>186</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G127">
         <v>1.18</v>
       </c>
-      <c r="H117">
-        <v>1</v>
-      </c>
-      <c r="I117">
+      <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="I127">
         <v>100</v>
       </c>
-      <c r="J117">
+      <c r="J127">
         <f t="shared" si="2"/>
         <v>118</v>
       </c>
-      <c r="K117" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
-      <c r="A118" s="1">
+      <c r="K127" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128" s="1">
         <v>44363</v>
       </c>
-      <c r="B118" s="1">
+      <c r="B128" s="1">
         <v>44363</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D118" t="s">
-        <v>172</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F118" t="s">
-        <v>155</v>
-      </c>
-      <c r="G118">
+      <c r="C128" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D128" t="s">
+        <v>187</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F128" t="s">
+        <v>170</v>
+      </c>
+      <c r="G128">
         <v>1.4</v>
       </c>
-      <c r="H118">
-        <v>1</v>
-      </c>
-      <c r="I118">
+      <c r="H128">
+        <v>1</v>
+      </c>
+      <c r="I128">
         <v>100</v>
       </c>
-      <c r="J118">
-        <f t="shared" ref="J118:J119" si="3">G118 * I118</f>
+      <c r="J128">
+        <f t="shared" ref="J128:J129" si="3">G128 * I128</f>
         <v>140</v>
       </c>
-      <c r="K118" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
-      <c r="A119" s="1">
+      <c r="K128" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" s="1">
         <v>44363</v>
       </c>
-      <c r="B119" s="1">
+      <c r="B129" s="1">
         <v>44363</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D119" t="s">
-        <v>172</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G119">
+      <c r="C129" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D129" t="s">
+        <v>187</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G129">
         <v>1.22</v>
       </c>
-      <c r="H119">
-        <v>1</v>
-      </c>
-      <c r="I119">
+      <c r="H129">
+        <v>1</v>
+      </c>
+      <c r="I129">
         <v>100</v>
       </c>
-      <c r="J119">
+      <c r="J129">
         <f t="shared" si="3"/>
         <v>122</v>
       </c>
-      <c r="K119" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11">
-      <c r="A120" s="1">
+      <c r="K129" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="1">
         <v>44362</v>
       </c>
-      <c r="B120" s="1">
+      <c r="B130" s="1">
         <v>44362</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D120" t="s">
-        <v>173</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F120" t="s">
-        <v>71</v>
-      </c>
-      <c r="G120">
+      <c r="C130" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D130" t="s">
+        <v>188</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F130" t="s">
+        <v>87</v>
+      </c>
+      <c r="G130">
         <v>1.77</v>
       </c>
-      <c r="H120">
-        <v>0</v>
-      </c>
-      <c r="I120">
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
         <v>100</v>
       </c>
-      <c r="J120">
-        <v>0</v>
-      </c>
-      <c r="K120" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11">
-      <c r="A121" s="1">
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="1">
         <v>44361</v>
       </c>
-      <c r="B121" s="1">
+      <c r="B131" s="1">
         <v>44361</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D121" t="s">
-        <v>174</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F121" t="s">
-        <v>175</v>
-      </c>
-      <c r="G121">
+      <c r="C131" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D131" t="s">
+        <v>189</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F131" t="s">
+        <v>190</v>
+      </c>
+      <c r="G131">
         <v>1.27</v>
       </c>
-      <c r="H121">
-        <v>0</v>
-      </c>
-      <c r="I121">
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
         <v>100</v>
       </c>
-      <c r="J121">
-        <v>0</v>
-      </c>
-      <c r="K121" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11">
-      <c r="A122" s="1">
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" s="1">
         <v>44359</v>
       </c>
-      <c r="B122" s="1">
+      <c r="B132" s="1">
         <v>44359</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D122" t="s">
+      <c r="C132" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E122" t="s">
-        <v>18</v>
-      </c>
-      <c r="F122" t="s">
-        <v>90</v>
-      </c>
-      <c r="G122">
+      <c r="D132" t="s">
+        <v>191</v>
+      </c>
+      <c r="E132" t="s">
+        <v>12</v>
+      </c>
+      <c r="F132" t="s">
+        <v>106</v>
+      </c>
+      <c r="G132">
         <v>3.9</v>
       </c>
-      <c r="H122">
-        <v>0</v>
-      </c>
-      <c r="I122">
-        <v>0</v>
-      </c>
-      <c r="J122">
-        <f t="shared" ref="J121:J123" si="4">G122 * I122</f>
-        <v>0</v>
-      </c>
-      <c r="K122" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11">
-      <c r="A123" s="1">
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <f t="shared" ref="J131:J133" si="4">G132 * I132</f>
+        <v>0</v>
+      </c>
+      <c r="K132" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133" s="1">
         <v>44358</v>
       </c>
-      <c r="B123" s="1">
+      <c r="B133" s="1">
         <v>44358</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D123" t="s">
-        <v>177</v>
-      </c>
-      <c r="E123" t="s">
-        <v>13</v>
-      </c>
-      <c r="F123" t="s">
-        <v>178</v>
-      </c>
-      <c r="G123">
+      <c r="C133" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D133" t="s">
+        <v>192</v>
+      </c>
+      <c r="E133" t="s">
+        <v>32</v>
+      </c>
+      <c r="F133" t="s">
+        <v>193</v>
+      </c>
+      <c r="G133">
         <v>1.17</v>
       </c>
-      <c r="H123">
-        <v>1</v>
-      </c>
-      <c r="I123">
+      <c r="H133">
+        <v>1</v>
+      </c>
+      <c r="I133">
         <v>50</v>
       </c>
-      <c r="J123">
+      <c r="J133">
         <f t="shared" si="4"/>
         <v>58.5</v>
       </c>
-      <c r="K123" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11">
-      <c r="A124" s="1">
-        <v>44358</v>
-      </c>
-      <c r="B124" s="1">
-        <v>44358</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D124" t="s">
-        <v>177</v>
-      </c>
-      <c r="E124" t="s">
-        <v>13</v>
-      </c>
-      <c r="F124" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G124">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="H124">
-        <v>1</v>
-      </c>
-      <c r="I124">
-        <v>100</v>
-      </c>
-      <c r="J124">
-        <f>G124 * I124</f>
-        <v>109.00000000000001</v>
-      </c>
-      <c r="K124" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11">
-      <c r="A125" s="1">
-        <v>44339</v>
-      </c>
-      <c r="B125" s="1">
-        <v>44339</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D125" t="s">
-        <v>179</v>
-      </c>
-      <c r="E125" t="s">
-        <v>13</v>
-      </c>
-      <c r="F125" t="s">
-        <v>180</v>
-      </c>
-      <c r="G125">
-        <v>1.18</v>
-      </c>
-      <c r="H125">
-        <v>1</v>
-      </c>
-      <c r="I125">
-        <v>50</v>
-      </c>
-      <c r="J125">
-        <f>G125 * I125</f>
-        <v>59</v>
-      </c>
-      <c r="K125" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
-      <c r="A126" s="1">
-        <v>44339</v>
-      </c>
-      <c r="B126" s="1">
-        <v>44339</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s">
-        <v>179</v>
-      </c>
-      <c r="E126" t="s">
-        <v>13</v>
-      </c>
-      <c r="F126" t="s">
-        <v>80</v>
-      </c>
-      <c r="G126">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="H126">
-        <v>1</v>
-      </c>
-      <c r="I126">
-        <v>100</v>
-      </c>
-      <c r="J126">
-        <f>G126 * I126</f>
-        <v>114.99999999999999</v>
-      </c>
-      <c r="K126" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11">
-      <c r="A127" s="1">
-        <v>44335</v>
-      </c>
-      <c r="B127" s="1">
-        <v>44335</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D127" t="s">
-        <v>181</v>
-      </c>
-      <c r="E127" t="s">
-        <v>13</v>
-      </c>
-      <c r="F127" t="s">
-        <v>81</v>
-      </c>
-      <c r="G127">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H127">
-        <v>1</v>
-      </c>
-      <c r="I127">
-        <v>25</v>
-      </c>
-      <c r="J127">
-        <f>G127 * I127</f>
-        <v>55.000000000000007</v>
-      </c>
-      <c r="K127" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11">
-      <c r="A128" s="1">
-        <v>44332</v>
-      </c>
-      <c r="B128" s="1">
-        <v>44332</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D128" t="s">
-        <v>182</v>
-      </c>
-      <c r="E128" t="s">
-        <v>13</v>
-      </c>
-      <c r="F128" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G128">
-        <v>1.27</v>
-      </c>
-      <c r="H128">
-        <v>1</v>
-      </c>
-      <c r="I128">
-        <v>25</v>
-      </c>
-      <c r="J128">
-        <f>G128 * I128</f>
-        <v>31.75</v>
-      </c>
-      <c r="K128" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11">
-      <c r="A129" s="1">
-        <v>44329</v>
-      </c>
-      <c r="B129" s="1">
-        <v>44329</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s">
-        <v>135</v>
-      </c>
-      <c r="E129" t="s">
-        <v>18</v>
-      </c>
-      <c r="F129" t="s">
-        <v>183</v>
-      </c>
-      <c r="G129">
-        <v>1.6</v>
-      </c>
-      <c r="H129">
-        <v>1</v>
-      </c>
-      <c r="I129">
-        <v>10</v>
-      </c>
-      <c r="J129">
-        <f>G129 * I129</f>
-        <v>16</v>
-      </c>
-      <c r="K129" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11">
-      <c r="A130" s="1">
-        <v>44329</v>
-      </c>
-      <c r="B130" s="1">
-        <v>44329</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D130" t="s">
-        <v>135</v>
-      </c>
-      <c r="E130" t="s">
-        <v>18</v>
-      </c>
-      <c r="F130" t="s">
-        <v>90</v>
-      </c>
-      <c r="G130">
-        <v>3.65</v>
-      </c>
-      <c r="H130">
-        <v>0</v>
-      </c>
-      <c r="I130">
-        <v>10</v>
-      </c>
-      <c r="J130">
-        <v>0</v>
-      </c>
-      <c r="K130" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11">
-      <c r="A131" s="1">
-        <v>44305</v>
-      </c>
-      <c r="B131" s="1">
-        <v>44305</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D131" t="s">
-        <v>151</v>
-      </c>
-      <c r="E131" t="s">
-        <v>13</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G131">
-        <v>1.52</v>
-      </c>
-      <c r="H131">
-        <v>0</v>
-      </c>
-      <c r="I131">
-        <v>100</v>
-      </c>
-      <c r="J131">
-        <f>G131 * I131</f>
-        <v>152</v>
-      </c>
-      <c r="K131" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11">
-      <c r="A132" s="1">
-        <v>44292</v>
-      </c>
-      <c r="B132" s="1">
-        <v>44292</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D132" t="s">
-        <v>184</v>
-      </c>
-      <c r="E132" t="s">
-        <v>13</v>
-      </c>
-      <c r="F132" t="s">
-        <v>185</v>
-      </c>
-      <c r="G132">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H132">
-        <v>0</v>
-      </c>
-      <c r="I132">
-        <v>100</v>
-      </c>
-      <c r="J132">
-        <v>0</v>
-      </c>
-      <c r="K132" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11">
-      <c r="A133" s="1">
-        <v>44292</v>
-      </c>
-      <c r="B133" s="1">
-        <v>44292</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D133" t="s">
-        <v>184</v>
-      </c>
-      <c r="E133" t="s">
-        <v>18</v>
-      </c>
-      <c r="F133" t="s">
-        <v>71</v>
-      </c>
-      <c r="G133">
-        <v>2.15</v>
-      </c>
-      <c r="H133">
-        <v>0</v>
-      </c>
-      <c r="I133">
-        <v>50</v>
-      </c>
-      <c r="J133">
-        <v>0</v>
-      </c>
       <c r="K133" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="134" spans="1:11">
       <c r="A134" s="1">
-        <v>44292</v>
+        <v>44358</v>
       </c>
       <c r="B134" s="1">
-        <v>44292</v>
+        <v>44358</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>54</v>
+        <v>176</v>
       </c>
       <c r="D134" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E134" t="s">
-        <v>18</v>
-      </c>
-      <c r="F134" t="s">
-        <v>144</v>
+        <v>32</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="G134">
-        <v>1.33</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="H134">
         <v>1</v>
       </c>
       <c r="I134">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="J134">
         <f>G134 * I134</f>
-        <v>59.85</v>
+        <v>109.00000000000001</v>
       </c>
       <c r="K134" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="135" spans="1:11">
       <c r="A135" s="1">
-        <v>44290</v>
+        <v>44339</v>
       </c>
       <c r="B135" s="1">
-        <v>44290</v>
+        <v>44339</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D135" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="E135" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F135" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="G135">
-        <v>1.6</v>
+        <v>1.18</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J135">
-        <v>0</v>
+        <f>G135 * I135</f>
+        <v>59</v>
       </c>
       <c r="K135" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="136" spans="1:11">
       <c r="A136" s="1">
-        <v>44290</v>
+        <v>44339</v>
       </c>
       <c r="B136" s="1">
-        <v>44290</v>
+        <v>44339</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D136" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="E136" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F136" t="s">
-        <v>188</v>
+        <v>96</v>
       </c>
       <c r="G136">
-        <v>1.28</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H136">
         <v>1</v>
@@ -5770,117 +5803,473 @@
       </c>
       <c r="J136">
         <f>G136 * I136</f>
-        <v>128</v>
+        <v>114.99999999999999</v>
       </c>
       <c r="K136" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="137" spans="1:11">
       <c r="A137" s="1">
-        <v>44290</v>
+        <v>44335</v>
       </c>
       <c r="B137" s="1">
-        <v>44290</v>
+        <v>44335</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D137" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="E137" t="s">
-        <v>13</v>
-      </c>
-      <c r="F137" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="F137" t="s">
+        <v>97</v>
       </c>
       <c r="G137">
-        <v>1.97</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J137">
-        <v>14.62</v>
+        <f>G137 * I137</f>
+        <v>55.000000000000007</v>
       </c>
       <c r="K137" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="138" spans="1:11">
       <c r="A138" s="1">
-        <v>44289</v>
+        <v>44332</v>
       </c>
       <c r="B138" s="1">
-        <v>44289</v>
+        <v>44332</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D138" t="s">
-        <v>113</v>
+        <v>197</v>
       </c>
       <c r="E138" t="s">
-        <v>13</v>
-      </c>
-      <c r="F138" t="s">
-        <v>67</v>
+        <v>32</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="G138">
-        <v>4.8</v>
+        <v>1.27</v>
       </c>
       <c r="H138">
         <v>1</v>
       </c>
       <c r="I138">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J138">
         <f>G138 * I138</f>
-        <v>240</v>
+        <v>31.75</v>
       </c>
       <c r="K138" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
     </row>
     <row r="139" spans="1:11">
       <c r="A139" s="1">
-        <v>44289</v>
+        <v>44329</v>
       </c>
       <c r="B139" s="1">
-        <v>44289</v>
+        <v>44329</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D139" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="E139" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>71</v>
+        <v>198</v>
       </c>
       <c r="G139">
-        <v>2.2000000000000002</v>
+        <v>1.6</v>
       </c>
       <c r="H139">
         <v>1</v>
       </c>
       <c r="I139">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J139">
         <f>G139 * I139</f>
+        <v>16</v>
+      </c>
+      <c r="K139" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140" s="1">
+        <v>44329</v>
+      </c>
+      <c r="B140" s="1">
+        <v>44329</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s">
+        <v>150</v>
+      </c>
+      <c r="E140" t="s">
+        <v>12</v>
+      </c>
+      <c r="F140" t="s">
+        <v>106</v>
+      </c>
+      <c r="G140">
+        <v>3.65</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>10</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141" s="1">
+        <v>44305</v>
+      </c>
+      <c r="B141" s="1">
+        <v>44305</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D141" t="s">
+        <v>166</v>
+      </c>
+      <c r="E141" t="s">
+        <v>32</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G141">
+        <v>1.52</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>100</v>
+      </c>
+      <c r="J141">
+        <f>G141 * I141</f>
+        <v>152</v>
+      </c>
+      <c r="K141" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142" s="1">
+        <v>44292</v>
+      </c>
+      <c r="B142" s="1">
+        <v>44292</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D142" t="s">
+        <v>199</v>
+      </c>
+      <c r="E142" t="s">
+        <v>32</v>
+      </c>
+      <c r="F142" t="s">
+        <v>200</v>
+      </c>
+      <c r="G142">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>100</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143" s="1">
+        <v>44292</v>
+      </c>
+      <c r="B143" s="1">
+        <v>44292</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D143" t="s">
+        <v>199</v>
+      </c>
+      <c r="E143" t="s">
+        <v>12</v>
+      </c>
+      <c r="F143" t="s">
+        <v>87</v>
+      </c>
+      <c r="G143">
+        <v>2.15</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>50</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144" s="1">
+        <v>44292</v>
+      </c>
+      <c r="B144" s="1">
+        <v>44292</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D144" t="s">
+        <v>199</v>
+      </c>
+      <c r="E144" t="s">
+        <v>12</v>
+      </c>
+      <c r="F144" t="s">
+        <v>159</v>
+      </c>
+      <c r="G144">
+        <v>1.33</v>
+      </c>
+      <c r="H144">
+        <v>1</v>
+      </c>
+      <c r="I144">
+        <v>45</v>
+      </c>
+      <c r="J144">
+        <f>G144 * I144</f>
+        <v>59.85</v>
+      </c>
+      <c r="K144" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145" s="1">
+        <v>44290</v>
+      </c>
+      <c r="B145" s="1">
+        <v>44290</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D145" t="s">
+        <v>201</v>
+      </c>
+      <c r="E145" t="s">
+        <v>32</v>
+      </c>
+      <c r="F145" t="s">
+        <v>202</v>
+      </c>
+      <c r="G145">
+        <v>1.6</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>100</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146" s="1">
+        <v>44290</v>
+      </c>
+      <c r="B146" s="1">
+        <v>44290</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s">
+        <v>201</v>
+      </c>
+      <c r="E146" t="s">
+        <v>32</v>
+      </c>
+      <c r="F146" t="s">
+        <v>203</v>
+      </c>
+      <c r="G146">
+        <v>1.28</v>
+      </c>
+      <c r="H146">
+        <v>1</v>
+      </c>
+      <c r="I146">
+        <v>100</v>
+      </c>
+      <c r="J146">
+        <f>G146 * I146</f>
+        <v>128</v>
+      </c>
+      <c r="K146" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147" s="1">
+        <v>44290</v>
+      </c>
+      <c r="B147" s="1">
+        <v>44290</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D147" t="s">
+        <v>201</v>
+      </c>
+      <c r="E147" t="s">
+        <v>32</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G147">
+        <v>1.97</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>50</v>
+      </c>
+      <c r="J147">
+        <v>14.62</v>
+      </c>
+      <c r="K147" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148" s="1">
+        <v>44289</v>
+      </c>
+      <c r="B148" s="1">
+        <v>44289</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s">
+        <v>128</v>
+      </c>
+      <c r="E148" t="s">
+        <v>32</v>
+      </c>
+      <c r="F148" t="s">
+        <v>83</v>
+      </c>
+      <c r="G148">
+        <v>4.8</v>
+      </c>
+      <c r="H148">
+        <v>1</v>
+      </c>
+      <c r="I148">
+        <v>50</v>
+      </c>
+      <c r="J148">
+        <f>G148 * I148</f>
+        <v>240</v>
+      </c>
+      <c r="K148" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149" s="1">
+        <v>44289</v>
+      </c>
+      <c r="B149" s="1">
+        <v>44289</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s">
+        <v>128</v>
+      </c>
+      <c r="E149" t="s">
+        <v>32</v>
+      </c>
+      <c r="F149" t="s">
+        <v>87</v>
+      </c>
+      <c r="G149">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H149">
+        <v>1</v>
+      </c>
+      <c r="I149">
+        <v>50</v>
+      </c>
+      <c r="J149">
+        <f>G149 * I149</f>
         <v>110.00000000000001</v>
       </c>
-      <c r="K139" t="s">
-        <v>37</v>
+      <c r="K149" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -5905,34 +6294,34 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="B1" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C1" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="D1" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4">
         <f xml:space="preserve"> SUM(Odds!J:J)</f>
-        <v>5909.9174000000003</v>
+        <v>6198.9174000000003</v>
       </c>
       <c r="B2">
         <f xml:space="preserve"> SUM(Odds!I:I)</f>
-        <v>6466.8099999999995</v>
+        <v>6733.22</v>
       </c>
       <c r="C2">
         <f>A2 - B2</f>
-        <v>-556.89259999999922</v>
+        <v>-534.30259999999998</v>
       </c>
       <c r="D2">
         <f>ROUND(100 * (C2 / B2), 2)</f>
-        <v>-8.61</v>
+        <v>-7.94</v>
       </c>
     </row>
   </sheetData>

--- a/inst/data/Betting.xlsx
+++ b/inst/data/Betting.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25318"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F67F1DF2-4748-4A87-8553-121EA3CAB21B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09B81ACF-D7C2-41A6-B722-95588F77054C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Odds" sheetId="1" r:id="rId1"/>
-    <sheet name="Overblik" sheetId="2" r:id="rId2"/>
+    <sheet name="Om dataindsamling" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Odds!$A$1:$K$149</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Odds!$A$1:$K$1</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="227">
   <si>
     <t>BetDay</t>
   </si>
@@ -72,7 +72,7 @@
     <t>Oddset</t>
   </si>
   <si>
-    <t>Double ID 9</t>
+    <t>Double ID 9.</t>
   </si>
   <si>
     <t>Double</t>
@@ -81,7 +81,7 @@
     <t>Liverpool - Wolverhampton</t>
   </si>
   <si>
-    <t>Double ID 9: '1</t>
+    <t>Double ID 9. : '1</t>
   </si>
   <si>
     <t>Kampvinder</t>
@@ -90,7 +90,7 @@
     <t>Manchester C - Aston Villa</t>
   </si>
   <si>
-    <t>Double ID 9: Dobbeltchance Manchester C eller Uafgjort</t>
+    <t>Double ID 9. : Dobbeltchance Manchester C eller Uafgjort</t>
   </si>
   <si>
     <t>Dobbeltchance</t>
@@ -99,10 +99,10 @@
     <t>Leicester - Southampton</t>
   </si>
   <si>
-    <t>6-ling ID 8: Dobbeltchance Leicester eller Uafgjort</t>
-  </si>
-  <si>
-    <t>6-ling ID 8: '1</t>
+    <t>6-ling ID 8. : Dobbeltchance Leicester eller Uafgjort</t>
+  </si>
+  <si>
+    <t>6-ling ID 8. : '1</t>
   </si>
   <si>
     <t>Chelsea - Watford</t>
@@ -111,16 +111,16 @@
     <t>Brighton - West Ham</t>
   </si>
   <si>
-    <t>6-ling ID 8: Dobbeltchance Uafgjort eller West Ham</t>
+    <t>6-ling ID 8. : Dobbeltchance Uafgjort eller West Ham</t>
   </si>
   <si>
     <t>Norwich - Tottenham</t>
   </si>
   <si>
-    <t>6-ling ID 8: Dobbeltchance Uafgjort eller Tottenham</t>
-  </si>
-  <si>
-    <t>6-ling ID 8</t>
+    <t>6-ling ID 8. : Dobbeltchance Uafgjort eller Tottenham</t>
+  </si>
+  <si>
+    <t>6-ling ID 8.</t>
   </si>
   <si>
     <t>6-ling</t>
@@ -162,31 +162,31 @@
     <t>Dobbeltchance Uafgjort eller Manchester C</t>
   </si>
   <si>
-    <t>4-ling ID 7</t>
+    <t>4-ling ID 7.</t>
   </si>
   <si>
     <t>4-ling</t>
   </si>
   <si>
-    <t>4-ling ID 7: Dobbeltchance Uafgjort eller Manchester C</t>
+    <t>4-ling ID 7. : Dobbeltchance Uafgjort eller Manchester C</t>
   </si>
   <si>
     <t>Watford - Everton</t>
   </si>
   <si>
-    <t>4-ling ID 7: Dobbeltchance Uafgjort eller Everton</t>
+    <t>4-ling ID 7. : Dobbeltchance Uafgjort eller Everton</t>
   </si>
   <si>
     <t>Leicester - Norwich</t>
   </si>
   <si>
-    <t>4-ling ID 7: Dobbeltchance Leicester eller Uafgjort</t>
+    <t>4-ling ID 7. : Dobbeltchance Leicester eller Uafgjort</t>
   </si>
   <si>
     <t>Leeds - Chelsea</t>
   </si>
   <si>
-    <t>4-ling ID 7: Dobbeltchance Uafgjort eller Chelsea</t>
+    <t>4-ling ID 7. : Dobbeltchance Uafgjort eller Chelsea</t>
   </si>
   <si>
     <t>Aston Villa - Liverpool</t>
@@ -204,22 +204,22 @@
     <t>Manchester C - Newcastle</t>
   </si>
   <si>
-    <t>Trippel ID 6: Dobbeltchance Manchester C eller Uafgjort</t>
+    <t>Trippel ID 6. : Dobbeltchance Manchester C eller Uafgjort</t>
   </si>
   <si>
     <t>Arsenal - Leeds</t>
   </si>
   <si>
-    <t>Trippel ID 6: Dobbeltchance Arsenal eller Uafgjort</t>
+    <t>Trippel ID 6. : Dobbeltchance Arsenal eller Uafgjort</t>
   </si>
   <si>
     <t>Norwich - West Ham</t>
   </si>
   <si>
-    <t>Trippel ID 6: Dobbeltchance Uafgjort eller West Ham</t>
-  </si>
-  <si>
-    <t>Trippel ID 6</t>
+    <t>Trippel ID 6. : Dobbeltchance Uafgjort eller West Ham</t>
+  </si>
+  <si>
+    <t>Trippel ID 6.</t>
   </si>
   <si>
     <t>Trippel</t>
@@ -336,7 +336,7 @@
     <t>Hvilket hold scorer 3. mål: Manchester C</t>
   </si>
   <si>
-    <t>4-ling ID 5</t>
+    <t>4-ling ID 5.</t>
   </si>
   <si>
     <t>Arsenal - Manchester U</t>
@@ -360,7 +360,7 @@
     <t>Newcastle - Crystal P</t>
   </si>
   <si>
-    <t>Trippel ID 4: 1</t>
+    <t>Trippel ID 4. : 1</t>
   </si>
   <si>
     <t>Chelsea - Arsenal</t>
@@ -372,10 +372,10 @@
     <t>Everton - Leicester</t>
   </si>
   <si>
-    <t>Trippel ID 4: X</t>
-  </si>
-  <si>
-    <t>Trippel ID 4</t>
+    <t>Trippel ID 4. : X</t>
+  </si>
+  <si>
+    <t>Trippel ID 4.</t>
   </si>
   <si>
     <t>Liverpool - Manchester U</t>
@@ -402,16 +402,16 @@
     <t>Manchester C - Atletico Madrid</t>
   </si>
   <si>
-    <t>Double ID 3: 1</t>
+    <t>Double ID 3. : 1</t>
   </si>
   <si>
     <t>Benfica - Liverpool</t>
   </si>
   <si>
-    <t>Double ID 3: 2</t>
-  </si>
-  <si>
-    <t>Double ID 3</t>
+    <t>Double ID 3. : 2</t>
+  </si>
+  <si>
+    <t>Double ID 3.</t>
   </si>
   <si>
     <t>Nottingham F - Liverpool</t>
@@ -459,7 +459,61 @@
     <t>1 (Handicap 0 - 1)</t>
   </si>
   <si>
-    <t>13-ling ID 2</t>
+    <t>13-ling ID 2.</t>
+  </si>
+  <si>
+    <t>13-ling</t>
+  </si>
+  <si>
+    <t>Watford - Crystal P</t>
+  </si>
+  <si>
+    <t>13-ling ID 2. : 1</t>
+  </si>
+  <si>
+    <t>Brentford - Newcastle</t>
+  </si>
+  <si>
+    <t>13-ling ID 2. : X</t>
+  </si>
+  <si>
+    <t>13-ling ID 2. : Handicap (1-0) Manchester C</t>
+  </si>
+  <si>
+    <t>West Ham - Wolverhampton</t>
+  </si>
+  <si>
+    <t>Burnley - Leicester</t>
+  </si>
+  <si>
+    <t>Burnley - Tottenham</t>
+  </si>
+  <si>
+    <t>13-ling ID 2. : Handicap (0-1) Liverpool</t>
+  </si>
+  <si>
+    <t>Arsenal - Wolverhampton</t>
+  </si>
+  <si>
+    <t>13-ling ID 2. : 2</t>
+  </si>
+  <si>
+    <t>Southampton - Norwich</t>
+  </si>
+  <si>
+    <t>Leeds - Tottenham</t>
+  </si>
+  <si>
+    <t>Manchester U - Watford</t>
+  </si>
+  <si>
+    <t>13-ling ID 2. : Handicap (0-1) Manchester U</t>
+  </si>
+  <si>
+    <t>Crystal P - Burnley</t>
+  </si>
+  <si>
+    <t>Brighton - Aston Villa</t>
   </si>
   <si>
     <t>Liverpool - Norwich</t>
@@ -486,13 +540,13 @@
     <t>Manchester U - Liverpool</t>
   </si>
   <si>
-    <t>4-ling ID 1</t>
+    <t>4-ling ID 1.</t>
   </si>
   <si>
     <t>Wolverhampton - Newcastle</t>
   </si>
   <si>
-    <t>4-ling ID 1: X</t>
+    <t>4-ling ID 1. : X</t>
   </si>
   <si>
     <t>Burnley - Norwich</t>
@@ -501,7 +555,7 @@
     <t>Chelsea - Southampton</t>
   </si>
   <si>
-    <t>4-ling ID 1: 1</t>
+    <t>4-ling ID 1. : 1</t>
   </si>
   <si>
     <t>Leeds - Watford</t>
@@ -645,16 +699,19 @@
     <t>Pengene tilbage ved uafgjort: Manchester U</t>
   </si>
   <si>
-    <t>Total gevinst</t>
-  </si>
-  <si>
-    <t>Total indsats</t>
-  </si>
-  <si>
-    <t>Overskud</t>
-  </si>
-  <si>
-    <t>Afkast</t>
+    <t>Double, Tripler og x-lings:</t>
+  </si>
+  <si>
+    <t>Afsluttes med ID x.</t>
+  </si>
+  <si>
+    <t>Eksempler:</t>
+  </si>
+  <si>
+    <t>Double ID 1.</t>
+  </si>
+  <si>
+    <t>Double ID 1. : event</t>
   </si>
 </sst>
 </file>
@@ -703,12 +760,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
@@ -1025,11 +1081,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K149"/>
+  <dimension ref="A1:K162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2097,7 +2153,7 @@
       <c r="E31" t="s">
         <v>32</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="5" t="s">
         <v>66</v>
       </c>
       <c r="G31">
@@ -2217,7 +2273,7 @@
       <c r="J34">
         <v>43</v>
       </c>
-      <c r="K34" s="5" t="s">
+      <c r="K34" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2322,7 +2378,7 @@
       <c r="J37">
         <v>0</v>
       </c>
-      <c r="K37" s="5" t="s">
+      <c r="K37" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2357,7 +2413,7 @@
       <c r="J38">
         <v>10.5</v>
       </c>
-      <c r="K38" s="5" t="s">
+      <c r="K38" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2742,7 +2798,7 @@
       <c r="J49">
         <v>66</v>
       </c>
-      <c r="K49" s="5" t="s">
+      <c r="K49" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4072,350 +4128,348 @@
         <v>0</v>
       </c>
       <c r="K87" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="1">
-        <v>44611</v>
+        <v>44613</v>
       </c>
       <c r="B88" s="1">
-        <v>44611</v>
+        <v>44615</v>
       </c>
       <c r="C88" t="s">
         <v>11</v>
       </c>
       <c r="D88" t="s">
+        <v>144</v>
+      </c>
+      <c r="E88" t="s">
+        <v>12</v>
+      </c>
+      <c r="F88" t="s">
+        <v>145</v>
+      </c>
+      <c r="G88">
+        <v>3.05</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88" t="s">
         <v>143</v>
-      </c>
-      <c r="E88" t="s">
-        <v>12</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G88">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="H88">
-        <v>1</v>
-      </c>
-      <c r="I88">
-        <v>95.5</v>
-      </c>
-      <c r="J88">
-        <f>G88 * I88</f>
-        <v>107.91499999999999</v>
-      </c>
-      <c r="K88" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="1">
-        <v>44608</v>
+        <v>44613</v>
       </c>
       <c r="B89" s="1">
-        <v>44608</v>
+        <v>44618</v>
       </c>
       <c r="C89" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="D89" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E89" t="s">
         <v>12</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>53</v>
+      <c r="F89" t="s">
+        <v>147</v>
       </c>
       <c r="G89">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>42.5</v>
+        <v>0</v>
       </c>
       <c r="J89">
-        <f>IF(H89 = 1, G89 * I89, 0)</f>
-        <v>95.625</v>
+        <v>0</v>
       </c>
       <c r="K89" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="1">
-        <v>44584</v>
+        <v>44613</v>
       </c>
       <c r="B90" s="1">
-        <v>44584</v>
+        <v>44618</v>
       </c>
       <c r="C90" t="s">
         <v>11</v>
       </c>
       <c r="D90" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E90" t="s">
         <v>12</v>
       </c>
-      <c r="F90" s="3" t="s">
-        <v>53</v>
+      <c r="F90" t="s">
+        <v>148</v>
       </c>
       <c r="G90">
-        <v>1.58</v>
+        <v>1.75</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90">
-        <v>27.03</v>
+        <v>0</v>
       </c>
       <c r="J90">
-        <f>IF(H90 = 1, G90 * I90, 0)</f>
-        <v>42.707400000000007</v>
+        <v>0</v>
       </c>
       <c r="K90" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="1">
-        <v>44558</v>
+        <v>44613</v>
       </c>
       <c r="B91" s="1">
-        <v>44558</v>
+        <v>44619</v>
       </c>
       <c r="C91" t="s">
         <v>11</v>
       </c>
       <c r="D91" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E91" t="s">
-        <v>32</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>53</v>
+        <v>12</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="G91">
-        <v>1.34</v>
+        <v>3.4</v>
       </c>
       <c r="H91">
         <v>0</v>
       </c>
       <c r="I91">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J91">
         <v>0</v>
       </c>
       <c r="K91" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="1">
-        <v>44541</v>
+        <v>44613</v>
       </c>
       <c r="B92" s="1">
-        <v>44541</v>
+        <v>44621</v>
       </c>
       <c r="C92" t="s">
         <v>11</v>
       </c>
       <c r="D92" t="s">
+        <v>150</v>
+      </c>
+      <c r="E92" t="s">
+        <v>12</v>
+      </c>
+      <c r="F92" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E92" t="s">
-        <v>32</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="G92">
-        <v>1.7</v>
+        <v>3.65</v>
       </c>
       <c r="H92">
         <v>0</v>
       </c>
       <c r="I92">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J92">
         <v>0</v>
       </c>
       <c r="K92" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="1">
-        <v>44534</v>
+        <v>44613</v>
       </c>
       <c r="B93" s="1">
-        <v>44534</v>
+        <v>44615</v>
       </c>
       <c r="C93" t="s">
         <v>11</v>
       </c>
       <c r="D93" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E93" t="s">
-        <v>32</v>
-      </c>
-      <c r="F93" t="s">
-        <v>97</v>
+        <v>12</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="G93">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="H93">
         <v>0</v>
       </c>
       <c r="I93">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J93">
         <v>0</v>
       </c>
       <c r="K93" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="1">
-        <v>44531</v>
+        <v>44613</v>
       </c>
       <c r="B94" s="1">
-        <v>44531</v>
+        <v>44615</v>
       </c>
       <c r="C94" t="s">
         <v>11</v>
       </c>
       <c r="D94" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E94" t="s">
-        <v>32</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>53</v>
+        <v>12</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="G94">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="H94">
         <v>1</v>
       </c>
       <c r="I94">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J94">
-        <f>G94 * I94</f>
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="K94" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="1">
-        <v>44493</v>
+        <v>44613</v>
       </c>
       <c r="B95" s="1">
-        <v>44493</v>
+        <v>44594</v>
       </c>
       <c r="C95" t="s">
         <v>11</v>
       </c>
       <c r="D95" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E95" t="s">
         <v>12</v>
       </c>
-      <c r="F95" s="3" t="s">
-        <v>53</v>
+      <c r="F95" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="G95">
-        <v>2.4500000000000002</v>
+        <v>5.7</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J95">
-        <f>G95 * I95</f>
-        <v>122.50000000000001</v>
+        <v>0</v>
       </c>
       <c r="K95" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="1">
-        <v>44471</v>
+        <v>44613</v>
       </c>
       <c r="B96" s="1">
-        <v>44471</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>11</v>
+        <v>44594</v>
+      </c>
+      <c r="C96" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s">
+        <v>155</v>
       </c>
       <c r="E96" t="s">
-        <v>32</v>
-      </c>
-      <c r="F96" t="s">
-        <v>151</v>
+        <v>12</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="G96">
-        <v>8.4700000000000006</v>
+        <v>4.2</v>
       </c>
       <c r="H96">
         <v>0</v>
       </c>
       <c r="I96">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J96">
         <v>0</v>
       </c>
       <c r="K96" t="s">
-        <v>44</v>
+        <v>143</v>
       </c>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="1">
-        <v>44471</v>
+        <v>44613</v>
       </c>
       <c r="B97" s="1">
-        <v>44471</v>
-      </c>
-      <c r="C97" s="2" t="s">
+        <v>44618</v>
+      </c>
+      <c r="C97" t="s">
         <v>11</v>
       </c>
       <c r="D97" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E97" t="s">
-        <v>32</v>
-      </c>
-      <c r="F97" t="s">
-        <v>153</v>
+        <v>12</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="G97">
-        <v>2.4500000000000002</v>
+        <v>2</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -4424,33 +4478,33 @@
         <v>0</v>
       </c>
       <c r="K97" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="1">
-        <v>44471</v>
+        <v>44613</v>
       </c>
       <c r="B98" s="1">
-        <v>44471</v>
-      </c>
-      <c r="C98" s="2" t="s">
+        <v>44618</v>
+      </c>
+      <c r="C98" t="s">
         <v>11</v>
       </c>
       <c r="D98" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E98" t="s">
-        <v>32</v>
-      </c>
-      <c r="F98" t="s">
-        <v>153</v>
+        <v>12</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="G98">
-        <v>2.5499999999999998</v>
+        <v>1.92</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -4459,30 +4513,30 @@
         <v>0</v>
       </c>
       <c r="K98" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="1">
-        <v>44471</v>
+        <v>44613</v>
       </c>
       <c r="B99" s="1">
-        <v>44471</v>
-      </c>
-      <c r="C99" s="2" t="s">
+        <v>44618</v>
+      </c>
+      <c r="C99" t="s">
         <v>11</v>
       </c>
       <c r="D99" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E99" t="s">
-        <v>32</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>156</v>
+        <v>12</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="G99">
-        <v>1.1499999999999999</v>
+        <v>3.55</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -4494,33 +4548,33 @@
         <v>0</v>
       </c>
       <c r="K99" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="1">
-        <v>44471</v>
+        <v>44613</v>
       </c>
       <c r="B100" s="1">
-        <v>44471</v>
-      </c>
-      <c r="C100" s="2" t="s">
+        <v>44618</v>
+      </c>
+      <c r="C100" t="s">
         <v>11</v>
       </c>
       <c r="D100" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E100" t="s">
-        <v>32</v>
-      </c>
-      <c r="F100" t="s">
-        <v>156</v>
+        <v>12</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="G100">
-        <v>1.18</v>
+        <v>3.25</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -4529,75 +4583,76 @@
         <v>0</v>
       </c>
       <c r="K100" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="1">
-        <v>44471</v>
+        <v>44611</v>
       </c>
       <c r="B101" s="1">
-        <v>44471</v>
-      </c>
-      <c r="C101" s="2" t="s">
+        <v>44611</v>
+      </c>
+      <c r="C101" t="s">
         <v>11</v>
       </c>
       <c r="D101" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E101" t="s">
         <v>12</v>
       </c>
-      <c r="F101" t="s">
-        <v>159</v>
+      <c r="F101" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="G101">
-        <v>1.3</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="H101">
         <v>1</v>
       </c>
       <c r="I101">
-        <v>29</v>
+        <v>95.5</v>
       </c>
       <c r="J101">
         <f>G101 * I101</f>
-        <v>37.700000000000003</v>
+        <v>107.91499999999999</v>
       </c>
       <c r="K101" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="1">
-        <v>44464</v>
+        <v>44608</v>
       </c>
       <c r="B102" s="1">
-        <v>44464</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>11</v>
+        <v>44608</v>
+      </c>
+      <c r="C102" t="s">
+        <v>70</v>
       </c>
       <c r="D102" t="s">
-        <v>160</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>32</v>
+        <v>162</v>
+      </c>
+      <c r="E102" t="s">
+        <v>12</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>53</v>
       </c>
       <c r="G102">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>50</v>
+        <v>42.5</v>
       </c>
       <c r="J102">
-        <v>0</v>
+        <f>IF(H102 = 1, G102 * I102, 0)</f>
+        <v>95.625</v>
       </c>
       <c r="K102" t="s">
         <v>17</v>
@@ -4605,31 +4660,35 @@
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="1">
-        <v>44464</v>
+        <v>44584</v>
       </c>
       <c r="B103" s="1">
-        <v>44464</v>
-      </c>
-      <c r="C103" s="2" t="s">
+        <v>44584</v>
+      </c>
+      <c r="C103" t="s">
         <v>11</v>
       </c>
       <c r="D103" t="s">
-        <v>161</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F103" t="s">
-        <v>106</v>
+        <v>163</v>
+      </c>
+      <c r="E103" t="s">
+        <v>12</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="G103">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>10</v>
+        <v>27.03</v>
+      </c>
+      <c r="J103">
+        <f>IF(H103 = 1, G103 * I103, 0)</f>
+        <v>42.707400000000007</v>
       </c>
       <c r="K103" t="s">
         <v>17</v>
@@ -4637,60 +4696,60 @@
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="1">
-        <v>44464</v>
+        <v>44558</v>
       </c>
       <c r="B104" s="1">
-        <v>44464</v>
-      </c>
-      <c r="C104" s="2" t="s">
+        <v>44558</v>
+      </c>
+      <c r="C104" t="s">
         <v>11</v>
       </c>
       <c r="D104" t="s">
-        <v>162</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F104" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="E104" t="s">
+        <v>32</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="G104">
-        <v>8.5</v>
+        <v>1.34</v>
       </c>
       <c r="H104">
         <v>0</v>
       </c>
       <c r="I104">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J104">
         <v>0</v>
       </c>
       <c r="K104" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="1">
-        <v>44454</v>
+        <v>44541</v>
       </c>
       <c r="B105" s="1">
-        <v>44454</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>70</v>
+        <v>44541</v>
+      </c>
+      <c r="C105" t="s">
+        <v>11</v>
       </c>
       <c r="D105" t="s">
-        <v>164</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F105" t="s">
-        <v>131</v>
+        <v>165</v>
+      </c>
+      <c r="E105" t="s">
+        <v>32</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="G105">
-        <v>1.45</v>
+        <v>1.7</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -4702,40 +4761,39 @@
         <v>0</v>
       </c>
       <c r="K105" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="1">
-        <v>44454</v>
+        <v>44534</v>
       </c>
       <c r="B106" s="1">
-        <v>44454</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>70</v>
+        <v>44534</v>
+      </c>
+      <c r="C106" t="s">
+        <v>11</v>
       </c>
       <c r="D106" t="s">
-        <v>164</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>69</v>
+        <v>166</v>
+      </c>
+      <c r="E106" t="s">
+        <v>32</v>
+      </c>
+      <c r="F106" t="s">
+        <v>97</v>
       </c>
       <c r="G106">
-        <v>1.43</v>
+        <v>3.2</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="J106">
-        <f>G106 * I106</f>
-        <v>48.62</v>
+        <v>0</v>
       </c>
       <c r="K106" t="s">
         <v>17</v>
@@ -4743,34 +4801,35 @@
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="1">
-        <v>44453</v>
+        <v>44531</v>
       </c>
       <c r="B107" s="1">
-        <v>44453</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>70</v>
+        <v>44531</v>
+      </c>
+      <c r="C107" t="s">
+        <v>11</v>
       </c>
       <c r="D107" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E107" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>53</v>
       </c>
       <c r="G107">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J107">
-        <v>0</v>
+        <f>G107 * I107</f>
+        <v>137</v>
       </c>
       <c r="K107" t="s">
         <v>17</v>
@@ -4778,25 +4837,25 @@
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="1">
-        <v>44451</v>
+        <v>44493</v>
       </c>
       <c r="B108" s="1">
-        <v>44451</v>
-      </c>
-      <c r="C108" s="2" t="s">
+        <v>44493</v>
+      </c>
+      <c r="C108" t="s">
         <v>11</v>
       </c>
       <c r="D108" t="s">
-        <v>166</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F108" t="s">
-        <v>167</v>
+        <v>168</v>
+      </c>
+      <c r="E108" t="s">
+        <v>12</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="G108">
-        <v>1.35</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -4806,74 +4865,71 @@
       </c>
       <c r="J108">
         <f>G108 * I108</f>
-        <v>67.5</v>
+        <v>122.50000000000001</v>
       </c>
       <c r="K108" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="1">
-        <v>44450</v>
+        <v>44471</v>
       </c>
       <c r="B109" s="1">
-        <v>44450</v>
+        <v>44471</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D109" t="s">
-        <v>168</v>
-      </c>
-      <c r="E109" s="2" t="s">
+      <c r="E109" t="s">
         <v>32</v>
       </c>
       <c r="F109" t="s">
         <v>169</v>
       </c>
       <c r="G109">
-        <v>1.42</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="H109">
         <v>0</v>
       </c>
       <c r="I109">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="J109">
         <v>0</v>
       </c>
       <c r="K109" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="1">
-        <v>44450</v>
+        <v>44471</v>
       </c>
       <c r="B110" s="1">
-        <v>44450</v>
+        <v>44471</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D110" t="s">
-        <v>168</v>
-      </c>
-      <c r="E110" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E110" t="s">
         <v>32</v>
       </c>
       <c r="F110" t="s">
-        <v>87</v>
+        <v>171</v>
       </c>
       <c r="G110">
-        <v>1.28</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="H110">
         <v>0</v>
       </c>
       <c r="I110">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J110">
         <v>0</v>
@@ -4884,141 +4940,140 @@
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="1">
-        <v>44450</v>
+        <v>44471</v>
       </c>
       <c r="B111" s="1">
-        <v>44450</v>
+        <v>44471</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D111" t="s">
-        <v>168</v>
-      </c>
-      <c r="E111" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E111" t="s">
         <v>32</v>
       </c>
       <c r="F111" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G111">
-        <v>1.5</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J111">
         <v>0</v>
       </c>
       <c r="K111" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="1">
-        <v>44437</v>
+        <v>44471</v>
       </c>
       <c r="B112" s="1">
-        <v>44437</v>
+        <v>44471</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D112" t="s">
-        <v>171</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F112" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="E112" t="s">
+        <v>32</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="G112">
-        <v>9.5</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J112">
         <v>0</v>
       </c>
       <c r="K112" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="1">
-        <v>44436</v>
+        <v>44471</v>
       </c>
       <c r="B113" s="1">
-        <v>44436</v>
+        <v>44471</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D113" t="s">
-        <v>173</v>
-      </c>
-      <c r="E113" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E113" t="s">
         <v>32</v>
       </c>
       <c r="F113" t="s">
         <v>174</v>
       </c>
       <c r="G113">
-        <v>1.1200000000000001</v>
+        <v>1.18</v>
       </c>
       <c r="H113">
         <v>1</v>
       </c>
       <c r="I113">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J113">
-        <f>G113 * I113</f>
-        <v>112.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="K113" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="1">
-        <v>44436</v>
+        <v>44471</v>
       </c>
       <c r="B114" s="1">
-        <v>44436</v>
+        <v>44471</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D114" t="s">
-        <v>173</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>32</v>
+        <v>176</v>
+      </c>
+      <c r="E114" t="s">
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G114">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="H114">
         <v>1</v>
       </c>
       <c r="I114">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="J114">
         <f>G114 * I114</f>
-        <v>71</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="K114" t="s">
         <v>34</v>
@@ -5026,31 +5081,31 @@
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="1">
-        <v>44375</v>
+        <v>44464</v>
       </c>
       <c r="B115" s="1">
-        <v>44375</v>
+        <v>44464</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>176</v>
+        <v>11</v>
       </c>
       <c r="D115" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="G115">
-        <v>1.58</v>
+        <v>1.4</v>
       </c>
       <c r="H115">
         <v>0</v>
       </c>
       <c r="I115">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J115">
         <v>0</v>
@@ -5061,34 +5116,31 @@
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="1">
-        <v>44374</v>
+        <v>44464</v>
       </c>
       <c r="B116" s="1">
-        <v>44374</v>
+        <v>44464</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>176</v>
+        <v>11</v>
       </c>
       <c r="D116" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F116" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="G116">
-        <v>1.82</v>
+        <v>1.62</v>
       </c>
       <c r="H116">
         <v>0</v>
       </c>
       <c r="I116">
-        <v>50</v>
-      </c>
-      <c r="J116">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K116" t="s">
         <v>17</v>
@@ -5096,70 +5148,69 @@
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="1">
-        <v>44374</v>
+        <v>44464</v>
       </c>
       <c r="B117" s="1">
-        <v>44374</v>
+        <v>44464</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>176</v>
+        <v>11</v>
       </c>
       <c r="D117" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F117" t="s">
-        <v>106</v>
+        <v>181</v>
       </c>
       <c r="G117">
-        <v>3.05</v>
+        <v>8.5</v>
       </c>
       <c r="H117">
         <v>0</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J117">
         <v>0</v>
       </c>
       <c r="K117" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="1">
-        <v>44374</v>
+        <v>44454</v>
       </c>
       <c r="B118" s="1">
-        <v>44374</v>
+        <v>44454</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>176</v>
+        <v>70</v>
       </c>
       <c r="D118" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F118" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="G118">
-        <v>1.24</v>
+        <v>1.45</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118">
         <v>50</v>
       </c>
       <c r="J118">
-        <f t="shared" ref="J118:J120" si="0">G118 * I118</f>
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="K118" t="s">
         <v>34</v>
@@ -5167,1016 +5218,1012 @@
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="1">
+        <v>44454</v>
+      </c>
+      <c r="B119" s="1">
+        <v>44454</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D119" t="s">
+        <v>182</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G119">
+        <v>1.43</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119">
+        <v>34</v>
+      </c>
+      <c r="J119">
+        <f>G119 * I119</f>
+        <v>48.62</v>
+      </c>
+      <c r="K119" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" s="1">
+        <v>44453</v>
+      </c>
+      <c r="B120" s="1">
+        <v>44453</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D120" t="s">
+        <v>183</v>
+      </c>
+      <c r="E120" t="s">
+        <v>12</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G120">
+        <v>1.42</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>50</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" s="1">
+        <v>44451</v>
+      </c>
+      <c r="B121" s="1">
+        <v>44451</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s">
+        <v>184</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F121" t="s">
+        <v>185</v>
+      </c>
+      <c r="G121">
+        <v>1.35</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+      <c r="I121">
+        <v>50</v>
+      </c>
+      <c r="J121">
+        <f>G121 * I121</f>
+        <v>67.5</v>
+      </c>
+      <c r="K121" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" s="1">
+        <v>44450</v>
+      </c>
+      <c r="B122" s="1">
+        <v>44450</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s">
+        <v>186</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F122" t="s">
+        <v>187</v>
+      </c>
+      <c r="G122">
+        <v>1.42</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>100</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" s="1">
+        <v>44450</v>
+      </c>
+      <c r="B123" s="1">
+        <v>44450</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s">
+        <v>186</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F123" t="s">
+        <v>87</v>
+      </c>
+      <c r="G123">
+        <v>1.28</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>50</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" s="1">
+        <v>44450</v>
+      </c>
+      <c r="B124" s="1">
+        <v>44450</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s">
+        <v>186</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F124" t="s">
+        <v>188</v>
+      </c>
+      <c r="G124">
+        <v>1.5</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>100</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" s="1">
+        <v>44437</v>
+      </c>
+      <c r="B125" s="1">
+        <v>44437</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D125" t="s">
+        <v>189</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F125" t="s">
+        <v>190</v>
+      </c>
+      <c r="G125">
+        <v>9.5</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>10</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" s="1">
+        <v>44436</v>
+      </c>
+      <c r="B126" s="1">
+        <v>44436</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s">
+        <v>191</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F126" t="s">
+        <v>192</v>
+      </c>
+      <c r="G126">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H126">
+        <v>1</v>
+      </c>
+      <c r="I126">
+        <v>100</v>
+      </c>
+      <c r="J126">
+        <f>G126 * I126</f>
+        <v>112.00000000000001</v>
+      </c>
+      <c r="K126" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" s="1">
+        <v>44436</v>
+      </c>
+      <c r="B127" s="1">
+        <v>44436</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D127" t="s">
+        <v>191</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F127" t="s">
+        <v>193</v>
+      </c>
+      <c r="G127">
+        <v>1.42</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="I127">
+        <v>50</v>
+      </c>
+      <c r="J127">
+        <f>G127 * I127</f>
+        <v>71</v>
+      </c>
+      <c r="K127" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128" s="1">
+        <v>44375</v>
+      </c>
+      <c r="B128" s="1">
+        <v>44375</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D128" t="s">
+        <v>195</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G128">
+        <v>1.58</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>100</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B129" s="1">
+        <v>44374</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D129" t="s">
+        <v>196</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F129" t="s">
+        <v>87</v>
+      </c>
+      <c r="G129">
+        <v>1.82</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>50</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B130" s="1">
+        <v>44374</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D130" t="s">
+        <v>196</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F130" t="s">
+        <v>106</v>
+      </c>
+      <c r="G130">
+        <v>3.05</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B131" s="1">
+        <v>44374</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D131" t="s">
+        <v>196</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F131" t="s">
+        <v>177</v>
+      </c>
+      <c r="G131">
+        <v>1.24</v>
+      </c>
+      <c r="H131">
+        <v>1</v>
+      </c>
+      <c r="I131">
+        <v>50</v>
+      </c>
+      <c r="J131">
+        <f t="shared" ref="J131:J133" si="0">G131 * I131</f>
+        <v>62</v>
+      </c>
+      <c r="K131" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" s="1">
         <v>44373</v>
       </c>
-      <c r="B119" s="1">
+      <c r="B132" s="1">
         <v>44373</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D119" t="s">
-        <v>179</v>
-      </c>
-      <c r="E119" t="s">
-        <v>12</v>
-      </c>
-      <c r="F119" s="3" t="s">
+      <c r="C132" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D132" t="s">
+        <v>197</v>
+      </c>
+      <c r="E132" t="s">
+        <v>12</v>
+      </c>
+      <c r="F132" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G119">
+      <c r="G132">
         <v>1.92</v>
       </c>
-      <c r="H119">
-        <v>1</v>
-      </c>
-      <c r="I119">
+      <c r="H132">
+        <v>1</v>
+      </c>
+      <c r="I132">
         <v>100</v>
       </c>
-      <c r="J119">
+      <c r="J132">
         <f t="shared" si="0"/>
         <v>192</v>
       </c>
-      <c r="K119" t="s">
+      <c r="K132" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
-      <c r="A120" s="1">
+    <row r="133" spans="1:11">
+      <c r="A133" s="1">
         <v>44368</v>
       </c>
-      <c r="B120" s="1">
+      <c r="B133" s="1">
         <v>44368</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D120" t="s">
-        <v>180</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F120" s="3" t="s">
+      <c r="C133" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D133" t="s">
+        <v>198</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F133" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G120">
+      <c r="G133">
         <v>1.2</v>
       </c>
-      <c r="H120">
-        <v>1</v>
-      </c>
-      <c r="I120">
+      <c r="H133">
+        <v>1</v>
+      </c>
+      <c r="I133">
         <v>200</v>
       </c>
-      <c r="J120">
+      <c r="J133">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="K120" t="s">
+      <c r="K133" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
-      <c r="A121" s="1">
+    <row r="134" spans="1:11">
+      <c r="A134" s="1">
         <v>44368</v>
       </c>
-      <c r="B121" s="1">
+      <c r="B134" s="1">
         <v>44368</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D121" t="s">
-        <v>180</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F121" t="s">
-        <v>181</v>
-      </c>
-      <c r="G121">
+      <c r="C134" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D134" t="s">
+        <v>198</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F134" t="s">
+        <v>199</v>
+      </c>
+      <c r="G134">
         <v>1.42</v>
       </c>
-      <c r="H121">
-        <v>0</v>
-      </c>
-      <c r="I121">
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
         <v>100</v>
       </c>
-      <c r="J121">
-        <v>0</v>
-      </c>
-      <c r="K121" t="s">
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
-      <c r="A122" s="1">
+    <row r="135" spans="1:11">
+      <c r="A135" s="1">
         <v>44368</v>
       </c>
-      <c r="B122" s="1">
+      <c r="B135" s="1">
         <v>44368</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D122" t="s">
-        <v>180</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F122" t="s">
-        <v>182</v>
-      </c>
-      <c r="G122">
+      <c r="C135" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D135" t="s">
+        <v>198</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F135" t="s">
+        <v>200</v>
+      </c>
+      <c r="G135">
         <v>1.1299999999999999</v>
       </c>
-      <c r="H122">
-        <v>1</v>
-      </c>
-      <c r="I122">
+      <c r="H135">
+        <v>1</v>
+      </c>
+      <c r="I135">
         <v>100</v>
       </c>
-      <c r="J122">
-        <f t="shared" ref="J122:J123" si="1">G122 * I122</f>
+      <c r="J135">
+        <f t="shared" ref="J135:J136" si="1">G135 * I135</f>
         <v>112.99999999999999</v>
       </c>
-      <c r="K122" t="s">
+      <c r="K135" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
-      <c r="A123" s="1">
+    <row r="136" spans="1:11">
+      <c r="A136" s="1">
         <v>44368</v>
       </c>
-      <c r="B123" s="1">
+      <c r="B136" s="1">
         <v>44368</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D123" t="s">
-        <v>180</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F123" t="s">
-        <v>183</v>
-      </c>
-      <c r="G123">
+      <c r="C136" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D136" t="s">
+        <v>198</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F136" t="s">
+        <v>201</v>
+      </c>
+      <c r="G136">
         <v>1.25</v>
       </c>
-      <c r="H123">
-        <v>1</v>
-      </c>
-      <c r="I123">
+      <c r="H136">
+        <v>1</v>
+      </c>
+      <c r="I136">
         <v>100</v>
       </c>
-      <c r="J123">
+      <c r="J136">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="K123" t="s">
+      <c r="K136" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
-      <c r="A124" s="1">
+    <row r="137" spans="1:11">
+      <c r="A137" s="1">
         <v>44365</v>
       </c>
-      <c r="B124" s="1">
+      <c r="B137" s="1">
         <v>44365</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D124" t="s">
-        <v>184</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F124" s="3" t="s">
+      <c r="C137" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D137" t="s">
+        <v>202</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F137" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G124">
+      <c r="G137">
         <v>1.65</v>
       </c>
-      <c r="H124">
-        <v>0</v>
-      </c>
-      <c r="I124">
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
         <v>50</v>
       </c>
-      <c r="J124">
-        <v>0</v>
-      </c>
-      <c r="K124" t="s">
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
-      <c r="A125" s="1">
+    <row r="138" spans="1:11">
+      <c r="A138" s="1">
         <v>44365</v>
       </c>
-      <c r="B125" s="1">
+      <c r="B138" s="1">
         <v>44365</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D125" t="s">
-        <v>184</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F125" t="s">
+      <c r="C138" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D138" t="s">
+        <v>202</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F138" t="s">
         <v>87</v>
       </c>
-      <c r="G125">
+      <c r="G138">
         <v>1.42</v>
       </c>
-      <c r="H125">
-        <v>1</v>
-      </c>
-      <c r="I125">
+      <c r="H138">
+        <v>1</v>
+      </c>
+      <c r="I138">
         <v>50</v>
       </c>
-      <c r="J125">
-        <f t="shared" ref="J125:J127" si="2">G125 * I125</f>
+      <c r="J138">
+        <f t="shared" ref="J138:J140" si="2">G138 * I138</f>
         <v>71</v>
       </c>
-      <c r="K125" t="s">
+      <c r="K138" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
-      <c r="A126" s="1">
+    <row r="139" spans="1:11">
+      <c r="A139" s="1">
         <v>44364</v>
       </c>
-      <c r="B126" s="1">
+      <c r="B139" s="1">
         <v>44364</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D126" t="s">
-        <v>185</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F126" s="3" t="s">
+      <c r="C139" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D139" t="s">
+        <v>203</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F139" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G126">
+      <c r="G139">
         <v>1.1599999999999999</v>
       </c>
-      <c r="H126">
-        <v>1</v>
-      </c>
-      <c r="I126">
+      <c r="H139">
+        <v>1</v>
+      </c>
+      <c r="I139">
         <v>100</v>
       </c>
-      <c r="J126">
+      <c r="J139">
         <f t="shared" si="2"/>
         <v>115.99999999999999</v>
       </c>
-      <c r="K126" t="s">
+      <c r="K139" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
-      <c r="A127" s="1">
+    <row r="140" spans="1:11">
+      <c r="A140" s="1">
         <v>44364</v>
       </c>
-      <c r="B127" s="1">
+      <c r="B140" s="1">
         <v>44364</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D127" t="s">
-        <v>186</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F127" s="3" t="s">
+      <c r="C140" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D140" t="s">
+        <v>204</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F140" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G127">
+      <c r="G140">
         <v>1.18</v>
       </c>
-      <c r="H127">
-        <v>1</v>
-      </c>
-      <c r="I127">
+      <c r="H140">
+        <v>1</v>
+      </c>
+      <c r="I140">
         <v>100</v>
       </c>
-      <c r="J127">
+      <c r="J140">
         <f t="shared" si="2"/>
         <v>118</v>
       </c>
-      <c r="K127" t="s">
+      <c r="K140" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
-      <c r="A128" s="1">
+    <row r="141" spans="1:11">
+      <c r="A141" s="1">
         <v>44363</v>
       </c>
-      <c r="B128" s="1">
+      <c r="B141" s="1">
         <v>44363</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D128" t="s">
-        <v>187</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F128" t="s">
-        <v>170</v>
-      </c>
-      <c r="G128">
+      <c r="C141" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D141" t="s">
+        <v>205</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F141" t="s">
+        <v>188</v>
+      </c>
+      <c r="G141">
         <v>1.4</v>
       </c>
-      <c r="H128">
-        <v>1</v>
-      </c>
-      <c r="I128">
+      <c r="H141">
+        <v>1</v>
+      </c>
+      <c r="I141">
         <v>100</v>
       </c>
-      <c r="J128">
-        <f t="shared" ref="J128:J129" si="3">G128 * I128</f>
+      <c r="J141">
+        <f t="shared" ref="J141:J142" si="3">G141 * I141</f>
         <v>140</v>
       </c>
-      <c r="K128" t="s">
+      <c r="K141" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
-      <c r="A129" s="1">
+    <row r="142" spans="1:11">
+      <c r="A142" s="1">
         <v>44363</v>
       </c>
-      <c r="B129" s="1">
+      <c r="B142" s="1">
         <v>44363</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D129" t="s">
-        <v>187</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F129" s="3" t="s">
+      <c r="C142" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D142" t="s">
+        <v>205</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F142" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G129">
+      <c r="G142">
         <v>1.22</v>
       </c>
-      <c r="H129">
-        <v>1</v>
-      </c>
-      <c r="I129">
+      <c r="H142">
+        <v>1</v>
+      </c>
+      <c r="I142">
         <v>100</v>
       </c>
-      <c r="J129">
+      <c r="J142">
         <f t="shared" si="3"/>
         <v>122</v>
       </c>
-      <c r="K129" t="s">
+      <c r="K142" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
-      <c r="A130" s="1">
+    <row r="143" spans="1:11">
+      <c r="A143" s="1">
         <v>44362</v>
       </c>
-      <c r="B130" s="1">
+      <c r="B143" s="1">
         <v>44362</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D130" t="s">
-        <v>188</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F130" t="s">
+      <c r="C143" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D143" t="s">
+        <v>206</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F143" t="s">
         <v>87</v>
       </c>
-      <c r="G130">
+      <c r="G143">
         <v>1.77</v>
       </c>
-      <c r="H130">
-        <v>0</v>
-      </c>
-      <c r="I130">
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
         <v>100</v>
       </c>
-      <c r="J130">
-        <v>0</v>
-      </c>
-      <c r="K130" t="s">
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
-      <c r="A131" s="1">
+    <row r="144" spans="1:11">
+      <c r="A144" s="1">
         <v>44361</v>
       </c>
-      <c r="B131" s="1">
+      <c r="B144" s="1">
         <v>44361</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D131" t="s">
-        <v>189</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F131" t="s">
-        <v>190</v>
-      </c>
-      <c r="G131">
+      <c r="C144" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D144" t="s">
+        <v>207</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F144" t="s">
+        <v>208</v>
+      </c>
+      <c r="G144">
         <v>1.27</v>
       </c>
-      <c r="H131">
-        <v>0</v>
-      </c>
-      <c r="I131">
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
         <v>100</v>
       </c>
-      <c r="J131">
-        <v>0</v>
-      </c>
-      <c r="K131" t="s">
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
-      <c r="A132" s="1">
+    <row r="145" spans="1:11">
+      <c r="A145" s="1">
         <v>44359</v>
       </c>
-      <c r="B132" s="1">
+      <c r="B145" s="1">
         <v>44359</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D132" t="s">
-        <v>191</v>
-      </c>
-      <c r="E132" t="s">
-        <v>12</v>
-      </c>
-      <c r="F132" t="s">
+      <c r="C145" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D145" t="s">
+        <v>209</v>
+      </c>
+      <c r="E145" t="s">
+        <v>12</v>
+      </c>
+      <c r="F145" t="s">
         <v>106</v>
       </c>
-      <c r="G132">
+      <c r="G145">
         <v>3.9</v>
       </c>
-      <c r="H132">
-        <v>0</v>
-      </c>
-      <c r="I132">
-        <v>0</v>
-      </c>
-      <c r="J132">
-        <f t="shared" ref="J131:J133" si="4">G132 * I132</f>
-        <v>0</v>
-      </c>
-      <c r="K132" t="s">
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <f t="shared" ref="J144:J146" si="4">G145 * I145</f>
+        <v>0</v>
+      </c>
+      <c r="K145" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
-      <c r="A133" s="1">
+    <row r="146" spans="1:11">
+      <c r="A146" s="1">
         <v>44358</v>
       </c>
-      <c r="B133" s="1">
+      <c r="B146" s="1">
         <v>44358</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D133" t="s">
-        <v>192</v>
-      </c>
-      <c r="E133" t="s">
-        <v>32</v>
-      </c>
-      <c r="F133" t="s">
-        <v>193</v>
-      </c>
-      <c r="G133">
+      <c r="C146" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D146" t="s">
+        <v>210</v>
+      </c>
+      <c r="E146" t="s">
+        <v>32</v>
+      </c>
+      <c r="F146" t="s">
+        <v>211</v>
+      </c>
+      <c r="G146">
         <v>1.17</v>
       </c>
-      <c r="H133">
-        <v>1</v>
-      </c>
-      <c r="I133">
+      <c r="H146">
+        <v>1</v>
+      </c>
+      <c r="I146">
         <v>50</v>
       </c>
-      <c r="J133">
+      <c r="J146">
         <f t="shared" si="4"/>
         <v>58.5</v>
       </c>
-      <c r="K133" t="s">
+      <c r="K146" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11">
-      <c r="A134" s="1">
-        <v>44358</v>
-      </c>
-      <c r="B134" s="1">
-        <v>44358</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D134" t="s">
-        <v>192</v>
-      </c>
-      <c r="E134" t="s">
-        <v>32</v>
-      </c>
-      <c r="F134" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G134">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="H134">
-        <v>1</v>
-      </c>
-      <c r="I134">
-        <v>100</v>
-      </c>
-      <c r="J134">
-        <f>G134 * I134</f>
-        <v>109.00000000000001</v>
-      </c>
-      <c r="K134" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11">
-      <c r="A135" s="1">
-        <v>44339</v>
-      </c>
-      <c r="B135" s="1">
-        <v>44339</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D135" t="s">
-        <v>194</v>
-      </c>
-      <c r="E135" t="s">
-        <v>32</v>
-      </c>
-      <c r="F135" t="s">
-        <v>195</v>
-      </c>
-      <c r="G135">
-        <v>1.18</v>
-      </c>
-      <c r="H135">
-        <v>1</v>
-      </c>
-      <c r="I135">
-        <v>50</v>
-      </c>
-      <c r="J135">
-        <f>G135 * I135</f>
-        <v>59</v>
-      </c>
-      <c r="K135" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11">
-      <c r="A136" s="1">
-        <v>44339</v>
-      </c>
-      <c r="B136" s="1">
-        <v>44339</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D136" t="s">
-        <v>194</v>
-      </c>
-      <c r="E136" t="s">
-        <v>32</v>
-      </c>
-      <c r="F136" t="s">
-        <v>96</v>
-      </c>
-      <c r="G136">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="H136">
-        <v>1</v>
-      </c>
-      <c r="I136">
-        <v>100</v>
-      </c>
-      <c r="J136">
-        <f>G136 * I136</f>
-        <v>114.99999999999999</v>
-      </c>
-      <c r="K136" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11">
-      <c r="A137" s="1">
-        <v>44335</v>
-      </c>
-      <c r="B137" s="1">
-        <v>44335</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D137" t="s">
-        <v>196</v>
-      </c>
-      <c r="E137" t="s">
-        <v>32</v>
-      </c>
-      <c r="F137" t="s">
-        <v>97</v>
-      </c>
-      <c r="G137">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H137">
-        <v>1</v>
-      </c>
-      <c r="I137">
-        <v>25</v>
-      </c>
-      <c r="J137">
-        <f>G137 * I137</f>
-        <v>55.000000000000007</v>
-      </c>
-      <c r="K137" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11">
-      <c r="A138" s="1">
-        <v>44332</v>
-      </c>
-      <c r="B138" s="1">
-        <v>44332</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D138" t="s">
-        <v>197</v>
-      </c>
-      <c r="E138" t="s">
-        <v>32</v>
-      </c>
-      <c r="F138" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G138">
-        <v>1.27</v>
-      </c>
-      <c r="H138">
-        <v>1</v>
-      </c>
-      <c r="I138">
-        <v>25</v>
-      </c>
-      <c r="J138">
-        <f>G138 * I138</f>
-        <v>31.75</v>
-      </c>
-      <c r="K138" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11">
-      <c r="A139" s="1">
-        <v>44329</v>
-      </c>
-      <c r="B139" s="1">
-        <v>44329</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D139" t="s">
-        <v>150</v>
-      </c>
-      <c r="E139" t="s">
-        <v>12</v>
-      </c>
-      <c r="F139" t="s">
-        <v>198</v>
-      </c>
-      <c r="G139">
-        <v>1.6</v>
-      </c>
-      <c r="H139">
-        <v>1</v>
-      </c>
-      <c r="I139">
-        <v>10</v>
-      </c>
-      <c r="J139">
-        <f>G139 * I139</f>
-        <v>16</v>
-      </c>
-      <c r="K139" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11">
-      <c r="A140" s="1">
-        <v>44329</v>
-      </c>
-      <c r="B140" s="1">
-        <v>44329</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D140" t="s">
-        <v>150</v>
-      </c>
-      <c r="E140" t="s">
-        <v>12</v>
-      </c>
-      <c r="F140" t="s">
-        <v>106</v>
-      </c>
-      <c r="G140">
-        <v>3.65</v>
-      </c>
-      <c r="H140">
-        <v>0</v>
-      </c>
-      <c r="I140">
-        <v>10</v>
-      </c>
-      <c r="J140">
-        <v>0</v>
-      </c>
-      <c r="K140" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11">
-      <c r="A141" s="1">
-        <v>44305</v>
-      </c>
-      <c r="B141" s="1">
-        <v>44305</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D141" t="s">
-        <v>166</v>
-      </c>
-      <c r="E141" t="s">
-        <v>32</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G141">
-        <v>1.52</v>
-      </c>
-      <c r="H141">
-        <v>0</v>
-      </c>
-      <c r="I141">
-        <v>100</v>
-      </c>
-      <c r="J141">
-        <f>G141 * I141</f>
-        <v>152</v>
-      </c>
-      <c r="K141" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11">
-      <c r="A142" s="1">
-        <v>44292</v>
-      </c>
-      <c r="B142" s="1">
-        <v>44292</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D142" t="s">
-        <v>199</v>
-      </c>
-      <c r="E142" t="s">
-        <v>32</v>
-      </c>
-      <c r="F142" t="s">
-        <v>200</v>
-      </c>
-      <c r="G142">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H142">
-        <v>0</v>
-      </c>
-      <c r="I142">
-        <v>100</v>
-      </c>
-      <c r="J142">
-        <v>0</v>
-      </c>
-      <c r="K142" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11">
-      <c r="A143" s="1">
-        <v>44292</v>
-      </c>
-      <c r="B143" s="1">
-        <v>44292</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D143" t="s">
-        <v>199</v>
-      </c>
-      <c r="E143" t="s">
-        <v>12</v>
-      </c>
-      <c r="F143" t="s">
-        <v>87</v>
-      </c>
-      <c r="G143">
-        <v>2.15</v>
-      </c>
-      <c r="H143">
-        <v>0</v>
-      </c>
-      <c r="I143">
-        <v>50</v>
-      </c>
-      <c r="J143">
-        <v>0</v>
-      </c>
-      <c r="K143" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11">
-      <c r="A144" s="1">
-        <v>44292</v>
-      </c>
-      <c r="B144" s="1">
-        <v>44292</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D144" t="s">
-        <v>199</v>
-      </c>
-      <c r="E144" t="s">
-        <v>12</v>
-      </c>
-      <c r="F144" t="s">
-        <v>159</v>
-      </c>
-      <c r="G144">
-        <v>1.33</v>
-      </c>
-      <c r="H144">
-        <v>1</v>
-      </c>
-      <c r="I144">
-        <v>45</v>
-      </c>
-      <c r="J144">
-        <f>G144 * I144</f>
-        <v>59.85</v>
-      </c>
-      <c r="K144" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11">
-      <c r="A145" s="1">
-        <v>44290</v>
-      </c>
-      <c r="B145" s="1">
-        <v>44290</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D145" t="s">
-        <v>201</v>
-      </c>
-      <c r="E145" t="s">
-        <v>32</v>
-      </c>
-      <c r="F145" t="s">
-        <v>202</v>
-      </c>
-      <c r="G145">
-        <v>1.6</v>
-      </c>
-      <c r="H145">
-        <v>0</v>
-      </c>
-      <c r="I145">
-        <v>100</v>
-      </c>
-      <c r="J145">
-        <v>0</v>
-      </c>
-      <c r="K145" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11">
-      <c r="A146" s="1">
-        <v>44290</v>
-      </c>
-      <c r="B146" s="1">
-        <v>44290</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s">
-        <v>201</v>
-      </c>
-      <c r="E146" t="s">
-        <v>32</v>
-      </c>
-      <c r="F146" t="s">
-        <v>203</v>
-      </c>
-      <c r="G146">
-        <v>1.28</v>
-      </c>
-      <c r="H146">
-        <v>1</v>
-      </c>
-      <c r="I146">
-        <v>100</v>
-      </c>
-      <c r="J146">
-        <f>G146 * I146</f>
-        <v>128</v>
-      </c>
-      <c r="K146" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="147" spans="1:11">
       <c r="A147" s="1">
-        <v>44290</v>
+        <v>44358</v>
       </c>
       <c r="B147" s="1">
-        <v>44290</v>
+        <v>44358</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>11</v>
+        <v>194</v>
       </c>
       <c r="D147" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="E147" t="s">
         <v>32</v>
@@ -6185,16 +6232,17 @@
         <v>53</v>
       </c>
       <c r="G147">
-        <v>1.97</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J147">
-        <v>14.62</v>
+        <f>G147 * I147</f>
+        <v>109.00000000000001</v>
       </c>
       <c r="K147" t="s">
         <v>17</v>
@@ -6202,25 +6250,25 @@
     </row>
     <row r="148" spans="1:11">
       <c r="A148" s="1">
-        <v>44289</v>
+        <v>44339</v>
       </c>
       <c r="B148" s="1">
-        <v>44289</v>
+        <v>44339</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D148" t="s">
-        <v>128</v>
+        <v>212</v>
       </c>
       <c r="E148" t="s">
         <v>32</v>
       </c>
       <c r="F148" t="s">
-        <v>83</v>
+        <v>213</v>
       </c>
       <c r="G148">
-        <v>4.8</v>
+        <v>1.18</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -6230,59 +6278,523 @@
       </c>
       <c r="J148">
         <f>G148 * I148</f>
-        <v>240</v>
+        <v>59</v>
       </c>
       <c r="K148" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
     </row>
     <row r="149" spans="1:11">
       <c r="A149" s="1">
-        <v>44289</v>
+        <v>44339</v>
       </c>
       <c r="B149" s="1">
-        <v>44289</v>
+        <v>44339</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D149" t="s">
-        <v>128</v>
+        <v>212</v>
       </c>
       <c r="E149" t="s">
         <v>32</v>
       </c>
       <c r="F149" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="G149">
-        <v>2.2000000000000002</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H149">
         <v>1</v>
       </c>
       <c r="I149">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J149">
         <f>G149 * I149</f>
+        <v>114.99999999999999</v>
+      </c>
+      <c r="K149" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150" s="1">
+        <v>44335</v>
+      </c>
+      <c r="B150" s="1">
+        <v>44335</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D150" t="s">
+        <v>214</v>
+      </c>
+      <c r="E150" t="s">
+        <v>32</v>
+      </c>
+      <c r="F150" t="s">
+        <v>97</v>
+      </c>
+      <c r="G150">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H150">
+        <v>1</v>
+      </c>
+      <c r="I150">
+        <v>25</v>
+      </c>
+      <c r="J150">
+        <f>G150 * I150</f>
+        <v>55.000000000000007</v>
+      </c>
+      <c r="K150" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151" s="1">
+        <v>44332</v>
+      </c>
+      <c r="B151" s="1">
+        <v>44332</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D151" t="s">
+        <v>215</v>
+      </c>
+      <c r="E151" t="s">
+        <v>32</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G151">
+        <v>1.27</v>
+      </c>
+      <c r="H151">
+        <v>1</v>
+      </c>
+      <c r="I151">
+        <v>25</v>
+      </c>
+      <c r="J151">
+        <f>G151 * I151</f>
+        <v>31.75</v>
+      </c>
+      <c r="K151" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152" s="1">
+        <v>44329</v>
+      </c>
+      <c r="B152" s="1">
+        <v>44329</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s">
+        <v>168</v>
+      </c>
+      <c r="E152" t="s">
+        <v>12</v>
+      </c>
+      <c r="F152" t="s">
+        <v>216</v>
+      </c>
+      <c r="G152">
+        <v>1.6</v>
+      </c>
+      <c r="H152">
+        <v>1</v>
+      </c>
+      <c r="I152">
+        <v>10</v>
+      </c>
+      <c r="J152">
+        <f>G152 * I152</f>
+        <v>16</v>
+      </c>
+      <c r="K152" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153" s="1">
+        <v>44329</v>
+      </c>
+      <c r="B153" s="1">
+        <v>44329</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D153" t="s">
+        <v>168</v>
+      </c>
+      <c r="E153" t="s">
+        <v>12</v>
+      </c>
+      <c r="F153" t="s">
+        <v>106</v>
+      </c>
+      <c r="G153">
+        <v>3.65</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>10</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154" s="1">
+        <v>44305</v>
+      </c>
+      <c r="B154" s="1">
+        <v>44305</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D154" t="s">
+        <v>184</v>
+      </c>
+      <c r="E154" t="s">
+        <v>32</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G154">
+        <v>1.52</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>100</v>
+      </c>
+      <c r="J154">
+        <f>G154 * I154</f>
+        <v>152</v>
+      </c>
+      <c r="K154" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155" s="1">
+        <v>44292</v>
+      </c>
+      <c r="B155" s="1">
+        <v>44292</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D155" t="s">
+        <v>217</v>
+      </c>
+      <c r="E155" t="s">
+        <v>32</v>
+      </c>
+      <c r="F155" t="s">
+        <v>218</v>
+      </c>
+      <c r="G155">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <v>100</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156" s="1">
+        <v>44292</v>
+      </c>
+      <c r="B156" s="1">
+        <v>44292</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D156" t="s">
+        <v>217</v>
+      </c>
+      <c r="E156" t="s">
+        <v>12</v>
+      </c>
+      <c r="F156" t="s">
+        <v>87</v>
+      </c>
+      <c r="G156">
+        <v>2.15</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>50</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157" s="1">
+        <v>44292</v>
+      </c>
+      <c r="B157" s="1">
+        <v>44292</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D157" t="s">
+        <v>217</v>
+      </c>
+      <c r="E157" t="s">
+        <v>12</v>
+      </c>
+      <c r="F157" t="s">
+        <v>177</v>
+      </c>
+      <c r="G157">
+        <v>1.33</v>
+      </c>
+      <c r="H157">
+        <v>1</v>
+      </c>
+      <c r="I157">
+        <v>45</v>
+      </c>
+      <c r="J157">
+        <f>G157 * I157</f>
+        <v>59.85</v>
+      </c>
+      <c r="K157" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158" s="1">
+        <v>44290</v>
+      </c>
+      <c r="B158" s="1">
+        <v>44290</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s">
+        <v>219</v>
+      </c>
+      <c r="E158" t="s">
+        <v>32</v>
+      </c>
+      <c r="F158" t="s">
+        <v>220</v>
+      </c>
+      <c r="G158">
+        <v>1.6</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158">
+        <v>100</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159" s="1">
+        <v>44290</v>
+      </c>
+      <c r="B159" s="1">
+        <v>44290</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s">
+        <v>219</v>
+      </c>
+      <c r="E159" t="s">
+        <v>32</v>
+      </c>
+      <c r="F159" t="s">
+        <v>221</v>
+      </c>
+      <c r="G159">
+        <v>1.28</v>
+      </c>
+      <c r="H159">
+        <v>1</v>
+      </c>
+      <c r="I159">
+        <v>100</v>
+      </c>
+      <c r="J159">
+        <f>G159 * I159</f>
+        <v>128</v>
+      </c>
+      <c r="K159" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160" s="1">
+        <v>44290</v>
+      </c>
+      <c r="B160" s="1">
+        <v>44290</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s">
+        <v>219</v>
+      </c>
+      <c r="E160" t="s">
+        <v>32</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G160">
+        <v>1.97</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <v>50</v>
+      </c>
+      <c r="J160">
+        <v>14.62</v>
+      </c>
+      <c r="K160" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161" s="1">
+        <v>44289</v>
+      </c>
+      <c r="B161" s="1">
+        <v>44289</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D161" t="s">
+        <v>128</v>
+      </c>
+      <c r="E161" t="s">
+        <v>32</v>
+      </c>
+      <c r="F161" t="s">
+        <v>83</v>
+      </c>
+      <c r="G161">
+        <v>4.8</v>
+      </c>
+      <c r="H161">
+        <v>1</v>
+      </c>
+      <c r="I161">
+        <v>50</v>
+      </c>
+      <c r="J161">
+        <f>G161 * I161</f>
+        <v>240</v>
+      </c>
+      <c r="K161" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162" s="1">
+        <v>44289</v>
+      </c>
+      <c r="B162" s="1">
+        <v>44289</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D162" t="s">
+        <v>128</v>
+      </c>
+      <c r="E162" t="s">
+        <v>32</v>
+      </c>
+      <c r="F162" t="s">
+        <v>87</v>
+      </c>
+      <c r="G162">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H162">
+        <v>1</v>
+      </c>
+      <c r="I162">
+        <v>50</v>
+      </c>
+      <c r="J162">
+        <f>G162 * I162</f>
         <v>110.00000000000001</v>
       </c>
-      <c r="K149" t="s">
+      <c r="K162" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54586E09-9FFB-4E9E-9508-271C90B80E05}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6292,36 +6804,29 @@
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="4">
-        <f xml:space="preserve"> SUM(Odds!J:J)</f>
-        <v>6198.9174000000003</v>
-      </c>
-      <c r="B2">
-        <f xml:space="preserve"> SUM(Odds!I:I)</f>
-        <v>6733.22</v>
-      </c>
-      <c r="C2">
-        <f>A2 - B2</f>
-        <v>-534.30259999999998</v>
-      </c>
-      <c r="D2">
-        <f>ROUND(100 * (C2 / B2), 2)</f>
-        <v>-7.94</v>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/inst/data/Betting.xlsx
+++ b/inst/data/Betting.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25324"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C25C09C-1354-42E2-B91D-63980A2C4007}" xr6:coauthVersionLast="48" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E92D8910-8CEE-440C-BC6C-B7A9ECFAAFB6}" xr6:coauthVersionLast="48" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="Om dataindsamling" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Odds!$A$1:$N$168</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Odds!$A$1:$N$170</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="250">
   <si>
     <t>BetDay</t>
   </si>
@@ -75,6 +75,39 @@
     <t>Bookmaker</t>
   </si>
   <si>
+    <t>International</t>
+  </si>
+  <si>
+    <t>Champions League</t>
+  </si>
+  <si>
+    <t>Liverpool - Real Madrid</t>
+  </si>
+  <si>
+    <t>Live Betting</t>
+  </si>
+  <si>
+    <t>0-1</t>
+  </si>
+  <si>
+    <t>Resultat</t>
+  </si>
+  <si>
+    <t>Danske Spil</t>
+  </si>
+  <si>
+    <t>Oddset</t>
+  </si>
+  <si>
+    <t>Mål i de første 10 minutter: nej</t>
+  </si>
+  <si>
+    <t>Mål</t>
+  </si>
+  <si>
+    <t>Bet365</t>
+  </si>
+  <si>
     <t>Denmark</t>
   </si>
   <si>
@@ -84,27 +117,18 @@
     <t>HIK - AB</t>
   </si>
   <si>
-    <t>Oddset</t>
-  </si>
-  <si>
     <t>Dobbeltchance HIK eller Uafgjort</t>
   </si>
   <si>
     <t>Dobbeltchance</t>
   </si>
   <si>
-    <t>Bet365</t>
-  </si>
-  <si>
     <t>Double ID 10.</t>
   </si>
   <si>
     <t>Double</t>
   </si>
   <si>
-    <t>Danske Spil</t>
-  </si>
-  <si>
     <t>Double ID 10. : Dobbeltchance HIK eller Uafgjort</t>
   </si>
   <si>
@@ -120,24 +144,12 @@
     <t>OB - FC Midtjylland</t>
   </si>
   <si>
-    <t>Mål i de første 10 minutter: nej</t>
-  </si>
-  <si>
-    <t>Mål</t>
-  </si>
-  <si>
-    <t>International</t>
-  </si>
-  <si>
     <t>Conference League</t>
   </si>
   <si>
     <t>Roma - Feyenoord</t>
   </si>
   <si>
-    <t>Live Betting</t>
-  </si>
-  <si>
     <t>Dobbeltchance Roma eller Uafgjort</t>
   </si>
   <si>
@@ -297,16 +309,10 @@
     <t>1-0</t>
   </si>
   <si>
-    <t>Resultat</t>
-  </si>
-  <si>
     <t>Dobbeltchance Liverpool eller Uafgjort</t>
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>Champions League</t>
   </si>
   <si>
     <t>Villarreal - Liverpool</t>
@@ -1144,11 +1150,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N168"/>
+  <dimension ref="A1:N170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="C2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1209,10 +1215,10 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>44707</v>
+        <v>44709</v>
       </c>
       <c r="B2" s="1">
-        <v>44707</v>
+        <v>44709</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>14</v>
@@ -1226,20 +1232,20 @@
       <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" t="s">
         <v>18</v>
       </c>
       <c r="H2">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="L2" t="s">
         <v>19</v>
@@ -1250,10 +1256,10 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>44707</v>
+        <v>44709</v>
       </c>
       <c r="B3" s="1">
-        <v>44707</v>
+        <v>44709</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>14</v>
@@ -1261,29 +1267,36 @@
       <c r="D3" t="s">
         <v>15</v>
       </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3">
-        <v>2.0499999999999998</v>
+        <v>1.2</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>20.170000000000002</v>
+        <v>72.239999999999995</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <f>86.69 + 10</f>
+        <v>96.69</v>
       </c>
       <c r="L3" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="M3">
+        <v>50</v>
       </c>
       <c r="N3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1294,37 +1307,37 @@
         <v>44707</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4">
+        <v>1.5</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>50</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" t="s">
         <v>24</v>
-      </c>
-      <c r="H4">
-        <v>1.47</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1335,34 +1348,31 @@
         <v>44707</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H5">
-        <v>1.4</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>20.170000000000002</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N5" t="s">
         <v>20</v>
@@ -1376,164 +1386,167 @@
         <v>44707</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6">
+        <v>1.47</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
         <v>29</v>
       </c>
-      <c r="H6">
+      <c r="N6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1">
+        <v>44707</v>
+      </c>
+      <c r="B7" s="1">
+        <v>44707</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7">
+        <v>1.4</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1">
+        <v>44707</v>
+      </c>
+      <c r="B8" s="1">
+        <v>44707</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8">
         <v>1.22</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
         <v>50</v>
       </c>
-      <c r="K6">
+      <c r="K8">
         <f>2 * 11.12 + 50</f>
         <v>72.239999999999995</v>
       </c>
-      <c r="L6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6">
+      <c r="L8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8">
         <v>50</v>
       </c>
-      <c r="N6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1">
-        <v>44706</v>
-      </c>
-      <c r="B7" s="1">
-        <v>44706</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7">
-        <v>1.06</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>50</v>
-      </c>
-      <c r="K7">
-        <v>56</v>
-      </c>
-      <c r="L7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7">
-        <v>50</v>
-      </c>
-      <c r="N7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="1">
-        <v>44702</v>
-      </c>
-      <c r="B8" s="1">
-        <v>44703</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8">
-        <v>1.17</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>246.38</v>
-      </c>
-      <c r="K8">
-        <v>289</v>
-      </c>
-      <c r="L8" t="s">
-        <v>22</v>
-      </c>
       <c r="N8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>44702</v>
+        <v>44706</v>
       </c>
       <c r="B9" s="1">
-        <v>44703</v>
+        <v>44706</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
         <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>40</v>
+      <c r="G9" t="s">
+        <v>39</v>
       </c>
       <c r="H9">
-        <v>1.1499999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="L9" t="s">
-        <v>41</v>
+        <v>29</v>
+      </c>
+      <c r="M9">
+        <v>50</v>
       </c>
       <c r="N9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1544,37 +1557,34 @@
         <v>44703</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
         <v>42</v>
       </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
-        <v>43</v>
-      </c>
       <c r="H10">
-        <v>1.02</v>
+        <v>1.17</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>246.38</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>289</v>
       </c>
       <c r="L10" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1585,37 +1595,37 @@
         <v>44703</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
         <v>45</v>
       </c>
-      <c r="H11">
-        <v>1.25</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11" t="s">
-        <v>19</v>
-      </c>
       <c r="N11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1626,22 +1636,22 @@
         <v>44703</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>46</v>
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>47</v>
       </c>
       <c r="H12">
-        <v>1.1499999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -1653,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="N12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1667,22 +1677,22 @@
         <v>44703</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>46</v>
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>49</v>
       </c>
       <c r="H13">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -1694,10 +1704,10 @@
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="N13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1708,19 +1718,19 @@
         <v>44703</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H14">
         <v>1.1499999999999999</v>
@@ -1735,10 +1745,10 @@
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1749,25 +1759,25 @@
         <v>44703</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" t="s">
-        <v>49</v>
+        <v>21</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="H15">
-        <v>1.6</v>
+        <v>1.17</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1776,10 +1786,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="N15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1790,22 +1800,22 @@
         <v>44703</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" t="s">
-        <v>51</v>
-      </c>
       <c r="H16">
-        <v>1.04</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1817,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="N16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1831,116 +1841,116 @@
         <v>44703</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H17">
-        <v>3.24</v>
+        <v>1.6</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>20.03</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="N17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
-        <v>44698</v>
+        <v>44702</v>
       </c>
       <c r="B18" s="1">
-        <v>44698</v>
+        <v>44703</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E18" t="s">
         <v>54</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G18" t="s">
         <v>55</v>
       </c>
       <c r="H18">
-        <v>1.37</v>
+        <v>1.04</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
-        <v>44698</v>
+        <v>44702</v>
       </c>
       <c r="B19" s="1">
-        <v>44698</v>
+        <v>44703</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G19" t="s">
         <v>56</v>
       </c>
       <c r="H19">
-        <v>1.1299999999999999</v>
+        <v>3.24</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>50.01</v>
+        <v>20.03</v>
       </c>
       <c r="K19">
-        <v>56.5</v>
+        <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="N19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1951,37 +1961,37 @@
         <v>44698</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F20" t="s">
         <v>17</v>
       </c>
       <c r="G20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H20">
-        <v>1.57</v>
+        <v>1.37</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>19.75</v>
+        <v>100</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="L20" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="N20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1992,157 +2002,160 @@
         <v>44698</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F21" t="s">
         <v>17</v>
       </c>
       <c r="G21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H21">
-        <v>1.35</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>50.38</v>
+        <v>50.01</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>56.5</v>
       </c>
       <c r="L21" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="N21" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
-        <v>44695</v>
+        <v>44698</v>
       </c>
       <c r="B22" s="1">
-        <v>44696</v>
+        <v>44698</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" t="s">
-        <v>60</v>
+        <v>40</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
         <v>61</v>
       </c>
-      <c r="F22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" t="s">
-        <v>56</v>
-      </c>
       <c r="H22">
-        <v>1.32</v>
+        <v>1.57</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>20.079999999999998</v>
+        <v>19.75</v>
       </c>
       <c r="K22">
-        <v>26.5</v>
+        <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
-        <v>44692</v>
+        <v>44698</v>
       </c>
       <c r="B23" s="1">
-        <v>44692</v>
+        <v>44698</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
         <v>62</v>
       </c>
-      <c r="F23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="H23">
+        <v>1.35</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>50.38</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
         <v>63</v>
       </c>
-      <c r="H23">
-        <v>1.04</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23">
-        <v>100</v>
-      </c>
-      <c r="K23">
-        <v>104</v>
-      </c>
-      <c r="L23" t="s">
-        <v>19</v>
-      </c>
       <c r="N23" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
-        <v>44692</v>
+        <v>44695</v>
       </c>
       <c r="B24" s="1">
-        <v>44692</v>
+        <v>44696</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" t="s">
+        <v>65</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G24" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H24">
-        <v>1.52</v>
+        <v>1.32</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>20.399999999999999</v>
+        <v>20.079999999999998</v>
       </c>
       <c r="K24">
-        <v>31</v>
+        <v>26.5</v>
       </c>
       <c r="L24" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="N24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -2153,19 +2166,19 @@
         <v>44692</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E25" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H25">
         <v>1.04</v>
@@ -2174,16 +2187,16 @@
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="L25" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="N25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -2194,37 +2207,34 @@
         <v>44692</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G26" t="s">
         <v>68</v>
       </c>
       <c r="H26">
-        <v>1.1499999999999999</v>
+        <v>1.52</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="L26" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="N26" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -2235,22 +2245,22 @@
         <v>44692</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G27" t="s">
         <v>70</v>
       </c>
       <c r="H27">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -2262,10 +2272,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="N27" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -2276,22 +2286,22 @@
         <v>44692</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E28" t="s">
         <v>71</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G28" t="s">
         <v>72</v>
       </c>
       <c r="H28">
-        <v>1.18</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -2303,92 +2313,92 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="N28" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1">
-        <v>44691</v>
+        <v>44692</v>
       </c>
       <c r="B29" s="1">
-        <v>44691</v>
+        <v>44692</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E29" t="s">
         <v>73</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" t="s">
         <v>74</v>
       </c>
       <c r="H29">
-        <v>1.52</v>
+        <v>1.08</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29">
-        <v>9.8699999999999992</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="N29" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="1">
-        <v>44691</v>
+        <v>44692</v>
       </c>
       <c r="B30" s="1">
-        <v>44691</v>
+        <v>44692</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E30" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F30" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H30">
-        <v>1.1599999999999999</v>
+        <v>1.18</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30">
-        <v>49.57</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>57.5</v>
+        <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="N30" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2399,119 +2409,119 @@
         <v>44691</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E31" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" t="s">
-        <v>56</v>
+        <v>21</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="H31">
-        <v>1.1299999999999999</v>
+        <v>1.52</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31">
-        <v>49.6</v>
+        <v>9.8699999999999992</v>
       </c>
       <c r="K31">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="L31" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="N31" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="1">
-        <v>44689</v>
+        <v>44691</v>
       </c>
       <c r="B32" s="1">
-        <v>44689</v>
+        <v>44691</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E32" t="s">
         <v>77</v>
       </c>
       <c r="F32" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H32">
-        <v>1.02</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>49.57</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>57.5</v>
       </c>
       <c r="L32" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="N32" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="1">
-        <v>44689</v>
+        <v>44691</v>
       </c>
       <c r="B33" s="1">
-        <v>44689</v>
+        <v>44691</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G33" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H33">
-        <v>1.1100000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="I33">
         <v>1</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>49.6</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="L33" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="N33" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2522,22 +2532,22 @@
         <v>44689</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E34" t="s">
         <v>81</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G34" t="s">
         <v>82</v>
       </c>
       <c r="H34">
-        <v>1.22</v>
+        <v>1.02</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -2549,10 +2559,10 @@
         <v>0</v>
       </c>
       <c r="L34" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="N34" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2563,116 +2573,116 @@
         <v>44689</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="E35" t="s">
+        <v>83</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H35">
-        <v>1.38</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
       <c r="J35">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="L35" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="N35" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="1">
-        <v>44688</v>
+        <v>44689</v>
       </c>
       <c r="B36" s="1">
         <v>44689</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E36" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G36" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H36">
-        <v>1.1100000000000001</v>
+        <v>1.22</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
       <c r="J36">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="L36" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="N36" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="1">
-        <v>44688</v>
+        <v>44689</v>
       </c>
       <c r="B37" s="1">
-        <v>44688</v>
+        <v>44689</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
-      </c>
-      <c r="G37" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" t="s">
         <v>87</v>
       </c>
       <c r="H37">
-        <v>5.4</v>
+        <v>1.38</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="L37" t="s">
         <v>88</v>
       </c>
       <c r="N37" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2680,25 +2690,25 @@
         <v>44688</v>
       </c>
       <c r="B38" s="1">
-        <v>44688</v>
+        <v>44689</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E38" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G38" t="s">
         <v>89</v>
       </c>
       <c r="H38">
-        <v>1.1399999999999999</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -2707,136 +2717,136 @@
         <v>100</v>
       </c>
       <c r="K38">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L38" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="N38" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="1">
-        <v>44656</v>
+        <v>44688</v>
       </c>
       <c r="B39" s="1">
         <v>44688</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E39" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F39" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="3" t="s">
-        <v>90</v>
+      <c r="G39" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="H39">
-        <v>1.42</v>
+        <v>5.4</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="L39" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="N39" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="1">
-        <v>44684</v>
+        <v>44688</v>
       </c>
       <c r="B40" s="1">
-        <v>44684</v>
+        <v>44688</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D40" t="s">
-        <v>91</v>
+        <v>40</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E40" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F40" t="s">
         <v>17</v>
       </c>
       <c r="G40" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="H40">
-        <v>1.22</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40">
-        <v>35.25</v>
+        <v>100</v>
       </c>
       <c r="K40">
-        <v>43</v>
-      </c>
-      <c r="L40" s="4" t="s">
-        <v>19</v>
+        <v>114</v>
+      </c>
+      <c r="L40" t="s">
+        <v>29</v>
       </c>
       <c r="N40" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="1">
-        <v>44684</v>
+        <v>44686</v>
       </c>
       <c r="B41" s="1">
-        <v>44684</v>
+        <v>44688</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D41" t="s">
-        <v>91</v>
+        <v>40</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E41" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>93</v>
       </c>
       <c r="H41">
-        <v>1.06</v>
+        <v>1.42</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="L41" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="N41" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2847,186 +2857,186 @@
         <v>44684</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G42" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="H42">
-        <v>1.1499999999999999</v>
+        <v>1.22</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42">
-        <v>65.22</v>
+        <v>35.25</v>
       </c>
       <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42" t="s">
-        <v>95</v>
+        <v>43</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="N42" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="1">
-        <v>44683</v>
+        <v>44684</v>
       </c>
       <c r="B43" s="1">
-        <v>44683</v>
+        <v>44684</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
+      </c>
+      <c r="D43" t="s">
+        <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G43" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H43">
-        <v>2.15</v>
+        <v>1.06</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="L43" t="s">
         <v>19</v>
       </c>
       <c r="N43" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="1">
-        <v>44566</v>
+        <v>44684</v>
       </c>
       <c r="B44" s="1">
-        <v>44566</v>
+        <v>44684</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
+      </c>
+      <c r="D44" t="s">
+        <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G44" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H44">
-        <v>2.1</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>5</v>
+        <v>65.22</v>
       </c>
       <c r="K44">
-        <v>10.5</v>
-      </c>
-      <c r="L44" s="4" t="s">
-        <v>19</v>
+        <v>0</v>
+      </c>
+      <c r="L44" t="s">
+        <v>97</v>
       </c>
       <c r="N44" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="1">
-        <v>44681</v>
+        <v>44683</v>
       </c>
       <c r="B45" s="1">
-        <v>44681</v>
+        <v>44683</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E45" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F45" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>74</v>
+        <v>21</v>
+      </c>
+      <c r="G45" t="s">
+        <v>99</v>
       </c>
       <c r="H45">
-        <v>1.3</v>
+        <v>2.15</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="K45">
-        <v>36</v>
-      </c>
-      <c r="L45" t="s">
-        <v>41</v>
+        <v>0</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="N45" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="1">
-        <v>44681</v>
+        <v>44566</v>
       </c>
       <c r="B46" s="1">
-        <v>44681</v>
+        <v>44566</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E46" t="s">
         <v>100</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G46" t="s">
         <v>101</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -3035,13 +3045,13 @@
         <v>5</v>
       </c>
       <c r="K46">
-        <v>15</v>
-      </c>
-      <c r="L46" t="s">
-        <v>102</v>
+        <v>10.5</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="N46" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -3052,37 +3062,37 @@
         <v>44681</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" t="s">
+        <v>102</v>
+      </c>
+      <c r="F47" t="s">
+        <v>21</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H47">
+        <v>1.3</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>28</v>
+      </c>
+      <c r="K47">
         <v>36</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E47" t="s">
-        <v>103</v>
-      </c>
-      <c r="F47" t="s">
-        <v>34</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H47">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
-      <c r="J47">
-        <v>28.65</v>
-      </c>
-      <c r="K47">
-        <v>33</v>
-      </c>
       <c r="L47" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N47" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -3093,37 +3103,37 @@
         <v>44681</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E48" t="s">
+        <v>102</v>
+      </c>
+      <c r="F48" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48" t="s">
         <v>103</v>
       </c>
-      <c r="F48" t="s">
-        <v>34</v>
-      </c>
-      <c r="G48" t="s">
+      <c r="H48">
+        <v>3</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>5</v>
+      </c>
+      <c r="K48">
+        <v>15</v>
+      </c>
+      <c r="L48" t="s">
         <v>104</v>
       </c>
-      <c r="H48">
-        <v>3.9</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>10</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48" t="s">
-        <v>105</v>
-      </c>
       <c r="N48" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -3134,37 +3144,37 @@
         <v>44681</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E49" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
-      </c>
-      <c r="G49" t="s">
-        <v>106</v>
+        <v>17</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="H49">
-        <v>1.25</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49">
-        <v>20</v>
+        <v>28.65</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="L49" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="N49" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -3175,22 +3185,22 @@
         <v>44681</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E50" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H50">
-        <v>1.45</v>
+        <v>3.9</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -3202,10 +3212,10 @@
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="N50" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -3216,37 +3226,37 @@
         <v>44681</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E51" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G51" t="s">
         <v>108</v>
       </c>
       <c r="H51">
-        <v>2.4</v>
+        <v>1.25</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K51">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="N51" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -3257,13 +3267,13 @@
         <v>44681</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F52" t="s">
         <v>17</v>
@@ -3272,104 +3282,104 @@
         <v>109</v>
       </c>
       <c r="H52">
-        <v>1.23</v>
+        <v>1.45</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K52">
         <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="N52" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="1">
-        <v>44679</v>
+        <v>44681</v>
       </c>
       <c r="B53" s="1">
-        <v>44679</v>
+        <v>44681</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E53" t="s">
+        <v>105</v>
+      </c>
+      <c r="F53" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53" t="s">
         <v>110</v>
       </c>
-      <c r="F53" t="s">
-        <v>34</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="H53">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>95.5</v>
+        <v>10</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="L53" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="1">
-        <v>44679</v>
+        <v>44681</v>
       </c>
       <c r="B54" s="1">
-        <v>44679</v>
+        <v>44681</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E54" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F54" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G54" t="s">
         <v>111</v>
       </c>
       <c r="H54">
-        <v>5.2</v>
+        <v>1.23</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K54">
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="N54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -3380,37 +3390,37 @@
         <v>44679</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E55" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F55" t="s">
         <v>17</v>
       </c>
-      <c r="G55" t="s">
-        <v>112</v>
+      <c r="G55" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="H55">
-        <v>1.32</v>
+        <v>2</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55">
-        <v>50</v>
+        <v>95.5</v>
       </c>
       <c r="K55">
-        <v>66</v>
-      </c>
-      <c r="L55" s="4" t="s">
-        <v>19</v>
+        <v>0</v>
+      </c>
+      <c r="L55" t="s">
+        <v>45</v>
       </c>
       <c r="N55" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -3421,13 +3431,13 @@
         <v>44679</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E56" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F56" t="s">
         <v>17</v>
@@ -3436,104 +3446,104 @@
         <v>113</v>
       </c>
       <c r="H56">
-        <v>1.19</v>
+        <v>5.2</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="K56">
-        <v>29.5</v>
+        <v>0</v>
       </c>
       <c r="L56" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="N56" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="1">
-        <v>44678</v>
+        <v>44679</v>
       </c>
       <c r="B57" s="1">
-        <v>44678</v>
+        <v>44679</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D57" t="s">
-        <v>91</v>
+        <v>40</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
+        <v>21</v>
+      </c>
+      <c r="G57" t="s">
         <v>114</v>
       </c>
-      <c r="F57" t="s">
-        <v>34</v>
-      </c>
-      <c r="G57" t="s">
-        <v>94</v>
-      </c>
       <c r="H57">
-        <v>1.1299999999999999</v>
+        <v>1.32</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="K57">
-        <v>105</v>
-      </c>
-      <c r="L57" t="s">
-        <v>95</v>
+        <v>66</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="N57" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="1">
-        <v>44678</v>
+        <v>44679</v>
       </c>
       <c r="B58" s="1">
-        <v>44678</v>
+        <v>44679</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D58" t="s">
-        <v>91</v>
+        <v>40</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G58" t="s">
         <v>115</v>
       </c>
       <c r="H58">
-        <v>4.5</v>
+        <v>1.19</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>29.5</v>
       </c>
       <c r="L58" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="N58" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -3544,37 +3554,37 @@
         <v>44678</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="E59" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F59" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G59" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="H59">
-        <v>1.5</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="I59">
         <v>1</v>
       </c>
       <c r="J59">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="K59">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="L59" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="N59" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -3585,22 +3595,22 @@
         <v>44678</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="E60" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H60">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -3612,10 +3622,10 @@
         <v>0</v>
       </c>
       <c r="L60" t="s">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="N60" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -3626,198 +3636,198 @@
         <v>44678</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="E61" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G61" t="s">
         <v>119</v>
       </c>
       <c r="H61">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="I61">
         <v>1</v>
       </c>
       <c r="J61">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K61">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="L61" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="N61" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="1">
-        <v>44677</v>
+        <v>44678</v>
       </c>
       <c r="B62" s="1">
-        <v>44677</v>
+        <v>44678</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="E62" t="s">
+        <v>116</v>
+      </c>
+      <c r="F62" t="s">
+        <v>17</v>
+      </c>
+      <c r="G62" t="s">
         <v>120</v>
       </c>
-      <c r="F62" t="s">
-        <v>34</v>
-      </c>
-      <c r="G62" t="s">
-        <v>121</v>
-      </c>
       <c r="H62">
-        <v>1.58</v>
+        <v>2.15</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="K62">
         <v>0</v>
       </c>
       <c r="L62" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N62" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="1">
-        <v>44676</v>
+        <v>44678</v>
       </c>
       <c r="B63" s="1">
-        <v>44676</v>
+        <v>44678</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
+      </c>
+      <c r="D63" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" t="s">
+        <v>116</v>
       </c>
       <c r="F63" t="s">
         <v>17</v>
       </c>
       <c r="G63" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H63">
-        <v>7.23</v>
+        <v>1.32</v>
       </c>
       <c r="I63">
         <v>1</v>
       </c>
       <c r="J63">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="K63">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="L63" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="N63" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="1">
-        <v>44674</v>
+        <v>44677</v>
       </c>
       <c r="B64" s="1">
-        <v>44674</v>
+        <v>44677</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
+      </c>
+      <c r="D64" t="s">
+        <v>15</v>
       </c>
       <c r="E64" t="s">
+        <v>122</v>
+      </c>
+      <c r="F64" t="s">
+        <v>17</v>
+      </c>
+      <c r="G64" t="s">
         <v>123</v>
       </c>
-      <c r="F64" t="s">
-        <v>34</v>
-      </c>
-      <c r="G64" t="s">
-        <v>124</v>
-      </c>
       <c r="H64">
-        <v>2.8</v>
+        <v>1.58</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K64">
         <v>0</v>
       </c>
       <c r="L64" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="N64" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="1">
-        <v>44674</v>
+        <v>44676</v>
       </c>
       <c r="B65" s="1">
-        <v>44674</v>
+        <v>44676</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E65" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="F65" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G65" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H65">
-        <v>2.0499999999999998</v>
+        <v>7.23</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65">
         <v>10</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L65" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="N65" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3828,63 +3838,63 @@
         <v>44674</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E66" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F66" t="s">
         <v>17</v>
       </c>
       <c r="G66" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="H66">
-        <v>1.32</v>
+        <v>2.8</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="J66">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K66">
         <v>0</v>
       </c>
       <c r="L66" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="N66" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="1">
-        <v>44672</v>
+        <v>44674</v>
       </c>
       <c r="B67" s="1">
-        <v>44672</v>
+        <v>44674</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E67" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F67" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G67" t="s">
         <v>127</v>
       </c>
       <c r="H67">
-        <v>3.3</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -3896,93 +3906,92 @@
         <v>0</v>
       </c>
       <c r="L67" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="N67" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="1">
-        <v>44671</v>
+        <v>44674</v>
       </c>
       <c r="B68" s="1">
-        <v>44675</v>
+        <v>44674</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E68" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F68" t="s">
-        <v>17</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>90</v>
+        <v>21</v>
+      </c>
+      <c r="G68" t="s">
+        <v>121</v>
       </c>
       <c r="H68">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K68">
-        <f>H68 * J68</f>
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="L68" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="N68" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="1">
-        <v>44671</v>
+        <v>44672</v>
       </c>
       <c r="B69" s="1">
-        <v>44671</v>
+        <v>44672</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E69" t="s">
+        <v>128</v>
+      </c>
+      <c r="F69" t="s">
+        <v>21</v>
+      </c>
+      <c r="G69" t="s">
         <v>129</v>
       </c>
-      <c r="F69" t="s">
-        <v>17</v>
-      </c>
-      <c r="G69" t="s">
-        <v>130</v>
-      </c>
       <c r="H69">
-        <v>2.35</v>
+        <v>3.3</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K69">
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N69" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -3990,40 +3999,41 @@
         <v>44671</v>
       </c>
       <c r="B70" s="1">
-        <v>44671</v>
+        <v>44675</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F70" t="s">
-        <v>17</v>
-      </c>
-      <c r="G70" t="s">
-        <v>130</v>
+        <v>21</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="H70">
-        <v>1.92</v>
+        <v>1.2</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <f>H70 * J70</f>
+        <v>240</v>
       </c>
       <c r="L70" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N70" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -4034,22 +4044,22 @@
         <v>44671</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E71" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E71" t="s">
+        <v>131</v>
+      </c>
+      <c r="F71" t="s">
+        <v>21</v>
+      </c>
+      <c r="G71" t="s">
         <v>132</v>
       </c>
-      <c r="F71" t="s">
-        <v>17</v>
-      </c>
-      <c r="G71" t="s">
-        <v>130</v>
-      </c>
       <c r="H71">
-        <v>1.23</v>
+        <v>2.35</v>
       </c>
       <c r="I71">
         <v>1</v>
@@ -4061,10 +4071,10 @@
         <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N71" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -4075,25 +4085,25 @@
         <v>44671</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E72" t="s">
         <v>133</v>
       </c>
       <c r="F72" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G72" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H72">
-        <v>3.3</v>
+        <v>1.92</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -4102,10 +4112,10 @@
         <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N72" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -4116,118 +4126,116 @@
         <v>44671</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="F73" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G73" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H73">
-        <v>2.375</v>
+        <v>1.23</v>
       </c>
       <c r="I73">
         <v>1</v>
       </c>
       <c r="J73">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K73">
-        <v>47.5</v>
+        <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="N73" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="1">
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="B74" s="1">
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E74" t="s">
+        <v>135</v>
+      </c>
+      <c r="F74" t="s">
+        <v>21</v>
+      </c>
+      <c r="G74" t="s">
         <v>136</v>
       </c>
-      <c r="F74" t="s">
-        <v>17</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="H74">
-        <v>1.33</v>
+        <v>3.3</v>
       </c>
       <c r="I74">
         <v>1</v>
       </c>
       <c r="J74">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="K74">
-        <f>H74 * J74</f>
-        <v>134.33000000000001</v>
+        <v>0</v>
       </c>
       <c r="L74" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N74" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="1">
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="B75" s="1">
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E75" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="F75" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G75" t="s">
         <v>137</v>
       </c>
       <c r="H75">
-        <v>15</v>
+        <v>2.375</v>
       </c>
       <c r="I75">
         <v>1</v>
       </c>
       <c r="J75">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K75">
-        <f>H75 * J75</f>
-        <v>150</v>
+        <v>47.5</v>
       </c>
       <c r="L75" t="s">
         <v>88</v>
       </c>
       <c r="N75" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -4238,133 +4246,135 @@
         <v>44670</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E76" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F76" t="s">
-        <v>17</v>
-      </c>
-      <c r="G76" t="s">
-        <v>138</v>
+        <v>21</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="H76">
-        <v>9.35</v>
+        <v>1.33</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="K76">
-        <v>0</v>
+        <f>H76 * J76</f>
+        <v>134.33000000000001</v>
       </c>
       <c r="L76" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="N76" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="1">
-        <v>44667</v>
+        <v>44670</v>
       </c>
       <c r="B77" s="1">
-        <v>44667</v>
+        <v>44670</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E77" t="s">
+        <v>138</v>
+      </c>
+      <c r="F77" t="s">
+        <v>21</v>
+      </c>
+      <c r="G77" t="s">
         <v>139</v>
       </c>
-      <c r="F77" t="s">
-        <v>34</v>
-      </c>
-      <c r="G77" t="s">
-        <v>140</v>
-      </c>
       <c r="H77">
-        <v>1.52</v>
+        <v>15</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K77">
-        <v>0</v>
+        <f>H77 * J77</f>
+        <v>150</v>
       </c>
       <c r="L77" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="N77" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="1">
-        <v>44664</v>
+        <v>44670</v>
       </c>
       <c r="B78" s="1">
-        <v>44664</v>
+        <v>44670</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="E78" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G78" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H78">
-        <v>2.85</v>
+        <v>9.35</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
       <c r="J78">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="K78">
         <v>0</v>
       </c>
       <c r="L78" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="N78" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="1">
-        <v>44664</v>
+        <v>44667</v>
       </c>
       <c r="B79" s="1">
-        <v>44664</v>
+        <v>44667</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="E79" t="s">
         <v>141</v>
@@ -4373,108 +4383,108 @@
         <v>17</v>
       </c>
       <c r="G79" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="H79">
-        <v>1.38</v>
+        <v>1.52</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79">
-        <v>102.5</v>
+        <v>20</v>
       </c>
       <c r="K79">
-        <f>H79 * J79</f>
-        <v>141.44999999999999</v>
+        <v>0</v>
       </c>
       <c r="L79" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="N79" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="1">
-        <v>44656</v>
+        <v>44664</v>
       </c>
       <c r="B80" s="1">
-        <v>44656</v>
+        <v>44664</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="E80" t="s">
         <v>143</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G80" t="s">
         <v>144</v>
       </c>
       <c r="H80">
-        <v>1.25</v>
+        <v>2.85</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K80">
         <v>0</v>
       </c>
       <c r="L80" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="N80" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="1">
-        <v>44656</v>
+        <v>44664</v>
       </c>
       <c r="B81" s="1">
-        <v>44656</v>
+        <v>44664</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="E81" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G81" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="H81">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="I81">
         <v>1</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>102.5</v>
       </c>
       <c r="K81">
-        <v>0</v>
+        <f>H81 * J81</f>
+        <v>141.44999999999999</v>
       </c>
       <c r="L81" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="N81" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -4482,136 +4492,134 @@
         <v>44656</v>
       </c>
       <c r="B82" s="1">
-        <v>44671</v>
+        <v>44656</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>91</v>
+        <v>15</v>
+      </c>
+      <c r="E82" t="s">
+        <v>145</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G82" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H82">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="I82">
         <v>1</v>
       </c>
       <c r="J82">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K82">
-        <f>H82 * J82</f>
-        <v>87.5</v>
+        <v>0</v>
       </c>
       <c r="L82" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="N82" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="1">
-        <v>44640</v>
+        <v>44656</v>
       </c>
       <c r="B83" s="1">
-        <v>44640</v>
+        <v>44656</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D83" t="s">
-        <v>60</v>
+        <v>14</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E83" t="s">
+        <v>147</v>
+      </c>
+      <c r="F83" t="s">
+        <v>17</v>
+      </c>
+      <c r="G83" t="s">
         <v>148</v>
       </c>
-      <c r="F83" t="s">
-        <v>34</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="H83">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="I83">
         <v>1</v>
       </c>
       <c r="J83">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K83">
-        <f>H83 * J83</f>
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="L83" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N83" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="1">
-        <v>44636</v>
+        <v>44656</v>
       </c>
       <c r="B84" s="1">
-        <v>44636</v>
+        <v>44656</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D84" t="s">
-        <v>37</v>
-      </c>
-      <c r="E84" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F84" t="s">
+        <v>17</v>
+      </c>
+      <c r="G84" t="s">
         <v>149</v>
       </c>
-      <c r="F84" t="s">
-        <v>34</v>
-      </c>
-      <c r="G84" t="s">
-        <v>108</v>
-      </c>
       <c r="H84">
-        <v>1.1000000000000001</v>
+        <v>1.75</v>
       </c>
       <c r="I84">
         <v>1</v>
       </c>
       <c r="J84">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="K84">
         <f>H84 * J84</f>
-        <v>26.400000000000002</v>
+        <v>87.5</v>
       </c>
       <c r="L84" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="N84" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="1">
-        <v>44628</v>
+        <v>44640</v>
       </c>
       <c r="B85" s="1">
-        <v>44628</v>
+        <v>44640</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D85" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="E85" t="s">
         <v>150</v>
@@ -4620,191 +4628,192 @@
         <v>17</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H85">
-        <v>1.62</v>
+        <v>1.3</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85">
         <v>50</v>
       </c>
       <c r="K85">
-        <v>0</v>
+        <f>H85 * J85</f>
+        <v>65</v>
       </c>
       <c r="L85" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N85" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="1">
-        <v>44625</v>
+        <v>44636</v>
       </c>
       <c r="B86" s="1">
-        <v>44625</v>
+        <v>44636</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D86" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E86" t="s">
         <v>151</v>
       </c>
       <c r="F86" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G86" t="s">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="H86">
-        <v>1.42</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="K86">
-        <v>0</v>
+        <f>H86 * J86</f>
+        <v>26.400000000000002</v>
       </c>
       <c r="L86" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N86" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="1">
-        <v>44625</v>
+        <v>44628</v>
       </c>
       <c r="B87" s="1">
-        <v>44625</v>
+        <v>44628</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E87" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F87" t="s">
-        <v>17</v>
-      </c>
-      <c r="G87" t="s">
-        <v>153</v>
+        <v>21</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="H87">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87">
         <v>50</v>
       </c>
       <c r="K87">
-        <f>H87 * J87</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="L87" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="N87" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="1">
-        <v>44619</v>
+        <v>44625</v>
       </c>
       <c r="B88" s="1">
-        <v>44619</v>
+        <v>44625</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D88" t="s">
+        <v>41</v>
+      </c>
+      <c r="E88" t="s">
+        <v>153</v>
+      </c>
+      <c r="F88" t="s">
+        <v>17</v>
+      </c>
+      <c r="G88" t="s">
         <v>154</v>
       </c>
-      <c r="E88" t="s">
-        <v>61</v>
-      </c>
-      <c r="F88" t="s">
-        <v>34</v>
-      </c>
-      <c r="G88" t="s">
-        <v>155</v>
-      </c>
       <c r="H88">
-        <v>3</v>
+        <v>1.42</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="K88">
-        <f>H88 * J88</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L88" t="s">
-        <v>156</v>
+        <v>23</v>
       </c>
       <c r="N88" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="1">
-        <v>44619</v>
+        <v>44625</v>
       </c>
       <c r="B89" s="1">
-        <v>44619</v>
+        <v>44625</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D89" t="s">
-        <v>154</v>
+        <v>41</v>
       </c>
       <c r="E89" t="s">
-        <v>61</v>
+        <v>153</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G89" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H89">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="K89">
-        <v>0</v>
+        <f>H89 * J89</f>
+        <v>70</v>
       </c>
       <c r="L89" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="N89" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -4815,64 +4824,64 @@
         <v>44619</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D90" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E90" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F90" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G90" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H90">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="I90">
         <v>1</v>
       </c>
       <c r="J90">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="K90">
         <f>H90 * J90</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="L90" t="s">
-        <v>59</v>
+        <v>158</v>
       </c>
       <c r="N90" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="1">
-        <v>44618</v>
+        <v>44619</v>
       </c>
       <c r="B91" s="1">
-        <v>44618</v>
+        <v>44619</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D91" t="s">
-        <v>37</v>
+        <v>156</v>
       </c>
       <c r="E91" t="s">
+        <v>65</v>
+      </c>
+      <c r="F91" t="s">
+        <v>17</v>
+      </c>
+      <c r="G91" t="s">
         <v>159</v>
       </c>
-      <c r="F91" t="s">
-        <v>34</v>
-      </c>
-      <c r="G91" t="s">
-        <v>160</v>
-      </c>
       <c r="H91">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -4884,90 +4893,93 @@
         <v>0</v>
       </c>
       <c r="L91" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="N91" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="1">
-        <v>44613</v>
+        <v>44619</v>
       </c>
       <c r="B92" s="1">
-        <v>44613</v>
+        <v>44619</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D92" t="s">
-        <v>37</v>
+        <v>156</v>
       </c>
       <c r="E92" t="s">
-        <v>161</v>
+        <v>65</v>
       </c>
       <c r="F92" t="s">
         <v>17</v>
       </c>
-      <c r="G92" s="3" t="s">
-        <v>162</v>
+      <c r="G92" t="s">
+        <v>160</v>
       </c>
       <c r="H92">
-        <v>1.42</v>
+        <v>1.2</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K92">
         <f>H92 * J92</f>
-        <v>127.8</v>
+        <v>60</v>
       </c>
       <c r="L92" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="N92" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="1">
-        <v>44613</v>
+        <v>44618</v>
       </c>
       <c r="B93" s="1">
-        <v>44613</v>
+        <v>44618</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D93" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="E93" t="s">
+        <v>161</v>
       </c>
       <c r="F93" t="s">
         <v>17</v>
       </c>
       <c r="G93" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H93">
-        <v>1238046</v>
+        <v>2.1</v>
       </c>
       <c r="I93">
         <v>0</v>
       </c>
       <c r="J93">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K93">
         <v>0</v>
       </c>
       <c r="L93" t="s">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="N93" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -4975,40 +4987,41 @@
         <v>44613</v>
       </c>
       <c r="B94" s="1">
-        <v>44615</v>
+        <v>44613</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D94" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E94" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F94" t="s">
-        <v>17</v>
-      </c>
-      <c r="G94" t="s">
-        <v>166</v>
+        <v>21</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="H94">
-        <v>3.05</v>
+        <v>1.42</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="K94">
-        <v>0</v>
+        <f>H94 * J94</f>
+        <v>127.8</v>
       </c>
       <c r="L94" t="s">
-        <v>164</v>
+        <v>45</v>
       </c>
       <c r="N94" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -5016,40 +5029,37 @@
         <v>44613</v>
       </c>
       <c r="B95" s="1">
-        <v>44618</v>
+        <v>44613</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D95" t="s">
-        <v>37</v>
-      </c>
-      <c r="E95" t="s">
-        <v>167</v>
+        <v>41</v>
       </c>
       <c r="F95" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G95" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H95">
-        <v>3.4</v>
+        <v>1238046</v>
       </c>
       <c r="I95">
         <v>0</v>
       </c>
       <c r="J95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K95">
         <v>0</v>
       </c>
       <c r="L95" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N95" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -5057,25 +5067,25 @@
         <v>44613</v>
       </c>
       <c r="B96" s="1">
-        <v>44618</v>
+        <v>44615</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D96" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E96" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F96" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G96" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H96">
-        <v>1.75</v>
+        <v>3.05</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -5087,10 +5097,10 @@
         <v>0</v>
       </c>
       <c r="L96" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N96" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -5098,22 +5108,22 @@
         <v>44613</v>
       </c>
       <c r="B97" s="1">
-        <v>44619</v>
+        <v>44618</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D97" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E97" t="s">
+        <v>169</v>
+      </c>
+      <c r="F97" t="s">
+        <v>21</v>
+      </c>
+      <c r="G97" t="s">
         <v>170</v>
-      </c>
-      <c r="F97" t="s">
-        <v>17</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="H97">
         <v>3.4</v>
@@ -5128,10 +5138,10 @@
         <v>0</v>
       </c>
       <c r="L97" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N97" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -5139,25 +5149,25 @@
         <v>44613</v>
       </c>
       <c r="B98" s="1">
-        <v>44621</v>
+        <v>44618</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D98" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E98" t="s">
+        <v>161</v>
+      </c>
+      <c r="F98" t="s">
+        <v>21</v>
+      </c>
+      <c r="G98" t="s">
         <v>171</v>
       </c>
-      <c r="F98" t="s">
-        <v>17</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="H98">
-        <v>3.65</v>
+        <v>1.75</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -5169,10 +5179,10 @@
         <v>0</v>
       </c>
       <c r="L98" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N98" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -5180,25 +5190,25 @@
         <v>44613</v>
       </c>
       <c r="B99" s="1">
-        <v>44615</v>
+        <v>44619</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D99" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E99" t="s">
         <v>172</v>
       </c>
       <c r="F99" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H99">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -5210,10 +5220,10 @@
         <v>0</v>
       </c>
       <c r="L99" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N99" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -5221,28 +5231,28 @@
         <v>44613</v>
       </c>
       <c r="B100" s="1">
-        <v>44615</v>
+        <v>44621</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D100" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E100" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="F100" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H100">
-        <v>1.42</v>
+        <v>3.65</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100">
         <v>0</v>
@@ -5251,10 +5261,10 @@
         <v>0</v>
       </c>
       <c r="L100" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N100" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -5262,25 +5272,25 @@
         <v>44613</v>
       </c>
       <c r="B101" s="1">
-        <v>44594</v>
+        <v>44615</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D101" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E101" t="s">
         <v>174</v>
       </c>
       <c r="F101" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H101">
-        <v>5.7</v>
+        <v>3.65</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -5292,10 +5302,10 @@
         <v>0</v>
       </c>
       <c r="L101" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N101" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -5303,28 +5313,28 @@
         <v>44613</v>
       </c>
       <c r="B102" s="1">
-        <v>44594</v>
+        <v>44615</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D102" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E102" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="F102" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="H102">
-        <v>4.2</v>
+        <v>1.42</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102">
         <v>0</v>
@@ -5333,10 +5343,10 @@
         <v>0</v>
       </c>
       <c r="L102" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N102" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -5344,28 +5354,28 @@
         <v>44613</v>
       </c>
       <c r="B103" s="1">
-        <v>44618</v>
+        <v>44614</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D103" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E103" t="s">
+        <v>176</v>
+      </c>
+      <c r="F103" t="s">
+        <v>21</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F103" t="s">
-        <v>17</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="H103">
-        <v>2</v>
+        <v>5.7</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103">
         <v>0</v>
@@ -5374,10 +5384,10 @@
         <v>0</v>
       </c>
       <c r="L103" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N103" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -5385,25 +5395,25 @@
         <v>44613</v>
       </c>
       <c r="B104" s="1">
-        <v>44618</v>
+        <v>44614</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D104" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E104" t="s">
         <v>178</v>
       </c>
       <c r="F104" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="H104">
-        <v>1.92</v>
+        <v>4.2</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -5415,10 +5425,10 @@
         <v>0</v>
       </c>
       <c r="L104" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N104" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -5429,22 +5439,22 @@
         <v>44618</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D105" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E105" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F105" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="H105">
-        <v>3.55</v>
+        <v>2</v>
       </c>
       <c r="I105">
         <v>1</v>
@@ -5456,10 +5466,10 @@
         <v>0</v>
       </c>
       <c r="L105" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N105" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -5470,22 +5480,22 @@
         <v>44618</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D106" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E106" t="s">
+        <v>180</v>
+      </c>
+      <c r="F106" t="s">
+        <v>21</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F106" t="s">
-        <v>17</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="H106">
-        <v>3.25</v>
+        <v>1.92</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -5497,244 +5507,244 @@
         <v>0</v>
       </c>
       <c r="L106" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N106" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:14">
       <c r="A107" s="1">
-        <v>44611</v>
+        <v>44613</v>
       </c>
       <c r="B107" s="1">
-        <v>44611</v>
+        <v>44618</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D107" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E107" t="s">
         <v>182</v>
       </c>
       <c r="F107" t="s">
-        <v>17</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>90</v>
+        <v>21</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="H107">
-        <v>1.1299999999999999</v>
+        <v>3.55</v>
       </c>
       <c r="I107">
         <v>1</v>
       </c>
       <c r="J107">
-        <v>95.5</v>
+        <v>0</v>
       </c>
       <c r="K107">
-        <f>H107 * J107</f>
-        <v>107.91499999999999</v>
+        <v>0</v>
       </c>
       <c r="L107" t="s">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="N107" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="1">
-        <v>44608</v>
+        <v>44613</v>
       </c>
       <c r="B108" s="1">
-        <v>44608</v>
+        <v>44618</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D108" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="E108" t="s">
         <v>183</v>
       </c>
       <c r="F108" t="s">
-        <v>17</v>
-      </c>
-      <c r="G108" s="3" t="s">
-        <v>74</v>
+        <v>21</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="H108">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108">
-        <v>42.5</v>
+        <v>0</v>
       </c>
       <c r="K108">
-        <f>IF(I108 = 1, H108 * J108, 0)</f>
-        <v>95.625</v>
+        <v>0</v>
       </c>
       <c r="L108" t="s">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="N108" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" spans="1:14">
       <c r="A109" s="1">
-        <v>44584</v>
+        <v>44611</v>
       </c>
       <c r="B109" s="1">
-        <v>44584</v>
+        <v>44611</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D109" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E109" t="s">
         <v>184</v>
       </c>
       <c r="F109" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="H109">
-        <v>1.58</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="I109">
         <v>1</v>
       </c>
       <c r="J109">
-        <v>27.03</v>
+        <v>95.5</v>
       </c>
       <c r="K109">
-        <f>IF(I109 = 1, H109 * J109, 0)</f>
-        <v>42.707400000000007</v>
+        <f>H109 * J109</f>
+        <v>107.91499999999999</v>
       </c>
       <c r="L109" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N109" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" spans="1:14">
       <c r="A110" s="1">
-        <v>44558</v>
+        <v>44608</v>
       </c>
       <c r="B110" s="1">
-        <v>44558</v>
+        <v>44608</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D110" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E110" t="s">
         <v>185</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H110">
-        <v>1.34</v>
+        <v>2.25</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110">
-        <v>50</v>
+        <v>42.5</v>
       </c>
       <c r="K110">
-        <v>0</v>
+        <f>IF(I110 = 1, H110 * J110, 0)</f>
+        <v>95.625</v>
       </c>
       <c r="L110" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N110" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" spans="1:14">
       <c r="A111" s="1">
-        <v>44541</v>
+        <v>44584</v>
       </c>
       <c r="B111" s="1">
-        <v>44541</v>
+        <v>44584</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D111" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E111" t="s">
         <v>186</v>
       </c>
       <c r="F111" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="H111">
-        <v>1.7</v>
+        <v>1.58</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111">
-        <v>50</v>
+        <v>27.03</v>
       </c>
       <c r="K111">
-        <v>0</v>
+        <f>IF(I111 = 1, H111 * J111, 0)</f>
+        <v>42.707400000000007</v>
       </c>
       <c r="L111" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N111" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="1">
-        <v>44534</v>
+        <v>44558</v>
       </c>
       <c r="B112" s="1">
-        <v>44534</v>
+        <v>44558</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D112" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E112" t="s">
         <v>187</v>
       </c>
       <c r="F112" t="s">
-        <v>34</v>
-      </c>
-      <c r="G112" t="s">
-        <v>118</v>
+        <v>17</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="H112">
-        <v>3.2</v>
+        <v>1.34</v>
       </c>
       <c r="I112">
         <v>0</v>
@@ -5746,66 +5756,65 @@
         <v>0</v>
       </c>
       <c r="L112" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N112" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" spans="1:14">
       <c r="A113" s="1">
-        <v>44531</v>
+        <v>44541</v>
       </c>
       <c r="B113" s="1">
-        <v>44531</v>
+        <v>44541</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D113" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E113" t="s">
         <v>188</v>
       </c>
       <c r="F113" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="H113">
-        <v>1.37</v>
+        <v>1.7</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K113">
-        <f>H113 * J113</f>
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="L113" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N113" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="1">
-        <v>44493</v>
+        <v>44534</v>
       </c>
       <c r="B114" s="1">
-        <v>44493</v>
+        <v>44534</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D114" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E114" t="s">
         <v>189</v>
@@ -5813,106 +5822,110 @@
       <c r="F114" t="s">
         <v>17</v>
       </c>
-      <c r="G114" s="3" t="s">
-        <v>74</v>
+      <c r="G114" t="s">
+        <v>120</v>
       </c>
       <c r="H114">
-        <v>2.4500000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114">
         <v>50</v>
       </c>
       <c r="K114">
-        <f>H114 * J114</f>
-        <v>122.50000000000001</v>
+        <v>0</v>
       </c>
       <c r="L114" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N114" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" spans="1:14">
       <c r="A115" s="1">
-        <v>44471</v>
+        <v>44531</v>
       </c>
       <c r="B115" s="1">
-        <v>44471</v>
+        <v>44531</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="D115" t="s">
+        <v>41</v>
+      </c>
+      <c r="E115" t="s">
+        <v>190</v>
       </c>
       <c r="F115" t="s">
-        <v>34</v>
-      </c>
-      <c r="G115" t="s">
-        <v>190</v>
+        <v>17</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="H115">
-        <v>8.4700000000000006</v>
+        <v>1.37</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="K115">
-        <v>0</v>
+        <f>H115 * J115</f>
+        <v>137</v>
       </c>
       <c r="L115" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N115" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="1">
-        <v>44471</v>
+        <v>44493</v>
       </c>
       <c r="B116" s="1">
-        <v>44471</v>
+        <v>44493</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="D116" t="s">
+        <v>41</v>
       </c>
       <c r="E116" t="s">
         <v>191</v>
       </c>
       <c r="F116" t="s">
-        <v>34</v>
-      </c>
-      <c r="G116" t="s">
-        <v>192</v>
+        <v>21</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="H116">
         <v>2.4500000000000002</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K116">
-        <v>0</v>
+        <f>H116 * J116</f>
+        <v>122.50000000000001</v>
       </c>
       <c r="L116" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N116" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -5923,37 +5936,34 @@
         <v>44471</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E117" t="s">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="F117" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G117" t="s">
         <v>192</v>
       </c>
       <c r="H117">
-        <v>2.5499999999999998</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K117">
         <v>0</v>
       </c>
       <c r="L117" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N117" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -5964,25 +5974,25 @@
         <v>44471</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E118" t="s">
+        <v>193</v>
+      </c>
+      <c r="F118" t="s">
+        <v>17</v>
+      </c>
+      <c r="G118" t="s">
         <v>194</v>
       </c>
-      <c r="F118" t="s">
-        <v>34</v>
-      </c>
-      <c r="G118" s="3" t="s">
-        <v>195</v>
-      </c>
       <c r="H118">
-        <v>1.1499999999999999</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118">
         <v>0</v>
@@ -5991,10 +6001,10 @@
         <v>0</v>
       </c>
       <c r="L118" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N118" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -6005,22 +6015,22 @@
         <v>44471</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E119" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F119" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G119" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H119">
-        <v>1.18</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="I119">
         <v>1</v>
@@ -6032,10 +6042,10 @@
         <v>0</v>
       </c>
       <c r="L119" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N119" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -6046,117 +6056,120 @@
         <v>44471</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E120" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F120" t="s">
         <v>17</v>
       </c>
-      <c r="G120" t="s">
-        <v>198</v>
+      <c r="G120" s="3" t="s">
+        <v>197</v>
       </c>
       <c r="H120">
-        <v>1.3</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I120">
         <v>1</v>
       </c>
       <c r="J120">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="K120">
-        <f>H120 * J120</f>
-        <v>37.700000000000003</v>
+        <v>0</v>
       </c>
       <c r="L120" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N120" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121" spans="1:14">
       <c r="A121" s="1">
-        <v>44464</v>
+        <v>44471</v>
       </c>
       <c r="B121" s="1">
-        <v>44464</v>
+        <v>44471</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E121" t="s">
-        <v>199</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G121" s="3" t="s">
-        <v>74</v>
+        <v>198</v>
+      </c>
+      <c r="F121" t="s">
+        <v>17</v>
+      </c>
+      <c r="G121" t="s">
+        <v>197</v>
       </c>
       <c r="H121">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K121">
         <v>0</v>
       </c>
       <c r="L121" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N121" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122" spans="1:14">
       <c r="A122" s="1">
-        <v>44464</v>
+        <v>44471</v>
       </c>
       <c r="B122" s="1">
-        <v>44464</v>
+        <v>44471</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E122" t="s">
+        <v>199</v>
+      </c>
+      <c r="F122" t="s">
+        <v>21</v>
+      </c>
+      <c r="G122" t="s">
         <v>200</v>
       </c>
-      <c r="F122" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G122" t="s">
-        <v>127</v>
-      </c>
       <c r="H122">
-        <v>1.62</v>
+        <v>1.3</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122">
-        <v>10</v>
+        <v>29</v>
+      </c>
+      <c r="K122">
+        <f>H122 * J122</f>
+        <v>37.700000000000003</v>
       </c>
       <c r="L122" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="N122" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -6167,146 +6180,142 @@
         <v>44464</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E123" t="s">
         <v>201</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G123" t="s">
-        <v>202</v>
+        <v>17</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="H123">
-        <v>8.5</v>
+        <v>1.4</v>
       </c>
       <c r="I123">
         <v>0</v>
       </c>
       <c r="J123">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="K123">
         <v>0</v>
       </c>
       <c r="L123" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="N123" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="1">
-        <v>44454</v>
+        <v>44464</v>
       </c>
       <c r="B124" s="1">
-        <v>44454</v>
+        <v>44464</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="E124" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G124" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="H124">
-        <v>1.45</v>
+        <v>1.62</v>
       </c>
       <c r="I124">
         <v>0</v>
       </c>
       <c r="J124">
-        <v>50</v>
-      </c>
-      <c r="K124">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L124" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N124" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125" spans="1:14">
       <c r="A125" s="1">
-        <v>44454</v>
+        <v>44464</v>
       </c>
       <c r="B125" s="1">
-        <v>44454</v>
+        <v>44464</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="E125" t="s">
         <v>203</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G125" s="3" t="s">
-        <v>90</v>
+        <v>17</v>
+      </c>
+      <c r="G125" t="s">
+        <v>204</v>
       </c>
       <c r="H125">
-        <v>1.43</v>
+        <v>8.5</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="K125">
-        <f>H125 * J125</f>
-        <v>48.62</v>
+        <v>0</v>
       </c>
       <c r="L125" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="N125" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126" spans="1:14">
       <c r="A126" s="1">
-        <v>44453</v>
+        <v>44454</v>
       </c>
       <c r="B126" s="1">
-        <v>44453</v>
+        <v>44454</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="E126" t="s">
-        <v>204</v>
-      </c>
-      <c r="F126" t="s">
+        <v>205</v>
+      </c>
+      <c r="F126" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G126" s="3" t="s">
-        <v>74</v>
+      <c r="G126" t="s">
+        <v>154</v>
       </c>
       <c r="H126">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -6318,75 +6327,75 @@
         <v>0</v>
       </c>
       <c r="L126" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="N126" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="127" spans="1:14">
       <c r="A127" s="1">
-        <v>44451</v>
+        <v>44454</v>
       </c>
       <c r="B127" s="1">
-        <v>44451</v>
+        <v>44454</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E127" t="s">
         <v>205</v>
       </c>
       <c r="F127" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H127">
+        <v>1.43</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127">
         <v>34</v>
-      </c>
-      <c r="G127" t="s">
-        <v>206</v>
-      </c>
-      <c r="H127">
-        <v>1.35</v>
-      </c>
-      <c r="I127">
-        <v>1</v>
-      </c>
-      <c r="J127">
-        <v>50</v>
       </c>
       <c r="K127">
         <f>H127 * J127</f>
-        <v>67.5</v>
+        <v>48.62</v>
       </c>
       <c r="L127" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N127" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128" spans="1:14">
       <c r="A128" s="1">
-        <v>44450</v>
+        <v>44453</v>
       </c>
       <c r="B128" s="1">
-        <v>44450</v>
+        <v>44453</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E128" t="s">
-        <v>207</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G128" t="s">
-        <v>208</v>
+        <v>206</v>
+      </c>
+      <c r="F128" t="s">
+        <v>21</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="H128">
         <v>1.42</v>
@@ -6395,57 +6404,58 @@
         <v>0</v>
       </c>
       <c r="J128">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K128">
         <v>0</v>
       </c>
       <c r="L128" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N128" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="129" spans="1:14">
       <c r="A129" s="1">
-        <v>44450</v>
+        <v>44451</v>
       </c>
       <c r="B129" s="1">
-        <v>44450</v>
+        <v>44451</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E129" t="s">
         <v>207</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G129" t="s">
-        <v>108</v>
+        <v>208</v>
       </c>
       <c r="H129">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129">
         <v>50</v>
       </c>
       <c r="K129">
-        <v>0</v>
+        <f>H129 * J129</f>
+        <v>67.5</v>
       </c>
       <c r="L129" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="N129" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -6456,22 +6466,22 @@
         <v>44450</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E130" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G130" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H130">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -6483,258 +6493,258 @@
         <v>0</v>
       </c>
       <c r="L130" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="N130" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="131" spans="1:14">
       <c r="A131" s="1">
-        <v>44437</v>
+        <v>44450</v>
       </c>
       <c r="B131" s="1">
-        <v>44437</v>
+        <v>44450</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E131" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G131" t="s">
-        <v>211</v>
+        <v>110</v>
       </c>
       <c r="H131">
-        <v>9.5</v>
+        <v>1.28</v>
       </c>
       <c r="I131">
         <v>0</v>
       </c>
       <c r="J131">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="K131">
         <v>0</v>
       </c>
       <c r="L131" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="N131" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="132" spans="1:14">
       <c r="A132" s="1">
-        <v>44436</v>
+        <v>44450</v>
       </c>
       <c r="B132" s="1">
-        <v>44436</v>
+        <v>44450</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E132" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G132" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H132">
-        <v>1.1200000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132">
         <v>100</v>
       </c>
       <c r="K132">
-        <f>H132 * J132</f>
-        <v>112.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="L132" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="N132" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="133" spans="1:14">
       <c r="A133" s="1">
-        <v>44436</v>
+        <v>44437</v>
       </c>
       <c r="B133" s="1">
-        <v>44436</v>
+        <v>44437</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E133" t="s">
         <v>212</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G133" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H133">
-        <v>1.42</v>
+        <v>9.5</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="K133">
-        <f>H133 * J133</f>
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="L133" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="N133" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="134" spans="1:14">
       <c r="A134" s="1">
-        <v>44375</v>
+        <v>44436</v>
       </c>
       <c r="B134" s="1">
-        <v>44375</v>
+        <v>44436</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D134" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E134" t="s">
+        <v>214</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G134" t="s">
         <v>215</v>
       </c>
-      <c r="E134" t="s">
-        <v>216</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G134" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="H134">
-        <v>1.58</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134">
         <v>100</v>
       </c>
       <c r="K134">
-        <v>0</v>
+        <f>H134 * J134</f>
+        <v>112.00000000000001</v>
       </c>
       <c r="L134" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="N134" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="135" spans="1:14">
       <c r="A135" s="1">
-        <v>44374</v>
+        <v>44436</v>
       </c>
       <c r="B135" s="1">
-        <v>44374</v>
+        <v>44436</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>215</v>
+        <v>41</v>
       </c>
       <c r="E135" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G135" t="s">
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="H135">
-        <v>1.82</v>
+        <v>1.42</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135">
         <v>50</v>
       </c>
       <c r="K135">
-        <v>0</v>
+        <f>H135 * J135</f>
+        <v>71</v>
       </c>
       <c r="L135" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="N135" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="1">
-        <v>44374</v>
+        <v>44375</v>
       </c>
       <c r="B136" s="1">
-        <v>44374</v>
+        <v>44375</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E136" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G136" t="s">
-        <v>127</v>
+        <v>17</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="H136">
-        <v>3.05</v>
+        <v>1.58</v>
       </c>
       <c r="I136">
         <v>0</v>
       </c>
       <c r="J136">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K136">
         <v>0</v>
       </c>
       <c r="L136" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N136" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="137" spans="1:14">
@@ -6745,163 +6755,162 @@
         <v>44374</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E137" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G137" t="s">
-        <v>198</v>
+        <v>110</v>
       </c>
       <c r="H137">
-        <v>1.24</v>
+        <v>1.82</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137">
         <v>50</v>
       </c>
       <c r="K137">
-        <f t="shared" ref="K137:K139" si="0">H137 * J137</f>
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="L137" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N137" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="138" spans="1:14">
       <c r="A138" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B138" s="1">
+        <v>44374</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E138" t="s">
+        <v>219</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G138" t="s">
+        <v>129</v>
+      </c>
+      <c r="H138">
+        <v>3.05</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138" t="s">
+        <v>45</v>
+      </c>
+      <c r="N138" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14">
+      <c r="A139" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B139" s="1">
+        <v>44374</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E139" t="s">
+        <v>219</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G139" t="s">
+        <v>200</v>
+      </c>
+      <c r="H139">
+        <v>1.24</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>50</v>
+      </c>
+      <c r="K139">
+        <f t="shared" ref="K139:K141" si="0">H139 * J139</f>
+        <v>62</v>
+      </c>
+      <c r="L139" t="s">
+        <v>23</v>
+      </c>
+      <c r="N139" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14">
+      <c r="A140" s="1">
         <v>44373</v>
       </c>
-      <c r="B138" s="1">
+      <c r="B140" s="1">
         <v>44373</v>
       </c>
-      <c r="C138" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E138" t="s">
-        <v>218</v>
-      </c>
-      <c r="F138" t="s">
-        <v>17</v>
-      </c>
-      <c r="G138" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H138">
+      <c r="C140" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E140" t="s">
+        <v>220</v>
+      </c>
+      <c r="F140" t="s">
+        <v>21</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H140">
         <v>1.92</v>
       </c>
-      <c r="I138">
-        <v>1</v>
-      </c>
-      <c r="J138">
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140">
         <v>100</v>
       </c>
-      <c r="K138">
+      <c r="K140">
         <f t="shared" si="0"/>
         <v>192</v>
       </c>
-      <c r="L138" t="s">
-        <v>41</v>
-      </c>
-      <c r="N138" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14">
-      <c r="A139" s="1">
-        <v>44368</v>
-      </c>
-      <c r="B139" s="1">
-        <v>44368</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E139" t="s">
-        <v>219</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G139" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H139">
-        <v>1.2</v>
-      </c>
-      <c r="I139">
-        <v>1</v>
-      </c>
-      <c r="J139">
-        <v>200</v>
-      </c>
-      <c r="K139">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="L139" t="s">
-        <v>41</v>
-      </c>
-      <c r="N139" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14">
-      <c r="A140" s="1">
-        <v>44368</v>
-      </c>
-      <c r="B140" s="1">
-        <v>44368</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E140" t="s">
-        <v>219</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G140" t="s">
-        <v>220</v>
-      </c>
-      <c r="H140">
-        <v>1.42</v>
-      </c>
-      <c r="I140">
-        <v>0</v>
-      </c>
-      <c r="J140">
-        <v>100</v>
-      </c>
-      <c r="K140">
-        <v>0</v>
-      </c>
       <c r="L140" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N140" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="141" spans="1:14">
@@ -6912,38 +6921,38 @@
         <v>44368</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E141" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G141" t="s">
-        <v>221</v>
+        <v>17</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="H141">
-        <v>1.1299999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="I141">
         <v>1</v>
       </c>
       <c r="J141">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K141">
-        <f t="shared" ref="K141:K142" si="1">H141 * J141</f>
-        <v>112.99999999999999</v>
+        <f t="shared" si="0"/>
+        <v>240</v>
       </c>
       <c r="L141" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N141" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="142" spans="1:14">
@@ -6954,565 +6963,564 @@
         <v>44368</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E142" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G142" t="s">
         <v>222</v>
       </c>
       <c r="H142">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142">
         <v>100</v>
       </c>
       <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142" t="s">
+        <v>23</v>
+      </c>
+      <c r="N142" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14">
+      <c r="A143" s="1">
+        <v>44368</v>
+      </c>
+      <c r="B143" s="1">
+        <v>44368</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E143" t="s">
+        <v>221</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G143" t="s">
+        <v>223</v>
+      </c>
+      <c r="H143">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143">
+        <v>100</v>
+      </c>
+      <c r="K143">
+        <f t="shared" ref="K143:K144" si="1">H143 * J143</f>
+        <v>112.99999999999999</v>
+      </c>
+      <c r="L143" t="s">
+        <v>23</v>
+      </c>
+      <c r="N143" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14">
+      <c r="A144" s="1">
+        <v>44368</v>
+      </c>
+      <c r="B144" s="1">
+        <v>44368</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E144" t="s">
+        <v>221</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G144" t="s">
+        <v>224</v>
+      </c>
+      <c r="H144">
+        <v>1.25</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <v>100</v>
+      </c>
+      <c r="K144">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="L142" t="s">
-        <v>30</v>
-      </c>
-      <c r="N142" t="s">
+      <c r="L144" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="143" spans="1:14">
-      <c r="A143" s="1">
-        <v>44365</v>
-      </c>
-      <c r="B143" s="1">
-        <v>44365</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E143" t="s">
-        <v>223</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G143" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="H143">
-        <v>1.65</v>
-      </c>
-      <c r="I143">
-        <v>0</v>
-      </c>
-      <c r="J143">
-        <v>50</v>
-      </c>
-      <c r="K143">
-        <v>0</v>
-      </c>
-      <c r="L143" t="s">
-        <v>41</v>
-      </c>
-      <c r="N143" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14">
-      <c r="A144" s="1">
-        <v>44365</v>
-      </c>
-      <c r="B144" s="1">
-        <v>44365</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E144" t="s">
-        <v>223</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G144" t="s">
-        <v>108</v>
-      </c>
-      <c r="H144">
-        <v>1.42</v>
-      </c>
-      <c r="I144">
-        <v>1</v>
-      </c>
-      <c r="J144">
-        <v>50</v>
-      </c>
-      <c r="K144">
-        <f t="shared" ref="K144:K146" si="2">H144 * J144</f>
-        <v>71</v>
-      </c>
-      <c r="L144" t="s">
-        <v>41</v>
-      </c>
       <c r="N144" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="145" spans="1:14">
       <c r="A145" s="1">
+        <v>44365</v>
+      </c>
+      <c r="B145" s="1">
+        <v>44365</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E145" t="s">
+        <v>225</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H145">
+        <v>1.65</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>50</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145" t="s">
+        <v>45</v>
+      </c>
+      <c r="N145" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14">
+      <c r="A146" s="1">
+        <v>44365</v>
+      </c>
+      <c r="B146" s="1">
+        <v>44365</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E146" t="s">
+        <v>225</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G146" t="s">
+        <v>110</v>
+      </c>
+      <c r="H146">
+        <v>1.42</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>50</v>
+      </c>
+      <c r="K146">
+        <f t="shared" ref="K146:K148" si="2">H146 * J146</f>
+        <v>71</v>
+      </c>
+      <c r="L146" t="s">
+        <v>45</v>
+      </c>
+      <c r="N146" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14">
+      <c r="A147" s="1">
         <v>44364</v>
       </c>
-      <c r="B145" s="1">
+      <c r="B147" s="1">
         <v>44364</v>
       </c>
-      <c r="C145" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E145" t="s">
-        <v>224</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G145" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="H145">
+      <c r="C147" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E147" t="s">
+        <v>226</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H147">
         <v>1.1599999999999999</v>
       </c>
-      <c r="I145">
-        <v>1</v>
-      </c>
-      <c r="J145">
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147">
         <v>100</v>
       </c>
-      <c r="K145">
+      <c r="K147">
         <f t="shared" si="2"/>
         <v>115.99999999999999</v>
       </c>
-      <c r="L145" t="s">
-        <v>41</v>
-      </c>
-      <c r="N145" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14">
-      <c r="A146" s="1">
+      <c r="L147" t="s">
+        <v>45</v>
+      </c>
+      <c r="N147" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14">
+      <c r="A148" s="1">
         <v>44364</v>
       </c>
-      <c r="B146" s="1">
+      <c r="B148" s="1">
         <v>44364</v>
       </c>
-      <c r="C146" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E146" t="s">
-        <v>225</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G146" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H146">
+      <c r="C148" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E148" t="s">
+        <v>227</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H148">
         <v>1.18</v>
       </c>
-      <c r="I146">
-        <v>1</v>
-      </c>
-      <c r="J146">
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148">
         <v>100</v>
       </c>
-      <c r="K146">
+      <c r="K148">
         <f t="shared" si="2"/>
         <v>118</v>
       </c>
-      <c r="L146" t="s">
-        <v>41</v>
-      </c>
-      <c r="N146" t="s">
+      <c r="L148" t="s">
+        <v>45</v>
+      </c>
+      <c r="N148" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14">
+      <c r="A149" s="1">
+        <v>44363</v>
+      </c>
+      <c r="B149" s="1">
+        <v>44363</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E149" t="s">
+        <v>228</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G149" t="s">
+        <v>211</v>
+      </c>
+      <c r="H149">
+        <v>1.4</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <v>100</v>
+      </c>
+      <c r="K149">
+        <f t="shared" ref="K149:K150" si="3">H149 * J149</f>
+        <v>140</v>
+      </c>
+      <c r="L149" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="147" spans="1:14">
-      <c r="A147" s="1">
+      <c r="N149" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14">
+      <c r="A150" s="1">
         <v>44363</v>
       </c>
-      <c r="B147" s="1">
+      <c r="B150" s="1">
         <v>44363</v>
       </c>
-      <c r="C147" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E147" t="s">
-        <v>226</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G147" t="s">
-        <v>209</v>
-      </c>
-      <c r="H147">
-        <v>1.4</v>
-      </c>
-      <c r="I147">
-        <v>1</v>
-      </c>
-      <c r="J147">
+      <c r="C150" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E150" t="s">
+        <v>228</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H150">
+        <v>1.22</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150">
         <v>100</v>
       </c>
-      <c r="K147">
-        <f t="shared" ref="K147:K148" si="3">H147 * J147</f>
-        <v>140</v>
-      </c>
-      <c r="L147" t="s">
-        <v>30</v>
-      </c>
-      <c r="N147" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14">
-      <c r="A148" s="1">
-        <v>44363</v>
-      </c>
-      <c r="B148" s="1">
-        <v>44363</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E148" t="s">
-        <v>226</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G148" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="H148">
-        <v>1.22</v>
-      </c>
-      <c r="I148">
-        <v>1</v>
-      </c>
-      <c r="J148">
-        <v>100</v>
-      </c>
-      <c r="K148">
+      <c r="K150">
         <f t="shared" si="3"/>
         <v>122</v>
       </c>
-      <c r="L148" t="s">
-        <v>41</v>
-      </c>
-      <c r="N148" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14">
-      <c r="A149" s="1">
-        <v>44362</v>
-      </c>
-      <c r="B149" s="1">
-        <v>44362</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E149" t="s">
-        <v>227</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G149" t="s">
-        <v>108</v>
-      </c>
-      <c r="H149">
-        <v>1.77</v>
-      </c>
-      <c r="I149">
-        <v>0</v>
-      </c>
-      <c r="J149">
-        <v>100</v>
-      </c>
-      <c r="K149">
-        <v>0</v>
-      </c>
-      <c r="L149" t="s">
-        <v>41</v>
-      </c>
-      <c r="N149" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14">
-      <c r="A150" s="1">
-        <v>44361</v>
-      </c>
-      <c r="B150" s="1">
-        <v>44361</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E150" t="s">
-        <v>228</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G150" t="s">
-        <v>229</v>
-      </c>
-      <c r="H150">
-        <v>1.27</v>
-      </c>
-      <c r="I150">
-        <v>0</v>
-      </c>
-      <c r="J150">
-        <v>100</v>
-      </c>
-      <c r="K150">
-        <v>0</v>
-      </c>
       <c r="L150" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="N150" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="151" spans="1:14">
       <c r="A151" s="1">
-        <v>44359</v>
+        <v>44362</v>
       </c>
       <c r="B151" s="1">
-        <v>44359</v>
+        <v>44362</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E151" t="s">
-        <v>230</v>
-      </c>
-      <c r="F151" t="s">
+        <v>229</v>
+      </c>
+      <c r="F151" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G151" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="H151">
-        <v>3.9</v>
+        <v>1.77</v>
       </c>
       <c r="I151">
         <v>0</v>
       </c>
       <c r="J151">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K151">
-        <f t="shared" ref="K150:K152" si="4">H151 * J151</f>
         <v>0</v>
       </c>
       <c r="L151" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N151" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="152" spans="1:14">
       <c r="A152" s="1">
+        <v>44361</v>
+      </c>
+      <c r="B152" s="1">
+        <v>44361</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E152" t="s">
+        <v>230</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G152" t="s">
+        <v>231</v>
+      </c>
+      <c r="H152">
+        <v>1.27</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>100</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152" t="s">
+        <v>80</v>
+      </c>
+      <c r="N152" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14">
+      <c r="A153" s="1">
+        <v>44359</v>
+      </c>
+      <c r="B153" s="1">
+        <v>44359</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E153" t="s">
+        <v>232</v>
+      </c>
+      <c r="F153" t="s">
+        <v>21</v>
+      </c>
+      <c r="G153" t="s">
+        <v>129</v>
+      </c>
+      <c r="H153">
+        <v>3.9</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <f t="shared" ref="K152:K154" si="4">H153 * J153</f>
+        <v>0</v>
+      </c>
+      <c r="L153" t="s">
+        <v>45</v>
+      </c>
+      <c r="N153" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14">
+      <c r="A154" s="1">
         <v>44358</v>
       </c>
-      <c r="B152" s="1">
+      <c r="B154" s="1">
         <v>44358</v>
       </c>
-      <c r="C152" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E152" t="s">
-        <v>231</v>
-      </c>
-      <c r="F152" t="s">
-        <v>34</v>
-      </c>
-      <c r="G152" t="s">
-        <v>232</v>
-      </c>
-      <c r="H152">
+      <c r="C154" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E154" t="s">
+        <v>233</v>
+      </c>
+      <c r="F154" t="s">
+        <v>17</v>
+      </c>
+      <c r="G154" t="s">
+        <v>234</v>
+      </c>
+      <c r="H154">
         <v>1.17</v>
       </c>
-      <c r="I152">
-        <v>1</v>
-      </c>
-      <c r="J152">
+      <c r="I154">
+        <v>1</v>
+      </c>
+      <c r="J154">
         <v>50</v>
       </c>
-      <c r="K152">
+      <c r="K154">
         <f t="shared" si="4"/>
         <v>58.5</v>
       </c>
-      <c r="L152" t="s">
-        <v>30</v>
-      </c>
-      <c r="N152" t="s">
+      <c r="L154" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="153" spans="1:14">
-      <c r="A153" s="1">
-        <v>44358</v>
-      </c>
-      <c r="B153" s="1">
-        <v>44358</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E153" t="s">
-        <v>231</v>
-      </c>
-      <c r="F153" t="s">
-        <v>34</v>
-      </c>
-      <c r="G153" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H153">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="I153">
-        <v>1</v>
-      </c>
-      <c r="J153">
-        <v>100</v>
-      </c>
-      <c r="K153">
-        <f>H153 * J153</f>
-        <v>109.00000000000001</v>
-      </c>
-      <c r="L153" t="s">
-        <v>41</v>
-      </c>
-      <c r="N153" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14">
-      <c r="A154" s="1">
-        <v>44339</v>
-      </c>
-      <c r="B154" s="1">
-        <v>44339</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E154" t="s">
-        <v>233</v>
-      </c>
-      <c r="F154" t="s">
-        <v>34</v>
-      </c>
-      <c r="G154" t="s">
-        <v>234</v>
-      </c>
-      <c r="H154">
-        <v>1.18</v>
-      </c>
-      <c r="I154">
-        <v>1</v>
-      </c>
-      <c r="J154">
-        <v>50</v>
-      </c>
-      <c r="K154">
-        <f>H154 * J154</f>
-        <v>59</v>
-      </c>
-      <c r="L154" t="s">
-        <v>76</v>
-      </c>
       <c r="N154" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="155" spans="1:14">
       <c r="A155" s="1">
-        <v>44339</v>
+        <v>44358</v>
       </c>
       <c r="B155" s="1">
-        <v>44339</v>
+        <v>44358</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>37</v>
+        <v>217</v>
       </c>
       <c r="E155" t="s">
         <v>233</v>
       </c>
       <c r="F155" t="s">
-        <v>34</v>
-      </c>
-      <c r="G155" t="s">
-        <v>117</v>
+        <v>17</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="H155">
-        <v>1.1499999999999999</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="I155">
         <v>1</v>
@@ -7522,304 +7530,306 @@
       </c>
       <c r="K155">
         <f>H155 * J155</f>
-        <v>114.99999999999999</v>
+        <v>109.00000000000001</v>
       </c>
       <c r="L155" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N155" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="156" spans="1:14">
       <c r="A156" s="1">
-        <v>44335</v>
+        <v>44339</v>
       </c>
       <c r="B156" s="1">
-        <v>44335</v>
+        <v>44339</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E156" t="s">
         <v>235</v>
       </c>
       <c r="F156" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G156" t="s">
-        <v>118</v>
+        <v>236</v>
       </c>
       <c r="H156">
-        <v>2.2000000000000002</v>
+        <v>1.18</v>
       </c>
       <c r="I156">
         <v>1</v>
       </c>
       <c r="J156">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K156">
         <f>H156 * J156</f>
-        <v>55.000000000000007</v>
+        <v>59</v>
       </c>
       <c r="L156" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="N156" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="157" spans="1:14">
       <c r="A157" s="1">
-        <v>44332</v>
+        <v>44339</v>
       </c>
       <c r="B157" s="1">
-        <v>44332</v>
+        <v>44339</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E157" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F157" t="s">
-        <v>34</v>
-      </c>
-      <c r="G157" s="3" t="s">
-        <v>74</v>
+        <v>17</v>
+      </c>
+      <c r="G157" t="s">
+        <v>119</v>
       </c>
       <c r="H157">
-        <v>1.27</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I157">
         <v>1</v>
       </c>
       <c r="J157">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="K157">
         <f>H157 * J157</f>
-        <v>31.75</v>
+        <v>114.99999999999999</v>
       </c>
       <c r="L157" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="N157" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="158" spans="1:14">
       <c r="A158" s="1">
-        <v>44329</v>
+        <v>44335</v>
       </c>
       <c r="B158" s="1">
-        <v>44329</v>
+        <v>44335</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E158" t="s">
-        <v>189</v>
+        <v>237</v>
       </c>
       <c r="F158" t="s">
         <v>17</v>
       </c>
       <c r="G158" t="s">
-        <v>237</v>
+        <v>120</v>
       </c>
       <c r="H158">
-        <v>1.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I158">
         <v>1</v>
       </c>
       <c r="J158">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K158">
         <f>H158 * J158</f>
-        <v>16</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="L158" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N158" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="159" spans="1:14">
       <c r="A159" s="1">
-        <v>44329</v>
+        <v>44332</v>
       </c>
       <c r="B159" s="1">
-        <v>44329</v>
+        <v>44332</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E159" t="s">
-        <v>189</v>
+        <v>238</v>
       </c>
       <c r="F159" t="s">
         <v>17</v>
       </c>
-      <c r="G159" t="s">
-        <v>127</v>
+      <c r="G159" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="H159">
-        <v>3.65</v>
+        <v>1.27</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K159">
-        <v>0</v>
+        <f>H159 * J159</f>
+        <v>31.75</v>
       </c>
       <c r="L159" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N159" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="160" spans="1:14">
       <c r="A160" s="1">
-        <v>44305</v>
+        <v>44329</v>
       </c>
       <c r="B160" s="1">
-        <v>44305</v>
+        <v>44329</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E160" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="F160" t="s">
-        <v>34</v>
-      </c>
-      <c r="G160" s="3" t="s">
-        <v>74</v>
+        <v>21</v>
+      </c>
+      <c r="G160" t="s">
+        <v>239</v>
       </c>
       <c r="H160">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="I160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="K160">
         <f>H160 * J160</f>
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="L160" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="N160" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="161" spans="1:14">
       <c r="A161" s="1">
-        <v>44292</v>
+        <v>44329</v>
       </c>
       <c r="B161" s="1">
-        <v>44292</v>
+        <v>44329</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="E161" t="s">
-        <v>238</v>
+        <v>191</v>
       </c>
       <c r="F161" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G161" t="s">
-        <v>239</v>
+        <v>129</v>
       </c>
       <c r="H161">
-        <v>1.1000000000000001</v>
+        <v>3.65</v>
       </c>
       <c r="I161">
         <v>0</v>
       </c>
       <c r="J161">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="K161">
         <v>0</v>
       </c>
       <c r="L161" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N161" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="162" spans="1:14">
       <c r="A162" s="1">
-        <v>44292</v>
+        <v>44305</v>
       </c>
       <c r="B162" s="1">
-        <v>44292</v>
+        <v>44305</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="E162" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="F162" t="s">
         <v>17</v>
       </c>
-      <c r="G162" t="s">
-        <v>108</v>
+      <c r="G162" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="H162">
-        <v>2.15</v>
+        <v>1.52</v>
       </c>
       <c r="I162">
         <v>0</v>
       </c>
       <c r="J162">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K162">
-        <v>0</v>
+        <f>H162 * J162</f>
+        <v>152</v>
       </c>
       <c r="L162" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N162" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="163" spans="1:14">
@@ -7830,121 +7840,120 @@
         <v>44292</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="E163" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F163" t="s">
         <v>17</v>
       </c>
       <c r="G163" t="s">
-        <v>198</v>
+        <v>241</v>
       </c>
       <c r="H163">
-        <v>1.33</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="K163">
-        <f>H163 * J163</f>
-        <v>59.85</v>
+        <v>0</v>
       </c>
       <c r="L163" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="N163" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="164" spans="1:14">
       <c r="A164" s="1">
-        <v>44290</v>
+        <v>44292</v>
       </c>
       <c r="B164" s="1">
-        <v>44290</v>
+        <v>44292</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E164" t="s">
         <v>240</v>
       </c>
       <c r="F164" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G164" t="s">
-        <v>241</v>
+        <v>110</v>
       </c>
       <c r="H164">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="I164">
         <v>0</v>
       </c>
       <c r="J164">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K164">
         <v>0</v>
       </c>
       <c r="L164" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N164" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="165" spans="1:14">
       <c r="A165" s="1">
-        <v>44290</v>
+        <v>44292</v>
       </c>
       <c r="B165" s="1">
-        <v>44290</v>
+        <v>44292</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E165" t="s">
         <v>240</v>
       </c>
       <c r="F165" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G165" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
       <c r="H165">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="I165">
         <v>1</v>
       </c>
       <c r="J165">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="K165">
         <f>H165 * J165</f>
-        <v>128</v>
+        <v>59.85</v>
       </c>
       <c r="L165" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="N165" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="166" spans="1:14">
@@ -7955,125 +7964,208 @@
         <v>44290</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E166" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F166" t="s">
-        <v>34</v>
-      </c>
-      <c r="G166" s="3" t="s">
-        <v>74</v>
+        <v>17</v>
+      </c>
+      <c r="G166" t="s">
+        <v>243</v>
       </c>
       <c r="H166">
-        <v>1.97</v>
+        <v>1.6</v>
       </c>
       <c r="I166">
         <v>0</v>
       </c>
       <c r="J166">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K166">
-        <v>14.62</v>
+        <v>0</v>
       </c>
       <c r="L166" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="N166" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="167" spans="1:14">
       <c r="A167" s="1">
-        <v>44289</v>
+        <v>44290</v>
       </c>
       <c r="B167" s="1">
-        <v>44289</v>
+        <v>44290</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E167" t="s">
-        <v>149</v>
+        <v>242</v>
       </c>
       <c r="F167" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G167" t="s">
-        <v>104</v>
+        <v>244</v>
       </c>
       <c r="H167">
-        <v>4.8</v>
+        <v>1.28</v>
       </c>
       <c r="I167">
         <v>1</v>
       </c>
       <c r="J167">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K167">
         <f>H167 * J167</f>
-        <v>240</v>
+        <v>128</v>
       </c>
       <c r="L167" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="N167" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="168" spans="1:14">
       <c r="A168" s="1">
-        <v>44289</v>
+        <v>44290</v>
       </c>
       <c r="B168" s="1">
-        <v>44289</v>
+        <v>44290</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E168" t="s">
-        <v>149</v>
+        <v>242</v>
       </c>
       <c r="F168" t="s">
-        <v>34</v>
-      </c>
-      <c r="G168" t="s">
-        <v>108</v>
+        <v>17</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="H168">
-        <v>2.2000000000000002</v>
+        <v>1.97</v>
       </c>
       <c r="I168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168">
         <v>50</v>
       </c>
       <c r="K168">
-        <f>H168 * J168</f>
+        <v>14.62</v>
+      </c>
+      <c r="L168" t="s">
+        <v>45</v>
+      </c>
+      <c r="N168" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14">
+      <c r="A169" s="1">
+        <v>44289</v>
+      </c>
+      <c r="B169" s="1">
+        <v>44289</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E169" t="s">
+        <v>151</v>
+      </c>
+      <c r="F169" t="s">
+        <v>17</v>
+      </c>
+      <c r="G169" t="s">
+        <v>106</v>
+      </c>
+      <c r="H169">
+        <v>4.8</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+      <c r="J169">
+        <v>50</v>
+      </c>
+      <c r="K169">
+        <f>H169 * J169</f>
+        <v>240</v>
+      </c>
+      <c r="L169" t="s">
+        <v>107</v>
+      </c>
+      <c r="N169" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14">
+      <c r="A170" s="1">
+        <v>44289</v>
+      </c>
+      <c r="B170" s="1">
+        <v>44289</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E170" t="s">
+        <v>151</v>
+      </c>
+      <c r="F170" t="s">
+        <v>17</v>
+      </c>
+      <c r="G170" t="s">
+        <v>110</v>
+      </c>
+      <c r="H170">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+      <c r="J170">
+        <v>50</v>
+      </c>
+      <c r="K170">
+        <f>H170 * J170</f>
         <v>110.00000000000001</v>
       </c>
-      <c r="L168" t="s">
-        <v>41</v>
-      </c>
-      <c r="N168" t="s">
-        <v>23</v>
+      <c r="L170" t="s">
+        <v>45</v>
+      </c>
+      <c r="N170" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N168" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:N170" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8095,27 +8187,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
